--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F3C5C0-E4A4-464D-BACA-CD2FF8FD667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3603DC92-DC38-4FC0-8B9F-45FBCAFEA3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -1833,13 +1833,13 @@
     <t>Categoria</t>
   </si>
   <si>
-    <t>Pr.Venda</t>
-  </si>
-  <si>
-    <t>Descrição do Item</t>
-  </si>
-  <si>
     <t>TOMATE PEQUENO</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Preco</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1912,11 +1912,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1924,9 +1920,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1946,6 +1939,9 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1978,8 +1974,8 @@
   <autoFilter ref="A1:D1048576" xr:uid="{9312D5D3-2DEE-492A-83F2-7EB5E9998E53}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C73F26A4-B6BA-4D90-9754-8F106DB9E536}" name="Icon"/>
-    <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição do Item" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Pr.Venda" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{42457639-E172-4F1A-9782-68AB0812D06F}" name="Categoria"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2286,15 +2282,15 @@
   <dimension ref="A1:D603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,7 +2301,7 @@
         <v>603</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>601</v>
@@ -2319,7 +2315,6 @@
       <c r="C2" s="6">
         <v>60.5</v>
       </c>
-      <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2329,139 +2324,112 @@
       <c r="C3" s="6">
         <v>150.99</v>
       </c>
-      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>229.9</v>
       </c>
-      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>59.9</v>
       </c>
-      <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>59.99</v>
       </c>
-      <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6">
         <v>20.89</v>
       </c>
-      <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="6">
         <v>19.8</v>
       </c>
-      <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6">
         <v>20.990000000000002</v>
       </c>
-      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6">
         <v>149.19999999999999</v>
       </c>
-      <c r="D10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="6">
         <v>75.599999999999994</v>
       </c>
-      <c r="D11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="6">
         <v>143.6</v>
       </c>
-      <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="6">
         <v>118.5</v>
       </c>
-      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="6">
         <v>143.6</v>
       </c>
-      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="6">
         <v>121.5</v>
       </c>
-      <c r="D15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="6">
         <v>135.69999999999999</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2469,7 +2437,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="18" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2477,7 +2445,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="19" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2485,7 +2453,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2493,7 +2461,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="21" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2501,7 +2469,7 @@
         <v>143.9</v>
       </c>
     </row>
-    <row r="22" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,7 +2477,7 @@
         <v>52.49</v>
       </c>
     </row>
-    <row r="23" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2517,7 +2485,7 @@
         <v>56.480000000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2525,7 +2493,7 @@
         <v>22.990000000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +2501,7 @@
         <v>116.9</v>
       </c>
     </row>
-    <row r="26" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2541,7 +2509,7 @@
         <v>57.59</v>
       </c>
     </row>
-    <row r="27" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2549,7 +2517,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="28" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2557,7 +2525,7 @@
         <v>85.99</v>
       </c>
     </row>
-    <row r="29" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2565,7 +2533,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2573,7 +2541,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="31" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2581,7 +2549,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="32" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2589,7 +2557,7 @@
         <v>139.13</v>
       </c>
     </row>
-    <row r="33" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2597,7 +2565,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="34" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2605,7 +2573,7 @@
         <v>110.99000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2613,7 +2581,7 @@
         <v>115.99000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2621,7 +2589,7 @@
         <v>97.490000000000009</v>
       </c>
     </row>
-    <row r="37" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2629,7 +2597,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="38" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2637,7 +2605,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="39" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2645,7 +2613,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2653,7 +2621,7 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="41" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2661,7 +2629,7 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="42" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2669,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2677,7 +2645,7 @@
         <v>24.900000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2685,7 +2653,7 @@
         <v>27.990000000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2693,7 +2661,7 @@
         <v>27.990000000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2701,7 +2669,7 @@
         <v>33.99</v>
       </c>
     </row>
-    <row r="47" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2709,7 +2677,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="48" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2717,7 +2685,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="49" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2725,7 +2693,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="50" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,7 +2701,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="51" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2741,7 +2709,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="52" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2749,7 +2717,7 @@
         <v>24.900000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2757,7 +2725,7 @@
         <v>24.900000000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2765,7 +2733,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="55" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2773,7 +2741,7 @@
         <v>181.05</v>
       </c>
     </row>
-    <row r="56" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2781,7 +2749,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="57" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2789,7 +2757,7 @@
         <v>79.89</v>
       </c>
     </row>
-    <row r="58" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2797,7 +2765,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="59" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2805,7 +2773,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="60" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2813,7 +2781,7 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="61" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2821,7 +2789,7 @@
         <v>13.200000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2829,7 +2797,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="63" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2837,7 +2805,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="64" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,7 +2813,7 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="65" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2853,7 +2821,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="66" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2861,7 +2829,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="67" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2869,7 +2837,7 @@
         <v>70.930000000000007</v>
       </c>
     </row>
-    <row r="68" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2877,7 +2845,7 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="69" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2885,7 +2853,7 @@
         <v>31.400000000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2893,7 +2861,7 @@
         <v>33.229999999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2901,7 +2869,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="72" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
@@ -2909,7 +2877,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="73" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2917,7 +2885,7 @@
         <v>58.800000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2925,7 +2893,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="75" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2933,7 +2901,7 @@
         <v>28.080000000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2941,7 +2909,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="77" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2949,7 +2917,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="78" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2957,7 +2925,7 @@
         <v>152.9</v>
       </c>
     </row>
-    <row r="79" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2965,7 +2933,7 @@
         <v>31.92</v>
       </c>
     </row>
-    <row r="80" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2973,7 +2941,7 @@
         <v>43.99</v>
       </c>
     </row>
-    <row r="81" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2981,7 +2949,7 @@
         <v>26.35</v>
       </c>
     </row>
-    <row r="82" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
@@ -2989,7 +2957,7 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="83" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2997,7 +2965,7 @@
         <v>66.94</v>
       </c>
     </row>
-    <row r="84" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
@@ -3005,7 +2973,7 @@
         <v>66.94</v>
       </c>
     </row>
-    <row r="85" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
@@ -3013,7 +2981,7 @@
         <v>101.99000000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
@@ -3021,7 +2989,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="87" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
@@ -3029,7 +2997,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="88" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,7 +3005,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="89" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
@@ -3045,7 +3013,7 @@
         <v>95.990000000000009</v>
       </c>
     </row>
-    <row r="90" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>88</v>
       </c>
@@ -3053,7 +3021,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="91" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
@@ -3061,7 +3029,7 @@
         <v>63.690000000000005</v>
       </c>
     </row>
-    <row r="92" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
@@ -3069,7 +3037,7 @@
         <v>41.85</v>
       </c>
     </row>
-    <row r="93" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
@@ -3077,7 +3045,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="94" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
@@ -3085,7 +3053,7 @@
         <v>2221.25</v>
       </c>
     </row>
-    <row r="95" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
@@ -3093,7 +3061,7 @@
         <v>175.77</v>
       </c>
     </row>
-    <row r="96" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
@@ -3101,7 +3069,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="97" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3109,7 +3077,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="98" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>96</v>
       </c>
@@ -3117,7 +3085,7 @@
         <v>32.130000000000003</v>
       </c>
     </row>
-    <row r="99" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3125,7 +3093,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="100" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>98</v>
       </c>
@@ -3133,7 +3101,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="101" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
@@ -3141,7 +3109,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="102" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
@@ -3149,7 +3117,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="103" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
@@ -3157,7 +3125,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="104" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>102</v>
       </c>
@@ -3165,7 +3133,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="105" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>103</v>
       </c>
@@ -3173,7 +3141,7 @@
         <v>32.130000000000003</v>
       </c>
     </row>
-    <row r="106" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>104</v>
       </c>
@@ -3181,7 +3149,7 @@
         <v>90.53</v>
       </c>
     </row>
-    <row r="107" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>105</v>
       </c>
@@ -3189,7 +3157,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="108" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>106</v>
       </c>
@@ -3197,7 +3165,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="109" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>107</v>
       </c>
@@ -3205,7 +3173,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="110" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
@@ -3213,7 +3181,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="111" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>109</v>
       </c>
@@ -3221,7 +3189,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="112" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>110</v>
       </c>
@@ -3229,7 +3197,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="113" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>111</v>
       </c>
@@ -3237,7 +3205,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="114" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>112</v>
       </c>
@@ -3245,7 +3213,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="115" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
@@ -3253,7 +3221,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="116" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>114</v>
       </c>
@@ -3261,7 +3229,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="117" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>115</v>
       </c>
@@ -3269,7 +3237,7 @@
         <v>42.95</v>
       </c>
     </row>
-    <row r="118" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>116</v>
       </c>
@@ -3277,7 +3245,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="119" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>117</v>
       </c>
@@ -3285,7 +3253,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="120" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>118</v>
       </c>
@@ -3293,7 +3261,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="121" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>119</v>
       </c>
@@ -3301,7 +3269,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="122" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>120</v>
       </c>
@@ -3309,7 +3277,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="123" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>121</v>
       </c>
@@ -3317,7 +3285,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="124" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>122</v>
       </c>
@@ -3325,7 +3293,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="125" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>123</v>
       </c>
@@ -3333,7 +3301,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="126" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>124</v>
       </c>
@@ -3341,7 +3309,7 @@
         <v>170.99</v>
       </c>
     </row>
-    <row r="127" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>125</v>
       </c>
@@ -3349,7 +3317,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="128" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>126</v>
       </c>
@@ -3357,7 +3325,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="129" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>127</v>
       </c>
@@ -3365,7 +3333,7 @@
         <v>57.120000000000005</v>
       </c>
     </row>
-    <row r="130" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>128</v>
       </c>
@@ -3373,7 +3341,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="131" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>129</v>
       </c>
@@ -3381,7 +3349,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="132" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>130</v>
       </c>
@@ -3389,7 +3357,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="133" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>131</v>
       </c>
@@ -3397,7 +3365,7 @@
         <v>155.09</v>
       </c>
     </row>
-    <row r="134" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
@@ -3405,7 +3373,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>133</v>
       </c>
@@ -3413,7 +3381,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="136" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>134</v>
       </c>
@@ -3421,7 +3389,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="137" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>135</v>
       </c>
@@ -3429,7 +3397,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="138" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>136</v>
       </c>
@@ -3437,7 +3405,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="139" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>137</v>
       </c>
@@ -3445,7 +3413,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="140" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>138</v>
       </c>
@@ -3453,7 +3421,7 @@
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="141" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>139</v>
       </c>
@@ -3461,7 +3429,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="142" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>140</v>
       </c>
@@ -3469,7 +3437,7 @@
         <v>14.700000000000001</v>
       </c>
     </row>
-    <row r="143" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>141</v>
       </c>
@@ -3477,7 +3445,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="144" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>142</v>
       </c>
@@ -3485,7 +3453,7 @@
         <v>67.989999999999995</v>
       </c>
     </row>
-    <row r="145" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>143</v>
       </c>
@@ -3493,7 +3461,7 @@
         <v>275.89999999999998</v>
       </c>
     </row>
-    <row r="146" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>144</v>
       </c>
@@ -3501,7 +3469,7 @@
         <v>24.900000000000002</v>
       </c>
     </row>
-    <row r="147" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>145</v>
       </c>
@@ -3509,7 +3477,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="148" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>146</v>
       </c>
@@ -3517,7 +3485,7 @@
         <v>129.88999999999999</v>
       </c>
     </row>
-    <row r="149" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>147</v>
       </c>
@@ -3525,7 +3493,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="150" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>148</v>
       </c>
@@ -3533,7 +3501,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="151" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>149</v>
       </c>
@@ -3541,7 +3509,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="152" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>150</v>
       </c>
@@ -3549,7 +3517,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="153" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>151</v>
       </c>
@@ -3557,7 +3525,7 @@
         <v>499.90000000000003</v>
       </c>
     </row>
-    <row r="154" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>152</v>
       </c>
@@ -3565,7 +3533,7 @@
         <v>349.90000000000003</v>
       </c>
     </row>
-    <row r="155" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>153</v>
       </c>
@@ -3573,7 +3541,7 @@
         <v>27.990000000000002</v>
       </c>
     </row>
-    <row r="156" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>154</v>
       </c>
@@ -3581,7 +3549,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="157" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>155</v>
       </c>
@@ -3589,7 +3557,7 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="158" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>156</v>
       </c>
@@ -3597,7 +3565,7 @@
         <v>106.53</v>
       </c>
     </row>
-    <row r="159" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>157</v>
       </c>
@@ -3605,7 +3573,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="160" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>158</v>
       </c>
@@ -3613,7 +3581,7 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="161" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>159</v>
       </c>
@@ -3621,7 +3589,7 @@
         <v>210.99</v>
       </c>
     </row>
-    <row r="162" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>160</v>
       </c>
@@ -3629,7 +3597,7 @@
         <v>145.9</v>
       </c>
     </row>
-    <row r="163" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>161</v>
       </c>
@@ -3637,7 +3605,7 @@
         <v>63.99</v>
       </c>
     </row>
-    <row r="164" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>162</v>
       </c>
@@ -3645,7 +3613,7 @@
         <v>74.989999999999995</v>
       </c>
     </row>
-    <row r="165" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>163</v>
       </c>
@@ -3653,7 +3621,7 @@
         <v>73.989999999999995</v>
       </c>
     </row>
-    <row r="166" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>164</v>
       </c>
@@ -3661,7 +3629,7 @@
         <v>77.989999999999995</v>
       </c>
     </row>
-    <row r="167" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>165</v>
       </c>
@@ -3669,7 +3637,7 @@
         <v>139.88999999999999</v>
       </c>
     </row>
-    <row r="168" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>166</v>
       </c>
@@ -3677,7 +3645,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="169" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>167</v>
       </c>
@@ -3685,7 +3653,7 @@
         <v>145.9</v>
       </c>
     </row>
-    <row r="170" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>168</v>
       </c>
@@ -3693,7 +3661,7 @@
         <v>119.89</v>
       </c>
     </row>
-    <row r="171" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>169</v>
       </c>
@@ -3701,7 +3669,7 @@
         <v>119.89</v>
       </c>
     </row>
-    <row r="172" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>170</v>
       </c>
@@ -3709,7 +3677,7 @@
         <v>156.88999999999999</v>
       </c>
     </row>
-    <row r="173" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>171</v>
       </c>
@@ -3717,7 +3685,7 @@
         <v>119.89</v>
       </c>
     </row>
-    <row r="174" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>172</v>
       </c>
@@ -3725,7 +3693,7 @@
         <v>52.99</v>
       </c>
     </row>
-    <row r="175" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>173</v>
       </c>
@@ -3733,7 +3701,7 @@
         <v>30.990000000000002</v>
       </c>
     </row>
-    <row r="176" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
@@ -3741,7 +3709,7 @@
         <v>38.99</v>
       </c>
     </row>
-    <row r="177" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>175</v>
       </c>
@@ -3749,7 +3717,7 @@
         <v>38.49</v>
       </c>
     </row>
-    <row r="178" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>176</v>
       </c>
@@ -3757,7 +3725,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="179" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>177</v>
       </c>
@@ -3765,7 +3733,7 @@
         <v>55.99</v>
       </c>
     </row>
-    <row r="180" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>178</v>
       </c>
@@ -3773,7 +3741,7 @@
         <v>50.93</v>
       </c>
     </row>
-    <row r="181" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
@@ -3781,7 +3749,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="182" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
@@ -3789,7 +3757,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="183" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
@@ -3797,7 +3765,7 @@
         <v>90.49</v>
       </c>
     </row>
-    <row r="184" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>182</v>
       </c>
@@ -3805,7 +3773,7 @@
         <v>60.99</v>
       </c>
     </row>
-    <row r="185" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>183</v>
       </c>
@@ -3813,7 +3781,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="186" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>184</v>
       </c>
@@ -3821,7 +3789,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="187" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>185</v>
       </c>
@@ -3829,7 +3797,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="188" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>186</v>
       </c>
@@ -3837,7 +3805,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="189" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>187</v>
       </c>
@@ -3845,7 +3813,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="190" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>188</v>
       </c>
@@ -3853,7 +3821,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="191" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>189</v>
       </c>
@@ -3861,7 +3829,7 @@
         <v>31.900000000000002</v>
       </c>
     </row>
-    <row r="192" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>190</v>
       </c>
@@ -3869,7 +3837,7 @@
         <v>182.70000000000002</v>
       </c>
     </row>
-    <row r="193" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>191</v>
       </c>
@@ -3877,7 +3845,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="194" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>192</v>
       </c>
@@ -3885,7 +3853,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="195" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>193</v>
       </c>
@@ -3893,7 +3861,7 @@
         <v>27.400000000000002</v>
       </c>
     </row>
-    <row r="196" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>194</v>
       </c>
@@ -3901,7 +3869,7 @@
         <v>127.79</v>
       </c>
     </row>
-    <row r="197" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>195</v>
       </c>
@@ -3909,7 +3877,7 @@
         <v>133.13</v>
       </c>
     </row>
-    <row r="198" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>196</v>
       </c>
@@ -3917,7 +3885,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="199" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>197</v>
       </c>
@@ -3925,7 +3893,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="200" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>198</v>
       </c>
@@ -3933,7 +3901,7 @@
         <v>45.89</v>
       </c>
     </row>
-    <row r="201" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>199</v>
       </c>
@@ -3941,7 +3909,7 @@
         <v>68.849999999999994</v>
       </c>
     </row>
-    <row r="202" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>200</v>
       </c>
@@ -3949,7 +3917,7 @@
         <v>33.49</v>
       </c>
     </row>
-    <row r="203" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>201</v>
       </c>
@@ -3957,7 +3925,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="204" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>202</v>
       </c>
@@ -3965,7 +3933,7 @@
         <v>37.69</v>
       </c>
     </row>
-    <row r="205" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>203</v>
       </c>
@@ -3973,7 +3941,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="206" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>204</v>
       </c>
@@ -3981,7 +3949,7 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="207" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>205</v>
       </c>
@@ -3989,7 +3957,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="208" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>206</v>
       </c>
@@ -3997,7 +3965,7 @@
         <v>130.30000000000001</v>
       </c>
     </row>
-    <row r="209" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>207</v>
       </c>
@@ -4005,7 +3973,7 @@
         <v>115.10000000000001</v>
       </c>
     </row>
-    <row r="210" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>208</v>
       </c>
@@ -4013,7 +3981,7 @@
         <v>136.99</v>
       </c>
     </row>
-    <row r="211" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>209</v>
       </c>
@@ -4021,7 +3989,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="212" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>210</v>
       </c>
@@ -4029,7 +3997,7 @@
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="213" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>211</v>
       </c>
@@ -4037,7 +4005,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="214" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>212</v>
       </c>
@@ -4045,7 +4013,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="215" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>213</v>
       </c>
@@ -4053,7 +4021,7 @@
         <v>399.90000000000003</v>
       </c>
     </row>
-    <row r="216" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>214</v>
       </c>
@@ -4061,7 +4029,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="217" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
         <v>215</v>
       </c>
@@ -4069,7 +4037,7 @@
         <v>73.989999999999995</v>
       </c>
     </row>
-    <row r="218" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
         <v>216</v>
       </c>
@@ -4077,7 +4045,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="219" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
         <v>217</v>
       </c>
@@ -4085,7 +4053,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="220" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
         <v>218</v>
       </c>
@@ -4093,7 +4061,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="221" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>219</v>
       </c>
@@ -4101,7 +4069,7 @@
         <v>95.990000000000009</v>
       </c>
     </row>
-    <row r="222" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>220</v>
       </c>
@@ -4109,7 +4077,7 @@
         <v>25.990000000000002</v>
       </c>
     </row>
-    <row r="223" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>221</v>
       </c>
@@ -4117,7 +4085,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="224" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>222</v>
       </c>
@@ -4125,7 +4093,7 @@
         <v>42.99</v>
       </c>
     </row>
-    <row r="225" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>223</v>
       </c>
@@ -4133,7 +4101,7 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="226" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>224</v>
       </c>
@@ -4141,7 +4109,7 @@
         <v>139.80000000000001</v>
       </c>
     </row>
-    <row r="227" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>225</v>
       </c>
@@ -4149,7 +4117,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="228" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>226</v>
       </c>
@@ -4157,7 +4125,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="229" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>227</v>
       </c>
@@ -4165,7 +4133,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="230" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>228</v>
       </c>
@@ -4173,7 +4141,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="231" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>229</v>
       </c>
@@ -4181,7 +4149,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="232" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>230</v>
       </c>
@@ -4189,7 +4157,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="233" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>231</v>
       </c>
@@ -4197,7 +4165,7 @@
         <v>56.69</v>
       </c>
     </row>
-    <row r="234" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>232</v>
       </c>
@@ -4205,7 +4173,7 @@
         <v>110.89</v>
       </c>
     </row>
-    <row r="235" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>233</v>
       </c>
@@ -4213,7 +4181,7 @@
         <v>115.99000000000001</v>
       </c>
     </row>
-    <row r="236" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>234</v>
       </c>
@@ -4221,7 +4189,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="237" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>235</v>
       </c>
@@ -4229,7 +4197,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="238" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>236</v>
       </c>
@@ -4237,7 +4205,7 @@
         <v>31.490000000000002</v>
       </c>
     </row>
-    <row r="239" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>237</v>
       </c>
@@ -4245,7 +4213,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="240" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>238</v>
       </c>
@@ -4253,7 +4221,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="241" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>239</v>
       </c>
@@ -4261,7 +4229,7 @@
         <v>96.69</v>
       </c>
     </row>
-    <row r="242" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>240</v>
       </c>
@@ -4269,7 +4237,7 @@
         <v>58.99</v>
       </c>
     </row>
-    <row r="243" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>241</v>
       </c>
@@ -4277,7 +4245,7 @@
         <v>80.989999999999995</v>
       </c>
     </row>
-    <row r="244" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>242</v>
       </c>
@@ -4285,7 +4253,7 @@
         <v>176.9</v>
       </c>
     </row>
-    <row r="245" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
         <v>243</v>
       </c>
@@ -4293,7 +4261,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="246" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>244</v>
       </c>
@@ -4301,7 +4269,7 @@
         <v>135.99</v>
       </c>
     </row>
-    <row r="247" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
         <v>245</v>
       </c>
@@ -4309,7 +4277,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="248" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
         <v>246</v>
       </c>
@@ -4317,7 +4285,7 @@
         <v>41.49</v>
       </c>
     </row>
-    <row r="249" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>247</v>
       </c>
@@ -4325,7 +4293,7 @@
         <v>113.99000000000001</v>
       </c>
     </row>
-    <row r="250" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
         <v>248</v>
       </c>
@@ -4333,7 +4301,7 @@
         <v>125.92</v>
       </c>
     </row>
-    <row r="251" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
         <v>249</v>
       </c>
@@ -4341,7 +4309,7 @@
         <v>92.69</v>
       </c>
     </row>
-    <row r="252" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>250</v>
       </c>
@@ -4349,7 +4317,7 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="253" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
         <v>251</v>
       </c>
@@ -4357,7 +4325,7 @@
         <v>144.47999999999999</v>
       </c>
     </row>
-    <row r="254" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
         <v>252</v>
       </c>
@@ -4365,7 +4333,7 @@
         <v>111.99000000000001</v>
       </c>
     </row>
-    <row r="255" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
         <v>253</v>
       </c>
@@ -4373,7 +4341,7 @@
         <v>238.20000000000002</v>
       </c>
     </row>
-    <row r="256" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>254</v>
       </c>
@@ -4381,7 +4349,7 @@
         <v>113.99000000000001</v>
       </c>
     </row>
-    <row r="257" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
         <v>255</v>
       </c>
@@ -4389,7 +4357,7 @@
         <v>216.99</v>
       </c>
     </row>
-    <row r="258" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
         <v>256</v>
       </c>
@@ -4397,7 +4365,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="259" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
         <v>257</v>
       </c>
@@ -4405,7 +4373,7 @@
         <v>130.13</v>
       </c>
     </row>
-    <row r="260" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
         <v>258</v>
       </c>
@@ -4413,7 +4381,7 @@
         <v>195.97</v>
       </c>
     </row>
-    <row r="261" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
         <v>259</v>
       </c>
@@ -4421,7 +4389,7 @@
         <v>151.47</v>
       </c>
     </row>
-    <row r="262" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
         <v>260</v>
       </c>
@@ -4429,7 +4397,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="263" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
         <v>261</v>
       </c>
@@ -4437,7 +4405,7 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="264" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
         <v>262</v>
       </c>
@@ -4445,7 +4413,7 @@
         <v>31.63</v>
       </c>
     </row>
-    <row r="265" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
         <v>263</v>
       </c>
@@ -4453,7 +4421,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="266" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
         <v>264</v>
       </c>
@@ -4461,7 +4429,7 @@
         <v>21.400000000000002</v>
       </c>
     </row>
-    <row r="267" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
         <v>265</v>
       </c>
@@ -4469,7 +4437,7 @@
         <v>144.9</v>
       </c>
     </row>
-    <row r="268" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
         <v>266</v>
       </c>
@@ -4477,7 +4445,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="269" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
         <v>267</v>
       </c>
@@ -4485,7 +4453,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="270" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
         <v>268</v>
       </c>
@@ -4493,7 +4461,7 @@
         <v>17.79</v>
       </c>
     </row>
-    <row r="271" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
         <v>269</v>
       </c>
@@ -4501,7 +4469,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="272" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
         <v>270</v>
       </c>
@@ -4509,7 +4477,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="273" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
         <v>271</v>
       </c>
@@ -4517,7 +4485,7 @@
         <v>44.49</v>
       </c>
     </row>
-    <row r="274" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
         <v>272</v>
       </c>
@@ -4525,7 +4493,7 @@
         <v>22.67</v>
       </c>
     </row>
-    <row r="275" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
         <v>273</v>
       </c>
@@ -4533,7 +4501,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="276" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>274</v>
       </c>
@@ -4541,7 +4509,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="277" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
         <v>275</v>
       </c>
@@ -4549,7 +4517,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="278" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
         <v>276</v>
       </c>
@@ -4557,7 +4525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
         <v>277</v>
       </c>
@@ -4565,7 +4533,7 @@
         <v>29.990000000000002</v>
       </c>
     </row>
-    <row r="280" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
         <v>278</v>
       </c>
@@ -4573,7 +4541,7 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="281" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
         <v>279</v>
       </c>
@@ -4581,7 +4549,7 @@
         <v>35.79</v>
       </c>
     </row>
-    <row r="282" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
         <v>280</v>
       </c>
@@ -4589,7 +4557,7 @@
         <v>22.900000000000002</v>
       </c>
     </row>
-    <row r="283" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
         <v>281</v>
       </c>
@@ -4597,7 +4565,7 @@
         <v>50.64</v>
       </c>
     </row>
-    <row r="284" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
         <v>282</v>
       </c>
@@ -4605,7 +4573,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="285" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
         <v>283</v>
       </c>
@@ -4613,7 +4581,7 @@
         <v>106.89</v>
       </c>
     </row>
-    <row r="286" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
         <v>284</v>
       </c>
@@ -4621,7 +4589,7 @@
         <v>24.900000000000002</v>
       </c>
     </row>
-    <row r="287" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
         <v>285</v>
       </c>
@@ -4629,7 +4597,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="288" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
         <v>286</v>
       </c>
@@ -4637,7 +4605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
         <v>287</v>
       </c>
@@ -4645,7 +4613,7 @@
         <v>14.200000000000001</v>
       </c>
     </row>
-    <row r="290" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
         <v>288</v>
       </c>
@@ -4653,7 +4621,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="291" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
         <v>289</v>
       </c>
@@ -4661,7 +4629,7 @@
         <v>25.990000000000002</v>
       </c>
     </row>
-    <row r="292" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
         <v>290</v>
       </c>
@@ -4669,7 +4637,7 @@
         <v>37.49</v>
       </c>
     </row>
-    <row r="293" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
         <v>291</v>
       </c>
@@ -4677,7 +4645,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="294" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
         <v>292</v>
       </c>
@@ -4685,7 +4653,7 @@
         <v>83.99</v>
       </c>
     </row>
-    <row r="295" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
         <v>293</v>
       </c>
@@ -4693,7 +4661,7 @@
         <v>69.59</v>
       </c>
     </row>
-    <row r="296" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
         <v>294</v>
       </c>
@@ -4701,7 +4669,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="297" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
         <v>295</v>
       </c>
@@ -4709,7 +4677,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="298" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
         <v>296</v>
       </c>
@@ -4717,7 +4685,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="299" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
         <v>297</v>
       </c>
@@ -4725,7 +4693,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="300" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
         <v>298</v>
       </c>
@@ -4733,7 +4701,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="301" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
         <v>299</v>
       </c>
@@ -4741,7 +4709,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="302" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
         <v>300</v>
       </c>
@@ -4749,7 +4717,7 @@
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="303" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
         <v>301</v>
       </c>
@@ -4757,7 +4725,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="304" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
         <v>302</v>
       </c>
@@ -4765,7 +4733,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="305" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
         <v>303</v>
       </c>
@@ -4773,7 +4741,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="306" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
         <v>304</v>
       </c>
@@ -4781,7 +4749,7 @@
         <v>27.900000000000002</v>
       </c>
     </row>
-    <row r="307" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
         <v>305</v>
       </c>
@@ -4789,7 +4757,7 @@
         <v>24.490000000000002</v>
       </c>
     </row>
-    <row r="308" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
         <v>306</v>
       </c>
@@ -4797,7 +4765,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="309" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
         <v>307</v>
       </c>
@@ -4805,7 +4773,7 @@
         <v>33.99</v>
       </c>
     </row>
-    <row r="310" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
         <v>308</v>
       </c>
@@ -4813,7 +4781,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="311" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
         <v>309</v>
       </c>
@@ -4821,7 +4789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
         <v>310</v>
       </c>
@@ -4829,7 +4797,7 @@
         <v>18.690000000000001</v>
       </c>
     </row>
-    <row r="313" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
         <v>311</v>
       </c>
@@ -4837,7 +4805,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="314" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
         <v>312</v>
       </c>
@@ -4845,7 +4813,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="315" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
         <v>313</v>
       </c>
@@ -4853,7 +4821,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="316" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
         <v>314</v>
       </c>
@@ -4861,7 +4829,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="317" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
         <v>315</v>
       </c>
@@ -4869,7 +4837,7 @@
         <v>41.85</v>
       </c>
     </row>
-    <row r="318" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
         <v>316</v>
       </c>
@@ -4877,7 +4845,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="319" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
         <v>317</v>
       </c>
@@ -4885,7 +4853,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="320" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
         <v>318</v>
       </c>
@@ -4893,7 +4861,7 @@
         <v>47.88</v>
       </c>
     </row>
-    <row r="321" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
         <v>319</v>
       </c>
@@ -4901,7 +4869,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="322" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
         <v>320</v>
       </c>
@@ -4909,7 +4877,7 @@
         <v>23.990000000000002</v>
       </c>
     </row>
-    <row r="323" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
         <v>321</v>
       </c>
@@ -4917,7 +4885,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="324" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
         <v>322</v>
       </c>
@@ -4925,7 +4893,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="325" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
         <v>323</v>
       </c>
@@ -4933,7 +4901,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="326" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
         <v>324</v>
       </c>
@@ -4941,7 +4909,7 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="327" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
         <v>325</v>
       </c>
@@ -4949,7 +4917,7 @@
         <v>12.14</v>
       </c>
     </row>
-    <row r="328" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
         <v>326</v>
       </c>
@@ -4957,7 +4925,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="329" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
         <v>327</v>
       </c>
@@ -4965,7 +4933,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="330" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
         <v>328</v>
       </c>
@@ -4973,7 +4941,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="331" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
         <v>329</v>
       </c>
@@ -4981,7 +4949,7 @@
         <v>42.59</v>
       </c>
     </row>
-    <row r="332" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
         <v>330</v>
       </c>
@@ -4989,7 +4957,7 @@
         <v>47.89</v>
       </c>
     </row>
-    <row r="333" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
         <v>331</v>
       </c>
@@ -4997,7 +4965,7 @@
         <v>106.9</v>
       </c>
     </row>
-    <row r="334" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
         <v>332</v>
       </c>
@@ -5005,7 +4973,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="335" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
         <v>333</v>
       </c>
@@ -5013,7 +4981,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="336" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
         <v>334</v>
       </c>
@@ -5021,7 +4989,7 @@
         <v>57.49</v>
       </c>
     </row>
-    <row r="337" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
         <v>335</v>
       </c>
@@ -5029,7 +4997,7 @@
         <v>30.990000000000002</v>
       </c>
     </row>
-    <row r="338" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
         <v>336</v>
       </c>
@@ -5037,7 +5005,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="339" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
         <v>337</v>
       </c>
@@ -5045,7 +5013,7 @@
         <v>32.99</v>
       </c>
     </row>
-    <row r="340" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
         <v>338</v>
       </c>
@@ -5053,7 +5021,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="341" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
         <v>339</v>
       </c>
@@ -5061,7 +5029,7 @@
         <v>213.8</v>
       </c>
     </row>
-    <row r="342" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
         <v>340</v>
       </c>
@@ -5069,7 +5037,7 @@
         <v>135.99</v>
       </c>
     </row>
-    <row r="343" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
         <v>341</v>
       </c>
@@ -5077,7 +5045,7 @@
         <v>52.800000000000004</v>
       </c>
     </row>
-    <row r="344" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
         <v>342</v>
       </c>
@@ -5085,7 +5053,7 @@
         <v>135.9</v>
       </c>
     </row>
-    <row r="345" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
         <v>343</v>
       </c>
@@ -5093,7 +5061,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="346" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
         <v>344</v>
       </c>
@@ -5101,7 +5069,7 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="347" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
         <v>345</v>
       </c>
@@ -5109,7 +5077,7 @@
         <v>39.89</v>
       </c>
     </row>
-    <row r="348" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
         <v>346</v>
       </c>
@@ -5117,7 +5085,7 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="349" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
         <v>347</v>
       </c>
@@ -5125,7 +5093,7 @@
         <v>134.80000000000001</v>
       </c>
     </row>
-    <row r="350" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
         <v>348</v>
       </c>
@@ -5133,7 +5101,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="351" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
         <v>349</v>
       </c>
@@ -5141,7 +5109,7 @@
         <v>30.900000000000002</v>
       </c>
     </row>
-    <row r="352" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
         <v>350</v>
       </c>
@@ -5149,7 +5117,7 @@
         <v>256.5</v>
       </c>
     </row>
-    <row r="353" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
         <v>351</v>
       </c>
@@ -5157,7 +5125,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="354" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
         <v>352</v>
       </c>
@@ -5165,7 +5133,7 @@
         <v>114.25</v>
       </c>
     </row>
-    <row r="355" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
         <v>353</v>
       </c>
@@ -5173,7 +5141,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="356" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
         <v>354</v>
       </c>
@@ -5181,7 +5149,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="357" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
         <v>355</v>
       </c>
@@ -5189,7 +5157,7 @@
         <v>157.9</v>
       </c>
     </row>
-    <row r="358" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
         <v>356</v>
       </c>
@@ -5197,7 +5165,7 @@
         <v>210.99</v>
       </c>
     </row>
-    <row r="359" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
         <v>357</v>
       </c>
@@ -5205,7 +5173,7 @@
         <v>134.25</v>
       </c>
     </row>
-    <row r="360" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
         <v>358</v>
       </c>
@@ -5213,7 +5181,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="361" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
         <v>359</v>
       </c>
@@ -5221,7 +5189,7 @@
         <v>32.11</v>
       </c>
     </row>
-    <row r="362" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
         <v>360</v>
       </c>
@@ -5229,7 +5197,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="363" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
         <v>361</v>
       </c>
@@ -5237,7 +5205,7 @@
         <v>57.59</v>
       </c>
     </row>
-    <row r="364" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
         <v>362</v>
       </c>
@@ -5245,7 +5213,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="365" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
         <v>363</v>
       </c>
@@ -5253,7 +5221,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="366" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
         <v>364</v>
       </c>
@@ -5261,7 +5229,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="367" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
         <v>365</v>
       </c>
@@ -5269,7 +5237,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="368" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
         <v>366</v>
       </c>
@@ -5277,7 +5245,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="369" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
         <v>367</v>
       </c>
@@ -5285,7 +5253,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="370" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
         <v>368</v>
       </c>
@@ -5293,7 +5261,7 @@
         <v>31.990000000000002</v>
       </c>
     </row>
-    <row r="371" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
         <v>369</v>
       </c>
@@ -5301,7 +5269,7 @@
         <v>44.82</v>
       </c>
     </row>
-    <row r="372" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
         <v>370</v>
       </c>
@@ -5309,7 +5277,7 @@
         <v>103.2</v>
       </c>
     </row>
-    <row r="373" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
         <v>371</v>
       </c>
@@ -5317,7 +5285,7 @@
         <v>71.989999999999995</v>
       </c>
     </row>
-    <row r="374" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
         <v>372</v>
       </c>
@@ -5325,7 +5293,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="375" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
         <v>373</v>
       </c>
@@ -5333,7 +5301,7 @@
         <v>52.89</v>
       </c>
     </row>
-    <row r="376" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
         <v>374</v>
       </c>
@@ -5341,7 +5309,7 @@
         <v>27.79</v>
       </c>
     </row>
-    <row r="377" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
         <v>375</v>
       </c>
@@ -5349,7 +5317,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="378" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
         <v>375</v>
       </c>
@@ -5357,7 +5325,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="379" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
         <v>376</v>
       </c>
@@ -5365,7 +5333,7 @@
         <v>115.99000000000001</v>
       </c>
     </row>
-    <row r="380" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
         <v>377</v>
       </c>
@@ -5373,7 +5341,7 @@
         <v>88.600000000000009</v>
       </c>
     </row>
-    <row r="381" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
         <v>378</v>
       </c>
@@ -5381,7 +5349,7 @@
         <v>210.99</v>
       </c>
     </row>
-    <row r="382" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
         <v>379</v>
       </c>
@@ -5389,7 +5357,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="383" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
         <v>380</v>
       </c>
@@ -5397,7 +5365,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="384" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
         <v>381</v>
       </c>
@@ -5405,7 +5373,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="385" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" s="1" t="s">
         <v>382</v>
       </c>
@@ -5413,7 +5381,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="386" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
         <v>383</v>
       </c>
@@ -5421,7 +5389,7 @@
         <v>113.99000000000001</v>
       </c>
     </row>
-    <row r="387" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
         <v>384</v>
       </c>
@@ -5429,7 +5397,7 @@
         <v>38.89</v>
       </c>
     </row>
-    <row r="388" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
         <v>385</v>
       </c>
@@ -5437,7 +5405,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="389" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
         <v>386</v>
       </c>
@@ -5445,7 +5413,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="390" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
         <v>387</v>
       </c>
@@ -5453,7 +5421,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="391" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
         <v>388</v>
       </c>
@@ -5461,7 +5429,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="392" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
         <v>389</v>
       </c>
@@ -5469,7 +5437,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="393" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
         <v>390</v>
       </c>
@@ -5477,7 +5445,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="394" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
         <v>391</v>
       </c>
@@ -5485,7 +5453,7 @@
         <v>73.989999999999995</v>
       </c>
     </row>
-    <row r="395" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
         <v>392</v>
       </c>
@@ -5493,7 +5461,7 @@
         <v>70.790000000000006</v>
       </c>
     </row>
-    <row r="396" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
         <v>393</v>
       </c>
@@ -5501,7 +5469,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="397" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
         <v>394</v>
       </c>
@@ -5509,7 +5477,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="398" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
         <v>395</v>
       </c>
@@ -5517,7 +5485,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="399" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
         <v>396</v>
       </c>
@@ -5525,7 +5493,7 @@
         <v>599.9</v>
       </c>
     </row>
-    <row r="400" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
         <v>397</v>
       </c>
@@ -5533,7 +5501,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="401" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
         <v>398</v>
       </c>
@@ -5541,7 +5509,7 @@
         <v>279.92</v>
       </c>
     </row>
-    <row r="402" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
         <v>399</v>
       </c>
@@ -5549,7 +5517,7 @@
         <v>179.9</v>
       </c>
     </row>
-    <row r="403" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
         <v>400</v>
       </c>
@@ -5557,7 +5525,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="404" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
         <v>401</v>
       </c>
@@ -5565,7 +5533,7 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="405" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
         <v>402</v>
       </c>
@@ -5573,7 +5541,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="406" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
         <v>403</v>
       </c>
@@ -5581,7 +5549,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="407" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
         <v>404</v>
       </c>
@@ -5589,7 +5557,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="408" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
         <v>405</v>
       </c>
@@ -5597,7 +5565,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="409" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
         <v>406</v>
       </c>
@@ -5605,7 +5573,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="410" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
         <v>407</v>
       </c>
@@ -5613,7 +5581,7 @@
         <v>121.8</v>
       </c>
     </row>
-    <row r="411" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
         <v>408</v>
       </c>
@@ -5621,7 +5589,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="412" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
         <v>409</v>
       </c>
@@ -5629,7 +5597,7 @@
         <v>28.990000000000002</v>
       </c>
     </row>
-    <row r="413" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
         <v>410</v>
       </c>
@@ -5637,7 +5605,7 @@
         <v>167.36</v>
       </c>
     </row>
-    <row r="414" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
         <v>411</v>
       </c>
@@ -5645,7 +5613,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="415" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
         <v>412</v>
       </c>
@@ -5653,7 +5621,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="416" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
         <v>413</v>
       </c>
@@ -5661,7 +5629,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="417" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
         <v>414</v>
       </c>
@@ -5669,7 +5637,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="418" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418" s="1" t="s">
         <v>415</v>
       </c>
@@ -5677,7 +5645,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="419" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
         <v>416</v>
       </c>
@@ -5685,7 +5653,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="420" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
         <v>417</v>
       </c>
@@ -5693,7 +5661,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="421" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
         <v>418</v>
       </c>
@@ -5701,7 +5669,7 @@
         <v>86.99</v>
       </c>
     </row>
-    <row r="422" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
         <v>419</v>
       </c>
@@ -5709,7 +5677,7 @@
         <v>88.49</v>
       </c>
     </row>
-    <row r="423" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
         <v>420</v>
       </c>
@@ -5717,7 +5685,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="424" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
         <v>421</v>
       </c>
@@ -5725,7 +5693,7 @@
         <v>139.80000000000001</v>
       </c>
     </row>
-    <row r="425" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
         <v>422</v>
       </c>
@@ -5733,7 +5701,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="426" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
         <v>423</v>
       </c>
@@ -5741,7 +5709,7 @@
         <v>93.99</v>
       </c>
     </row>
-    <row r="427" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
         <v>424</v>
       </c>
@@ -5749,7 +5717,7 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="428" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
         <v>425</v>
       </c>
@@ -5757,7 +5725,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="429" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
         <v>426</v>
       </c>
@@ -5765,7 +5733,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="430" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
         <v>427</v>
       </c>
@@ -5773,7 +5741,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="431" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
         <v>428</v>
       </c>
@@ -5781,7 +5749,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="432" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
         <v>429</v>
       </c>
@@ -5789,7 +5757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="433" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
         <v>430</v>
       </c>
@@ -5797,7 +5765,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="434" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
         <v>431</v>
       </c>
@@ -5805,7 +5773,7 @@
         <v>33.99</v>
       </c>
     </row>
-    <row r="435" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
         <v>432</v>
       </c>
@@ -5813,7 +5781,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="436" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
         <v>433</v>
       </c>
@@ -5821,7 +5789,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="437" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
         <v>434</v>
       </c>
@@ -5829,7 +5797,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="438" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
         <v>435</v>
       </c>
@@ -5837,7 +5805,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="439" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
         <v>436</v>
       </c>
@@ -5845,7 +5813,7 @@
         <v>179.70000000000002</v>
       </c>
     </row>
-    <row r="440" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
         <v>437</v>
       </c>
@@ -5853,7 +5821,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="441" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
         <v>438</v>
       </c>
@@ -5861,7 +5829,7 @@
         <v>115.75</v>
       </c>
     </row>
-    <row r="442" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
         <v>439</v>
       </c>
@@ -5869,7 +5837,7 @@
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="443" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
         <v>440</v>
       </c>
@@ -5877,7 +5845,7 @@
         <v>96.89</v>
       </c>
     </row>
-    <row r="444" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
         <v>441</v>
       </c>
@@ -5885,7 +5853,7 @@
         <v>99.89</v>
       </c>
     </row>
-    <row r="445" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
         <v>442</v>
       </c>
@@ -5893,7 +5861,7 @@
         <v>68.989999999999995</v>
       </c>
     </row>
-    <row r="446" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
         <v>443</v>
       </c>
@@ -5901,7 +5869,7 @@
         <v>91.99</v>
       </c>
     </row>
-    <row r="447" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
         <v>444</v>
       </c>
@@ -5909,7 +5877,7 @@
         <v>95.89</v>
       </c>
     </row>
-    <row r="448" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
         <v>445</v>
       </c>
@@ -5917,7 +5885,7 @@
         <v>45.79</v>
       </c>
     </row>
-    <row r="449" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
         <v>446</v>
       </c>
@@ -5925,7 +5893,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="450" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
         <v>447</v>
       </c>
@@ -5933,7 +5901,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="451" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
         <v>448</v>
       </c>
@@ -5941,7 +5909,7 @@
         <v>29.990000000000002</v>
       </c>
     </row>
-    <row r="452" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
         <v>449</v>
       </c>
@@ -5949,7 +5917,7 @@
         <v>29.990000000000002</v>
       </c>
     </row>
-    <row r="453" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
         <v>450</v>
       </c>
@@ -5957,7 +5925,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="454" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
         <v>451</v>
       </c>
@@ -5965,7 +5933,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="455" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
         <v>452</v>
       </c>
@@ -5973,7 +5941,7 @@
         <v>76.989999999999995</v>
       </c>
     </row>
-    <row r="456" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
         <v>453</v>
       </c>
@@ -5981,7 +5949,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="457" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
         <v>454</v>
       </c>
@@ -5989,7 +5957,7 @@
         <v>43.980000000000004</v>
       </c>
     </row>
-    <row r="458" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
         <v>455</v>
       </c>
@@ -5997,7 +5965,7 @@
         <v>58.99</v>
       </c>
     </row>
-    <row r="459" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
         <v>456</v>
       </c>
@@ -6005,7 +5973,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="460" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
         <v>457</v>
       </c>
@@ -6013,7 +5981,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="461" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
         <v>458</v>
       </c>
@@ -6021,7 +5989,7 @@
         <v>16.59</v>
       </c>
     </row>
-    <row r="462" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
         <v>459</v>
       </c>
@@ -6029,7 +5997,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="463" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
         <v>460</v>
       </c>
@@ -6037,7 +6005,7 @@
         <v>67.83</v>
       </c>
     </row>
-    <row r="464" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
         <v>461</v>
       </c>
@@ -6045,7 +6013,7 @@
         <v>179.9</v>
       </c>
     </row>
-    <row r="465" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
         <v>462</v>
       </c>
@@ -6053,7 +6021,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="466" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
         <v>463</v>
       </c>
@@ -6061,7 +6029,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="467" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
         <v>464</v>
       </c>
@@ -6069,7 +6037,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="468" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
         <v>465</v>
       </c>
@@ -6077,7 +6045,7 @@
         <v>57.49</v>
       </c>
     </row>
-    <row r="469" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
         <v>466</v>
       </c>
@@ -6085,7 +6053,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="470" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
         <v>467</v>
       </c>
@@ -6093,7 +6061,7 @@
         <v>64.989999999999995</v>
       </c>
     </row>
-    <row r="471" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
         <v>468</v>
       </c>
@@ -6101,7 +6069,7 @@
         <v>144.88999999999999</v>
       </c>
     </row>
-    <row r="472" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
         <v>469</v>
       </c>
@@ -6109,7 +6077,7 @@
         <v>25.990000000000002</v>
       </c>
     </row>
-    <row r="473" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
         <v>470</v>
       </c>
@@ -6117,7 +6085,7 @@
         <v>121.49000000000001</v>
       </c>
     </row>
-    <row r="474" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
         <v>471</v>
       </c>
@@ -6125,7 +6093,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="475" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475" s="1" t="s">
         <v>472</v>
       </c>
@@ -6133,7 +6101,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="476" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
         <v>473</v>
       </c>
@@ -6141,7 +6109,7 @@
         <v>159.69999999999999</v>
       </c>
     </row>
-    <row r="477" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
         <v>474</v>
       </c>
@@ -6149,7 +6117,7 @@
         <v>374.7</v>
       </c>
     </row>
-    <row r="478" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
         <v>475</v>
       </c>
@@ -6157,7 +6125,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="479" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
         <v>476</v>
       </c>
@@ -6165,7 +6133,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="480" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
         <v>477</v>
       </c>
@@ -6173,7 +6141,7 @@
         <v>103.85000000000001</v>
       </c>
     </row>
-    <row r="481" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
         <v>478</v>
       </c>
@@ -6181,7 +6149,7 @@
         <v>75.86</v>
       </c>
     </row>
-    <row r="482" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
         <v>479</v>
       </c>
@@ -6189,7 +6157,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="483" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
         <v>480</v>
       </c>
@@ -6197,7 +6165,7 @@
         <v>30.990000000000002</v>
       </c>
     </row>
-    <row r="484" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
         <v>481</v>
       </c>
@@ -6205,7 +6173,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="485" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B485" s="1" t="s">
         <v>482</v>
       </c>
@@ -6213,7 +6181,7 @@
         <v>34.15</v>
       </c>
     </row>
-    <row r="486" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
         <v>483</v>
       </c>
@@ -6221,7 +6189,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="487" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
         <v>484</v>
       </c>
@@ -6229,7 +6197,7 @@
         <v>27.490000000000002</v>
       </c>
     </row>
-    <row r="488" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
         <v>485</v>
       </c>
@@ -6237,7 +6205,7 @@
         <v>30.990000000000002</v>
       </c>
     </row>
-    <row r="489" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
         <v>486</v>
       </c>
@@ -6245,7 +6213,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="490" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
         <v>487</v>
       </c>
@@ -6253,7 +6221,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="491" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
         <v>488</v>
       </c>
@@ -6261,7 +6229,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="492" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
         <v>489</v>
       </c>
@@ -6269,7 +6237,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="493" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
         <v>490</v>
       </c>
@@ -6277,7 +6245,7 @@
         <v>79.75</v>
       </c>
     </row>
-    <row r="494" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
         <v>491</v>
       </c>
@@ -6285,7 +6253,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="495" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
         <v>492</v>
       </c>
@@ -6293,7 +6261,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="496" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
         <v>493</v>
       </c>
@@ -6301,7 +6269,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="497" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
         <v>494</v>
       </c>
@@ -6309,7 +6277,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="498" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B498" s="1" t="s">
         <v>495</v>
       </c>
@@ -6317,7 +6285,7 @@
         <v>81.040000000000006</v>
       </c>
     </row>
-    <row r="499" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B499" s="1" t="s">
         <v>496</v>
       </c>
@@ -6325,7 +6293,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="500" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
         <v>497</v>
       </c>
@@ -6333,7 +6301,7 @@
         <v>57.120000000000005</v>
       </c>
     </row>
-    <row r="501" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
         <v>498</v>
       </c>
@@ -6341,7 +6309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B502" s="1" t="s">
         <v>499</v>
       </c>
@@ -6349,7 +6317,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="503" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B503" s="1" t="s">
         <v>500</v>
       </c>
@@ -6357,7 +6325,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="504" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
         <v>501</v>
       </c>
@@ -6365,7 +6333,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="505" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B505" s="1" t="s">
         <v>502</v>
       </c>
@@ -6373,7 +6341,7 @@
         <v>58.160000000000004</v>
       </c>
     </row>
-    <row r="506" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
         <v>503</v>
       </c>
@@ -6381,7 +6349,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="507" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
         <v>504</v>
       </c>
@@ -6389,7 +6357,7 @@
         <v>50.99</v>
       </c>
     </row>
-    <row r="508" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B508" s="1" t="s">
         <v>505</v>
       </c>
@@ -6397,7 +6365,7 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="509" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
         <v>506</v>
       </c>
@@ -6405,7 +6373,7 @@
         <v>46.800000000000004</v>
       </c>
     </row>
-    <row r="510" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
         <v>507</v>
       </c>
@@ -6413,7 +6381,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="511" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
         <v>508</v>
       </c>
@@ -6421,7 +6389,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="512" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
         <v>509</v>
       </c>
@@ -6429,7 +6397,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="513" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
         <v>510</v>
       </c>
@@ -6437,7 +6405,7 @@
         <v>337.90000000000003</v>
       </c>
     </row>
-    <row r="514" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
         <v>511</v>
       </c>
@@ -6445,7 +6413,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="515" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
         <v>512</v>
       </c>
@@ -6453,7 +6421,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="516" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
         <v>513</v>
       </c>
@@ -6461,7 +6429,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="517" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
         <v>514</v>
       </c>
@@ -6469,7 +6437,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="518" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
         <v>515</v>
       </c>
@@ -6477,7 +6445,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="519" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
         <v>516</v>
       </c>
@@ -6485,7 +6453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
         <v>517</v>
       </c>
@@ -6493,7 +6461,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="521" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
         <v>518</v>
       </c>
@@ -6501,7 +6469,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="522" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
         <v>519</v>
       </c>
@@ -6509,7 +6477,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="523" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
         <v>520</v>
       </c>
@@ -6517,7 +6485,7 @@
         <v>37.61</v>
       </c>
     </row>
-    <row r="524" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
         <v>521</v>
       </c>
@@ -6525,7 +6493,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="525" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
         <v>522</v>
       </c>
@@ -6533,7 +6501,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="526" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
         <v>523</v>
       </c>
@@ -6541,7 +6509,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="527" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" s="1" t="s">
         <v>524</v>
       </c>
@@ -6549,7 +6517,7 @@
         <v>31.900000000000002</v>
       </c>
     </row>
-    <row r="528" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
         <v>525</v>
       </c>
@@ -6557,7 +6525,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="529" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
         <v>526</v>
       </c>
@@ -6565,7 +6533,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="530" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
         <v>527</v>
       </c>
@@ -6573,7 +6541,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="531" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
         <v>528</v>
       </c>
@@ -6581,7 +6549,7 @@
         <v>36.89</v>
       </c>
     </row>
-    <row r="532" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
         <v>529</v>
       </c>
@@ -6589,7 +6557,7 @@
         <v>74.67</v>
       </c>
     </row>
-    <row r="533" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
         <v>530</v>
       </c>
@@ -6597,7 +6565,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="534" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
         <v>531</v>
       </c>
@@ -6605,7 +6573,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="535" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
         <v>532</v>
       </c>
@@ -6613,7 +6581,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="536" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
         <v>533</v>
       </c>
@@ -6621,7 +6589,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="537" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
         <v>534</v>
       </c>
@@ -6629,7 +6597,7 @@
         <v>165.4</v>
       </c>
     </row>
-    <row r="538" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
         <v>535</v>
       </c>
@@ -6637,7 +6605,7 @@
         <v>20.990000000000002</v>
       </c>
     </row>
-    <row r="539" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
         <v>536</v>
       </c>
@@ -6645,7 +6613,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="540" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
         <v>537</v>
       </c>
@@ -6653,7 +6621,7 @@
         <v>46.62</v>
       </c>
     </row>
-    <row r="541" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
         <v>538</v>
       </c>
@@ -6661,7 +6629,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="542" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
         <v>539</v>
       </c>
@@ -6669,7 +6637,7 @@
         <v>13.23</v>
       </c>
     </row>
-    <row r="543" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
         <v>540</v>
       </c>
@@ -6677,7 +6645,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="544" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
         <v>541</v>
       </c>
@@ -6685,7 +6653,7 @@
         <v>41.13</v>
       </c>
     </row>
-    <row r="545" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
         <v>542</v>
       </c>
@@ -6693,7 +6661,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="546" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
         <v>543</v>
       </c>
@@ -6701,7 +6669,7 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="547" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
         <v>544</v>
       </c>
@@ -6709,7 +6677,7 @@
         <v>76.95</v>
       </c>
     </row>
-    <row r="548" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
         <v>545</v>
       </c>
@@ -6717,7 +6685,7 @@
         <v>20.490000000000002</v>
       </c>
     </row>
-    <row r="549" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
         <v>546</v>
       </c>
@@ -6725,7 +6693,7 @@
         <v>37.43</v>
       </c>
     </row>
-    <row r="550" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
         <v>547</v>
       </c>
@@ -6733,7 +6701,7 @@
         <v>41.49</v>
       </c>
     </row>
-    <row r="551" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
         <v>548</v>
       </c>
@@ -6741,7 +6709,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="552" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
         <v>549</v>
       </c>
@@ -6749,7 +6717,7 @@
         <v>56.99</v>
       </c>
     </row>
-    <row r="553" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
         <v>550</v>
       </c>
@@ -6757,7 +6725,7 @@
         <v>61.800000000000004</v>
       </c>
     </row>
-    <row r="554" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
         <v>551</v>
       </c>
@@ -6765,7 +6733,7 @@
         <v>46.79</v>
       </c>
     </row>
-    <row r="555" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
         <v>552</v>
       </c>
@@ -6773,7 +6741,7 @@
         <v>43.800000000000004</v>
       </c>
     </row>
-    <row r="556" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
         <v>553</v>
       </c>
@@ -6781,7 +6749,7 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="557" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
         <v>554</v>
       </c>
@@ -6789,7 +6757,7 @@
         <v>43.99</v>
       </c>
     </row>
-    <row r="558" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B558" s="1" t="s">
         <v>555</v>
       </c>
@@ -6797,7 +6765,7 @@
         <v>43.99</v>
       </c>
     </row>
-    <row r="559" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
         <v>556</v>
       </c>
@@ -6805,7 +6773,7 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="560" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
         <v>557</v>
       </c>
@@ -6813,7 +6781,7 @@
         <v>41.99</v>
       </c>
     </row>
-    <row r="561" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B561" s="1" t="s">
         <v>558</v>
       </c>
@@ -6821,7 +6789,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="562" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B562" s="1" t="s">
         <v>559</v>
       </c>
@@ -6829,7 +6797,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="563" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B563" s="1" t="s">
         <v>560</v>
       </c>
@@ -6837,7 +6805,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="564" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B564" s="1" t="s">
         <v>561</v>
       </c>
@@ -6845,7 +6813,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="565" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
         <v>562</v>
       </c>
@@ -6853,7 +6821,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="566" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
         <v>563</v>
       </c>
@@ -6861,7 +6829,7 @@
         <v>20.990000000000002</v>
       </c>
     </row>
-    <row r="567" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
         <v>564</v>
       </c>
@@ -6869,7 +6837,7 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="568" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B568" s="1" t="s">
         <v>565</v>
       </c>
@@ -6877,7 +6845,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="569" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
         <v>566</v>
       </c>
@@ -6885,7 +6853,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="570" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B570" s="1" t="s">
         <v>567</v>
       </c>
@@ -6893,7 +6861,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="571" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B571" s="1" t="s">
         <v>568</v>
       </c>
@@ -6901,7 +6869,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="572" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B572" s="1" t="s">
         <v>569</v>
       </c>
@@ -6909,7 +6877,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="573" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B573" s="1" t="s">
         <v>570</v>
       </c>
@@ -6917,7 +6885,7 @@
         <v>66.489999999999995</v>
       </c>
     </row>
-    <row r="574" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B574" s="1" t="s">
         <v>571</v>
       </c>
@@ -6925,7 +6893,7 @@
         <v>22.900000000000002</v>
       </c>
     </row>
-    <row r="575" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B575" s="1" t="s">
         <v>572</v>
       </c>
@@ -6933,7 +6901,7 @@
         <v>165.9</v>
       </c>
     </row>
-    <row r="576" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B576" s="1" t="s">
         <v>573</v>
       </c>
@@ -6941,7 +6909,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="577" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B577" s="1" t="s">
         <v>574</v>
       </c>
@@ -6949,7 +6917,7 @@
         <v>30.990000000000002</v>
       </c>
     </row>
-    <row r="578" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B578" s="1" t="s">
         <v>575</v>
       </c>
@@ -6957,7 +6925,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="579" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
         <v>576</v>
       </c>
@@ -6965,15 +6933,15 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="580" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B580" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C580" s="6">
         <v>3.99</v>
       </c>
     </row>
-    <row r="581" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B581" s="1" t="s">
         <v>577</v>
       </c>
@@ -6981,7 +6949,7 @@
         <v>27.990000000000002</v>
       </c>
     </row>
-    <row r="582" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B582" s="1" t="s">
         <v>578</v>
       </c>
@@ -6989,7 +6957,7 @@
         <v>44.49</v>
       </c>
     </row>
-    <row r="583" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B583" s="1" t="s">
         <v>579</v>
       </c>
@@ -6997,7 +6965,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="584" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B584" s="1" t="s">
         <v>580</v>
       </c>
@@ -7005,7 +6973,7 @@
         <v>80.989999999999995</v>
       </c>
     </row>
-    <row r="585" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B585" s="1" t="s">
         <v>581</v>
       </c>
@@ -7013,7 +6981,7 @@
         <v>279.83999999999997</v>
       </c>
     </row>
-    <row r="586" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B586" s="1" t="s">
         <v>582</v>
       </c>
@@ -7021,7 +6989,7 @@
         <v>22.990000000000002</v>
       </c>
     </row>
-    <row r="587" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B587" s="1" t="s">
         <v>583</v>
       </c>
@@ -7029,7 +6997,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="588" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
         <v>584</v>
       </c>
@@ -7037,7 +7005,7 @@
         <v>50.99</v>
       </c>
     </row>
-    <row r="589" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B589" s="1" t="s">
         <v>585</v>
       </c>
@@ -7045,7 +7013,7 @@
         <v>80.989999999999995</v>
       </c>
     </row>
-    <row r="590" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B590" s="1" t="s">
         <v>586</v>
       </c>
@@ -7053,7 +7021,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="591" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B591" s="1" t="s">
         <v>587</v>
       </c>
@@ -7061,7 +7029,7 @@
         <v>50.99</v>
       </c>
     </row>
-    <row r="592" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B592" s="1" t="s">
         <v>588</v>
       </c>
@@ -7069,115 +7037,93 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593"/>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B593" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C593" s="6">
         <v>64.989999999999995</v>
       </c>
-      <c r="D593"/>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594"/>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B594" s="1" t="s">
         <v>590</v>
       </c>
       <c r="C594" s="6">
         <v>52.65</v>
       </c>
-      <c r="D594"/>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595"/>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B595" s="1" t="s">
         <v>591</v>
       </c>
       <c r="C595" s="6">
         <v>449.90000000000003</v>
       </c>
-      <c r="D595"/>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596"/>
+    </row>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B596" s="1" t="s">
         <v>592</v>
       </c>
       <c r="C596" s="6">
         <v>73.989999999999995</v>
       </c>
-      <c r="D596"/>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597"/>
+    </row>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B597" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C597" s="6">
         <v>80.290000000000006</v>
       </c>
-      <c r="D597"/>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A598"/>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B598" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C598" s="6">
         <v>24.900000000000002</v>
       </c>
-      <c r="D598"/>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599"/>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B599" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C599" s="6">
         <v>40.35</v>
       </c>
-      <c r="D599"/>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600"/>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B600" s="1" t="s">
         <v>596</v>
       </c>
       <c r="C600" s="6">
         <v>62.4</v>
       </c>
-      <c r="D600"/>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601"/>
+    </row>
+    <row r="601" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B601" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C601" s="6">
         <v>45.800000000000004</v>
       </c>
-      <c r="D601"/>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602"/>
+    </row>
+    <row r="602" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B602" s="1" t="s">
         <v>598</v>
       </c>
       <c r="C602" s="6">
         <v>85.99</v>
       </c>
-      <c r="D602"/>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603"/>
+    </row>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B603" s="1" t="s">
         <v>599</v>
       </c>
       <c r="C603" s="6">
         <v>199.9</v>
       </c>
-      <c r="D603"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3603DC92-DC38-4FC0-8B9F-45FBCAFEA3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA20AC5-07C1-47A6-9C98-7148929DEFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -1906,13 +1906,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2282,7 +2282,7 @@
   <dimension ref="A1:D603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA20AC5-07C1-47A6-9C98-7148929DEFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C93CF-ECCC-4566-9274-9540FECA1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -1846,6 +1846,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1906,13 +1909,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1937,7 +1940,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2282,7 +2285,7 @@
   <dimension ref="A1:D603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <v>20.89</v>
+        <v>20.809000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="6">
-        <v>29.39</v>
+        <v>29.309000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -2450,7 +2453,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="6">
-        <v>22.400000000000002</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -2474,7 +2477,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="6">
-        <v>52.49</v>
+        <v>52.408999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -2482,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="6">
-        <v>56.480000000000004</v>
+        <v>56.408000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -2506,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="6">
-        <v>57.59</v>
+        <v>57.509</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -2554,7 +2557,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="6">
-        <v>139.13</v>
+        <v>139.1003</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -2562,7 +2565,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="6">
-        <v>50.49</v>
+        <v>50.408999999999999</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -2586,7 +2589,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="6">
-        <v>97.490000000000009</v>
+        <v>97.409000000000006</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -2682,7 +2685,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="6">
-        <v>33.69</v>
+        <v>33.609000000000002</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -2730,7 +2733,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="6">
-        <v>11.49</v>
+        <v>11.409000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -2754,7 +2757,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="6">
-        <v>79.89</v>
+        <v>79.808999999999997</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -2786,7 +2789,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="6">
-        <v>13.200000000000001</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -2842,7 +2845,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="6">
-        <v>43.49</v>
+        <v>43.408999999999999</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -2850,7 +2853,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="6">
-        <v>31.400000000000002</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -2858,7 +2861,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="6">
-        <v>33.229999999999997</v>
+        <v>33.203000000000003</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -2882,7 +2885,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="6">
-        <v>58.800000000000004</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -2914,7 +2917,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="6">
-        <v>24.75</v>
+        <v>24.704999999999998</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -2946,7 +2949,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="6">
-        <v>26.35</v>
+        <v>26.305</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -2954,7 +2957,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="6">
-        <v>54.89</v>
+        <v>54.808999999999997</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -3026,7 +3029,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="6">
-        <v>63.690000000000005</v>
+        <v>63.609000000000002</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
@@ -3034,7 +3037,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="6">
-        <v>41.85</v>
+        <v>41.805</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
@@ -3050,7 +3053,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="6">
-        <v>2221.25</v>
+        <v>2221.2049999999999</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -3058,7 +3061,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="6">
-        <v>175.77</v>
+        <v>175.70699999999999</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -3082,7 +3085,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="6">
-        <v>32.130000000000003</v>
+        <v>32.100299999999997</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
@@ -3122,7 +3125,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="6">
-        <v>36.75</v>
+        <v>36.704999999999998</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
@@ -3130,7 +3133,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="6">
-        <v>33.75</v>
+        <v>33.704999999999998</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
@@ -3138,7 +3141,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="6">
-        <v>32.130000000000003</v>
+        <v>32.100299999999997</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
@@ -3146,7 +3149,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="6">
-        <v>90.53</v>
+        <v>90.503</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
@@ -3186,7 +3189,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="6">
-        <v>33.75</v>
+        <v>33.704999999999998</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
@@ -3194,7 +3197,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="6">
-        <v>33.75</v>
+        <v>33.704999999999998</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -3218,7 +3221,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="6">
-        <v>33.75</v>
+        <v>33.704999999999998</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -3242,7 +3245,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="6">
-        <v>33.75</v>
+        <v>33.704999999999998</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
@@ -3258,7 +3261,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="6">
-        <v>63.89</v>
+        <v>63.808999999999997</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
@@ -3290,7 +3293,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="6">
-        <v>36.75</v>
+        <v>36.704999999999998</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
@@ -3330,7 +3333,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="6">
-        <v>57.120000000000005</v>
+        <v>57.100200000000001</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
@@ -3394,7 +3397,7 @@
         <v>135</v>
       </c>
       <c r="C137" s="6">
-        <v>14.69</v>
+        <v>14.609</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
@@ -3410,7 +3413,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="6">
-        <v>14.89</v>
+        <v>14.808999999999999</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
@@ -3434,7 +3437,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="6">
-        <v>14.700000000000001</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
@@ -3482,7 +3485,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="6">
-        <v>129.88999999999999</v>
+        <v>129.809</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
@@ -3562,7 +3565,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="6">
-        <v>106.53</v>
+        <v>106.503</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
@@ -3570,7 +3573,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="6">
-        <v>65.77</v>
+        <v>65.706999999999994</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
@@ -3634,7 +3637,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="6">
-        <v>139.88999999999999</v>
+        <v>139.809</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
@@ -3658,7 +3661,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="6">
-        <v>119.89</v>
+        <v>119.809</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
@@ -3666,7 +3669,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="6">
-        <v>119.89</v>
+        <v>119.809</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
@@ -3674,7 +3677,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="6">
-        <v>156.88999999999999</v>
+        <v>156.809</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
@@ -3682,7 +3685,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="6">
-        <v>119.89</v>
+        <v>119.809</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
@@ -3714,7 +3717,7 @@
         <v>175</v>
       </c>
       <c r="C177" s="6">
-        <v>38.49</v>
+        <v>38.408999999999999</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
@@ -3762,7 +3765,7 @@
         <v>181</v>
       </c>
       <c r="C183" s="6">
-        <v>90.49</v>
+        <v>90.409000000000006</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
@@ -3834,7 +3837,7 @@
         <v>190</v>
       </c>
       <c r="C192" s="6">
-        <v>182.70000000000002</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
@@ -3858,7 +3861,7 @@
         <v>193</v>
       </c>
       <c r="C195" s="6">
-        <v>27.400000000000002</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
@@ -3866,7 +3869,7 @@
         <v>194</v>
       </c>
       <c r="C196" s="6">
-        <v>127.79</v>
+        <v>127.709</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
@@ -3874,7 +3877,7 @@
         <v>195</v>
       </c>
       <c r="C197" s="6">
-        <v>133.13</v>
+        <v>133.1003</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
@@ -3882,7 +3885,7 @@
         <v>196</v>
       </c>
       <c r="C198" s="6">
-        <v>29.79</v>
+        <v>29.709</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
@@ -3898,7 +3901,7 @@
         <v>198</v>
       </c>
       <c r="C200" s="6">
-        <v>45.89</v>
+        <v>45.808999999999997</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
@@ -3906,7 +3909,7 @@
         <v>199</v>
       </c>
       <c r="C201" s="6">
-        <v>68.849999999999994</v>
+        <v>68.805000000000007</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
@@ -3914,7 +3917,7 @@
         <v>200</v>
       </c>
       <c r="C202" s="6">
-        <v>33.49</v>
+        <v>33.408999999999999</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
@@ -3930,7 +3933,7 @@
         <v>202</v>
       </c>
       <c r="C204" s="6">
-        <v>37.69</v>
+        <v>37.609000000000002</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
@@ -3946,7 +3949,7 @@
         <v>204</v>
       </c>
       <c r="C206" s="6">
-        <v>43.49</v>
+        <v>43.408999999999999</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
@@ -3970,7 +3973,7 @@
         <v>207</v>
       </c>
       <c r="C209" s="6">
-        <v>115.10000000000001</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
@@ -4130,7 +4133,7 @@
         <v>227</v>
       </c>
       <c r="C229" s="6">
-        <v>29.59</v>
+        <v>29.509</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
@@ -4138,7 +4141,7 @@
         <v>228</v>
       </c>
       <c r="C230" s="6">
-        <v>68.349999999999994</v>
+        <v>68.305000000000007</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
@@ -4154,7 +4157,7 @@
         <v>230</v>
       </c>
       <c r="C232" s="6">
-        <v>56.29</v>
+        <v>56.209000000000003</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
@@ -4162,7 +4165,7 @@
         <v>231</v>
       </c>
       <c r="C233" s="6">
-        <v>56.69</v>
+        <v>56.609000000000002</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
@@ -4170,7 +4173,7 @@
         <v>232</v>
       </c>
       <c r="C234" s="6">
-        <v>110.89</v>
+        <v>110.809</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
@@ -4194,7 +4197,7 @@
         <v>235</v>
       </c>
       <c r="C237" s="6">
-        <v>25.89</v>
+        <v>25.809000000000001</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
@@ -4202,7 +4205,7 @@
         <v>236</v>
       </c>
       <c r="C238" s="6">
-        <v>31.490000000000002</v>
+        <v>31.408999999999999</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
@@ -4218,7 +4221,7 @@
         <v>238</v>
       </c>
       <c r="C240" s="6">
-        <v>22.75</v>
+        <v>22.704999999999998</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
@@ -4226,7 +4229,7 @@
         <v>239</v>
       </c>
       <c r="C241" s="6">
-        <v>96.69</v>
+        <v>96.608999999999995</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
@@ -4282,7 +4285,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="6">
-        <v>41.49</v>
+        <v>41.408999999999999</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
@@ -4306,7 +4309,7 @@
         <v>249</v>
       </c>
       <c r="C251" s="6">
-        <v>92.69</v>
+        <v>92.608999999999995</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
@@ -4322,7 +4325,7 @@
         <v>251</v>
       </c>
       <c r="C253" s="6">
-        <v>144.47999999999999</v>
+        <v>144.40799999999999</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
@@ -4338,7 +4341,7 @@
         <v>253</v>
       </c>
       <c r="C255" s="6">
-        <v>238.20000000000002</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
@@ -4370,7 +4373,7 @@
         <v>257</v>
       </c>
       <c r="C259" s="6">
-        <v>130.13</v>
+        <v>130.1003</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
@@ -4386,7 +4389,7 @@
         <v>259</v>
       </c>
       <c r="C261" s="6">
-        <v>151.47</v>
+        <v>151.40700000000001</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
@@ -4410,7 +4413,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="6">
-        <v>31.63</v>
+        <v>31.603000000000002</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
@@ -4426,7 +4429,7 @@
         <v>264</v>
       </c>
       <c r="C266" s="6">
-        <v>21.400000000000002</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
@@ -4458,7 +4461,7 @@
         <v>268</v>
       </c>
       <c r="C270" s="6">
-        <v>17.79</v>
+        <v>17.709</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
@@ -4482,7 +4485,7 @@
         <v>271</v>
       </c>
       <c r="C273" s="6">
-        <v>44.49</v>
+        <v>44.408999999999999</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
@@ -4490,7 +4493,7 @@
         <v>272</v>
       </c>
       <c r="C274" s="6">
-        <v>22.67</v>
+        <v>22.606999999999999</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
@@ -4498,7 +4501,7 @@
         <v>273</v>
       </c>
       <c r="C275" s="6">
-        <v>23.67</v>
+        <v>23.606999999999999</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
@@ -4506,7 +4509,7 @@
         <v>274</v>
       </c>
       <c r="C276" s="6">
-        <v>23.67</v>
+        <v>23.606999999999999</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
@@ -4538,7 +4541,7 @@
         <v>278</v>
       </c>
       <c r="C280" s="6">
-        <v>18.489999999999998</v>
+        <v>18.408999999999999</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
@@ -4546,7 +4549,7 @@
         <v>279</v>
       </c>
       <c r="C281" s="6">
-        <v>35.79</v>
+        <v>35.709000000000003</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
@@ -4562,7 +4565,7 @@
         <v>281</v>
       </c>
       <c r="C283" s="6">
-        <v>50.64</v>
+        <v>50.603999999999999</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
@@ -4578,7 +4581,7 @@
         <v>283</v>
       </c>
       <c r="C285" s="6">
-        <v>106.89</v>
+        <v>106.809</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
@@ -4610,7 +4613,7 @@
         <v>287</v>
       </c>
       <c r="C289" s="6">
-        <v>14.200000000000001</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
@@ -4634,7 +4637,7 @@
         <v>290</v>
       </c>
       <c r="C292" s="6">
-        <v>37.49</v>
+        <v>37.408999999999999</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
@@ -4658,7 +4661,7 @@
         <v>293</v>
       </c>
       <c r="C295" s="6">
-        <v>69.59</v>
+        <v>69.509</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
@@ -4706,7 +4709,7 @@
         <v>299</v>
       </c>
       <c r="C301" s="6">
-        <v>23.69</v>
+        <v>23.609000000000002</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
@@ -4714,7 +4717,7 @@
         <v>300</v>
       </c>
       <c r="C302" s="6">
-        <v>11.700000000000001</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
@@ -4722,7 +4725,7 @@
         <v>301</v>
       </c>
       <c r="C303" s="6">
-        <v>28.25</v>
+        <v>28.204999999999998</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
@@ -4754,7 +4757,7 @@
         <v>305</v>
       </c>
       <c r="C307" s="6">
-        <v>24.490000000000002</v>
+        <v>24.408999999999999</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
@@ -4794,7 +4797,7 @@
         <v>310</v>
       </c>
       <c r="C312" s="6">
-        <v>18.690000000000001</v>
+        <v>18.609000000000002</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
@@ -4818,7 +4821,7 @@
         <v>313</v>
       </c>
       <c r="C315" s="6">
-        <v>55.19</v>
+        <v>55.100900000000003</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
@@ -4834,7 +4837,7 @@
         <v>315</v>
       </c>
       <c r="C317" s="6">
-        <v>41.85</v>
+        <v>41.805</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
@@ -4842,7 +4845,7 @@
         <v>316</v>
       </c>
       <c r="C318" s="6">
-        <v>93.15</v>
+        <v>93.100499999999997</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
@@ -4858,7 +4861,7 @@
         <v>318</v>
       </c>
       <c r="C320" s="6">
-        <v>47.88</v>
+        <v>47.808</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
@@ -4882,7 +4885,7 @@
         <v>321</v>
       </c>
       <c r="C323" s="6">
-        <v>17.75</v>
+        <v>17.704999999999998</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
@@ -4898,7 +4901,7 @@
         <v>323</v>
       </c>
       <c r="C325" s="6">
-        <v>25.650000000000002</v>
+        <v>25.605</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
@@ -4906,7 +4909,7 @@
         <v>324</v>
       </c>
       <c r="C326" s="6">
-        <v>13.31</v>
+        <v>13.301</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
@@ -4914,7 +4917,7 @@
         <v>325</v>
       </c>
       <c r="C327" s="6">
-        <v>12.14</v>
+        <v>12.1004</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
@@ -4922,7 +4925,7 @@
         <v>326</v>
       </c>
       <c r="C328" s="6">
-        <v>12.18</v>
+        <v>12.1008</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
@@ -4930,7 +4933,7 @@
         <v>327</v>
       </c>
       <c r="C329" s="6">
-        <v>22.89</v>
+        <v>22.809000000000001</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
@@ -4946,7 +4949,7 @@
         <v>329</v>
       </c>
       <c r="C331" s="6">
-        <v>42.59</v>
+        <v>42.509</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
@@ -4954,7 +4957,7 @@
         <v>330</v>
       </c>
       <c r="C332" s="6">
-        <v>47.89</v>
+        <v>47.808999999999997</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
@@ -4986,7 +4989,7 @@
         <v>334</v>
       </c>
       <c r="C336" s="6">
-        <v>57.49</v>
+        <v>57.408999999999999</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
@@ -5042,7 +5045,7 @@
         <v>341</v>
       </c>
       <c r="C343" s="6">
-        <v>52.800000000000004</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
@@ -5066,7 +5069,7 @@
         <v>344</v>
       </c>
       <c r="C346" s="6">
-        <v>50.79</v>
+        <v>50.709000000000003</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
@@ -5074,7 +5077,7 @@
         <v>345</v>
       </c>
       <c r="C347" s="6">
-        <v>39.89</v>
+        <v>39.808999999999997</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
@@ -5130,7 +5133,7 @@
         <v>352</v>
       </c>
       <c r="C354" s="6">
-        <v>114.25</v>
+        <v>114.205</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
@@ -5146,7 +5149,7 @@
         <v>354</v>
       </c>
       <c r="C356" s="6">
-        <v>49.89</v>
+        <v>49.808999999999997</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
@@ -5170,7 +5173,7 @@
         <v>357</v>
       </c>
       <c r="C359" s="6">
-        <v>134.25</v>
+        <v>134.20500000000001</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
@@ -5186,7 +5189,7 @@
         <v>359</v>
       </c>
       <c r="C361" s="6">
-        <v>32.11</v>
+        <v>32.100099999999998</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
@@ -5202,7 +5205,7 @@
         <v>361</v>
       </c>
       <c r="C363" s="6">
-        <v>57.59</v>
+        <v>57.509</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
@@ -5266,7 +5269,7 @@
         <v>369</v>
       </c>
       <c r="C371" s="6">
-        <v>44.82</v>
+        <v>44.802</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
@@ -5290,7 +5293,7 @@
         <v>372</v>
       </c>
       <c r="C374" s="6">
-        <v>49.25</v>
+        <v>49.204999999999998</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
@@ -5298,7 +5301,7 @@
         <v>373</v>
       </c>
       <c r="C375" s="6">
-        <v>52.89</v>
+        <v>52.808999999999997</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
@@ -5306,7 +5309,7 @@
         <v>374</v>
       </c>
       <c r="C376" s="6">
-        <v>27.79</v>
+        <v>27.709</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
@@ -5322,7 +5325,7 @@
         <v>375</v>
       </c>
       <c r="C378" s="6">
-        <v>14.15</v>
+        <v>14.1005</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
@@ -5338,7 +5341,7 @@
         <v>377</v>
       </c>
       <c r="C380" s="6">
-        <v>88.600000000000009</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
@@ -5354,7 +5357,7 @@
         <v>379</v>
       </c>
       <c r="C382" s="6">
-        <v>4.1900000000000004</v>
+        <v>4.1009000000000002</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
@@ -5394,7 +5397,7 @@
         <v>384</v>
       </c>
       <c r="C387" s="6">
-        <v>38.89</v>
+        <v>38.808999999999997</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
@@ -5410,7 +5413,7 @@
         <v>386</v>
       </c>
       <c r="C389" s="6">
-        <v>13.13</v>
+        <v>13.100300000000001</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
@@ -5458,7 +5461,7 @@
         <v>392</v>
       </c>
       <c r="C395" s="6">
-        <v>70.790000000000006</v>
+        <v>70.709000000000003</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
@@ -5474,7 +5477,7 @@
         <v>394</v>
       </c>
       <c r="C397" s="6">
-        <v>6.29</v>
+        <v>6.2089999999999996</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
@@ -5530,7 +5533,7 @@
         <v>401</v>
       </c>
       <c r="C404" s="6">
-        <v>47.25</v>
+        <v>47.204999999999998</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
@@ -5602,7 +5605,7 @@
         <v>410</v>
       </c>
       <c r="C413" s="6">
-        <v>167.36</v>
+        <v>167.30600000000001</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
@@ -5618,7 +5621,7 @@
         <v>412</v>
       </c>
       <c r="C415" s="6">
-        <v>34.65</v>
+        <v>34.604999999999997</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
@@ -5650,7 +5653,7 @@
         <v>416</v>
       </c>
       <c r="C419" s="6">
-        <v>11.39</v>
+        <v>11.308999999999999</v>
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
@@ -5674,7 +5677,7 @@
         <v>419</v>
       </c>
       <c r="C422" s="6">
-        <v>88.49</v>
+        <v>88.409000000000006</v>
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
@@ -5778,7 +5781,7 @@
         <v>432</v>
       </c>
       <c r="C435" s="6">
-        <v>23.67</v>
+        <v>23.606999999999999</v>
       </c>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
@@ -5810,7 +5813,7 @@
         <v>436</v>
       </c>
       <c r="C439" s="6">
-        <v>179.70000000000002</v>
+        <v>179.7</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
@@ -5826,7 +5829,7 @@
         <v>438</v>
       </c>
       <c r="C441" s="6">
-        <v>115.75</v>
+        <v>115.705</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
@@ -5842,7 +5845,7 @@
         <v>440</v>
       </c>
       <c r="C443" s="6">
-        <v>96.89</v>
+        <v>96.808999999999997</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
@@ -5850,7 +5853,7 @@
         <v>441</v>
       </c>
       <c r="C444" s="6">
-        <v>99.89</v>
+        <v>99.808999999999997</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
@@ -5874,7 +5877,7 @@
         <v>444</v>
       </c>
       <c r="C447" s="6">
-        <v>95.89</v>
+        <v>95.808999999999997</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
@@ -5882,7 +5885,7 @@
         <v>445</v>
       </c>
       <c r="C448" s="6">
-        <v>45.79</v>
+        <v>45.709000000000003</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
@@ -5930,7 +5933,7 @@
         <v>451</v>
       </c>
       <c r="C454" s="6">
-        <v>33.69</v>
+        <v>33.609000000000002</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
@@ -5978,7 +5981,7 @@
         <v>457</v>
       </c>
       <c r="C460" s="6">
-        <v>23.67</v>
+        <v>23.606999999999999</v>
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
@@ -5986,7 +5989,7 @@
         <v>458</v>
       </c>
       <c r="C461" s="6">
-        <v>16.59</v>
+        <v>16.509</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
@@ -6002,7 +6005,7 @@
         <v>460</v>
       </c>
       <c r="C463" s="6">
-        <v>67.83</v>
+        <v>67.802999999999997</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
@@ -6026,7 +6029,7 @@
         <v>463</v>
       </c>
       <c r="C466" s="6">
-        <v>27.85</v>
+        <v>27.805</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
@@ -6042,7 +6045,7 @@
         <v>465</v>
       </c>
       <c r="C468" s="6">
-        <v>57.49</v>
+        <v>57.408999999999999</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
@@ -6066,7 +6069,7 @@
         <v>468</v>
       </c>
       <c r="C471" s="6">
-        <v>144.88999999999999</v>
+        <v>144.809</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
@@ -6082,7 +6085,7 @@
         <v>470</v>
       </c>
       <c r="C473" s="6">
-        <v>121.49000000000001</v>
+        <v>121.40900000000001</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
@@ -6130,7 +6133,7 @@
         <v>476</v>
       </c>
       <c r="C479" s="6">
-        <v>18.39</v>
+        <v>18.309000000000001</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
@@ -6138,7 +6141,7 @@
         <v>477</v>
       </c>
       <c r="C480" s="6">
-        <v>103.85000000000001</v>
+        <v>103.80500000000001</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
@@ -6146,7 +6149,7 @@
         <v>478</v>
       </c>
       <c r="C481" s="6">
-        <v>75.86</v>
+        <v>75.805999999999997</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
@@ -6178,7 +6181,7 @@
         <v>482</v>
       </c>
       <c r="C485" s="6">
-        <v>34.15</v>
+        <v>34.100499999999997</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
@@ -6194,7 +6197,7 @@
         <v>484</v>
       </c>
       <c r="C487" s="6">
-        <v>27.490000000000002</v>
+        <v>27.408999999999999</v>
       </c>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
@@ -6242,7 +6245,7 @@
         <v>490</v>
       </c>
       <c r="C493" s="6">
-        <v>79.75</v>
+        <v>79.704999999999998</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
@@ -6258,7 +6261,7 @@
         <v>492</v>
       </c>
       <c r="C495" s="6">
-        <v>30.35</v>
+        <v>30.305</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
@@ -6290,7 +6293,7 @@
         <v>496</v>
       </c>
       <c r="C499" s="6">
-        <v>26.42</v>
+        <v>26.402000000000001</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
@@ -6298,7 +6301,7 @@
         <v>497</v>
       </c>
       <c r="C500" s="6">
-        <v>57.120000000000005</v>
+        <v>57.100200000000001</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
@@ -6338,7 +6341,7 @@
         <v>502</v>
       </c>
       <c r="C505" s="6">
-        <v>58.160000000000004</v>
+        <v>58.1006</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
@@ -6362,7 +6365,7 @@
         <v>505</v>
       </c>
       <c r="C508" s="6">
-        <v>47.25</v>
+        <v>47.204999999999998</v>
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
@@ -6370,7 +6373,7 @@
         <v>506</v>
       </c>
       <c r="C509" s="6">
-        <v>46.800000000000004</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
@@ -6378,7 +6381,7 @@
         <v>507</v>
       </c>
       <c r="C510" s="6">
-        <v>32.36</v>
+        <v>32.305999999999997</v>
       </c>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
@@ -6386,7 +6389,7 @@
         <v>508</v>
       </c>
       <c r="C511" s="6">
-        <v>32.36</v>
+        <v>32.305999999999997</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
@@ -6394,7 +6397,7 @@
         <v>509</v>
       </c>
       <c r="C512" s="6">
-        <v>13.55</v>
+        <v>13.505000000000001</v>
       </c>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
@@ -6410,7 +6413,7 @@
         <v>511</v>
       </c>
       <c r="C514" s="6">
-        <v>28.79</v>
+        <v>28.709</v>
       </c>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
@@ -6418,7 +6421,7 @@
         <v>512</v>
       </c>
       <c r="C515" s="6">
-        <v>5.29</v>
+        <v>5.2089999999999996</v>
       </c>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
@@ -6426,7 +6429,7 @@
         <v>513</v>
       </c>
       <c r="C516" s="6">
-        <v>10.49</v>
+        <v>10.409000000000001</v>
       </c>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
@@ -6434,7 +6437,7 @@
         <v>514</v>
       </c>
       <c r="C517" s="6">
-        <v>7.83</v>
+        <v>7.8029999999999999</v>
       </c>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
@@ -6466,7 +6469,7 @@
         <v>518</v>
       </c>
       <c r="C521" s="6">
-        <v>5.19</v>
+        <v>5.1009000000000002</v>
       </c>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
@@ -6482,7 +6485,7 @@
         <v>520</v>
       </c>
       <c r="C523" s="6">
-        <v>37.61</v>
+        <v>37.600999999999999</v>
       </c>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
@@ -6506,7 +6509,7 @@
         <v>523</v>
       </c>
       <c r="C526" s="6">
-        <v>55.49</v>
+        <v>55.408999999999999</v>
       </c>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
@@ -6546,7 +6549,7 @@
         <v>528</v>
       </c>
       <c r="C531" s="6">
-        <v>36.89</v>
+        <v>36.808999999999997</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
@@ -6554,7 +6557,7 @@
         <v>529</v>
       </c>
       <c r="C532" s="6">
-        <v>74.67</v>
+        <v>74.606999999999999</v>
       </c>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
@@ -6562,7 +6565,7 @@
         <v>530</v>
       </c>
       <c r="C533" s="6">
-        <v>24.59</v>
+        <v>24.509</v>
       </c>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
@@ -6586,7 +6589,7 @@
         <v>533</v>
       </c>
       <c r="C536" s="6">
-        <v>18.39</v>
+        <v>18.309000000000001</v>
       </c>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
@@ -6618,7 +6621,7 @@
         <v>537</v>
       </c>
       <c r="C540" s="6">
-        <v>46.62</v>
+        <v>46.601999999999997</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
@@ -6626,7 +6629,7 @@
         <v>538</v>
       </c>
       <c r="C541" s="6">
-        <v>5.78</v>
+        <v>5.7080000000000002</v>
       </c>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
@@ -6634,7 +6637,7 @@
         <v>539</v>
       </c>
       <c r="C542" s="6">
-        <v>13.23</v>
+        <v>13.202999999999999</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
@@ -6650,7 +6653,7 @@
         <v>541</v>
       </c>
       <c r="C544" s="6">
-        <v>41.13</v>
+        <v>41.100299999999997</v>
       </c>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
@@ -6682,7 +6685,7 @@
         <v>545</v>
       </c>
       <c r="C548" s="6">
-        <v>20.490000000000002</v>
+        <v>20.408999999999999</v>
       </c>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
@@ -6690,7 +6693,7 @@
         <v>546</v>
       </c>
       <c r="C549" s="6">
-        <v>37.43</v>
+        <v>37.402999999999999</v>
       </c>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
@@ -6698,7 +6701,7 @@
         <v>547</v>
       </c>
       <c r="C550" s="6">
-        <v>41.49</v>
+        <v>41.408999999999999</v>
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
@@ -6722,7 +6725,7 @@
         <v>550</v>
       </c>
       <c r="C553" s="6">
-        <v>61.800000000000004</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
@@ -6730,7 +6733,7 @@
         <v>551</v>
       </c>
       <c r="C554" s="6">
-        <v>46.79</v>
+        <v>46.709000000000003</v>
       </c>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
@@ -6738,7 +6741,7 @@
         <v>552</v>
       </c>
       <c r="C555" s="6">
-        <v>43.800000000000004</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
@@ -6834,7 +6837,7 @@
         <v>564</v>
       </c>
       <c r="C567" s="6">
-        <v>26.59</v>
+        <v>26.509</v>
       </c>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
@@ -6858,7 +6861,7 @@
         <v>567</v>
       </c>
       <c r="C570" s="6">
-        <v>25.25</v>
+        <v>25.204999999999998</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
@@ -6882,7 +6885,7 @@
         <v>570</v>
       </c>
       <c r="C573" s="6">
-        <v>66.489999999999995</v>
+        <v>66.409000000000006</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
@@ -6922,7 +6925,7 @@
         <v>575</v>
       </c>
       <c r="C578" s="6">
-        <v>49.25</v>
+        <v>49.204999999999998</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.25">
@@ -6954,7 +6957,7 @@
         <v>578</v>
       </c>
       <c r="C582" s="6">
-        <v>44.49</v>
+        <v>44.408999999999999</v>
       </c>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.25">
@@ -6962,7 +6965,7 @@
         <v>579</v>
       </c>
       <c r="C583" s="6">
-        <v>36.29</v>
+        <v>36.209000000000003</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.25">
@@ -6978,7 +6981,7 @@
         <v>581</v>
       </c>
       <c r="C585" s="6">
-        <v>279.83999999999997</v>
+        <v>279.80399999999997</v>
       </c>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.25">
@@ -7050,7 +7053,7 @@
         <v>590</v>
       </c>
       <c r="C594" s="6">
-        <v>52.65</v>
+        <v>52.604999999999997</v>
       </c>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.25">
@@ -7074,7 +7077,7 @@
         <v>593</v>
       </c>
       <c r="C597" s="6">
-        <v>80.290000000000006</v>
+        <v>80.209000000000003</v>
       </c>
     </row>
     <row r="598" spans="2:3" x14ac:dyDescent="0.25">
@@ -7090,7 +7093,7 @@
         <v>595</v>
       </c>
       <c r="C599" s="6">
-        <v>40.35</v>
+        <v>40.305</v>
       </c>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.25">
@@ -7106,7 +7109,7 @@
         <v>597</v>
       </c>
       <c r="C601" s="6">
-        <v>45.800000000000004</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.25">
@@ -7127,8 +7130,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C93CF-ECCC-4566-9274-9540FECA1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF8AAF-5FFC-498F-963F-C99182220FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -1846,9 +1846,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1858,17 +1855,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1902,21 +1899,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1940,7 +1937,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2285,14 +2282,14 @@
   <dimension ref="A1:D603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2315,7 +2312,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>60.5</v>
       </c>
     </row>
@@ -2324,7 +2321,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>150.99</v>
       </c>
     </row>
@@ -2332,7 +2329,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>229.9</v>
       </c>
     </row>
@@ -2340,7 +2337,7 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>59.9</v>
       </c>
     </row>
@@ -2348,7 +2345,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>59.99</v>
       </c>
     </row>
@@ -2356,15 +2353,15 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
-        <v>20.809000000000001</v>
+      <c r="C7" s="7">
+        <v>20.89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>19.8</v>
       </c>
     </row>
@@ -2372,7 +2369,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>20.990000000000002</v>
       </c>
     </row>
@@ -2380,7 +2377,7 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>149.19999999999999</v>
       </c>
     </row>
@@ -2388,7 +2385,7 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>75.599999999999994</v>
       </c>
     </row>
@@ -2396,7 +2393,7 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>143.6</v>
       </c>
     </row>
@@ -2404,7 +2401,7 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>118.5</v>
       </c>
     </row>
@@ -2412,7 +2409,7 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>143.6</v>
       </c>
     </row>
@@ -2420,7 +2417,7 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>121.5</v>
       </c>
     </row>
@@ -2428,7 +2425,7 @@
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>135.69999999999999</v>
       </c>
     </row>
@@ -2436,7 +2433,7 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>47.9</v>
       </c>
     </row>
@@ -2444,23 +2441,23 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6">
-        <v>29.309000000000001</v>
+      <c r="C18" s="7">
+        <v>29.39</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6">
-        <v>22.4</v>
+      <c r="C19" s="7">
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>70.5</v>
       </c>
     </row>
@@ -2468,7 +2465,7 @@
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>143.9</v>
       </c>
     </row>
@@ -2476,23 +2473,23 @@
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="6">
-        <v>52.408999999999999</v>
+      <c r="C22" s="7">
+        <v>52.49</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="6">
-        <v>56.408000000000001</v>
+      <c r="C23" s="7">
+        <v>56.480000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>22.990000000000002</v>
       </c>
     </row>
@@ -2500,7 +2497,7 @@
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>116.9</v>
       </c>
     </row>
@@ -2508,15 +2505,15 @@
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="6">
-        <v>57.509</v>
+      <c r="C26" s="7">
+        <v>57.59</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>61.6</v>
       </c>
     </row>
@@ -2524,7 +2521,7 @@
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>85.99</v>
       </c>
     </row>
@@ -2532,7 +2529,7 @@
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -2540,7 +2537,7 @@
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -2548,7 +2545,7 @@
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>62.9</v>
       </c>
     </row>
@@ -2556,23 +2553,23 @@
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="6">
-        <v>139.1003</v>
+      <c r="C32" s="7">
+        <v>139.13</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="6">
-        <v>50.408999999999999</v>
+      <c r="C33" s="7">
+        <v>50.49</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <v>110.99000000000001</v>
       </c>
     </row>
@@ -2580,7 +2577,7 @@
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="7">
         <v>115.99000000000001</v>
       </c>
     </row>
@@ -2588,15 +2585,15 @@
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="6">
-        <v>97.409000000000006</v>
+      <c r="C36" s="7">
+        <v>97.490000000000009</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="7">
         <v>72.5</v>
       </c>
     </row>
@@ -2604,7 +2601,7 @@
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -2612,7 +2609,7 @@
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>29.900000000000002</v>
       </c>
     </row>
@@ -2620,7 +2617,7 @@
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>40.99</v>
       </c>
     </row>
@@ -2628,7 +2625,7 @@
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>40.99</v>
       </c>
     </row>
@@ -2636,7 +2633,7 @@
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2644,7 +2641,7 @@
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="7">
         <v>24.900000000000002</v>
       </c>
     </row>
@@ -2652,7 +2649,7 @@
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>27.990000000000002</v>
       </c>
     </row>
@@ -2660,7 +2657,7 @@
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="7">
         <v>27.990000000000002</v>
       </c>
     </row>
@@ -2668,7 +2665,7 @@
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>33.99</v>
       </c>
     </row>
@@ -2676,7 +2673,7 @@
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="7">
         <v>35.9</v>
       </c>
     </row>
@@ -2684,15 +2681,15 @@
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="6">
-        <v>33.609000000000002</v>
+      <c r="C48" s="7">
+        <v>33.69</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="7">
         <v>35.9</v>
       </c>
     </row>
@@ -2700,7 +2697,7 @@
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="7">
         <v>35.9</v>
       </c>
     </row>
@@ -2708,7 +2705,7 @@
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="7">
         <v>35.9</v>
       </c>
     </row>
@@ -2716,7 +2713,7 @@
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="7">
         <v>24.900000000000002</v>
       </c>
     </row>
@@ -2724,7 +2721,7 @@
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="7">
         <v>24.900000000000002</v>
       </c>
     </row>
@@ -2732,15 +2729,15 @@
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="6">
-        <v>11.409000000000001</v>
+      <c r="C54" s="7">
+        <v>11.49</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="7">
         <v>181.05</v>
       </c>
     </row>
@@ -2748,7 +2745,7 @@
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="7">
         <v>35.99</v>
       </c>
     </row>
@@ -2756,15 +2753,15 @@
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="6">
-        <v>79.808999999999997</v>
+      <c r="C57" s="7">
+        <v>79.89</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="7">
         <v>14.02</v>
       </c>
     </row>
@@ -2772,7 +2769,7 @@
       <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="7">
         <v>10.8</v>
       </c>
     </row>
@@ -2780,7 +2777,7 @@
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="7">
         <v>15.92</v>
       </c>
     </row>
@@ -2788,15 +2785,15 @@
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="6">
-        <v>13.2</v>
+      <c r="C61" s="7">
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="7">
         <v>12.99</v>
       </c>
     </row>
@@ -2804,7 +2801,7 @@
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="7">
         <v>10.8</v>
       </c>
     </row>
@@ -2812,7 +2809,7 @@
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="7">
         <v>15.92</v>
       </c>
     </row>
@@ -2820,7 +2817,7 @@
       <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="7">
         <v>54.5</v>
       </c>
     </row>
@@ -2828,7 +2825,7 @@
       <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="7">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -2836,7 +2833,7 @@
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="7">
         <v>70.930000000000007</v>
       </c>
     </row>
@@ -2844,31 +2841,31 @@
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="6">
-        <v>43.408999999999999</v>
+      <c r="C68" s="7">
+        <v>43.49</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="6">
-        <v>31.4</v>
+      <c r="C69" s="7">
+        <v>31.400000000000002</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="6">
-        <v>33.203000000000003</v>
+      <c r="C70" s="7">
+        <v>33.229999999999997</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="7">
         <v>17.3</v>
       </c>
     </row>
@@ -2876,7 +2873,7 @@
       <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="7">
         <v>39.9</v>
       </c>
     </row>
@@ -2884,15 +2881,15 @@
       <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="6">
-        <v>58.8</v>
+      <c r="C73" s="7">
+        <v>58.800000000000004</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="7">
         <v>79.5</v>
       </c>
     </row>
@@ -2900,7 +2897,7 @@
       <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="7">
         <v>28.080000000000002</v>
       </c>
     </row>
@@ -2908,7 +2905,7 @@
       <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="7">
         <v>14.4</v>
       </c>
     </row>
@@ -2916,15 +2913,15 @@
       <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="6">
-        <v>24.704999999999998</v>
+      <c r="C77" s="7">
+        <v>24.75</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="7">
         <v>152.9</v>
       </c>
     </row>
@@ -2932,7 +2929,7 @@
       <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="7">
         <v>31.92</v>
       </c>
     </row>
@@ -2940,7 +2937,7 @@
       <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="7">
         <v>43.99</v>
       </c>
     </row>
@@ -2948,23 +2945,23 @@
       <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="6">
-        <v>26.305</v>
+      <c r="C81" s="7">
+        <v>26.35</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="6">
-        <v>54.808999999999997</v>
+      <c r="C82" s="7">
+        <v>54.89</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="7">
         <v>66.94</v>
       </c>
     </row>
@@ -2972,7 +2969,7 @@
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="7">
         <v>66.94</v>
       </c>
     </row>
@@ -2980,7 +2977,7 @@
       <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="7">
         <v>101.99000000000001</v>
       </c>
     </row>
@@ -2988,7 +2985,7 @@
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="7">
         <v>77.7</v>
       </c>
     </row>
@@ -2996,7 +2993,7 @@
       <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="7">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -3004,7 +3001,7 @@
       <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="7">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -3012,7 +3009,7 @@
       <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="7">
         <v>95.990000000000009</v>
       </c>
     </row>
@@ -3020,7 +3017,7 @@
       <c r="B90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="7">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -3028,23 +3025,23 @@
       <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="6">
-        <v>63.609000000000002</v>
+      <c r="C91" s="7">
+        <v>63.690000000000005</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="6">
-        <v>41.805</v>
+      <c r="C92" s="7">
+        <v>41.85</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="7">
         <v>31.5</v>
       </c>
     </row>
@@ -3052,23 +3049,23 @@
       <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="6">
-        <v>2221.2049999999999</v>
+      <c r="C94" s="7">
+        <v>2221.25</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="6">
-        <v>175.70699999999999</v>
+      <c r="C95" s="7">
+        <v>175.77</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="7">
         <v>14.4</v>
       </c>
     </row>
@@ -3076,7 +3073,7 @@
       <c r="B97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="7">
         <v>32.9</v>
       </c>
     </row>
@@ -3084,15 +3081,15 @@
       <c r="B98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="6">
-        <v>32.100299999999997</v>
+      <c r="C98" s="7">
+        <v>32.130000000000003</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="7">
         <v>54.6</v>
       </c>
     </row>
@@ -3100,7 +3097,7 @@
       <c r="B100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="7">
         <v>32.9</v>
       </c>
     </row>
@@ -3108,7 +3105,7 @@
       <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="7">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -3116,7 +3113,7 @@
       <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="7">
         <v>44.9</v>
       </c>
     </row>
@@ -3124,39 +3121,39 @@
       <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="6">
-        <v>36.704999999999998</v>
+      <c r="C103" s="7">
+        <v>36.75</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="6">
-        <v>33.704999999999998</v>
+      <c r="C104" s="7">
+        <v>33.75</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="6">
-        <v>32.100299999999997</v>
+      <c r="C105" s="7">
+        <v>32.130000000000003</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="6">
-        <v>90.503</v>
+      <c r="C106" s="7">
+        <v>90.53</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="7">
         <v>89.9</v>
       </c>
     </row>
@@ -3164,7 +3161,7 @@
       <c r="B108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="7">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -3172,7 +3169,7 @@
       <c r="B109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="7">
         <v>89.9</v>
       </c>
     </row>
@@ -3180,7 +3177,7 @@
       <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="7">
         <v>42.5</v>
       </c>
     </row>
@@ -3188,23 +3185,23 @@
       <c r="B111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="6">
-        <v>33.704999999999998</v>
+      <c r="C111" s="7">
+        <v>33.75</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="6">
-        <v>33.704999999999998</v>
+      <c r="C112" s="7">
+        <v>33.75</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="7">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -3212,7 +3209,7 @@
       <c r="B114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="7">
         <v>42.5</v>
       </c>
     </row>
@@ -3220,15 +3217,15 @@
       <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="6">
-        <v>33.704999999999998</v>
+      <c r="C115" s="7">
+        <v>33.75</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="7">
         <v>44.99</v>
       </c>
     </row>
@@ -3236,7 +3233,7 @@
       <c r="B117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="7">
         <v>42.95</v>
       </c>
     </row>
@@ -3244,15 +3241,15 @@
       <c r="B118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="6">
-        <v>33.704999999999998</v>
+      <c r="C118" s="7">
+        <v>33.75</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="7">
         <v>61.9</v>
       </c>
     </row>
@@ -3260,15 +3257,15 @@
       <c r="B120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="6">
-        <v>63.808999999999997</v>
+      <c r="C120" s="7">
+        <v>63.89</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="7">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -3276,7 +3273,7 @@
       <c r="B122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="7">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -3284,7 +3281,7 @@
       <c r="B123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="7">
         <v>32.9</v>
       </c>
     </row>
@@ -3292,15 +3289,15 @@
       <c r="B124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="6">
-        <v>36.704999999999998</v>
+      <c r="C124" s="7">
+        <v>36.75</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="7">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -3308,7 +3305,7 @@
       <c r="B126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="7">
         <v>170.99</v>
       </c>
     </row>
@@ -3316,7 +3313,7 @@
       <c r="B127" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="7">
         <v>83.8</v>
       </c>
     </row>
@@ -3324,7 +3321,7 @@
       <c r="B128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="7">
         <v>95.4</v>
       </c>
     </row>
@@ -3332,15 +3329,15 @@
       <c r="B129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="6">
-        <v>57.100200000000001</v>
+      <c r="C129" s="7">
+        <v>57.120000000000005</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="7">
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -3348,7 +3345,7 @@
       <c r="B131" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="7">
         <v>45.99</v>
       </c>
     </row>
@@ -3356,7 +3353,7 @@
       <c r="B132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="7">
         <v>94.9</v>
       </c>
     </row>
@@ -3364,7 +3361,7 @@
       <c r="B133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="7">
         <v>155.09</v>
       </c>
     </row>
@@ -3372,7 +3369,7 @@
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="7">
         <v>16.8</v>
       </c>
     </row>
@@ -3380,7 +3377,7 @@
       <c r="B135" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="7">
         <v>19.7</v>
       </c>
     </row>
@@ -3388,7 +3385,7 @@
       <c r="B136" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="7">
         <v>15.99</v>
       </c>
     </row>
@@ -3396,15 +3393,15 @@
       <c r="B137" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="6">
-        <v>14.609</v>
+      <c r="C137" s="7">
+        <v>14.69</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="7">
         <v>16.899999999999999</v>
       </c>
     </row>
@@ -3412,15 +3409,15 @@
       <c r="B139" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="6">
-        <v>14.808999999999999</v>
+      <c r="C139" s="7">
+        <v>14.89</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="7">
         <v>16.989999999999998</v>
       </c>
     </row>
@@ -3428,7 +3425,7 @@
       <c r="B141" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="7">
         <v>14.99</v>
       </c>
     </row>
@@ -3436,15 +3433,15 @@
       <c r="B142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="6">
-        <v>14.7</v>
+      <c r="C142" s="7">
+        <v>14.700000000000001</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="7">
         <v>15.8</v>
       </c>
     </row>
@@ -3452,7 +3449,7 @@
       <c r="B144" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="7">
         <v>67.989999999999995</v>
       </c>
     </row>
@@ -3460,7 +3457,7 @@
       <c r="B145" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="7">
         <v>275.89999999999998</v>
       </c>
     </row>
@@ -3468,7 +3465,7 @@
       <c r="B146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="7">
         <v>24.900000000000002</v>
       </c>
     </row>
@@ -3476,7 +3473,7 @@
       <c r="B147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="7">
         <v>45.99</v>
       </c>
     </row>
@@ -3484,15 +3481,15 @@
       <c r="B148" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="6">
-        <v>129.809</v>
+      <c r="C148" s="7">
+        <v>129.88999999999999</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="7">
         <v>14.9</v>
       </c>
     </row>
@@ -3500,7 +3497,7 @@
       <c r="B150" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="7">
         <v>24.3</v>
       </c>
     </row>
@@ -3508,7 +3505,7 @@
       <c r="B151" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="7">
         <v>83.9</v>
       </c>
     </row>
@@ -3516,7 +3513,7 @@
       <c r="B152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="7">
         <v>12.99</v>
       </c>
     </row>
@@ -3524,7 +3521,7 @@
       <c r="B153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="7">
         <v>499.90000000000003</v>
       </c>
     </row>
@@ -3532,7 +3529,7 @@
       <c r="B154" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="7">
         <v>349.90000000000003</v>
       </c>
     </row>
@@ -3540,7 +3537,7 @@
       <c r="B155" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="7">
         <v>27.990000000000002</v>
       </c>
     </row>
@@ -3548,7 +3545,7 @@
       <c r="B156" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="7">
         <v>20.8</v>
       </c>
     </row>
@@ -3556,7 +3553,7 @@
       <c r="B157" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="7">
         <v>129.6</v>
       </c>
     </row>
@@ -3564,23 +3561,23 @@
       <c r="B158" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="6">
-        <v>106.503</v>
+      <c r="C158" s="7">
+        <v>106.53</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="6">
-        <v>65.706999999999994</v>
+      <c r="C159" s="7">
+        <v>65.77</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="7">
         <v>214.5</v>
       </c>
     </row>
@@ -3588,7 +3585,7 @@
       <c r="B161" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="7">
         <v>210.99</v>
       </c>
     </row>
@@ -3596,7 +3593,7 @@
       <c r="B162" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="7">
         <v>145.9</v>
       </c>
     </row>
@@ -3604,7 +3601,7 @@
       <c r="B163" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="7">
         <v>63.99</v>
       </c>
     </row>
@@ -3612,7 +3609,7 @@
       <c r="B164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="7">
         <v>74.989999999999995</v>
       </c>
     </row>
@@ -3620,7 +3617,7 @@
       <c r="B165" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="7">
         <v>73.989999999999995</v>
       </c>
     </row>
@@ -3628,7 +3625,7 @@
       <c r="B166" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="7">
         <v>77.989999999999995</v>
       </c>
     </row>
@@ -3636,15 +3633,15 @@
       <c r="B167" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="6">
-        <v>139.809</v>
+      <c r="C167" s="7">
+        <v>139.88999999999999</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="7">
         <v>65.900000000000006</v>
       </c>
     </row>
@@ -3652,7 +3649,7 @@
       <c r="B169" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="7">
         <v>145.9</v>
       </c>
     </row>
@@ -3660,39 +3657,39 @@
       <c r="B170" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="6">
-        <v>119.809</v>
+      <c r="C170" s="7">
+        <v>119.89</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="6">
-        <v>119.809</v>
+      <c r="C171" s="7">
+        <v>119.89</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="6">
-        <v>156.809</v>
+      <c r="C172" s="7">
+        <v>156.88999999999999</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="6">
-        <v>119.809</v>
+      <c r="C173" s="7">
+        <v>119.89</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="7">
         <v>52.99</v>
       </c>
     </row>
@@ -3700,7 +3697,7 @@
       <c r="B175" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="6">
+      <c r="C175" s="7">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -3708,7 +3705,7 @@
       <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="7">
         <v>38.99</v>
       </c>
     </row>
@@ -3716,15 +3713,15 @@
       <c r="B177" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="6">
-        <v>38.408999999999999</v>
+      <c r="C177" s="7">
+        <v>38.49</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="7">
         <v>45.99</v>
       </c>
     </row>
@@ -3732,7 +3729,7 @@
       <c r="B179" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="7">
         <v>55.99</v>
       </c>
     </row>
@@ -3740,7 +3737,7 @@
       <c r="B180" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="7">
         <v>50.93</v>
       </c>
     </row>
@@ -3748,7 +3745,7 @@
       <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C181" s="6">
+      <c r="C181" s="7">
         <v>44.99</v>
       </c>
     </row>
@@ -3756,7 +3753,7 @@
       <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C182" s="7">
         <v>61.5</v>
       </c>
     </row>
@@ -3764,15 +3761,15 @@
       <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C183" s="6">
-        <v>90.409000000000006</v>
+      <c r="C183" s="7">
+        <v>90.49</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C184" s="6">
+      <c r="C184" s="7">
         <v>60.99</v>
       </c>
     </row>
@@ -3780,7 +3777,7 @@
       <c r="B185" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="6">
+      <c r="C185" s="7">
         <v>101.5</v>
       </c>
     </row>
@@ -3788,7 +3785,7 @@
       <c r="B186" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="7">
         <v>14.6</v>
       </c>
     </row>
@@ -3796,7 +3793,7 @@
       <c r="B187" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="7">
         <v>32.4</v>
       </c>
     </row>
@@ -3804,7 +3801,7 @@
       <c r="B188" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="6">
+      <c r="C188" s="7">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -3812,7 +3809,7 @@
       <c r="B189" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C189" s="6">
+      <c r="C189" s="7">
         <v>199.9</v>
       </c>
     </row>
@@ -3820,7 +3817,7 @@
       <c r="B190" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C190" s="7">
         <v>91.4</v>
       </c>
     </row>
@@ -3828,7 +3825,7 @@
       <c r="B191" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C191" s="7">
         <v>31.900000000000002</v>
       </c>
     </row>
@@ -3836,15 +3833,15 @@
       <c r="B192" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="6">
-        <v>182.7</v>
+      <c r="C192" s="7">
+        <v>182.70000000000002</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="6">
+      <c r="C193" s="7">
         <v>199.9</v>
       </c>
     </row>
@@ -3852,7 +3849,7 @@
       <c r="B194" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="6">
+      <c r="C194" s="7">
         <v>35.99</v>
       </c>
     </row>
@@ -3860,39 +3857,39 @@
       <c r="B195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="6">
-        <v>27.4</v>
+      <c r="C195" s="7">
+        <v>27.400000000000002</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="6">
-        <v>127.709</v>
+      <c r="C196" s="7">
+        <v>127.79</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="6">
-        <v>133.1003</v>
+      <c r="C197" s="7">
+        <v>133.13</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="6">
-        <v>29.709</v>
+      <c r="C198" s="7">
+        <v>29.79</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C199" s="7">
         <v>68.900000000000006</v>
       </c>
     </row>
@@ -3900,31 +3897,31 @@
       <c r="B200" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="6">
-        <v>45.808999999999997</v>
+      <c r="C200" s="7">
+        <v>45.89</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="6">
-        <v>68.805000000000007</v>
+      <c r="C201" s="7">
+        <v>68.849999999999994</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C202" s="6">
-        <v>33.408999999999999</v>
+      <c r="C202" s="7">
+        <v>33.49</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C203" s="7">
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -3932,15 +3929,15 @@
       <c r="B204" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="6">
-        <v>37.609000000000002</v>
+      <c r="C204" s="7">
+        <v>37.69</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="7">
         <v>68.400000000000006</v>
       </c>
     </row>
@@ -3948,15 +3945,15 @@
       <c r="B206" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="6">
-        <v>43.408999999999999</v>
+      <c r="C206" s="7">
+        <v>43.49</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C207" s="7">
         <v>15.9</v>
       </c>
     </row>
@@ -3964,7 +3961,7 @@
       <c r="B208" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="6">
+      <c r="C208" s="7">
         <v>130.30000000000001</v>
       </c>
     </row>
@@ -3972,15 +3969,15 @@
       <c r="B209" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="6">
-        <v>115.1</v>
+      <c r="C209" s="7">
+        <v>115.10000000000001</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="6">
+      <c r="C210" s="7">
         <v>136.99</v>
       </c>
     </row>
@@ -3988,7 +3985,7 @@
       <c r="B211" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="6">
+      <c r="C211" s="7">
         <v>70.5</v>
       </c>
     </row>
@@ -3996,7 +3993,7 @@
       <c r="B212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C212" s="6">
+      <c r="C212" s="7">
         <v>69.989999999999995</v>
       </c>
     </row>
@@ -4004,7 +4001,7 @@
       <c r="B213" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C213" s="6">
+      <c r="C213" s="7">
         <v>140.4</v>
       </c>
     </row>
@@ -4012,7 +4009,7 @@
       <c r="B214" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C214" s="6">
+      <c r="C214" s="7">
         <v>71.900000000000006</v>
       </c>
     </row>
@@ -4020,7 +4017,7 @@
       <c r="B215" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="7">
         <v>399.90000000000003</v>
       </c>
     </row>
@@ -4028,7 +4025,7 @@
       <c r="B216" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="7">
         <v>61.9</v>
       </c>
     </row>
@@ -4036,7 +4033,7 @@
       <c r="B217" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C217" s="6">
+      <c r="C217" s="7">
         <v>73.989999999999995</v>
       </c>
     </row>
@@ -4044,7 +4041,7 @@
       <c r="B218" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C218" s="6">
+      <c r="C218" s="7">
         <v>71.8</v>
       </c>
     </row>
@@ -4052,7 +4049,7 @@
       <c r="B219" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C219" s="6">
+      <c r="C219" s="7">
         <v>71.3</v>
       </c>
     </row>
@@ -4060,7 +4057,7 @@
       <c r="B220" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C220" s="6">
+      <c r="C220" s="7">
         <v>70.5</v>
       </c>
     </row>
@@ -4068,7 +4065,7 @@
       <c r="B221" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C221" s="6">
+      <c r="C221" s="7">
         <v>95.990000000000009</v>
       </c>
     </row>
@@ -4076,7 +4073,7 @@
       <c r="B222" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C222" s="6">
+      <c r="C222" s="7">
         <v>25.990000000000002</v>
       </c>
     </row>
@@ -4084,7 +4081,7 @@
       <c r="B223" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C223" s="6">
+      <c r="C223" s="7">
         <v>35.6</v>
       </c>
     </row>
@@ -4092,7 +4089,7 @@
       <c r="B224" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C224" s="6">
+      <c r="C224" s="7">
         <v>42.99</v>
       </c>
     </row>
@@ -4100,7 +4097,7 @@
       <c r="B225" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="6">
+      <c r="C225" s="7">
         <v>129.6</v>
       </c>
     </row>
@@ -4108,7 +4105,7 @@
       <c r="B226" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C226" s="6">
+      <c r="C226" s="7">
         <v>139.80000000000001</v>
       </c>
     </row>
@@ -4116,7 +4113,7 @@
       <c r="B227" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C227" s="6">
+      <c r="C227" s="7">
         <v>199.9</v>
       </c>
     </row>
@@ -4124,7 +4121,7 @@
       <c r="B228" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C228" s="6">
+      <c r="C228" s="7">
         <v>12.99</v>
       </c>
     </row>
@@ -4132,23 +4129,23 @@
       <c r="B229" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C229" s="6">
-        <v>29.509</v>
+      <c r="C229" s="7">
+        <v>29.59</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C230" s="6">
-        <v>68.305000000000007</v>
+      <c r="C230" s="7">
+        <v>68.349999999999994</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C231" s="6">
+      <c r="C231" s="7">
         <v>37.6</v>
       </c>
     </row>
@@ -4156,31 +4153,31 @@
       <c r="B232" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C232" s="6">
-        <v>56.209000000000003</v>
+      <c r="C232" s="7">
+        <v>56.29</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C233" s="6">
-        <v>56.609000000000002</v>
+      <c r="C233" s="7">
+        <v>56.69</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C234" s="6">
-        <v>110.809</v>
+      <c r="C234" s="7">
+        <v>110.89</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C235" s="6">
+      <c r="C235" s="7">
         <v>115.99000000000001</v>
       </c>
     </row>
@@ -4188,7 +4185,7 @@
       <c r="B236" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C236" s="6">
+      <c r="C236" s="7">
         <v>124.5</v>
       </c>
     </row>
@@ -4196,23 +4193,23 @@
       <c r="B237" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C237" s="6">
-        <v>25.809000000000001</v>
+      <c r="C237" s="7">
+        <v>25.89</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C238" s="6">
-        <v>31.408999999999999</v>
+      <c r="C238" s="7">
+        <v>31.490000000000002</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C239" s="6">
+      <c r="C239" s="7">
         <v>46.7</v>
       </c>
     </row>
@@ -4220,23 +4217,23 @@
       <c r="B240" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C240" s="6">
-        <v>22.704999999999998</v>
+      <c r="C240" s="7">
+        <v>22.75</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C241" s="6">
-        <v>96.608999999999995</v>
+      <c r="C241" s="7">
+        <v>96.69</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C242" s="6">
+      <c r="C242" s="7">
         <v>58.99</v>
       </c>
     </row>
@@ -4244,7 +4241,7 @@
       <c r="B243" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C243" s="6">
+      <c r="C243" s="7">
         <v>80.989999999999995</v>
       </c>
     </row>
@@ -4252,7 +4249,7 @@
       <c r="B244" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C244" s="6">
+      <c r="C244" s="7">
         <v>176.9</v>
       </c>
     </row>
@@ -4260,7 +4257,7 @@
       <c r="B245" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C245" s="6">
+      <c r="C245" s="7">
         <v>99.9</v>
       </c>
     </row>
@@ -4268,7 +4265,7 @@
       <c r="B246" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C246" s="6">
+      <c r="C246" s="7">
         <v>135.99</v>
       </c>
     </row>
@@ -4276,7 +4273,7 @@
       <c r="B247" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C247" s="6">
+      <c r="C247" s="7">
         <v>99.9</v>
       </c>
     </row>
@@ -4284,15 +4281,15 @@
       <c r="B248" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C248" s="6">
-        <v>41.408999999999999</v>
+      <c r="C248" s="7">
+        <v>41.49</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C249" s="6">
+      <c r="C249" s="7">
         <v>113.99000000000001</v>
       </c>
     </row>
@@ -4300,7 +4297,7 @@
       <c r="B250" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C250" s="6">
+      <c r="C250" s="7">
         <v>125.92</v>
       </c>
     </row>
@@ -4308,15 +4305,15 @@
       <c r="B251" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C251" s="6">
-        <v>92.608999999999995</v>
+      <c r="C251" s="7">
+        <v>92.69</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C252" s="6">
+      <c r="C252" s="7">
         <v>214.5</v>
       </c>
     </row>
@@ -4324,15 +4321,15 @@
       <c r="B253" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C253" s="6">
-        <v>144.40799999999999</v>
+      <c r="C253" s="7">
+        <v>144.47999999999999</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C254" s="6">
+      <c r="C254" s="7">
         <v>111.99000000000001</v>
       </c>
     </row>
@@ -4340,15 +4337,15 @@
       <c r="B255" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C255" s="6">
-        <v>238.2</v>
+      <c r="C255" s="7">
+        <v>238.20000000000002</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C256" s="6">
+      <c r="C256" s="7">
         <v>113.99000000000001</v>
       </c>
     </row>
@@ -4356,7 +4353,7 @@
       <c r="B257" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C257" s="6">
+      <c r="C257" s="7">
         <v>216.99</v>
       </c>
     </row>
@@ -4364,7 +4361,7 @@
       <c r="B258" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C258" s="6">
+      <c r="C258" s="7">
         <v>140.4</v>
       </c>
     </row>
@@ -4372,15 +4369,15 @@
       <c r="B259" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C259" s="6">
-        <v>130.1003</v>
+      <c r="C259" s="7">
+        <v>130.13</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C260" s="6">
+      <c r="C260" s="7">
         <v>195.97</v>
       </c>
     </row>
@@ -4388,15 +4385,15 @@
       <c r="B261" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C261" s="6">
-        <v>151.40700000000001</v>
+      <c r="C261" s="7">
+        <v>151.47</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C262" s="6">
+      <c r="C262" s="7">
         <v>45.99</v>
       </c>
     </row>
@@ -4404,7 +4401,7 @@
       <c r="B263" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C263" s="6">
+      <c r="C263" s="7">
         <v>40.99</v>
       </c>
     </row>
@@ -4412,15 +4409,15 @@
       <c r="B264" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C264" s="6">
-        <v>31.603000000000002</v>
+      <c r="C264" s="7">
+        <v>31.63</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C265" s="6">
+      <c r="C265" s="7">
         <v>49.99</v>
       </c>
     </row>
@@ -4428,15 +4425,15 @@
       <c r="B266" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C266" s="6">
-        <v>21.4</v>
+      <c r="C266" s="7">
+        <v>21.400000000000002</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C267" s="6">
+      <c r="C267" s="7">
         <v>144.9</v>
       </c>
     </row>
@@ -4444,7 +4441,7 @@
       <c r="B268" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C268" s="6">
+      <c r="C268" s="7">
         <v>47.99</v>
       </c>
     </row>
@@ -4452,7 +4449,7 @@
       <c r="B269" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C269" s="6">
+      <c r="C269" s="7">
         <v>12.5</v>
       </c>
     </row>
@@ -4460,15 +4457,15 @@
       <c r="B270" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C270" s="6">
-        <v>17.709</v>
+      <c r="C270" s="7">
+        <v>17.79</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C271" s="6">
+      <c r="C271" s="7">
         <v>101.5</v>
       </c>
     </row>
@@ -4476,7 +4473,7 @@
       <c r="B272" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C272" s="6">
+      <c r="C272" s="7">
         <v>40.9</v>
       </c>
     </row>
@@ -4484,39 +4481,39 @@
       <c r="B273" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C273" s="6">
-        <v>44.408999999999999</v>
+      <c r="C273" s="7">
+        <v>44.49</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C274" s="6">
-        <v>22.606999999999999</v>
+      <c r="C274" s="7">
+        <v>22.67</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C275" s="6">
-        <v>23.606999999999999</v>
+      <c r="C275" s="7">
+        <v>23.67</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C276" s="6">
-        <v>23.606999999999999</v>
+      <c r="C276" s="7">
+        <v>23.67</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C277" s="6">
+      <c r="C277" s="7">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -4524,7 +4521,7 @@
       <c r="B278" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C278" s="6">
+      <c r="C278" s="7">
         <v>27</v>
       </c>
     </row>
@@ -4532,7 +4529,7 @@
       <c r="B279" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C279" s="6">
+      <c r="C279" s="7">
         <v>29.990000000000002</v>
       </c>
     </row>
@@ -4540,23 +4537,23 @@
       <c r="B280" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C280" s="6">
-        <v>18.408999999999999</v>
+      <c r="C280" s="7">
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C281" s="6">
-        <v>35.709000000000003</v>
+      <c r="C281" s="7">
+        <v>35.79</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C282" s="6">
+      <c r="C282" s="7">
         <v>22.900000000000002</v>
       </c>
     </row>
@@ -4564,15 +4561,15 @@
       <c r="B283" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C283" s="6">
-        <v>50.603999999999999</v>
+      <c r="C283" s="7">
+        <v>50.64</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C284" s="6">
+      <c r="C284" s="7">
         <v>99.9</v>
       </c>
     </row>
@@ -4580,15 +4577,15 @@
       <c r="B285" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C285" s="6">
-        <v>106.809</v>
+      <c r="C285" s="7">
+        <v>106.89</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C286" s="6">
+      <c r="C286" s="7">
         <v>24.900000000000002</v>
       </c>
     </row>
@@ -4596,7 +4593,7 @@
       <c r="B287" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C287" s="6">
+      <c r="C287" s="7">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -4604,7 +4601,7 @@
       <c r="B288" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C288" s="6">
+      <c r="C288" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4612,15 +4609,15 @@
       <c r="B289" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C289" s="6">
-        <v>14.2</v>
+      <c r="C289" s="7">
+        <v>14.200000000000001</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C290" s="6">
+      <c r="C290" s="7">
         <v>14.99</v>
       </c>
     </row>
@@ -4628,7 +4625,7 @@
       <c r="B291" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C291" s="6">
+      <c r="C291" s="7">
         <v>25.990000000000002</v>
       </c>
     </row>
@@ -4636,15 +4633,15 @@
       <c r="B292" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C292" s="6">
-        <v>37.408999999999999</v>
+      <c r="C292" s="7">
+        <v>37.49</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C293" s="6">
+      <c r="C293" s="7">
         <v>36.700000000000003</v>
       </c>
     </row>
@@ -4652,7 +4649,7 @@
       <c r="B294" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C294" s="6">
+      <c r="C294" s="7">
         <v>83.99</v>
       </c>
     </row>
@@ -4660,15 +4657,15 @@
       <c r="B295" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C295" s="6">
-        <v>69.509</v>
+      <c r="C295" s="7">
+        <v>69.59</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C296" s="6">
+      <c r="C296" s="7">
         <v>32.799999999999997</v>
       </c>
     </row>
@@ -4676,7 +4673,7 @@
       <c r="B297" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C297" s="6">
+      <c r="C297" s="7">
         <v>39.9</v>
       </c>
     </row>
@@ -4684,7 +4681,7 @@
       <c r="B298" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C298" s="6">
+      <c r="C298" s="7">
         <v>61.99</v>
       </c>
     </row>
@@ -4692,7 +4689,7 @@
       <c r="B299" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C299" s="6">
+      <c r="C299" s="7">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -4700,7 +4697,7 @@
       <c r="B300" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C300" s="6">
+      <c r="C300" s="7">
         <v>28.8</v>
       </c>
     </row>
@@ -4708,31 +4705,31 @@
       <c r="B301" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C301" s="6">
-        <v>23.609000000000002</v>
+      <c r="C301" s="7">
+        <v>23.69</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="6">
-        <v>11.7</v>
+      <c r="C302" s="7">
+        <v>11.700000000000001</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C303" s="6">
-        <v>28.204999999999998</v>
+      <c r="C303" s="7">
+        <v>28.25</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C304" s="6">
+      <c r="C304" s="7">
         <v>22.3</v>
       </c>
     </row>
@@ -4740,7 +4737,7 @@
       <c r="B305" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C305" s="6">
+      <c r="C305" s="7">
         <v>81</v>
       </c>
     </row>
@@ -4748,7 +4745,7 @@
       <c r="B306" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C306" s="6">
+      <c r="C306" s="7">
         <v>27.900000000000002</v>
       </c>
     </row>
@@ -4756,15 +4753,15 @@
       <c r="B307" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C307" s="6">
-        <v>24.408999999999999</v>
+      <c r="C307" s="7">
+        <v>24.490000000000002</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C308" s="6">
+      <c r="C308" s="7">
         <v>44.99</v>
       </c>
     </row>
@@ -4772,7 +4769,7 @@
       <c r="B309" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C309" s="6">
+      <c r="C309" s="7">
         <v>33.99</v>
       </c>
     </row>
@@ -4780,7 +4777,7 @@
       <c r="B310" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C310" s="6">
+      <c r="C310" s="7">
         <v>19.989999999999998</v>
       </c>
     </row>
@@ -4788,7 +4785,7 @@
       <c r="B311" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C311" s="6">
+      <c r="C311" s="7">
         <v>15</v>
       </c>
     </row>
@@ -4796,15 +4793,15 @@
       <c r="B312" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C312" s="6">
-        <v>18.609000000000002</v>
+      <c r="C312" s="7">
+        <v>18.690000000000001</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C313" s="6">
+      <c r="C313" s="7">
         <v>15.5</v>
       </c>
     </row>
@@ -4812,7 +4809,7 @@
       <c r="B314" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C314" s="6">
+      <c r="C314" s="7">
         <v>50.4</v>
       </c>
     </row>
@@ -4820,15 +4817,15 @@
       <c r="B315" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C315" s="6">
-        <v>55.100900000000003</v>
+      <c r="C315" s="7">
+        <v>55.19</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C316" s="6">
+      <c r="C316" s="7">
         <v>14.99</v>
       </c>
     </row>
@@ -4836,23 +4833,23 @@
       <c r="B317" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C317" s="6">
-        <v>41.805</v>
+      <c r="C317" s="7">
+        <v>41.85</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C318" s="6">
-        <v>93.100499999999997</v>
+      <c r="C318" s="7">
+        <v>93.15</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C319" s="6">
+      <c r="C319" s="7">
         <v>29.900000000000002</v>
       </c>
     </row>
@@ -4860,15 +4857,15 @@
       <c r="B320" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C320" s="6">
-        <v>47.808</v>
+      <c r="C320" s="7">
+        <v>47.88</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C321" s="6">
+      <c r="C321" s="7">
         <v>42.5</v>
       </c>
     </row>
@@ -4876,7 +4873,7 @@
       <c r="B322" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C322" s="6">
+      <c r="C322" s="7">
         <v>23.990000000000002</v>
       </c>
     </row>
@@ -4884,15 +4881,15 @@
       <c r="B323" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C323" s="6">
-        <v>17.704999999999998</v>
+      <c r="C323" s="7">
+        <v>17.75</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C324" s="6">
+      <c r="C324" s="7">
         <v>25.8</v>
       </c>
     </row>
@@ -4900,47 +4897,47 @@
       <c r="B325" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C325" s="6">
-        <v>25.605</v>
+      <c r="C325" s="7">
+        <v>25.650000000000002</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C326" s="6">
-        <v>13.301</v>
+      <c r="C326" s="7">
+        <v>13.31</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C327" s="6">
-        <v>12.1004</v>
+      <c r="C327" s="7">
+        <v>12.14</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C328" s="6">
-        <v>12.1008</v>
+      <c r="C328" s="7">
+        <v>12.18</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C329" s="6">
-        <v>22.809000000000001</v>
+      <c r="C329" s="7">
+        <v>22.89</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C330" s="6">
+      <c r="C330" s="7">
         <v>13.99</v>
       </c>
     </row>
@@ -4948,23 +4945,23 @@
       <c r="B331" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C331" s="6">
-        <v>42.509</v>
+      <c r="C331" s="7">
+        <v>42.59</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C332" s="6">
-        <v>47.808999999999997</v>
+      <c r="C332" s="7">
+        <v>47.89</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C333" s="6">
+      <c r="C333" s="7">
         <v>106.9</v>
       </c>
     </row>
@@ -4972,7 +4969,7 @@
       <c r="B334" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C334" s="6">
+      <c r="C334" s="7">
         <v>8.4</v>
       </c>
     </row>
@@ -4980,7 +4977,7 @@
       <c r="B335" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C335" s="6">
+      <c r="C335" s="7">
         <v>68.900000000000006</v>
       </c>
     </row>
@@ -4988,15 +4985,15 @@
       <c r="B336" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C336" s="6">
-        <v>57.408999999999999</v>
+      <c r="C336" s="7">
+        <v>57.49</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C337" s="6">
+      <c r="C337" s="7">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -5004,7 +5001,7 @@
       <c r="B338" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C338" s="6">
+      <c r="C338" s="7">
         <v>97.5</v>
       </c>
     </row>
@@ -5012,7 +5009,7 @@
       <c r="B339" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C339" s="6">
+      <c r="C339" s="7">
         <v>32.99</v>
       </c>
     </row>
@@ -5020,7 +5017,7 @@
       <c r="B340" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C340" s="6">
+      <c r="C340" s="7">
         <v>138.9</v>
       </c>
     </row>
@@ -5028,7 +5025,7 @@
       <c r="B341" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C341" s="6">
+      <c r="C341" s="7">
         <v>213.8</v>
       </c>
     </row>
@@ -5036,7 +5033,7 @@
       <c r="B342" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C342" s="6">
+      <c r="C342" s="7">
         <v>135.99</v>
       </c>
     </row>
@@ -5044,15 +5041,15 @@
       <c r="B343" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C343" s="6">
-        <v>52.8</v>
+      <c r="C343" s="7">
+        <v>52.800000000000004</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C344" s="6">
+      <c r="C344" s="7">
         <v>135.9</v>
       </c>
     </row>
@@ -5060,7 +5057,7 @@
       <c r="B345" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C345" s="6">
+      <c r="C345" s="7">
         <v>47.99</v>
       </c>
     </row>
@@ -5068,23 +5065,23 @@
       <c r="B346" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C346" s="6">
-        <v>50.709000000000003</v>
+      <c r="C346" s="7">
+        <v>50.79</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C347" s="6">
-        <v>39.808999999999997</v>
+      <c r="C347" s="7">
+        <v>39.89</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C348" s="6">
+      <c r="C348" s="7">
         <v>149.80000000000001</v>
       </c>
     </row>
@@ -5092,7 +5089,7 @@
       <c r="B349" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C349" s="6">
+      <c r="C349" s="7">
         <v>134.80000000000001</v>
       </c>
     </row>
@@ -5100,7 +5097,7 @@
       <c r="B350" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C350" s="6">
+      <c r="C350" s="7">
         <v>54.99</v>
       </c>
     </row>
@@ -5108,7 +5105,7 @@
       <c r="B351" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C351" s="6">
+      <c r="C351" s="7">
         <v>30.900000000000002</v>
       </c>
     </row>
@@ -5116,7 +5113,7 @@
       <c r="B352" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C352" s="6">
+      <c r="C352" s="7">
         <v>256.5</v>
       </c>
     </row>
@@ -5124,7 +5121,7 @@
       <c r="B353" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C353" s="6">
+      <c r="C353" s="7">
         <v>61.5</v>
       </c>
     </row>
@@ -5132,15 +5129,15 @@
       <c r="B354" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C354" s="6">
-        <v>114.205</v>
+      <c r="C354" s="7">
+        <v>114.25</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C355" s="6">
+      <c r="C355" s="7">
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -5148,15 +5145,15 @@
       <c r="B356" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C356" s="6">
-        <v>49.808999999999997</v>
+      <c r="C356" s="7">
+        <v>49.89</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C357" s="6">
+      <c r="C357" s="7">
         <v>157.9</v>
       </c>
     </row>
@@ -5164,7 +5161,7 @@
       <c r="B358" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C358" s="6">
+      <c r="C358" s="7">
         <v>210.99</v>
       </c>
     </row>
@@ -5172,15 +5169,15 @@
       <c r="B359" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C359" s="6">
-        <v>134.20500000000001</v>
+      <c r="C359" s="7">
+        <v>134.25</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C360" s="6">
+      <c r="C360" s="7">
         <v>35.9</v>
       </c>
     </row>
@@ -5188,15 +5185,15 @@
       <c r="B361" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C361" s="6">
-        <v>32.100099999999998</v>
+      <c r="C361" s="7">
+        <v>32.11</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C362" s="6">
+      <c r="C362" s="7">
         <v>46.9</v>
       </c>
     </row>
@@ -5204,15 +5201,15 @@
       <c r="B363" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C363" s="6">
-        <v>57.509</v>
+      <c r="C363" s="7">
+        <v>57.59</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C364" s="6">
+      <c r="C364" s="7">
         <v>39.9</v>
       </c>
     </row>
@@ -5220,7 +5217,7 @@
       <c r="B365" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C365" s="6">
+      <c r="C365" s="7">
         <v>50.4</v>
       </c>
     </row>
@@ -5228,7 +5225,7 @@
       <c r="B366" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C366" s="6">
+      <c r="C366" s="7">
         <v>34.9</v>
       </c>
     </row>
@@ -5236,7 +5233,7 @@
       <c r="B367" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C367" s="6">
+      <c r="C367" s="7">
         <v>22.8</v>
       </c>
     </row>
@@ -5244,7 +5241,7 @@
       <c r="B368" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C368" s="6">
+      <c r="C368" s="7">
         <v>59.9</v>
       </c>
     </row>
@@ -5252,7 +5249,7 @@
       <c r="B369" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C369" s="6">
+      <c r="C369" s="7">
         <v>35.9</v>
       </c>
     </row>
@@ -5260,7 +5257,7 @@
       <c r="B370" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C370" s="6">
+      <c r="C370" s="7">
         <v>31.990000000000002</v>
       </c>
     </row>
@@ -5268,15 +5265,15 @@
       <c r="B371" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C371" s="6">
-        <v>44.802</v>
+      <c r="C371" s="7">
+        <v>44.82</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C372" s="6">
+      <c r="C372" s="7">
         <v>103.2</v>
       </c>
     </row>
@@ -5284,7 +5281,7 @@
       <c r="B373" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C373" s="6">
+      <c r="C373" s="7">
         <v>71.989999999999995</v>
       </c>
     </row>
@@ -5292,31 +5289,31 @@
       <c r="B374" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C374" s="6">
-        <v>49.204999999999998</v>
+      <c r="C374" s="7">
+        <v>49.25</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C375" s="6">
-        <v>52.808999999999997</v>
+      <c r="C375" s="7">
+        <v>52.89</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C376" s="6">
-        <v>27.709</v>
+      <c r="C376" s="7">
+        <v>27.79</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C377" s="6">
+      <c r="C377" s="7">
         <v>14.9</v>
       </c>
     </row>
@@ -5324,15 +5321,15 @@
       <c r="B378" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C378" s="6">
-        <v>14.1005</v>
+      <c r="C378" s="7">
+        <v>14.15</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C379" s="6">
+      <c r="C379" s="7">
         <v>115.99000000000001</v>
       </c>
     </row>
@@ -5340,15 +5337,15 @@
       <c r="B380" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C380" s="6">
-        <v>88.6</v>
+      <c r="C380" s="7">
+        <v>88.600000000000009</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C381" s="6">
+      <c r="C381" s="7">
         <v>210.99</v>
       </c>
     </row>
@@ -5356,15 +5353,15 @@
       <c r="B382" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C382" s="6">
-        <v>4.1009000000000002</v>
+      <c r="C382" s="7">
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C383" s="6">
+      <c r="C383" s="7">
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -5372,7 +5369,7 @@
       <c r="B384" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C384" s="6">
+      <c r="C384" s="7">
         <v>97.9</v>
       </c>
     </row>
@@ -5380,7 +5377,7 @@
       <c r="B385" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C385" s="6">
+      <c r="C385" s="7">
         <v>89.9</v>
       </c>
     </row>
@@ -5388,7 +5385,7 @@
       <c r="B386" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C386" s="6">
+      <c r="C386" s="7">
         <v>113.99000000000001</v>
       </c>
     </row>
@@ -5396,15 +5393,15 @@
       <c r="B387" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C387" s="6">
-        <v>38.808999999999997</v>
+      <c r="C387" s="7">
+        <v>38.89</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C388" s="6">
+      <c r="C388" s="7">
         <v>43.9</v>
       </c>
     </row>
@@ -5412,15 +5409,15 @@
       <c r="B389" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C389" s="6">
-        <v>13.100300000000001</v>
+      <c r="C389" s="7">
+        <v>13.13</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C390" s="6">
+      <c r="C390" s="7">
         <v>44.9</v>
       </c>
     </row>
@@ -5428,7 +5425,7 @@
       <c r="B391" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C391" s="6">
+      <c r="C391" s="7">
         <v>199.9</v>
       </c>
     </row>
@@ -5436,7 +5433,7 @@
       <c r="B392" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C392" s="6">
+      <c r="C392" s="7">
         <v>49.9</v>
       </c>
     </row>
@@ -5444,7 +5441,7 @@
       <c r="B393" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C393" s="6">
+      <c r="C393" s="7">
         <v>65.7</v>
       </c>
     </row>
@@ -5452,7 +5449,7 @@
       <c r="B394" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C394" s="6">
+      <c r="C394" s="7">
         <v>73.989999999999995</v>
       </c>
     </row>
@@ -5460,15 +5457,15 @@
       <c r="B395" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C395" s="6">
-        <v>70.709000000000003</v>
+      <c r="C395" s="7">
+        <v>70.790000000000006</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C396" s="6">
+      <c r="C396" s="7">
         <v>38.9</v>
       </c>
     </row>
@@ -5476,15 +5473,15 @@
       <c r="B397" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C397" s="6">
-        <v>6.2089999999999996</v>
+      <c r="C397" s="7">
+        <v>6.29</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C398" s="6">
+      <c r="C398" s="7">
         <v>284</v>
       </c>
     </row>
@@ -5492,7 +5489,7 @@
       <c r="B399" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C399" s="6">
+      <c r="C399" s="7">
         <v>599.9</v>
       </c>
     </row>
@@ -5500,7 +5497,7 @@
       <c r="B400" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C400" s="6">
+      <c r="C400" s="7">
         <v>63.5</v>
       </c>
     </row>
@@ -5508,7 +5505,7 @@
       <c r="B401" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C401" s="6">
+      <c r="C401" s="7">
         <v>279.92</v>
       </c>
     </row>
@@ -5516,7 +5513,7 @@
       <c r="B402" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C402" s="6">
+      <c r="C402" s="7">
         <v>179.9</v>
       </c>
     </row>
@@ -5524,7 +5521,7 @@
       <c r="B403" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C403" s="6">
+      <c r="C403" s="7">
         <v>106.2</v>
       </c>
     </row>
@@ -5532,15 +5529,15 @@
       <c r="B404" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C404" s="6">
-        <v>47.204999999999998</v>
+      <c r="C404" s="7">
+        <v>47.25</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C405" s="6">
+      <c r="C405" s="7">
         <v>131.6</v>
       </c>
     </row>
@@ -5548,7 +5545,7 @@
       <c r="B406" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C406" s="6">
+      <c r="C406" s="7">
         <v>10.9</v>
       </c>
     </row>
@@ -5556,7 +5553,7 @@
       <c r="B407" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C407" s="6">
+      <c r="C407" s="7">
         <v>3.99</v>
       </c>
     </row>
@@ -5564,7 +5561,7 @@
       <c r="B408" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C408" s="6">
+      <c r="C408" s="7">
         <v>95</v>
       </c>
     </row>
@@ -5572,7 +5569,7 @@
       <c r="B409" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C409" s="6">
+      <c r="C409" s="7">
         <v>5.9</v>
       </c>
     </row>
@@ -5580,7 +5577,7 @@
       <c r="B410" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C410" s="6">
+      <c r="C410" s="7">
         <v>121.8</v>
       </c>
     </row>
@@ -5588,7 +5585,7 @@
       <c r="B411" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C411" s="6">
+      <c r="C411" s="7">
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -5596,7 +5593,7 @@
       <c r="B412" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C412" s="6">
+      <c r="C412" s="7">
         <v>28.990000000000002</v>
       </c>
     </row>
@@ -5604,15 +5601,15 @@
       <c r="B413" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C413" s="6">
-        <v>167.30600000000001</v>
+      <c r="C413" s="7">
+        <v>167.36</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C414" s="6">
+      <c r="C414" s="7">
         <v>71.900000000000006</v>
       </c>
     </row>
@@ -5620,15 +5617,15 @@
       <c r="B415" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C415" s="6">
-        <v>34.604999999999997</v>
+      <c r="C415" s="7">
+        <v>34.65</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C416" s="6">
+      <c r="C416" s="7">
         <v>40.700000000000003</v>
       </c>
     </row>
@@ -5636,7 +5633,7 @@
       <c r="B417" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C417" s="6">
+      <c r="C417" s="7">
         <v>228</v>
       </c>
     </row>
@@ -5644,7 +5641,7 @@
       <c r="B418" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C418" s="6">
+      <c r="C418" s="7">
         <v>31.7</v>
       </c>
     </row>
@@ -5652,15 +5649,15 @@
       <c r="B419" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C419" s="6">
-        <v>11.308999999999999</v>
+      <c r="C419" s="7">
+        <v>11.39</v>
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C420" s="6">
+      <c r="C420" s="7">
         <v>43.6</v>
       </c>
     </row>
@@ -5668,7 +5665,7 @@
       <c r="B421" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C421" s="6">
+      <c r="C421" s="7">
         <v>86.99</v>
       </c>
     </row>
@@ -5676,15 +5673,15 @@
       <c r="B422" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C422" s="6">
-        <v>88.409000000000006</v>
+      <c r="C422" s="7">
+        <v>88.49</v>
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C423" s="6">
+      <c r="C423" s="7">
         <v>187.5</v>
       </c>
     </row>
@@ -5692,7 +5689,7 @@
       <c r="B424" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C424" s="6">
+      <c r="C424" s="7">
         <v>139.80000000000001</v>
       </c>
     </row>
@@ -5700,7 +5697,7 @@
       <c r="B425" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C425" s="6">
+      <c r="C425" s="7">
         <v>101.5</v>
       </c>
     </row>
@@ -5708,7 +5705,7 @@
       <c r="B426" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C426" s="6">
+      <c r="C426" s="7">
         <v>93.99</v>
       </c>
     </row>
@@ -5716,7 +5713,7 @@
       <c r="B427" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C427" s="6">
+      <c r="C427" s="7">
         <v>149.80000000000001</v>
       </c>
     </row>
@@ -5724,7 +5721,7 @@
       <c r="B428" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C428" s="6">
+      <c r="C428" s="7">
         <v>132</v>
       </c>
     </row>
@@ -5732,7 +5729,7 @@
       <c r="B429" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C429" s="6">
+      <c r="C429" s="7">
         <v>73.900000000000006</v>
       </c>
     </row>
@@ -5740,7 +5737,7 @@
       <c r="B430" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C430" s="6">
+      <c r="C430" s="7">
         <v>95.9</v>
       </c>
     </row>
@@ -5748,7 +5745,7 @@
       <c r="B431" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C431" s="6">
+      <c r="C431" s="7">
         <v>64.8</v>
       </c>
     </row>
@@ -5756,7 +5753,7 @@
       <c r="B432" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C432" s="6">
+      <c r="C432" s="7">
         <v>59</v>
       </c>
     </row>
@@ -5764,7 +5761,7 @@
       <c r="B433" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C433" s="6">
+      <c r="C433" s="7">
         <v>72.5</v>
       </c>
     </row>
@@ -5772,7 +5769,7 @@
       <c r="B434" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C434" s="6">
+      <c r="C434" s="7">
         <v>33.99</v>
       </c>
     </row>
@@ -5780,15 +5777,15 @@
       <c r="B435" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C435" s="6">
-        <v>23.606999999999999</v>
+      <c r="C435" s="7">
+        <v>23.67</v>
       </c>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C436" s="6">
+      <c r="C436" s="7">
         <v>133.4</v>
       </c>
     </row>
@@ -5796,7 +5793,7 @@
       <c r="B437" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C437" s="6">
+      <c r="C437" s="7">
         <v>99.9</v>
       </c>
     </row>
@@ -5804,7 +5801,7 @@
       <c r="B438" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C438" s="6">
+      <c r="C438" s="7">
         <v>88.9</v>
       </c>
     </row>
@@ -5812,15 +5809,15 @@
       <c r="B439" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C439" s="6">
-        <v>179.7</v>
+      <c r="C439" s="7">
+        <v>179.70000000000002</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C440" s="6">
+      <c r="C440" s="7">
         <v>34.9</v>
       </c>
     </row>
@@ -5828,15 +5825,15 @@
       <c r="B441" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C441" s="6">
-        <v>115.705</v>
+      <c r="C441" s="7">
+        <v>115.75</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C442" s="6">
+      <c r="C442" s="7">
         <v>137.80000000000001</v>
       </c>
     </row>
@@ -5844,23 +5841,23 @@
       <c r="B443" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C443" s="6">
-        <v>96.808999999999997</v>
+      <c r="C443" s="7">
+        <v>96.89</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C444" s="6">
-        <v>99.808999999999997</v>
+      <c r="C444" s="7">
+        <v>99.89</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C445" s="6">
+      <c r="C445" s="7">
         <v>68.989999999999995</v>
       </c>
     </row>
@@ -5868,7 +5865,7 @@
       <c r="B446" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C446" s="6">
+      <c r="C446" s="7">
         <v>91.99</v>
       </c>
     </row>
@@ -5876,23 +5873,23 @@
       <c r="B447" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C447" s="6">
-        <v>95.808999999999997</v>
+      <c r="C447" s="7">
+        <v>95.89</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C448" s="6">
-        <v>45.709000000000003</v>
+      <c r="C448" s="7">
+        <v>45.79</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C449" s="6">
+      <c r="C449" s="7">
         <v>44.9</v>
       </c>
     </row>
@@ -5900,7 +5897,7 @@
       <c r="B450" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C450" s="6">
+      <c r="C450" s="7">
         <v>34.99</v>
       </c>
     </row>
@@ -5908,7 +5905,7 @@
       <c r="B451" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C451" s="6">
+      <c r="C451" s="7">
         <v>29.990000000000002</v>
       </c>
     </row>
@@ -5916,7 +5913,7 @@
       <c r="B452" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C452" s="6">
+      <c r="C452" s="7">
         <v>29.990000000000002</v>
       </c>
     </row>
@@ -5924,7 +5921,7 @@
       <c r="B453" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C453" s="6">
+      <c r="C453" s="7">
         <v>73.8</v>
       </c>
     </row>
@@ -5932,15 +5929,15 @@
       <c r="B454" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C454" s="6">
-        <v>33.609000000000002</v>
+      <c r="C454" s="7">
+        <v>33.69</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C455" s="6">
+      <c r="C455" s="7">
         <v>76.989999999999995</v>
       </c>
     </row>
@@ -5948,7 +5945,7 @@
       <c r="B456" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C456" s="6">
+      <c r="C456" s="7">
         <v>49.95</v>
       </c>
     </row>
@@ -5956,7 +5953,7 @@
       <c r="B457" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C457" s="6">
+      <c r="C457" s="7">
         <v>43.980000000000004</v>
       </c>
     </row>
@@ -5964,7 +5961,7 @@
       <c r="B458" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C458" s="6">
+      <c r="C458" s="7">
         <v>58.99</v>
       </c>
     </row>
@@ -5972,7 +5969,7 @@
       <c r="B459" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C459" s="6">
+      <c r="C459" s="7">
         <v>139</v>
       </c>
     </row>
@@ -5980,23 +5977,23 @@
       <c r="B460" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C460" s="6">
-        <v>23.606999999999999</v>
+      <c r="C460" s="7">
+        <v>23.67</v>
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C461" s="6">
-        <v>16.509</v>
+      <c r="C461" s="7">
+        <v>16.59</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C462" s="6">
+      <c r="C462" s="7">
         <v>124.9</v>
       </c>
     </row>
@@ -6004,15 +6001,15 @@
       <c r="B463" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C463" s="6">
-        <v>67.802999999999997</v>
+      <c r="C463" s="7">
+        <v>67.83</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C464" s="6">
+      <c r="C464" s="7">
         <v>179.9</v>
       </c>
     </row>
@@ -6020,7 +6017,7 @@
       <c r="B465" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C465" s="6">
+      <c r="C465" s="7">
         <v>170.6</v>
       </c>
     </row>
@@ -6028,15 +6025,15 @@
       <c r="B466" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C466" s="6">
-        <v>27.805</v>
+      <c r="C466" s="7">
+        <v>27.85</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C467" s="6">
+      <c r="C467" s="7">
         <v>63.6</v>
       </c>
     </row>
@@ -6044,15 +6041,15 @@
       <c r="B468" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C468" s="6">
-        <v>57.408999999999999</v>
+      <c r="C468" s="7">
+        <v>57.49</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C469" s="6">
+      <c r="C469" s="7">
         <v>72.599999999999994</v>
       </c>
     </row>
@@ -6060,7 +6057,7 @@
       <c r="B470" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C470" s="6">
+      <c r="C470" s="7">
         <v>64.989999999999995</v>
       </c>
     </row>
@@ -6068,15 +6065,15 @@
       <c r="B471" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C471" s="6">
-        <v>144.809</v>
+      <c r="C471" s="7">
+        <v>144.88999999999999</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C472" s="6">
+      <c r="C472" s="7">
         <v>25.990000000000002</v>
       </c>
     </row>
@@ -6084,15 +6081,15 @@
       <c r="B473" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C473" s="6">
-        <v>121.40900000000001</v>
+      <c r="C473" s="7">
+        <v>121.49000000000001</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C474" s="6">
+      <c r="C474" s="7">
         <v>20.3</v>
       </c>
     </row>
@@ -6100,7 +6097,7 @@
       <c r="B475" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C475" s="6">
+      <c r="C475" s="7">
         <v>227.9</v>
       </c>
     </row>
@@ -6108,7 +6105,7 @@
       <c r="B476" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C476" s="6">
+      <c r="C476" s="7">
         <v>159.69999999999999</v>
       </c>
     </row>
@@ -6116,7 +6113,7 @@
       <c r="B477" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C477" s="6">
+      <c r="C477" s="7">
         <v>374.7</v>
       </c>
     </row>
@@ -6124,7 +6121,7 @@
       <c r="B478" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C478" s="6">
+      <c r="C478" s="7">
         <v>19.989999999999998</v>
       </c>
     </row>
@@ -6132,31 +6129,31 @@
       <c r="B479" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C479" s="6">
-        <v>18.309000000000001</v>
+      <c r="C479" s="7">
+        <v>18.39</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C480" s="6">
-        <v>103.80500000000001</v>
+      <c r="C480" s="7">
+        <v>103.85000000000001</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C481" s="6">
-        <v>75.805999999999997</v>
+      <c r="C481" s="7">
+        <v>75.86</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C482" s="6">
+      <c r="C482" s="7">
         <v>53.9</v>
       </c>
     </row>
@@ -6164,7 +6161,7 @@
       <c r="B483" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C483" s="6">
+      <c r="C483" s="7">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -6172,7 +6169,7 @@
       <c r="B484" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C484" s="6">
+      <c r="C484" s="7">
         <v>97.8</v>
       </c>
     </row>
@@ -6180,15 +6177,15 @@
       <c r="B485" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C485" s="6">
-        <v>34.100499999999997</v>
+      <c r="C485" s="7">
+        <v>34.15</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C486" s="6">
+      <c r="C486" s="7">
         <v>39.9</v>
       </c>
     </row>
@@ -6196,15 +6193,15 @@
       <c r="B487" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C487" s="6">
-        <v>27.408999999999999</v>
+      <c r="C487" s="7">
+        <v>27.490000000000002</v>
       </c>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C488" s="6">
+      <c r="C488" s="7">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -6212,7 +6209,7 @@
       <c r="B489" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C489" s="6">
+      <c r="C489" s="7">
         <v>93.3</v>
       </c>
     </row>
@@ -6220,7 +6217,7 @@
       <c r="B490" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C490" s="6">
+      <c r="C490" s="7">
         <v>99.9</v>
       </c>
     </row>
@@ -6228,7 +6225,7 @@
       <c r="B491" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C491" s="6">
+      <c r="C491" s="7">
         <v>59.99</v>
       </c>
     </row>
@@ -6236,7 +6233,7 @@
       <c r="B492" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C492" s="6">
+      <c r="C492" s="7">
         <v>61.99</v>
       </c>
     </row>
@@ -6244,15 +6241,15 @@
       <c r="B493" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C493" s="6">
-        <v>79.704999999999998</v>
+      <c r="C493" s="7">
+        <v>79.75</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C494" s="6">
+      <c r="C494" s="7">
         <v>50.4</v>
       </c>
     </row>
@@ -6260,15 +6257,15 @@
       <c r="B495" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C495" s="6">
-        <v>30.305</v>
+      <c r="C495" s="7">
+        <v>30.35</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C496" s="6">
+      <c r="C496" s="7">
         <v>33.5</v>
       </c>
     </row>
@@ -6276,7 +6273,7 @@
       <c r="B497" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C497" s="6">
+      <c r="C497" s="7">
         <v>67.2</v>
       </c>
     </row>
@@ -6284,7 +6281,7 @@
       <c r="B498" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C498" s="6">
+      <c r="C498" s="7">
         <v>81.040000000000006</v>
       </c>
     </row>
@@ -6292,23 +6289,23 @@
       <c r="B499" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C499" s="6">
-        <v>26.402000000000001</v>
+      <c r="C499" s="7">
+        <v>26.42</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C500" s="6">
-        <v>57.100200000000001</v>
+      <c r="C500" s="7">
+        <v>57.120000000000005</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C501" s="6">
+      <c r="C501" s="7">
         <v>23</v>
       </c>
     </row>
@@ -6316,7 +6313,7 @@
       <c r="B502" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C502" s="6">
+      <c r="C502" s="7">
         <v>87.9</v>
       </c>
     </row>
@@ -6324,7 +6321,7 @@
       <c r="B503" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C503" s="6">
+      <c r="C503" s="7">
         <v>58.7</v>
       </c>
     </row>
@@ -6332,7 +6329,7 @@
       <c r="B504" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C504" s="6">
+      <c r="C504" s="7">
         <v>199.9</v>
       </c>
     </row>
@@ -6340,15 +6337,15 @@
       <c r="B505" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C505" s="6">
-        <v>58.1006</v>
+      <c r="C505" s="7">
+        <v>58.160000000000004</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C506" s="6">
+      <c r="C506" s="7">
         <v>41.4</v>
       </c>
     </row>
@@ -6356,7 +6353,7 @@
       <c r="B507" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C507" s="6">
+      <c r="C507" s="7">
         <v>50.99</v>
       </c>
     </row>
@@ -6364,47 +6361,47 @@
       <c r="B508" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C508" s="6">
-        <v>47.204999999999998</v>
+      <c r="C508" s="7">
+        <v>47.25</v>
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C509" s="6">
-        <v>46.8</v>
+      <c r="C509" s="7">
+        <v>46.800000000000004</v>
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C510" s="6">
-        <v>32.305999999999997</v>
+      <c r="C510" s="7">
+        <v>32.36</v>
       </c>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C511" s="6">
-        <v>32.305999999999997</v>
+      <c r="C511" s="7">
+        <v>32.36</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C512" s="6">
-        <v>13.505000000000001</v>
+      <c r="C512" s="7">
+        <v>13.55</v>
       </c>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C513" s="6">
+      <c r="C513" s="7">
         <v>337.90000000000003</v>
       </c>
     </row>
@@ -6412,39 +6409,39 @@
       <c r="B514" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C514" s="6">
-        <v>28.709</v>
+      <c r="C514" s="7">
+        <v>28.79</v>
       </c>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C515" s="6">
-        <v>5.2089999999999996</v>
+      <c r="C515" s="7">
+        <v>5.29</v>
       </c>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C516" s="6">
-        <v>10.409000000000001</v>
+      <c r="C516" s="7">
+        <v>10.49</v>
       </c>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C517" s="6">
-        <v>7.8029999999999999</v>
+      <c r="C517" s="7">
+        <v>7.83</v>
       </c>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C518" s="6">
+      <c r="C518" s="7">
         <v>8.99</v>
       </c>
     </row>
@@ -6452,7 +6449,7 @@
       <c r="B519" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C519" s="6">
+      <c r="C519" s="7">
         <v>6</v>
       </c>
     </row>
@@ -6460,7 +6457,7 @@
       <c r="B520" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C520" s="6">
+      <c r="C520" s="7">
         <v>15.99</v>
       </c>
     </row>
@@ -6468,15 +6465,15 @@
       <c r="B521" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C521" s="6">
-        <v>5.1009000000000002</v>
+      <c r="C521" s="7">
+        <v>5.19</v>
       </c>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C522" s="6">
+      <c r="C522" s="7">
         <v>13.6</v>
       </c>
     </row>
@@ -6484,15 +6481,15 @@
       <c r="B523" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C523" s="6">
-        <v>37.600999999999999</v>
+      <c r="C523" s="7">
+        <v>37.61</v>
       </c>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C524" s="6">
+      <c r="C524" s="7">
         <v>9.99</v>
       </c>
     </row>
@@ -6500,7 +6497,7 @@
       <c r="B525" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C525" s="6">
+      <c r="C525" s="7">
         <v>9.99</v>
       </c>
     </row>
@@ -6508,15 +6505,15 @@
       <c r="B526" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C526" s="6">
-        <v>55.408999999999999</v>
+      <c r="C526" s="7">
+        <v>55.49</v>
       </c>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C527" s="6">
+      <c r="C527" s="7">
         <v>31.900000000000002</v>
       </c>
     </row>
@@ -6524,7 +6521,7 @@
       <c r="B528" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C528" s="6">
+      <c r="C528" s="7">
         <v>55.7</v>
       </c>
     </row>
@@ -6532,7 +6529,7 @@
       <c r="B529" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C529" s="6">
+      <c r="C529" s="7">
         <v>44.1</v>
       </c>
     </row>
@@ -6540,7 +6537,7 @@
       <c r="B530" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C530" s="6">
+      <c r="C530" s="7">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -6548,31 +6545,31 @@
       <c r="B531" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C531" s="6">
-        <v>36.808999999999997</v>
+      <c r="C531" s="7">
+        <v>36.89</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C532" s="6">
-        <v>74.606999999999999</v>
+      <c r="C532" s="7">
+        <v>74.67</v>
       </c>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C533" s="6">
-        <v>24.509</v>
+      <c r="C533" s="7">
+        <v>24.59</v>
       </c>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C534" s="6">
+      <c r="C534" s="7">
         <v>19.989999999999998</v>
       </c>
     </row>
@@ -6580,7 +6577,7 @@
       <c r="B535" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C535" s="6">
+      <c r="C535" s="7">
         <v>49.9</v>
       </c>
     </row>
@@ -6588,15 +6585,15 @@
       <c r="B536" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C536" s="6">
-        <v>18.309000000000001</v>
+      <c r="C536" s="7">
+        <v>18.39</v>
       </c>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C537" s="6">
+      <c r="C537" s="7">
         <v>165.4</v>
       </c>
     </row>
@@ -6604,7 +6601,7 @@
       <c r="B538" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C538" s="6">
+      <c r="C538" s="7">
         <v>20.990000000000002</v>
       </c>
     </row>
@@ -6612,7 +6609,7 @@
       <c r="B539" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C539" s="6">
+      <c r="C539" s="7">
         <v>24.01</v>
       </c>
     </row>
@@ -6620,31 +6617,31 @@
       <c r="B540" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C540" s="6">
-        <v>46.601999999999997</v>
+      <c r="C540" s="7">
+        <v>46.62</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C541" s="6">
-        <v>5.7080000000000002</v>
+      <c r="C541" s="7">
+        <v>5.78</v>
       </c>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C542" s="6">
-        <v>13.202999999999999</v>
+      <c r="C542" s="7">
+        <v>13.23</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C543" s="6">
+      <c r="C543" s="7">
         <v>112.5</v>
       </c>
     </row>
@@ -6652,15 +6649,15 @@
       <c r="B544" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C544" s="6">
-        <v>41.100299999999997</v>
+      <c r="C544" s="7">
+        <v>41.13</v>
       </c>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C545" s="6">
+      <c r="C545" s="7">
         <v>33.799999999999997</v>
       </c>
     </row>
@@ -6668,7 +6665,7 @@
       <c r="B546" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C546" s="6">
+      <c r="C546" s="7">
         <v>40.99</v>
       </c>
     </row>
@@ -6676,7 +6673,7 @@
       <c r="B547" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C547" s="6">
+      <c r="C547" s="7">
         <v>76.95</v>
       </c>
     </row>
@@ -6684,31 +6681,31 @@
       <c r="B548" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C548" s="6">
-        <v>20.408999999999999</v>
+      <c r="C548" s="7">
+        <v>20.490000000000002</v>
       </c>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C549" s="6">
-        <v>37.402999999999999</v>
+      <c r="C549" s="7">
+        <v>37.43</v>
       </c>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C550" s="6">
-        <v>41.408999999999999</v>
+      <c r="C550" s="7">
+        <v>41.49</v>
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C551" s="6">
+      <c r="C551" s="7">
         <v>19.989999999999998</v>
       </c>
     </row>
@@ -6716,7 +6713,7 @@
       <c r="B552" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C552" s="6">
+      <c r="C552" s="7">
         <v>56.99</v>
       </c>
     </row>
@@ -6724,31 +6721,31 @@
       <c r="B553" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C553" s="6">
-        <v>61.8</v>
+      <c r="C553" s="7">
+        <v>61.800000000000004</v>
       </c>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C554" s="6">
-        <v>46.709000000000003</v>
+      <c r="C554" s="7">
+        <v>46.79</v>
       </c>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C555" s="6">
-        <v>43.8</v>
+      <c r="C555" s="7">
+        <v>43.800000000000004</v>
       </c>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C556" s="6">
+      <c r="C556" s="7">
         <v>40.99</v>
       </c>
     </row>
@@ -6756,7 +6753,7 @@
       <c r="B557" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C557" s="6">
+      <c r="C557" s="7">
         <v>43.99</v>
       </c>
     </row>
@@ -6764,7 +6761,7 @@
       <c r="B558" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C558" s="6">
+      <c r="C558" s="7">
         <v>43.99</v>
       </c>
     </row>
@@ -6772,7 +6769,7 @@
       <c r="B559" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C559" s="6">
+      <c r="C559" s="7">
         <v>40.99</v>
       </c>
     </row>
@@ -6780,7 +6777,7 @@
       <c r="B560" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C560" s="6">
+      <c r="C560" s="7">
         <v>41.99</v>
       </c>
     </row>
@@ -6788,7 +6785,7 @@
       <c r="B561" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C561" s="6">
+      <c r="C561" s="7">
         <v>46.7</v>
       </c>
     </row>
@@ -6796,7 +6793,7 @@
       <c r="B562" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C562" s="6">
+      <c r="C562" s="7">
         <v>39.9</v>
       </c>
     </row>
@@ -6804,7 +6801,7 @@
       <c r="B563" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C563" s="6">
+      <c r="C563" s="7">
         <v>39.99</v>
       </c>
     </row>
@@ -6812,7 +6809,7 @@
       <c r="B564" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C564" s="6">
+      <c r="C564" s="7">
         <v>58.7</v>
       </c>
     </row>
@@ -6820,7 +6817,7 @@
       <c r="B565" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C565" s="6">
+      <c r="C565" s="7">
         <v>45.4</v>
       </c>
     </row>
@@ -6828,7 +6825,7 @@
       <c r="B566" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C566" s="6">
+      <c r="C566" s="7">
         <v>20.990000000000002</v>
       </c>
     </row>
@@ -6836,15 +6833,15 @@
       <c r="B567" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C567" s="6">
-        <v>26.509</v>
+      <c r="C567" s="7">
+        <v>26.59</v>
       </c>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B568" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C568" s="6">
+      <c r="C568" s="7">
         <v>31.7</v>
       </c>
     </row>
@@ -6852,7 +6849,7 @@
       <c r="B569" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C569" s="6">
+      <c r="C569" s="7">
         <v>52.9</v>
       </c>
     </row>
@@ -6860,15 +6857,15 @@
       <c r="B570" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C570" s="6">
-        <v>25.204999999999998</v>
+      <c r="C570" s="7">
+        <v>25.25</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B571" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C571" s="6">
+      <c r="C571" s="7">
         <v>35.9</v>
       </c>
     </row>
@@ -6876,7 +6873,7 @@
       <c r="B572" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C572" s="6">
+      <c r="C572" s="7">
         <v>68.400000000000006</v>
       </c>
     </row>
@@ -6884,15 +6881,15 @@
       <c r="B573" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C573" s="6">
-        <v>66.409000000000006</v>
+      <c r="C573" s="7">
+        <v>66.489999999999995</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B574" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C574" s="6">
+      <c r="C574" s="7">
         <v>22.900000000000002</v>
       </c>
     </row>
@@ -6900,7 +6897,7 @@
       <c r="B575" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C575" s="6">
+      <c r="C575" s="7">
         <v>165.9</v>
       </c>
     </row>
@@ -6908,7 +6905,7 @@
       <c r="B576" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C576" s="6">
+      <c r="C576" s="7">
         <v>68.400000000000006</v>
       </c>
     </row>
@@ -6916,7 +6913,7 @@
       <c r="B577" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C577" s="6">
+      <c r="C577" s="7">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -6924,15 +6921,15 @@
       <c r="B578" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C578" s="6">
-        <v>49.204999999999998</v>
+      <c r="C578" s="7">
+        <v>49.25</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C579" s="6">
+      <c r="C579" s="7">
         <v>99.7</v>
       </c>
     </row>
@@ -6940,7 +6937,7 @@
       <c r="B580" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C580" s="6">
+      <c r="C580" s="7">
         <v>3.99</v>
       </c>
     </row>
@@ -6948,7 +6945,7 @@
       <c r="B581" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C581" s="6">
+      <c r="C581" s="7">
         <v>27.990000000000002</v>
       </c>
     </row>
@@ -6956,23 +6953,23 @@
       <c r="B582" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C582" s="6">
-        <v>44.408999999999999</v>
+      <c r="C582" s="7">
+        <v>44.49</v>
       </c>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B583" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C583" s="6">
-        <v>36.209000000000003</v>
+      <c r="C583" s="7">
+        <v>36.29</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B584" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C584" s="6">
+      <c r="C584" s="7">
         <v>80.989999999999995</v>
       </c>
     </row>
@@ -6980,15 +6977,15 @@
       <c r="B585" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C585" s="6">
-        <v>279.80399999999997</v>
+      <c r="C585" s="7">
+        <v>279.83999999999997</v>
       </c>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B586" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C586" s="6">
+      <c r="C586" s="7">
         <v>22.990000000000002</v>
       </c>
     </row>
@@ -6996,7 +6993,7 @@
       <c r="B587" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C587" s="6">
+      <c r="C587" s="7">
         <v>27.5</v>
       </c>
     </row>
@@ -7004,7 +7001,7 @@
       <c r="B588" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C588" s="6">
+      <c r="C588" s="7">
         <v>50.99</v>
       </c>
     </row>
@@ -7012,7 +7009,7 @@
       <c r="B589" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C589" s="6">
+      <c r="C589" s="7">
         <v>80.989999999999995</v>
       </c>
     </row>
@@ -7020,7 +7017,7 @@
       <c r="B590" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C590" s="6">
+      <c r="C590" s="7">
         <v>41.1</v>
       </c>
     </row>
@@ -7028,7 +7025,7 @@
       <c r="B591" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C591" s="6">
+      <c r="C591" s="7">
         <v>50.99</v>
       </c>
     </row>
@@ -7036,7 +7033,7 @@
       <c r="B592" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C592" s="6">
+      <c r="C592" s="7">
         <v>130.4</v>
       </c>
     </row>
@@ -7044,7 +7041,7 @@
       <c r="B593" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C593" s="6">
+      <c r="C593" s="7">
         <v>64.989999999999995</v>
       </c>
     </row>
@@ -7052,15 +7049,15 @@
       <c r="B594" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C594" s="6">
-        <v>52.604999999999997</v>
+      <c r="C594" s="7">
+        <v>52.65</v>
       </c>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B595" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C595" s="6">
+      <c r="C595" s="7">
         <v>449.90000000000003</v>
       </c>
     </row>
@@ -7068,7 +7065,7 @@
       <c r="B596" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C596" s="6">
+      <c r="C596" s="7">
         <v>73.989999999999995</v>
       </c>
     </row>
@@ -7076,15 +7073,15 @@
       <c r="B597" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C597" s="6">
-        <v>80.209000000000003</v>
+      <c r="C597" s="7">
+        <v>80.290000000000006</v>
       </c>
     </row>
     <row r="598" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B598" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C598" s="6">
+      <c r="C598" s="7">
         <v>24.900000000000002</v>
       </c>
     </row>
@@ -7092,15 +7089,15 @@
       <c r="B599" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C599" s="6">
-        <v>40.305</v>
+      <c r="C599" s="7">
+        <v>40.35</v>
       </c>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B600" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C600" s="6">
+      <c r="C600" s="7">
         <v>62.4</v>
       </c>
     </row>
@@ -7108,15 +7105,15 @@
       <c r="B601" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C601" s="6">
-        <v>45.8</v>
+      <c r="C601" s="7">
+        <v>45.800000000000004</v>
       </c>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B602" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C602" s="6">
+      <c r="C602" s="7">
         <v>85.99</v>
       </c>
     </row>
@@ -7124,7 +7121,7 @@
       <c r="B603" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C603" s="6">
+      <c r="C603" s="7">
         <v>199.9</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF8AAF-5FFC-498F-963F-C99182220FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A93FA6D-E013-4B98-B010-40B55F23347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1039">
   <si>
     <t>ABACAXI CRISTALIZADO RODELAS</t>
   </si>
@@ -1840,13 +1840,1318 @@
   </si>
   <si>
     <t>Preco</t>
+  </si>
+  <si>
+    <t>56,48</t>
+  </si>
+  <si>
+    <t>60,50</t>
+  </si>
+  <si>
+    <t>229,90</t>
+  </si>
+  <si>
+    <t>150,99</t>
+  </si>
+  <si>
+    <t>59,99</t>
+  </si>
+  <si>
+    <t>20,89</t>
+  </si>
+  <si>
+    <t>20,99</t>
+  </si>
+  <si>
+    <t>29,39</t>
+  </si>
+  <si>
+    <t>52,49</t>
+  </si>
+  <si>
+    <t>22,99</t>
+  </si>
+  <si>
+    <t>57,59</t>
+  </si>
+  <si>
+    <t>85,99</t>
+  </si>
+  <si>
+    <t>139,13</t>
+  </si>
+  <si>
+    <t>50,49</t>
+  </si>
+  <si>
+    <t>110,99</t>
+  </si>
+  <si>
+    <t>115,99</t>
+  </si>
+  <si>
+    <t>97,49</t>
+  </si>
+  <si>
+    <t>40,99</t>
+  </si>
+  <si>
+    <t>27,99</t>
+  </si>
+  <si>
+    <t>33,99</t>
+  </si>
+  <si>
+    <t>33,69</t>
+  </si>
+  <si>
+    <t>11,49</t>
+  </si>
+  <si>
+    <t>181,05</t>
+  </si>
+  <si>
+    <t>35,99</t>
+  </si>
+  <si>
+    <t>79,89</t>
+  </si>
+  <si>
+    <t>14,02</t>
+  </si>
+  <si>
+    <t>15,92</t>
+  </si>
+  <si>
+    <t>12,99</t>
+  </si>
+  <si>
+    <t>70,93</t>
+  </si>
+  <si>
+    <t>43,49</t>
+  </si>
+  <si>
+    <t>33,23</t>
+  </si>
+  <si>
+    <t>39,9</t>
+  </si>
+  <si>
+    <t>28,08</t>
+  </si>
+  <si>
+    <t>24,75</t>
+  </si>
+  <si>
+    <t>31,92</t>
+  </si>
+  <si>
+    <t>43,99</t>
+  </si>
+  <si>
+    <t>26,35</t>
+  </si>
+  <si>
+    <t>54,89</t>
+  </si>
+  <si>
+    <t>66,94</t>
+  </si>
+  <si>
+    <t>101,99</t>
+  </si>
+  <si>
+    <t>95,99</t>
+  </si>
+  <si>
+    <t>63,69</t>
+  </si>
+  <si>
+    <t>41,85</t>
+  </si>
+  <si>
+    <t>2221,25</t>
+  </si>
+  <si>
+    <t>175,77</t>
+  </si>
+  <si>
+    <t>32,13</t>
+  </si>
+  <si>
+    <t>36,75</t>
+  </si>
+  <si>
+    <t>33,75</t>
+  </si>
+  <si>
+    <t>90,53</t>
+  </si>
+  <si>
+    <t>44,99</t>
+  </si>
+  <si>
+    <t>42,95</t>
+  </si>
+  <si>
+    <t>63,89</t>
+  </si>
+  <si>
+    <t>170,99</t>
+  </si>
+  <si>
+    <t>57,12</t>
+  </si>
+  <si>
+    <t>45,99</t>
+  </si>
+  <si>
+    <t>155,09</t>
+  </si>
+  <si>
+    <t>15,99</t>
+  </si>
+  <si>
+    <t>14,69</t>
+  </si>
+  <si>
+    <t>14,89</t>
+  </si>
+  <si>
+    <t>16,99</t>
+  </si>
+  <si>
+    <t>14,99</t>
+  </si>
+  <si>
+    <t>67,99</t>
+  </si>
+  <si>
+    <t>129,89</t>
+  </si>
+  <si>
+    <t>106,53</t>
+  </si>
+  <si>
+    <t>65,77</t>
+  </si>
+  <si>
+    <t>210,99</t>
+  </si>
+  <si>
+    <t>145,9</t>
+  </si>
+  <si>
+    <t>63,99</t>
+  </si>
+  <si>
+    <t>74,99</t>
+  </si>
+  <si>
+    <t>73,99</t>
+  </si>
+  <si>
+    <t>77,99</t>
+  </si>
+  <si>
+    <t>139,89</t>
+  </si>
+  <si>
+    <t>65,9</t>
+  </si>
+  <si>
+    <t>119,89</t>
+  </si>
+  <si>
+    <t>156,89</t>
+  </si>
+  <si>
+    <t>52,99</t>
+  </si>
+  <si>
+    <t>30,99</t>
+  </si>
+  <si>
+    <t>38,99</t>
+  </si>
+  <si>
+    <t>38,49</t>
+  </si>
+  <si>
+    <t>55,99</t>
+  </si>
+  <si>
+    <t>50,93</t>
+  </si>
+  <si>
+    <t>90,49</t>
+  </si>
+  <si>
+    <t>60,99</t>
+  </si>
+  <si>
+    <t>127,79</t>
+  </si>
+  <si>
+    <t>133,13</t>
+  </si>
+  <si>
+    <t>29,79</t>
+  </si>
+  <si>
+    <t>45,89</t>
+  </si>
+  <si>
+    <t>68,85</t>
+  </si>
+  <si>
+    <t>33,49</t>
+  </si>
+  <si>
+    <t>37,69</t>
+  </si>
+  <si>
+    <t>136,99</t>
+  </si>
+  <si>
+    <t>69,99</t>
+  </si>
+  <si>
+    <t>25,99</t>
+  </si>
+  <si>
+    <t>42,99</t>
+  </si>
+  <si>
+    <t>29,59</t>
+  </si>
+  <si>
+    <t>68,35</t>
+  </si>
+  <si>
+    <t>56,29</t>
+  </si>
+  <si>
+    <t>56,69</t>
+  </si>
+  <si>
+    <t>110,89</t>
+  </si>
+  <si>
+    <t>25,89</t>
+  </si>
+  <si>
+    <t>31,49</t>
+  </si>
+  <si>
+    <t>22,75</t>
+  </si>
+  <si>
+    <t>96,69</t>
+  </si>
+  <si>
+    <t>58,99</t>
+  </si>
+  <si>
+    <t>80,99</t>
+  </si>
+  <si>
+    <t>176,9</t>
+  </si>
+  <si>
+    <t>135,99</t>
+  </si>
+  <si>
+    <t>41,49</t>
+  </si>
+  <si>
+    <t>113,99</t>
+  </si>
+  <si>
+    <t>125,92</t>
+  </si>
+  <si>
+    <t>92,69</t>
+  </si>
+  <si>
+    <t>144,48</t>
+  </si>
+  <si>
+    <t>111,99</t>
+  </si>
+  <si>
+    <t>216,99</t>
+  </si>
+  <si>
+    <t>130,13</t>
+  </si>
+  <si>
+    <t>195,97</t>
+  </si>
+  <si>
+    <t>151,47</t>
+  </si>
+  <si>
+    <t>31,63</t>
+  </si>
+  <si>
+    <t>49,99</t>
+  </si>
+  <si>
+    <t>47,99</t>
+  </si>
+  <si>
+    <t>17,79</t>
+  </si>
+  <si>
+    <t>44,49</t>
+  </si>
+  <si>
+    <t>22,67</t>
+  </si>
+  <si>
+    <t>23,67</t>
+  </si>
+  <si>
+    <t>29,99</t>
+  </si>
+  <si>
+    <t>18,49</t>
+  </si>
+  <si>
+    <t>35,79</t>
+  </si>
+  <si>
+    <t>50,64</t>
+  </si>
+  <si>
+    <t>106,89</t>
+  </si>
+  <si>
+    <t>37,49</t>
+  </si>
+  <si>
+    <t>83,99</t>
+  </si>
+  <si>
+    <t>69,59</t>
+  </si>
+  <si>
+    <t>61,99</t>
+  </si>
+  <si>
+    <t>23,69</t>
+  </si>
+  <si>
+    <t>28,25</t>
+  </si>
+  <si>
+    <t>24,49</t>
+  </si>
+  <si>
+    <t>19,99</t>
+  </si>
+  <si>
+    <t>18,69</t>
+  </si>
+  <si>
+    <t>55,19</t>
+  </si>
+  <si>
+    <t>93,15</t>
+  </si>
+  <si>
+    <t>47,88</t>
+  </si>
+  <si>
+    <t>23,99</t>
+  </si>
+  <si>
+    <t>17,75</t>
+  </si>
+  <si>
+    <t>25,65</t>
+  </si>
+  <si>
+    <t>13,31</t>
+  </si>
+  <si>
+    <t>12,14</t>
+  </si>
+  <si>
+    <t>12,18</t>
+  </si>
+  <si>
+    <t>22,89</t>
+  </si>
+  <si>
+    <t>13,99</t>
+  </si>
+  <si>
+    <t>42,59</t>
+  </si>
+  <si>
+    <t>47,89</t>
+  </si>
+  <si>
+    <t>57,49</t>
+  </si>
+  <si>
+    <t>32,99</t>
+  </si>
+  <si>
+    <t>50,79</t>
+  </si>
+  <si>
+    <t>39,89</t>
+  </si>
+  <si>
+    <t>54,99</t>
+  </si>
+  <si>
+    <t>114,25</t>
+  </si>
+  <si>
+    <t>49,89</t>
+  </si>
+  <si>
+    <t>134,25</t>
+  </si>
+  <si>
+    <t>32,11</t>
+  </si>
+  <si>
+    <t>22,8</t>
+  </si>
+  <si>
+    <t>31,99</t>
+  </si>
+  <si>
+    <t>44,82</t>
+  </si>
+  <si>
+    <t>71,99</t>
+  </si>
+  <si>
+    <t>49,25</t>
+  </si>
+  <si>
+    <t>52,89</t>
+  </si>
+  <si>
+    <t>27,79</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>4,19</t>
+  </si>
+  <si>
+    <t>38,89</t>
+  </si>
+  <si>
+    <t>13,13</t>
+  </si>
+  <si>
+    <t>70,79</t>
+  </si>
+  <si>
+    <t>6,29</t>
+  </si>
+  <si>
+    <t>279,92</t>
+  </si>
+  <si>
+    <t>47,25</t>
+  </si>
+  <si>
+    <t>3,99</t>
+  </si>
+  <si>
+    <t>28,99</t>
+  </si>
+  <si>
+    <t>167,36</t>
+  </si>
+  <si>
+    <t>34,65</t>
+  </si>
+  <si>
+    <t>11,39</t>
+  </si>
+  <si>
+    <t>86,99</t>
+  </si>
+  <si>
+    <t>88,49</t>
+  </si>
+  <si>
+    <t>93,99</t>
+  </si>
+  <si>
+    <t>115,75</t>
+  </si>
+  <si>
+    <t>96,89</t>
+  </si>
+  <si>
+    <t>99,89</t>
+  </si>
+  <si>
+    <t>68,99</t>
+  </si>
+  <si>
+    <t>91,99</t>
+  </si>
+  <si>
+    <t>95,89</t>
+  </si>
+  <si>
+    <t>45,79</t>
+  </si>
+  <si>
+    <t>34,99</t>
+  </si>
+  <si>
+    <t>76,99</t>
+  </si>
+  <si>
+    <t>49,95</t>
+  </si>
+  <si>
+    <t>43,98</t>
+  </si>
+  <si>
+    <t>16,59</t>
+  </si>
+  <si>
+    <t>67,83</t>
+  </si>
+  <si>
+    <t>27,85</t>
+  </si>
+  <si>
+    <t>64,99</t>
+  </si>
+  <si>
+    <t>144,89</t>
+  </si>
+  <si>
+    <t>121,49</t>
+  </si>
+  <si>
+    <t>18,39</t>
+  </si>
+  <si>
+    <t>103,85</t>
+  </si>
+  <si>
+    <t>75,86</t>
+  </si>
+  <si>
+    <t>34,15</t>
+  </si>
+  <si>
+    <t>27,49</t>
+  </si>
+  <si>
+    <t>79,75</t>
+  </si>
+  <si>
+    <t>30,35</t>
+  </si>
+  <si>
+    <t>81,04</t>
+  </si>
+  <si>
+    <t>26,42</t>
+  </si>
+  <si>
+    <t>58,16</t>
+  </si>
+  <si>
+    <t>50,99</t>
+  </si>
+  <si>
+    <t>32,36</t>
+  </si>
+  <si>
+    <t>13,55</t>
+  </si>
+  <si>
+    <t>28,79</t>
+  </si>
+  <si>
+    <t>5,29</t>
+  </si>
+  <si>
+    <t>10,49</t>
+  </si>
+  <si>
+    <t>7,83</t>
+  </si>
+  <si>
+    <t>8,99</t>
+  </si>
+  <si>
+    <t>5,19</t>
+  </si>
+  <si>
+    <t>37,61</t>
+  </si>
+  <si>
+    <t>9,99</t>
+  </si>
+  <si>
+    <t>55,49</t>
+  </si>
+  <si>
+    <t>36,89</t>
+  </si>
+  <si>
+    <t>74,67</t>
+  </si>
+  <si>
+    <t>24,59</t>
+  </si>
+  <si>
+    <t>24,01</t>
+  </si>
+  <si>
+    <t>46,62</t>
+  </si>
+  <si>
+    <t>5,78</t>
+  </si>
+  <si>
+    <t>13,23</t>
+  </si>
+  <si>
+    <t>41,13</t>
+  </si>
+  <si>
+    <t>76,95</t>
+  </si>
+  <si>
+    <t>20,49</t>
+  </si>
+  <si>
+    <t>37,43</t>
+  </si>
+  <si>
+    <t>56,99</t>
+  </si>
+  <si>
+    <t>46,79</t>
+  </si>
+  <si>
+    <t>41,99</t>
+  </si>
+  <si>
+    <t>39,99</t>
+  </si>
+  <si>
+    <t>26,59</t>
+  </si>
+  <si>
+    <t>25,25</t>
+  </si>
+  <si>
+    <t>66,49</t>
+  </si>
+  <si>
+    <t>36,29</t>
+  </si>
+  <si>
+    <t>279,84</t>
+  </si>
+  <si>
+    <t>52,65</t>
+  </si>
+  <si>
+    <t>80,29</t>
+  </si>
+  <si>
+    <t>40,35</t>
+  </si>
+  <si>
+    <t>59,90</t>
+  </si>
+  <si>
+    <t>19,80</t>
+  </si>
+  <si>
+    <t>149,20</t>
+  </si>
+  <si>
+    <t>75,60</t>
+  </si>
+  <si>
+    <t>143,60</t>
+  </si>
+  <si>
+    <t>118,50</t>
+  </si>
+  <si>
+    <t>121,50</t>
+  </si>
+  <si>
+    <t>135,70</t>
+  </si>
+  <si>
+    <t>47,90</t>
+  </si>
+  <si>
+    <t>22,40</t>
+  </si>
+  <si>
+    <t>70,50</t>
+  </si>
+  <si>
+    <t>143,90</t>
+  </si>
+  <si>
+    <t>116,90</t>
+  </si>
+  <si>
+    <t>61,60</t>
+  </si>
+  <si>
+    <t>17,90</t>
+  </si>
+  <si>
+    <t>69,90</t>
+  </si>
+  <si>
+    <t>62,90</t>
+  </si>
+  <si>
+    <t>72,50</t>
+  </si>
+  <si>
+    <t>29,90</t>
+  </si>
+  <si>
+    <t>24,90</t>
+  </si>
+  <si>
+    <t>35,90</t>
+  </si>
+  <si>
+    <t>10,80</t>
+  </si>
+  <si>
+    <t>13,20</t>
+  </si>
+  <si>
+    <t>54,50</t>
+  </si>
+  <si>
+    <t>38,70</t>
+  </si>
+  <si>
+    <t>31,40</t>
+  </si>
+  <si>
+    <t>17,30</t>
+  </si>
+  <si>
+    <t>39,90</t>
+  </si>
+  <si>
+    <t>58,80</t>
+  </si>
+  <si>
+    <t>79,50</t>
+  </si>
+  <si>
+    <t>14,40</t>
+  </si>
+  <si>
+    <t>152,90</t>
+  </si>
+  <si>
+    <t>77,70</t>
+  </si>
+  <si>
+    <t>79,90</t>
+  </si>
+  <si>
+    <t>31,50</t>
+  </si>
+  <si>
+    <t>32,90</t>
+  </si>
+  <si>
+    <t>54,60</t>
+  </si>
+  <si>
+    <t>35,70</t>
+  </si>
+  <si>
+    <t>44,90</t>
+  </si>
+  <si>
+    <t>89,90</t>
+  </si>
+  <si>
+    <t>42,50</t>
+  </si>
+  <si>
+    <t>61,90</t>
+  </si>
+  <si>
+    <t>83,80</t>
+  </si>
+  <si>
+    <t>95,40</t>
+  </si>
+  <si>
+    <t>66,90</t>
+  </si>
+  <si>
+    <t>94,90</t>
+  </si>
+  <si>
+    <t>16,80</t>
+  </si>
+  <si>
+    <t>19,70</t>
+  </si>
+  <si>
+    <t>16,90</t>
+  </si>
+  <si>
+    <t>14,70</t>
+  </si>
+  <si>
+    <t>15,80</t>
+  </si>
+  <si>
+    <t>275,90</t>
+  </si>
+  <si>
+    <t>14,90</t>
+  </si>
+  <si>
+    <t>24,30</t>
+  </si>
+  <si>
+    <t>83,90</t>
+  </si>
+  <si>
+    <t>499,90</t>
+  </si>
+  <si>
+    <t>349,90</t>
+  </si>
+  <si>
+    <t>20,80</t>
+  </si>
+  <si>
+    <t>129,60</t>
+  </si>
+  <si>
+    <t>214,50</t>
+  </si>
+  <si>
+    <t>145,90</t>
+  </si>
+  <si>
+    <t>61,50</t>
+  </si>
+  <si>
+    <t>101,50</t>
+  </si>
+  <si>
+    <t>14,60</t>
+  </si>
+  <si>
+    <t>32,40</t>
+  </si>
+  <si>
+    <t>72,40</t>
+  </si>
+  <si>
+    <t>199,90</t>
+  </si>
+  <si>
+    <t>91,40</t>
+  </si>
+  <si>
+    <t>31,90</t>
+  </si>
+  <si>
+    <t>182,70</t>
+  </si>
+  <si>
+    <t>27,40</t>
+  </si>
+  <si>
+    <t>68,90</t>
+  </si>
+  <si>
+    <t>68,40</t>
+  </si>
+  <si>
+    <t>15,90</t>
+  </si>
+  <si>
+    <t>130,30</t>
+  </si>
+  <si>
+    <t>115,10</t>
+  </si>
+  <si>
+    <t>140,40</t>
+  </si>
+  <si>
+    <t>71,90</t>
+  </si>
+  <si>
+    <t>399,90</t>
+  </si>
+  <si>
+    <t>71,80</t>
+  </si>
+  <si>
+    <t>71,30</t>
+  </si>
+  <si>
+    <t>35,60</t>
+  </si>
+  <si>
+    <t>139,80</t>
+  </si>
+  <si>
+    <t>37,60</t>
+  </si>
+  <si>
+    <t>124,50</t>
+  </si>
+  <si>
+    <t>46,70</t>
+  </si>
+  <si>
+    <t>99,90</t>
+  </si>
+  <si>
+    <t>238,20</t>
+  </si>
+  <si>
+    <t>21,40</t>
+  </si>
+  <si>
+    <t>144,90</t>
+  </si>
+  <si>
+    <t>12,50</t>
+  </si>
+  <si>
+    <t>40,90</t>
+  </si>
+  <si>
+    <t>19,60</t>
+  </si>
+  <si>
+    <t>26,99</t>
+  </si>
+  <si>
+    <t>22,90</t>
+  </si>
+  <si>
+    <t>19,90</t>
+  </si>
+  <si>
+    <t>10,99</t>
+  </si>
+  <si>
+    <t>14,20</t>
+  </si>
+  <si>
+    <t>36,70</t>
+  </si>
+  <si>
+    <t>32,80</t>
+  </si>
+  <si>
+    <t>18,60</t>
+  </si>
+  <si>
+    <t>28,80</t>
+  </si>
+  <si>
+    <t>11,70</t>
+  </si>
+  <si>
+    <t>22,30</t>
+  </si>
+  <si>
+    <t>27,90</t>
+  </si>
+  <si>
+    <t>15,50</t>
+  </si>
+  <si>
+    <t>50,40</t>
+  </si>
+  <si>
+    <t>25,80</t>
+  </si>
+  <si>
+    <t>106,90</t>
+  </si>
+  <si>
+    <t>8,40</t>
+  </si>
+  <si>
+    <t>97,50</t>
+  </si>
+  <si>
+    <t>138,90</t>
+  </si>
+  <si>
+    <t>213,80</t>
+  </si>
+  <si>
+    <t>52,80</t>
+  </si>
+  <si>
+    <t>135,90</t>
+  </si>
+  <si>
+    <t>149,80</t>
+  </si>
+  <si>
+    <t>134,80</t>
+  </si>
+  <si>
+    <t>30,90</t>
+  </si>
+  <si>
+    <t>256,50</t>
+  </si>
+  <si>
+    <t>157,90</t>
+  </si>
+  <si>
+    <t>46,90</t>
+  </si>
+  <si>
+    <t>34,90</t>
+  </si>
+  <si>
+    <t>103,20</t>
+  </si>
+  <si>
+    <t>88,60</t>
+  </si>
+  <si>
+    <t>97,90</t>
+  </si>
+  <si>
+    <t>43,90</t>
+  </si>
+  <si>
+    <t>49,90</t>
+  </si>
+  <si>
+    <t>65,70</t>
+  </si>
+  <si>
+    <t>38,90</t>
+  </si>
+  <si>
+    <t>599,90</t>
+  </si>
+  <si>
+    <t>63,50</t>
+  </si>
+  <si>
+    <t>179,90</t>
+  </si>
+  <si>
+    <t>106,20</t>
+  </si>
+  <si>
+    <t>131,60</t>
+  </si>
+  <si>
+    <t>10,90</t>
+  </si>
+  <si>
+    <t>94,99</t>
+  </si>
+  <si>
+    <t>5,90</t>
+  </si>
+  <si>
+    <t>121,80</t>
+  </si>
+  <si>
+    <t>18,90</t>
+  </si>
+  <si>
+    <t>40,70</t>
+  </si>
+  <si>
+    <t>31,70</t>
+  </si>
+  <si>
+    <t>43,60</t>
+  </si>
+  <si>
+    <t>187,50</t>
+  </si>
+  <si>
+    <t>73,90</t>
+  </si>
+  <si>
+    <t>95,90</t>
+  </si>
+  <si>
+    <t>64,80</t>
+  </si>
+  <si>
+    <t>133,40</t>
+  </si>
+  <si>
+    <t>88,90</t>
+  </si>
+  <si>
+    <t>179,70</t>
+  </si>
+  <si>
+    <t>137,80</t>
+  </si>
+  <si>
+    <t>73,80</t>
+  </si>
+  <si>
+    <t>138,99</t>
+  </si>
+  <si>
+    <t>124,90</t>
+  </si>
+  <si>
+    <t>170,60</t>
+  </si>
+  <si>
+    <t>63,60</t>
+  </si>
+  <si>
+    <t>72,60</t>
+  </si>
+  <si>
+    <t>20,30</t>
+  </si>
+  <si>
+    <t>227,90</t>
+  </si>
+  <si>
+    <t>159,70</t>
+  </si>
+  <si>
+    <t>374,70</t>
+  </si>
+  <si>
+    <t>53,90</t>
+  </si>
+  <si>
+    <t>97,80</t>
+  </si>
+  <si>
+    <t>93,30</t>
+  </si>
+  <si>
+    <t>33,50</t>
+  </si>
+  <si>
+    <t>67,20</t>
+  </si>
+  <si>
+    <t>87,90</t>
+  </si>
+  <si>
+    <t>58,70</t>
+  </si>
+  <si>
+    <t>41,40</t>
+  </si>
+  <si>
+    <t>46,80</t>
+  </si>
+  <si>
+    <t>337,90</t>
+  </si>
+  <si>
+    <t>5,99</t>
+  </si>
+  <si>
+    <t>13,60</t>
+  </si>
+  <si>
+    <t>55,70</t>
+  </si>
+  <si>
+    <t>44,10</t>
+  </si>
+  <si>
+    <t>165,40</t>
+  </si>
+  <si>
+    <t>112,50</t>
+  </si>
+  <si>
+    <t>33,80</t>
+  </si>
+  <si>
+    <t>61,80</t>
+  </si>
+  <si>
+    <t>43,80</t>
+  </si>
+  <si>
+    <t>45,40</t>
+  </si>
+  <si>
+    <t>52,90</t>
+  </si>
+  <si>
+    <t>165,90</t>
+  </si>
+  <si>
+    <t>99,70</t>
+  </si>
+  <si>
+    <t>27,50</t>
+  </si>
+  <si>
+    <t>41,10</t>
+  </si>
+  <si>
+    <t>130,40</t>
+  </si>
+  <si>
+    <t>449,90</t>
+  </si>
+  <si>
+    <t>62,40</t>
+  </si>
+  <si>
+    <t>45,80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,6 +3170,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1891,10 +3210,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1906,17 +3226,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1937,7 +3261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1975,7 +3299,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C73F26A4-B6BA-4D90-9754-8F106DB9E536}" name="Icon"/>
     <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="0" dataCellStyle="Comma"/>
     <tableColumn id="4" xr3:uid="{42457639-E172-4F1A-9782-68AB0812D06F}" name="Categoria"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1983,9 +3307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2023,7 +3347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2129,7 +3453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2271,7 +3595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2281,15 +3605,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDFFF4-1065-423A-9D84-2B43E484132F}">
   <dimension ref="A1:D603"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A570" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C604" sqref="C604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2312,8 +3636,8 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
-        <v>60.5</v>
+      <c r="C2" s="6" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,312 +3645,312 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
-        <v>150.99</v>
+      <c r="C3" s="7" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
-        <v>229.9</v>
+      <c r="C4" s="6" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>59.9</v>
+      <c r="C5" s="6" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
-        <v>59.99</v>
+      <c r="C6" s="7" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
-        <v>20.89</v>
+      <c r="C7" s="7" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
-        <v>19.8</v>
+      <c r="C8" s="6" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
-        <v>20.990000000000002</v>
+      <c r="C9" s="7" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
-        <v>149.19999999999999</v>
+      <c r="C10" s="6" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
-        <v>75.599999999999994</v>
+      <c r="C11" s="6" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
-        <v>143.6</v>
+      <c r="C12" s="6" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
-        <v>118.5</v>
+      <c r="C13" s="6" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <v>143.6</v>
+      <c r="C14" s="6" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
-        <v>121.5</v>
+      <c r="C15" s="6" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7">
-        <v>135.69999999999999</v>
+      <c r="C16" s="6" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7">
-        <v>47.9</v>
+      <c r="C17" s="6" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7">
-        <v>29.39</v>
+      <c r="C18" s="6" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7">
-        <v>22.400000000000002</v>
+      <c r="C19" s="6" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7">
-        <v>70.5</v>
+      <c r="C20" s="6" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="7">
-        <v>143.9</v>
+      <c r="C21" s="6" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="7">
-        <v>52.49</v>
+      <c r="C22" s="6" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="7">
-        <v>56.480000000000004</v>
+      <c r="C23" s="6" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="7">
-        <v>22.990000000000002</v>
+      <c r="C24" s="7" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7">
-        <v>116.9</v>
+      <c r="C25" s="6" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="7">
-        <v>57.59</v>
+      <c r="C26" s="7" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="7">
-        <v>61.6</v>
+      <c r="C27" s="6" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="7">
-        <v>85.99</v>
+      <c r="C28" s="7" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="7">
-        <v>17.899999999999999</v>
+      <c r="C29" s="6" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="7">
-        <v>69.900000000000006</v>
+      <c r="C30" s="6" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7">
-        <v>62.9</v>
+      <c r="C31" s="6" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7">
-        <v>139.13</v>
+      <c r="C32" s="7" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="7">
-        <v>50.49</v>
+      <c r="C33" s="7" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="7">
-        <v>110.99000000000001</v>
+      <c r="C34" s="7" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="7">
-        <v>115.99000000000001</v>
+      <c r="C35" s="7" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="7">
-        <v>97.490000000000009</v>
+      <c r="C36" s="7" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="7">
-        <v>72.5</v>
+      <c r="C37" s="6" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="7">
-        <v>69.900000000000006</v>
+      <c r="C38" s="6" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="7">
-        <v>29.900000000000002</v>
+      <c r="C39" s="6" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="7">
-        <v>40.99</v>
+      <c r="C40" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="7">
-        <v>40.99</v>
+      <c r="C41" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -2641,2840 +3965,2840 @@
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="7">
-        <v>24.900000000000002</v>
+      <c r="C43" s="6" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="7">
-        <v>27.990000000000002</v>
+      <c r="C44" s="6" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="7">
-        <v>27.990000000000002</v>
+      <c r="C45" s="7" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="7">
-        <v>33.99</v>
+      <c r="C46" s="7" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="7">
-        <v>35.9</v>
+      <c r="C47" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="7">
-        <v>33.69</v>
+      <c r="C48" s="7" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="7">
-        <v>35.9</v>
+      <c r="C49" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="7">
-        <v>35.9</v>
+      <c r="C50" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="7">
-        <v>35.9</v>
+      <c r="C51" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="7">
-        <v>24.900000000000002</v>
+      <c r="C52" s="6" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="7">
-        <v>24.900000000000002</v>
+      <c r="C53" s="6" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="7">
-        <v>11.49</v>
+      <c r="C54" s="6" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="7">
-        <v>181.05</v>
+      <c r="C55" s="7" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="7">
-        <v>35.99</v>
+      <c r="C56" s="7" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="7">
-        <v>79.89</v>
+      <c r="C57" s="7" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="7">
-        <v>14.02</v>
+      <c r="C58" s="7" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="7">
-        <v>10.8</v>
+      <c r="C59" s="6" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="7">
-        <v>15.92</v>
+      <c r="C60" s="7" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="7">
-        <v>13.200000000000001</v>
+      <c r="C61" s="6" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="7">
-        <v>12.99</v>
+      <c r="C62" s="7" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="7">
-        <v>10.8</v>
+      <c r="C63" s="6" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="7">
-        <v>15.92</v>
+      <c r="C64" s="7" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="7">
-        <v>54.5</v>
+      <c r="C65" s="6" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="7">
-        <v>38.700000000000003</v>
+      <c r="C66" s="6" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="7">
-        <v>70.930000000000007</v>
+      <c r="C67" s="7" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="7">
-        <v>43.49</v>
+      <c r="C68" s="7" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="7">
-        <v>31.400000000000002</v>
+      <c r="C69" s="6" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="7">
-        <v>33.229999999999997</v>
+      <c r="C70" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="7">
-        <v>17.3</v>
+      <c r="C71" s="6" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="7">
-        <v>39.9</v>
+      <c r="C72" s="6" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="7">
-        <v>58.800000000000004</v>
+      <c r="C73" s="6" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="7">
-        <v>79.5</v>
+      <c r="C74" s="6" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="7">
-        <v>28.080000000000002</v>
+      <c r="C75" s="7" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="7">
-        <v>14.4</v>
+      <c r="C76" s="6" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="7">
-        <v>24.75</v>
+      <c r="C77" s="7" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="7">
-        <v>152.9</v>
+      <c r="C78" s="6" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="7">
-        <v>31.92</v>
+      <c r="C79" s="7" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="7">
-        <v>43.99</v>
+      <c r="C80" s="7" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="7">
-        <v>26.35</v>
+      <c r="C81" s="7" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="7">
-        <v>54.89</v>
+      <c r="C82" s="7" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="7">
-        <v>66.94</v>
+      <c r="C83" s="7" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="7">
-        <v>66.94</v>
+      <c r="C84" s="7" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="7">
-        <v>101.99000000000001</v>
+      <c r="C85" s="7" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="7">
-        <v>77.7</v>
+      <c r="C86" s="6" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="7">
-        <v>79.900000000000006</v>
+      <c r="C87" s="6" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="7">
-        <v>79.900000000000006</v>
+      <c r="C88" s="6" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="7">
-        <v>95.990000000000009</v>
+      <c r="C89" s="7" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="7">
-        <v>79.900000000000006</v>
+      <c r="C90" s="6" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="7">
-        <v>63.690000000000005</v>
+      <c r="C91" s="7" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="7">
-        <v>41.85</v>
+      <c r="C92" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="7">
-        <v>31.5</v>
+      <c r="C93" s="6" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="7">
-        <v>2221.25</v>
+      <c r="C94" s="7" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="7">
-        <v>175.77</v>
+      <c r="C95" s="7" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="7">
-        <v>14.4</v>
+      <c r="C96" s="6" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="7">
-        <v>32.9</v>
+      <c r="C97" s="6" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="7">
-        <v>32.130000000000003</v>
+      <c r="C98" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="7">
-        <v>54.6</v>
+      <c r="C99" s="6" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="7">
-        <v>32.9</v>
+      <c r="C100" s="6" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="7">
-        <v>35.700000000000003</v>
+      <c r="C101" s="6" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="7">
-        <v>44.9</v>
+      <c r="C102" s="6" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="7">
-        <v>36.75</v>
+      <c r="C103" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="7">
-        <v>33.75</v>
+      <c r="C104" s="7" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="7">
-        <v>32.130000000000003</v>
+      <c r="C105" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="7">
-        <v>90.53</v>
+      <c r="C106" s="7" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="7">
-        <v>89.9</v>
+      <c r="C107" s="6" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="7">
-        <v>79.900000000000006</v>
+      <c r="C108" s="6" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="7">
-        <v>89.9</v>
+      <c r="C109" s="6" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="7">
-        <v>42.5</v>
+      <c r="C110" s="6" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="7">
-        <v>33.75</v>
+      <c r="C111" s="7" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="7">
-        <v>33.75</v>
+      <c r="C112" s="7" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="7">
-        <v>35.700000000000003</v>
+      <c r="C113" s="6" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="7">
-        <v>42.5</v>
+      <c r="C114" s="6" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="7">
-        <v>33.75</v>
+      <c r="C115" s="7" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="7">
-        <v>44.99</v>
+      <c r="C116" s="7" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="7">
-        <v>42.95</v>
+      <c r="C117" s="7" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="7">
-        <v>33.75</v>
+      <c r="C118" s="7" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="7">
-        <v>61.9</v>
+      <c r="C119" s="6" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="7">
-        <v>63.89</v>
+      <c r="C120" s="7" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="7">
-        <v>35.700000000000003</v>
+      <c r="C121" s="6" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="7">
-        <v>35.700000000000003</v>
+      <c r="C122" s="6" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="7">
-        <v>32.9</v>
+      <c r="C123" s="6" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="7">
-        <v>36.75</v>
+      <c r="C124" s="6" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="7">
-        <v>35.700000000000003</v>
+      <c r="C125" s="6" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="7">
-        <v>170.99</v>
+      <c r="C126" s="7" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="7">
-        <v>83.8</v>
+      <c r="C127" s="6" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="7">
-        <v>95.4</v>
+      <c r="C128" s="6" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="7">
-        <v>57.120000000000005</v>
+      <c r="C129" s="7" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="7">
-        <v>66.900000000000006</v>
+      <c r="C130" s="6" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="7">
-        <v>45.99</v>
+      <c r="C131" s="7" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="7">
-        <v>94.9</v>
+      <c r="C132" s="6" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="7">
-        <v>155.09</v>
+      <c r="C133" s="7" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="7">
-        <v>16.8</v>
+      <c r="C134" s="6" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="7">
-        <v>19.7</v>
+      <c r="C135" s="6" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="7">
-        <v>15.99</v>
+      <c r="C136" s="7" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="7">
-        <v>14.69</v>
+      <c r="C137" s="7" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="7">
-        <v>16.899999999999999</v>
+      <c r="C138" s="6" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="7">
-        <v>14.89</v>
+      <c r="C139" s="7" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="7">
-        <v>16.989999999999998</v>
+      <c r="C140" s="7" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="7">
-        <v>14.99</v>
+      <c r="C141" s="7" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="7">
-        <v>14.700000000000001</v>
+      <c r="C142" s="6" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="7">
-        <v>15.8</v>
+      <c r="C143" s="6" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="7">
-        <v>67.989999999999995</v>
+      <c r="C144" s="7" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="7">
-        <v>275.89999999999998</v>
+      <c r="C145" s="6" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="7">
-        <v>24.900000000000002</v>
+      <c r="C146" s="6" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="7">
-        <v>45.99</v>
+      <c r="C147" s="7" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="7">
-        <v>129.88999999999999</v>
+      <c r="C148" s="7" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="7">
-        <v>14.9</v>
+      <c r="C149" s="6" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="7">
-        <v>24.3</v>
+      <c r="C150" s="6" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="7">
-        <v>83.9</v>
+      <c r="C151" s="6" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="7">
-        <v>12.99</v>
+      <c r="C152" s="7" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="7">
-        <v>499.90000000000003</v>
+      <c r="C153" s="6" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="7">
-        <v>349.90000000000003</v>
+      <c r="C154" s="6" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="7">
-        <v>27.990000000000002</v>
+      <c r="C155" s="6" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="7">
-        <v>20.8</v>
+      <c r="C156" s="6" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="7">
-        <v>129.6</v>
+      <c r="C157" s="6" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="7">
-        <v>106.53</v>
+      <c r="C158" s="7" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="7">
-        <v>65.77</v>
+      <c r="C159" s="7" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="7">
-        <v>214.5</v>
+      <c r="C160" s="6" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="7">
-        <v>210.99</v>
+      <c r="C161" s="7" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="7">
-        <v>145.9</v>
+      <c r="C162" s="6" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="7">
-        <v>63.99</v>
+      <c r="C163" s="7" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="7">
-        <v>74.989999999999995</v>
+      <c r="C164" s="7" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="7">
-        <v>73.989999999999995</v>
+      <c r="C165" s="7" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="7">
-        <v>77.989999999999995</v>
+      <c r="C166" s="7" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="7">
-        <v>139.88999999999999</v>
+      <c r="C167" s="7" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="7">
-        <v>65.900000000000006</v>
+      <c r="C168" s="7" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="7">
-        <v>145.9</v>
+      <c r="C169" s="7" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="7">
-        <v>119.89</v>
+      <c r="C170" s="7" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="7">
-        <v>119.89</v>
+      <c r="C171" s="7" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="7">
-        <v>156.88999999999999</v>
+      <c r="C172" s="7" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="7">
-        <v>119.89</v>
+      <c r="C173" s="7" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="7">
-        <v>52.99</v>
+      <c r="C174" s="7" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="7">
-        <v>30.990000000000002</v>
+      <c r="C175" s="7" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C176" s="7">
-        <v>38.99</v>
+      <c r="C176" s="7" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="7">
-        <v>38.49</v>
+      <c r="C177" s="7" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="7">
-        <v>45.99</v>
+      <c r="C178" s="7" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="7">
-        <v>55.99</v>
+      <c r="C179" s="7" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="7">
-        <v>50.93</v>
+      <c r="C180" s="7" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C181" s="7">
-        <v>44.99</v>
+      <c r="C181" s="7" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="7">
-        <v>61.5</v>
+      <c r="C182" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C183" s="7">
-        <v>90.49</v>
+      <c r="C183" s="7" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C184" s="7">
-        <v>60.99</v>
+      <c r="C184" s="7" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="7">
-        <v>101.5</v>
+      <c r="C185" s="6" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="7">
-        <v>14.6</v>
+      <c r="C186" s="6" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="7">
-        <v>32.4</v>
+      <c r="C187" s="6" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="7">
-        <v>72.400000000000006</v>
+      <c r="C188" s="6" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C189" s="7">
-        <v>199.9</v>
+      <c r="C189" s="6" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="7">
-        <v>91.4</v>
+      <c r="C190" s="6" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="7">
-        <v>31.900000000000002</v>
+      <c r="C191" s="6" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="7">
-        <v>182.70000000000002</v>
+      <c r="C192" s="6" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="7">
-        <v>199.9</v>
+      <c r="C193" s="6" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="7">
-        <v>35.99</v>
+      <c r="C194" s="7" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="7">
-        <v>27.400000000000002</v>
+      <c r="C195" s="6" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="7">
-        <v>127.79</v>
+      <c r="C196" s="7" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="7">
-        <v>133.13</v>
+      <c r="C197" s="7" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="7">
-        <v>29.79</v>
+      <c r="C198" s="7" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="7">
-        <v>68.900000000000006</v>
+      <c r="C199" s="6" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="7">
-        <v>45.89</v>
+      <c r="C200" s="7" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="7">
-        <v>68.849999999999994</v>
+      <c r="C201" s="7" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C202" s="7">
-        <v>33.49</v>
+      <c r="C202" s="7" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="7">
-        <v>66.900000000000006</v>
+      <c r="C203" s="6" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="7">
-        <v>37.69</v>
+      <c r="C204" s="7" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C205" s="7">
-        <v>68.400000000000006</v>
+      <c r="C205" s="6" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="7">
-        <v>43.49</v>
+      <c r="C206" s="7" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="7">
-        <v>15.9</v>
+      <c r="C207" s="6" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="7">
-        <v>130.30000000000001</v>
+      <c r="C208" s="6" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="7">
-        <v>115.10000000000001</v>
+      <c r="C209" s="6" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="7">
-        <v>136.99</v>
+      <c r="C210" s="7" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="7">
-        <v>70.5</v>
+      <c r="C211" s="6" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C212" s="7">
-        <v>69.989999999999995</v>
+      <c r="C212" s="7" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C213" s="7">
-        <v>140.4</v>
+      <c r="C213" s="6" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C214" s="7">
-        <v>71.900000000000006</v>
+      <c r="C214" s="6" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C215" s="7">
-        <v>399.90000000000003</v>
+      <c r="C215" s="6" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C216" s="7">
-        <v>61.9</v>
+      <c r="C216" s="6" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C217" s="7">
-        <v>73.989999999999995</v>
+      <c r="C217" s="7" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C218" s="7">
-        <v>71.8</v>
+      <c r="C218" s="6" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C219" s="7">
-        <v>71.3</v>
+      <c r="C219" s="6" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C220" s="7">
-        <v>70.5</v>
+      <c r="C220" s="6" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C221" s="7">
-        <v>95.990000000000009</v>
+      <c r="C221" s="7" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C222" s="7">
-        <v>25.990000000000002</v>
+      <c r="C222" s="7" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C223" s="7">
-        <v>35.6</v>
+      <c r="C223" s="6" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C224" s="7">
-        <v>42.99</v>
+      <c r="C224" s="7" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="7">
-        <v>129.6</v>
+      <c r="C225" s="6" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C226" s="7">
-        <v>139.80000000000001</v>
+      <c r="C226" s="6" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C227" s="7">
-        <v>199.9</v>
+      <c r="C227" s="6" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C228" s="7">
-        <v>12.99</v>
+      <c r="C228" s="7" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C229" s="7">
-        <v>29.59</v>
+      <c r="C229" s="7" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C230" s="7">
-        <v>68.349999999999994</v>
+      <c r="C230" s="7" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C231" s="7">
-        <v>37.6</v>
+      <c r="C231" s="6" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C232" s="7">
-        <v>56.29</v>
+      <c r="C232" s="7" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C233" s="7">
-        <v>56.69</v>
+      <c r="C233" s="7" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C234" s="7">
-        <v>110.89</v>
+      <c r="C234" s="7" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C235" s="7">
-        <v>115.99000000000001</v>
+      <c r="C235" s="7" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C236" s="7">
-        <v>124.5</v>
+      <c r="C236" s="6" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C237" s="7">
-        <v>25.89</v>
+      <c r="C237" s="7" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C238" s="7">
-        <v>31.490000000000002</v>
+      <c r="C238" s="7" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C239" s="7">
-        <v>46.7</v>
+      <c r="C239" s="6" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C240" s="7">
-        <v>22.75</v>
+      <c r="C240" s="7" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C241" s="7">
-        <v>96.69</v>
+      <c r="C241" s="7" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C242" s="7">
-        <v>58.99</v>
+      <c r="C242" s="7" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C243" s="7">
-        <v>80.989999999999995</v>
+      <c r="C243" s="7" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C244" s="7">
-        <v>176.9</v>
+      <c r="C244" s="7" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C245" s="7">
-        <v>99.9</v>
+      <c r="C245" s="6" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C246" s="7">
-        <v>135.99</v>
+      <c r="C246" s="7" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C247" s="7">
-        <v>99.9</v>
+      <c r="C247" s="6" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C248" s="7">
-        <v>41.49</v>
+      <c r="C248" s="7" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C249" s="7">
-        <v>113.99000000000001</v>
+      <c r="C249" s="7" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C250" s="7">
-        <v>125.92</v>
+      <c r="C250" s="7" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C251" s="7">
-        <v>92.69</v>
+      <c r="C251" s="7" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C252" s="7">
-        <v>214.5</v>
+      <c r="C252" s="6" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C253" s="7">
-        <v>144.47999999999999</v>
+      <c r="C253" s="7" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C254" s="7">
-        <v>111.99000000000001</v>
+      <c r="C254" s="7" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C255" s="7">
-        <v>238.20000000000002</v>
+      <c r="C255" s="6" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C256" s="7">
-        <v>113.99000000000001</v>
+      <c r="C256" s="7" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C257" s="7">
-        <v>216.99</v>
+      <c r="C257" s="7" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C258" s="7">
-        <v>140.4</v>
+      <c r="C258" s="6" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C259" s="7">
-        <v>130.13</v>
+      <c r="C259" s="7" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C260" s="7">
-        <v>195.97</v>
+      <c r="C260" s="7" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C261" s="7">
-        <v>151.47</v>
+      <c r="C261" s="7" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C262" s="7">
-        <v>45.99</v>
+      <c r="C262" s="6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C263" s="7">
-        <v>40.99</v>
+      <c r="C263" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C264" s="7">
-        <v>31.63</v>
+      <c r="C264" s="7" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C265" s="7">
-        <v>49.99</v>
+      <c r="C265" s="7" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C266" s="7">
-        <v>21.400000000000002</v>
+      <c r="C266" s="6" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C267" s="7">
-        <v>144.9</v>
+      <c r="C267" s="6" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C268" s="7">
-        <v>47.99</v>
+      <c r="C268" s="7" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C269" s="7">
-        <v>12.5</v>
+      <c r="C269" s="6" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C270" s="7">
-        <v>17.79</v>
+      <c r="C270" s="7" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C271" s="7">
-        <v>101.5</v>
+      <c r="C271" s="6" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C272" s="7">
-        <v>40.9</v>
+      <c r="C272" s="6" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C273" s="7">
-        <v>44.49</v>
+      <c r="C273" s="7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C274" s="7">
-        <v>22.67</v>
+      <c r="C274" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C275" s="7">
-        <v>23.67</v>
+      <c r="C275" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C276" s="7">
-        <v>23.67</v>
+      <c r="C276" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C277" s="7">
-        <v>19.600000000000001</v>
+      <c r="C277" s="6" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C278" s="7">
-        <v>27</v>
+      <c r="C278" s="6" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C279" s="7">
-        <v>29.990000000000002</v>
+      <c r="C279" s="6" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C280" s="7">
-        <v>18.489999999999998</v>
+      <c r="C280" s="7" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C281" s="7">
-        <v>35.79</v>
+      <c r="C281" s="7" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C282" s="7">
-        <v>22.900000000000002</v>
+      <c r="C282" s="6" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C283" s="7">
-        <v>50.64</v>
+      <c r="C283" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C284" s="7">
-        <v>99.9</v>
+      <c r="C284" s="6" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C285" s="7">
-        <v>106.89</v>
+      <c r="C285" s="7" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C286" s="7">
-        <v>24.900000000000002</v>
+      <c r="C286" s="6" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C287" s="7">
-        <v>19.899999999999999</v>
+      <c r="C287" s="6" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C288" s="7">
-        <v>11</v>
+      <c r="C288" s="6" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C289" s="7">
-        <v>14.200000000000001</v>
+      <c r="C289" s="6" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C290" s="7">
-        <v>14.99</v>
+      <c r="C290" s="7" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C291" s="7">
-        <v>25.990000000000002</v>
+      <c r="C291" s="7" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C292" s="7">
-        <v>37.49</v>
+      <c r="C292" s="7" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C293" s="7">
-        <v>36.700000000000003</v>
+      <c r="C293" s="6" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C294" s="7">
-        <v>83.99</v>
+      <c r="C294" s="7" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C295" s="7">
-        <v>69.59</v>
+      <c r="C295" s="7" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C296" s="7">
-        <v>32.799999999999997</v>
+      <c r="C296" s="6" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C297" s="7">
-        <v>39.9</v>
+      <c r="C297" s="6" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C298" s="7">
-        <v>61.99</v>
+      <c r="C298" s="7" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C299" s="7">
-        <v>18.600000000000001</v>
+      <c r="C299" s="6" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C300" s="7">
-        <v>28.8</v>
+      <c r="C300" s="6" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C301" s="7">
-        <v>23.69</v>
+      <c r="C301" s="7" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="7">
-        <v>11.700000000000001</v>
+      <c r="C302" s="6" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C303" s="7">
-        <v>28.25</v>
+      <c r="C303" s="7" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C304" s="7">
-        <v>22.3</v>
+      <c r="C304" s="6" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C305" s="7">
-        <v>81</v>
+      <c r="C305" s="6" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C306" s="7">
-        <v>27.900000000000002</v>
+      <c r="C306" s="6" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C307" s="7">
-        <v>24.490000000000002</v>
+      <c r="C307" s="7" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C308" s="7">
-        <v>44.99</v>
+      <c r="C308" s="7" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C309" s="7">
-        <v>33.99</v>
+      <c r="C309" s="7" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C310" s="7">
-        <v>19.989999999999998</v>
+      <c r="C310" s="7" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C311" s="7">
-        <v>15</v>
+      <c r="C311" s="6" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C312" s="7">
-        <v>18.690000000000001</v>
+      <c r="C312" s="7" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C313" s="7">
-        <v>15.5</v>
+      <c r="C313" s="6" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C314" s="7">
-        <v>50.4</v>
+      <c r="C314" s="6" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C315" s="7">
-        <v>55.19</v>
+      <c r="C315" s="7" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C316" s="7">
-        <v>14.99</v>
+      <c r="C316" s="7" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C317" s="7">
-        <v>41.85</v>
+      <c r="C317" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C318" s="7">
-        <v>93.15</v>
+      <c r="C318" s="7" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C319" s="7">
-        <v>29.900000000000002</v>
+      <c r="C319" s="6" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C320" s="7">
-        <v>47.88</v>
+      <c r="C320" s="7" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C321" s="7">
-        <v>42.5</v>
+      <c r="C321" s="6" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C322" s="7">
-        <v>23.990000000000002</v>
+      <c r="C322" s="7" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C323" s="7">
-        <v>17.75</v>
+      <c r="C323" s="7" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C324" s="7">
-        <v>25.8</v>
+      <c r="C324" s="6" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C325" s="7">
-        <v>25.650000000000002</v>
+      <c r="C325" s="7" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C326" s="7">
-        <v>13.31</v>
+      <c r="C326" s="7" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C327" s="7">
-        <v>12.14</v>
+      <c r="C327" s="7" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C328" s="7">
-        <v>12.18</v>
+      <c r="C328" s="7" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C329" s="7">
-        <v>22.89</v>
+      <c r="C329" s="7" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C330" s="7">
-        <v>13.99</v>
+      <c r="C330" s="7" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C331" s="7">
-        <v>42.59</v>
+      <c r="C331" s="7" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C332" s="7">
-        <v>47.89</v>
+      <c r="C332" s="7" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C333" s="7">
-        <v>106.9</v>
+      <c r="C333" s="6" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C334" s="7">
-        <v>8.4</v>
+      <c r="C334" s="6" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C335" s="7">
-        <v>68.900000000000006</v>
+      <c r="C335" s="6" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C336" s="7">
-        <v>57.49</v>
+      <c r="C336" s="7" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C337" s="7">
-        <v>30.990000000000002</v>
+      <c r="C337" s="7" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C338" s="7">
-        <v>97.5</v>
+      <c r="C338" s="6" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C339" s="7">
-        <v>32.99</v>
+      <c r="C339" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C340" s="7">
-        <v>138.9</v>
+      <c r="C340" s="6" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C341" s="7">
-        <v>213.8</v>
+      <c r="C341" s="6" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C342" s="7">
-        <v>135.99</v>
+      <c r="C342" s="7" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C343" s="7">
-        <v>52.800000000000004</v>
+      <c r="C343" s="6" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C344" s="7">
-        <v>135.9</v>
+      <c r="C344" s="6" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C345" s="7">
-        <v>47.99</v>
+      <c r="C345" s="7" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C346" s="7">
-        <v>50.79</v>
+      <c r="C346" s="7" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C347" s="7">
-        <v>39.89</v>
+      <c r="C347" s="7" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C348" s="7">
-        <v>149.80000000000001</v>
+      <c r="C348" s="6" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C349" s="7">
-        <v>134.80000000000001</v>
+      <c r="C349" s="6" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C350" s="7">
-        <v>54.99</v>
+      <c r="C350" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C351" s="7">
-        <v>30.900000000000002</v>
+      <c r="C351" s="6" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C352" s="7">
-        <v>256.5</v>
+      <c r="C352" s="6" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C353" s="7">
-        <v>61.5</v>
+      <c r="C353" s="6" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C354" s="7">
-        <v>114.25</v>
+      <c r="C354" s="6" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C355" s="7">
-        <v>69.900000000000006</v>
+      <c r="C355" s="6" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C356" s="7">
-        <v>49.89</v>
+      <c r="C356" s="7" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C357" s="7">
-        <v>157.9</v>
+      <c r="C357" s="6" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C358" s="7">
-        <v>210.99</v>
+      <c r="C358" s="7" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C359" s="7">
-        <v>134.25</v>
+      <c r="C359" s="7" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C360" s="7">
-        <v>35.9</v>
+      <c r="C360" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C361" s="7">
-        <v>32.11</v>
+      <c r="C361" s="7" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C362" s="7">
-        <v>46.9</v>
+      <c r="C362" s="6" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C363" s="7">
-        <v>57.59</v>
+      <c r="C363" s="7" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C364" s="7">
-        <v>39.9</v>
+      <c r="C364" s="7" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C365" s="7">
-        <v>50.4</v>
+      <c r="C365" s="6" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C366" s="7">
-        <v>34.9</v>
+      <c r="C366" s="6" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C367" s="7">
-        <v>22.8</v>
+      <c r="C367" s="7" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C368" s="7">
-        <v>59.9</v>
+      <c r="C368" s="6" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C369" s="7">
-        <v>35.9</v>
+      <c r="C369" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C370" s="7">
-        <v>31.990000000000002</v>
+      <c r="C370" s="6" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C371" s="7">
-        <v>44.82</v>
+      <c r="C371" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C372" s="7">
-        <v>103.2</v>
+      <c r="C372" s="6" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C373" s="7">
-        <v>71.989999999999995</v>
+      <c r="C373" s="7" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C374" s="7">
-        <v>49.25</v>
+      <c r="C374" s="7" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C375" s="7">
-        <v>52.89</v>
+      <c r="C375" s="7" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C376" s="7">
-        <v>27.79</v>
+      <c r="C376" s="7" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C377" s="7">
-        <v>14.9</v>
+      <c r="C377" s="6" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C378" s="7">
-        <v>14.15</v>
+      <c r="C378" s="7" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C379" s="7">
-        <v>115.99000000000001</v>
+      <c r="C379" s="7" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C380" s="7">
-        <v>88.600000000000009</v>
+      <c r="C380" s="6" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C381" s="7">
-        <v>210.99</v>
+      <c r="C381" s="7" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C382" s="7">
-        <v>4.1900000000000004</v>
+      <c r="C382" s="7" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C383" s="7">
-        <v>69.900000000000006</v>
+      <c r="C383" s="6" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C384" s="7">
-        <v>97.9</v>
+      <c r="C384" s="6" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C385" s="7">
-        <v>89.9</v>
+      <c r="C385" s="6" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C386" s="7">
-        <v>113.99000000000001</v>
+      <c r="C386" s="7" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C387" s="7">
-        <v>38.89</v>
+      <c r="C387" s="7" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C388" s="7">
-        <v>43.9</v>
+      <c r="C388" s="6" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C389" s="7">
-        <v>13.13</v>
+      <c r="C389" s="7" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C390" s="7">
-        <v>44.9</v>
+      <c r="C390" s="6" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C391" s="7">
-        <v>199.9</v>
+      <c r="C391" s="6" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C392" s="7">
-        <v>49.9</v>
+      <c r="C392" s="6" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C393" s="7">
-        <v>65.7</v>
+      <c r="C393" s="6" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C394" s="7">
-        <v>73.989999999999995</v>
+      <c r="C394" s="6" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C395" s="7">
-        <v>70.790000000000006</v>
+      <c r="C395" s="7" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C396" s="7">
-        <v>38.9</v>
+      <c r="C396" s="6" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C397" s="7">
-        <v>6.29</v>
+      <c r="C397" s="7" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
@@ -5489,144 +6813,144 @@
       <c r="B399" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C399" s="7">
-        <v>599.9</v>
+      <c r="C399" s="6" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C400" s="7">
-        <v>63.5</v>
+      <c r="C400" s="6" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C401" s="7">
-        <v>279.92</v>
+      <c r="C401" s="7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C402" s="7">
-        <v>179.9</v>
+      <c r="C402" s="6" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C403" s="7">
-        <v>106.2</v>
+      <c r="C403" s="6" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C404" s="7">
-        <v>47.25</v>
+      <c r="C404" s="6" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C405" s="7">
-        <v>131.6</v>
+      <c r="C405" s="6" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C406" s="7">
-        <v>10.9</v>
+      <c r="C406" s="6" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C407" s="7">
-        <v>3.99</v>
+      <c r="C407" s="7" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C408" s="7">
-        <v>95</v>
+      <c r="C408" s="6" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C409" s="7">
-        <v>5.9</v>
+      <c r="C409" s="6" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C410" s="7">
-        <v>121.8</v>
+      <c r="C410" s="6" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C411" s="7">
-        <v>18.899999999999999</v>
+      <c r="C411" s="6" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C412" s="7">
-        <v>28.990000000000002</v>
+      <c r="C412" s="6" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C413" s="7">
-        <v>167.36</v>
+      <c r="C413" s="7" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C414" s="7">
-        <v>71.900000000000006</v>
+      <c r="C414" s="6" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C415" s="7">
-        <v>34.65</v>
+      <c r="C415" s="7" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C416" s="7">
-        <v>40.700000000000003</v>
+      <c r="C416" s="6" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
@@ -5641,80 +6965,80 @@
       <c r="B418" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C418" s="7">
-        <v>31.7</v>
+      <c r="C418" s="6" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C419" s="7">
-        <v>11.39</v>
+      <c r="C419" s="7" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C420" s="7">
-        <v>43.6</v>
+      <c r="C420" s="6" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C421" s="7">
-        <v>86.99</v>
+      <c r="C421" s="7" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C422" s="7">
-        <v>88.49</v>
+      <c r="C422" s="7" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C423" s="7">
-        <v>187.5</v>
+      <c r="C423" s="6" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C424" s="7">
-        <v>139.80000000000001</v>
+      <c r="C424" s="6" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C425" s="7">
-        <v>101.5</v>
+      <c r="C425" s="6" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C426" s="7">
-        <v>93.99</v>
+      <c r="C426" s="7" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C427" s="7">
-        <v>149.80000000000001</v>
+      <c r="C427" s="6" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
@@ -5729,1405 +7053,1405 @@
       <c r="B429" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C429" s="7">
-        <v>73.900000000000006</v>
+      <c r="C429" s="6" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C430" s="7">
-        <v>95.9</v>
+      <c r="C430" s="6" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C431" s="7">
-        <v>64.8</v>
+      <c r="C431" s="6" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C432" s="7">
-        <v>59</v>
+      <c r="C432" s="6" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C433" s="7">
-        <v>72.5</v>
+      <c r="C433" s="6" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C434" s="7">
-        <v>33.99</v>
+      <c r="C434" s="7" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C435" s="7">
-        <v>23.67</v>
+      <c r="C435" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C436" s="7">
-        <v>133.4</v>
+      <c r="C436" s="6" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C437" s="7">
-        <v>99.9</v>
+      <c r="C437" s="6" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C438" s="7">
-        <v>88.9</v>
+      <c r="C438" s="6" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C439" s="7">
-        <v>179.70000000000002</v>
+      <c r="C439" s="6" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C440" s="7">
-        <v>34.9</v>
+      <c r="C440" s="6" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C441" s="7">
-        <v>115.75</v>
+      <c r="C441" s="7" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C442" s="7">
-        <v>137.80000000000001</v>
+      <c r="C442" s="6" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C443" s="7">
-        <v>96.89</v>
+      <c r="C443" s="7" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C444" s="7">
-        <v>99.89</v>
+      <c r="C444" s="7" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C445" s="7">
-        <v>68.989999999999995</v>
+      <c r="C445" s="7" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C446" s="7">
-        <v>91.99</v>
+      <c r="C446" s="7" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C447" s="7">
-        <v>95.89</v>
+      <c r="C447" s="7" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C448" s="7">
-        <v>45.79</v>
+      <c r="C448" s="7" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C449" s="7">
-        <v>44.9</v>
+      <c r="C449" s="6" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C450" s="7">
-        <v>34.99</v>
+      <c r="C450" s="7" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C451" s="7">
-        <v>29.990000000000002</v>
+      <c r="C451" s="7" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C452" s="7">
-        <v>29.990000000000002</v>
+      <c r="C452" s="7" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C453" s="7">
-        <v>73.8</v>
+      <c r="C453" s="6" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C454" s="7">
-        <v>33.69</v>
+      <c r="C454" s="7" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C455" s="7">
-        <v>76.989999999999995</v>
+      <c r="C455" s="7" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C456" s="7">
-        <v>49.95</v>
+      <c r="C456" s="7" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C457" s="7">
-        <v>43.980000000000004</v>
+      <c r="C457" s="7" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C458" s="7">
-        <v>58.99</v>
+      <c r="C458" s="7" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C459" s="7">
-        <v>139</v>
+      <c r="C459" s="6" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C460" s="7">
-        <v>23.67</v>
+      <c r="C460" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C461" s="7">
-        <v>16.59</v>
+      <c r="C461" s="7" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C462" s="7">
-        <v>124.9</v>
+      <c r="C462" s="6" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C463" s="7">
-        <v>67.83</v>
+      <c r="C463" s="7" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C464" s="7">
-        <v>179.9</v>
+      <c r="C464" s="6" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C465" s="7">
-        <v>170.6</v>
+      <c r="C465" s="6" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C466" s="7">
-        <v>27.85</v>
+      <c r="C466" s="7" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C467" s="7">
-        <v>63.6</v>
+      <c r="C467" s="6" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C468" s="7">
-        <v>57.49</v>
+      <c r="C468" s="6" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C469" s="7">
-        <v>72.599999999999994</v>
+      <c r="C469" s="6" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C470" s="7">
-        <v>64.989999999999995</v>
+      <c r="C470" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C471" s="7">
-        <v>144.88999999999999</v>
+      <c r="C471" s="7" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C472" s="7">
-        <v>25.990000000000002</v>
+      <c r="C472" s="7" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C473" s="7">
-        <v>121.49000000000001</v>
+      <c r="C473" s="7" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C474" s="7">
-        <v>20.3</v>
+      <c r="C474" s="6" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C475" s="7">
-        <v>227.9</v>
+      <c r="C475" s="6" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C476" s="7">
-        <v>159.69999999999999</v>
+      <c r="C476" s="6" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C477" s="7">
-        <v>374.7</v>
+      <c r="C477" s="6" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C478" s="7">
-        <v>19.989999999999998</v>
+      <c r="C478" s="7" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C479" s="7">
-        <v>18.39</v>
+      <c r="C479" s="7" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C480" s="7">
-        <v>103.85000000000001</v>
+      <c r="C480" s="7" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C481" s="7">
-        <v>75.86</v>
+      <c r="C481" s="7" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C482" s="7">
-        <v>53.9</v>
+      <c r="C482" s="6" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C483" s="7">
-        <v>30.990000000000002</v>
+      <c r="C483" s="7" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C484" s="7">
-        <v>97.8</v>
+      <c r="C484" s="6" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B485" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C485" s="7">
-        <v>34.15</v>
+      <c r="C485" s="7" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C486" s="7">
-        <v>39.9</v>
+      <c r="C486" s="6" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C487" s="7">
-        <v>27.490000000000002</v>
+      <c r="C487" s="7" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C488" s="7">
-        <v>30.990000000000002</v>
+      <c r="C488" s="7" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C489" s="7">
-        <v>93.3</v>
+      <c r="C489" s="6" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C490" s="7">
-        <v>99.9</v>
+      <c r="C490" s="6" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C491" s="7">
-        <v>59.99</v>
+      <c r="C491" s="7" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C492" s="7">
-        <v>61.99</v>
+      <c r="C492" s="7" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C493" s="7">
-        <v>79.75</v>
+      <c r="C493" s="7" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C494" s="7">
-        <v>50.4</v>
+      <c r="C494" s="6" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C495" s="7">
-        <v>30.35</v>
+      <c r="C495" s="7" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C496" s="7">
-        <v>33.5</v>
+      <c r="C496" s="6" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C497" s="7">
-        <v>67.2</v>
+      <c r="C497" s="6" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B498" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C498" s="7">
-        <v>81.040000000000006</v>
+      <c r="C498" s="7" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B499" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C499" s="7">
-        <v>26.42</v>
+      <c r="C499" s="7" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C500" s="7">
-        <v>57.120000000000005</v>
+      <c r="C500" s="7" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C501" s="7">
-        <v>23</v>
+      <c r="C501" s="6" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B502" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C502" s="7">
-        <v>87.9</v>
+      <c r="C502" s="6" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B503" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C503" s="7">
-        <v>58.7</v>
+      <c r="C503" s="6" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C504" s="7">
-        <v>199.9</v>
+      <c r="C504" s="6" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B505" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C505" s="7">
-        <v>58.160000000000004</v>
+      <c r="C505" s="7" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C506" s="7">
-        <v>41.4</v>
+      <c r="C506" s="6" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C507" s="7">
-        <v>50.99</v>
+      <c r="C507" s="7" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B508" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C508" s="7">
-        <v>47.25</v>
+      <c r="C508" s="7" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C509" s="7">
-        <v>46.800000000000004</v>
+      <c r="C509" s="6" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C510" s="7">
-        <v>32.36</v>
+      <c r="C510" s="7" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C511" s="7">
-        <v>32.36</v>
+      <c r="C511" s="7" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C512" s="7">
-        <v>13.55</v>
+      <c r="C512" s="7" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C513" s="7">
-        <v>337.90000000000003</v>
+      <c r="C513" s="6" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C514" s="7">
-        <v>28.79</v>
+      <c r="C514" s="7" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C515" s="7">
-        <v>5.29</v>
+      <c r="C515" s="7" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C516" s="7">
-        <v>10.49</v>
+      <c r="C516" s="7" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C517" s="7">
-        <v>7.83</v>
+      <c r="C517" s="7" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C518" s="7">
-        <v>8.99</v>
+      <c r="C518" s="7" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C519" s="7">
-        <v>6</v>
+      <c r="C519" s="6" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C520" s="7">
-        <v>15.99</v>
+      <c r="C520" s="7" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C521" s="7">
-        <v>5.19</v>
+      <c r="C521" s="7" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C522" s="7">
-        <v>13.6</v>
+      <c r="C522" s="6" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C523" s="7">
-        <v>37.61</v>
+      <c r="C523" s="7" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C524" s="7">
-        <v>9.99</v>
+      <c r="C524" s="7" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C525" s="7">
-        <v>9.99</v>
+      <c r="C525" s="7" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C526" s="7">
-        <v>55.49</v>
+      <c r="C526" s="7" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C527" s="7">
-        <v>31.900000000000002</v>
+      <c r="C527" s="6" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C528" s="7">
-        <v>55.7</v>
+      <c r="C528" s="6" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C529" s="7">
-        <v>44.1</v>
+      <c r="C529" s="6" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C530" s="7">
-        <v>79.900000000000006</v>
+      <c r="C530" s="6" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C531" s="7">
-        <v>36.89</v>
+      <c r="C531" s="7" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C532" s="7">
-        <v>74.67</v>
+      <c r="C532" s="7" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C533" s="7">
-        <v>24.59</v>
+      <c r="C533" s="7" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C534" s="7">
-        <v>19.989999999999998</v>
+      <c r="C534" s="7" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C535" s="7">
-        <v>49.9</v>
+      <c r="C535" s="6" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C536" s="7">
-        <v>18.39</v>
+      <c r="C536" s="7" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C537" s="7">
-        <v>165.4</v>
+      <c r="C537" s="6" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C538" s="7">
-        <v>20.990000000000002</v>
+      <c r="C538" s="7" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C539" s="7">
-        <v>24.01</v>
+      <c r="C539" s="7" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C540" s="7">
-        <v>46.62</v>
+      <c r="C540" s="7" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C541" s="7">
-        <v>5.78</v>
+      <c r="C541" s="7" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C542" s="7">
-        <v>13.23</v>
+      <c r="C542" s="7" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C543" s="7">
-        <v>112.5</v>
+      <c r="C543" s="6" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C544" s="7">
-        <v>41.13</v>
+      <c r="C544" s="7" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C545" s="7">
-        <v>33.799999999999997</v>
+      <c r="C545" s="6" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C546" s="7">
-        <v>40.99</v>
+      <c r="C546" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C547" s="7">
-        <v>76.95</v>
+      <c r="C547" s="7" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C548" s="7">
-        <v>20.490000000000002</v>
+      <c r="C548" s="7" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C549" s="7">
-        <v>37.43</v>
+      <c r="C549" s="7" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C550" s="7">
-        <v>41.49</v>
+      <c r="C550" s="7" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C551" s="7">
-        <v>19.989999999999998</v>
+      <c r="C551" s="7" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C552" s="7">
-        <v>56.99</v>
+      <c r="C552" s="7" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C553" s="7">
-        <v>61.800000000000004</v>
+      <c r="C553" s="6" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C554" s="7">
-        <v>46.79</v>
+      <c r="C554" s="7" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C555" s="7">
-        <v>43.800000000000004</v>
+      <c r="C555" s="6" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C556" s="7">
-        <v>40.99</v>
+      <c r="C556" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C557" s="7">
-        <v>43.99</v>
+      <c r="C557" s="7" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B558" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C558" s="7">
-        <v>43.99</v>
+      <c r="C558" s="7" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C559" s="7">
-        <v>40.99</v>
+      <c r="C559" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C560" s="7">
-        <v>41.99</v>
+      <c r="C560" s="7" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B561" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C561" s="7">
-        <v>46.7</v>
+      <c r="C561" s="6" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B562" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C562" s="7">
-        <v>39.9</v>
+      <c r="C562" s="6" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B563" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C563" s="7">
-        <v>39.99</v>
+      <c r="C563" s="7" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B564" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C564" s="7">
-        <v>58.7</v>
+      <c r="C564" s="6" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C565" s="7">
-        <v>45.4</v>
+      <c r="C565" s="6" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C566" s="7">
-        <v>20.990000000000002</v>
+      <c r="C566" s="7" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C567" s="7">
-        <v>26.59</v>
+      <c r="C567" s="7" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B568" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C568" s="7">
-        <v>31.7</v>
+      <c r="C568" s="6" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C569" s="7">
-        <v>52.9</v>
+      <c r="C569" s="6" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B570" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C570" s="7">
-        <v>25.25</v>
+      <c r="C570" s="7" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B571" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C571" s="7">
-        <v>35.9</v>
+      <c r="C571" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B572" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C572" s="7">
-        <v>68.400000000000006</v>
+      <c r="C572" s="6" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B573" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C573" s="7">
-        <v>66.489999999999995</v>
+      <c r="C573" s="7" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B574" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C574" s="7">
-        <v>22.900000000000002</v>
+      <c r="C574" s="6" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B575" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C575" s="7">
-        <v>165.9</v>
+      <c r="C575" s="6" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B576" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C576" s="7">
-        <v>68.400000000000006</v>
+      <c r="C576" s="6" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B577" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C577" s="7">
-        <v>30.990000000000002</v>
+      <c r="C577" s="7" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B578" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C578" s="7">
-        <v>49.25</v>
+      <c r="C578" s="7" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C579" s="7">
-        <v>99.7</v>
+      <c r="C579" s="6" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B580" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C580" s="7">
-        <v>3.99</v>
+      <c r="C580" s="7" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B581" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C581" s="7">
-        <v>27.990000000000002</v>
+      <c r="C581" s="7" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B582" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C582" s="7">
-        <v>44.49</v>
+      <c r="C582" s="7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B583" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C583" s="7">
-        <v>36.29</v>
+      <c r="C583" s="7" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B584" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C584" s="7">
-        <v>80.989999999999995</v>
+      <c r="C584" s="7" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B585" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C585" s="7">
-        <v>279.83999999999997</v>
+      <c r="C585" s="7" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B586" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C586" s="7">
-        <v>22.990000000000002</v>
+      <c r="C586" s="7" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B587" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C587" s="7">
-        <v>27.5</v>
+      <c r="C587" s="6" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C588" s="7">
-        <v>50.99</v>
+      <c r="C588" s="7" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B589" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C589" s="7">
-        <v>80.989999999999995</v>
+      <c r="C589" s="7" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B590" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C590" s="7">
-        <v>41.1</v>
+      <c r="C590" s="6" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B591" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C591" s="7">
-        <v>50.99</v>
+      <c r="C591" s="7" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B592" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C592" s="7">
-        <v>130.4</v>
+      <c r="C592" s="6" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="593" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B593" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C593" s="7">
-        <v>64.989999999999995</v>
+      <c r="C593" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="594" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B594" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C594" s="7">
-        <v>52.65</v>
+      <c r="C594" s="7" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B595" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C595" s="7">
-        <v>449.90000000000003</v>
+      <c r="C595" s="6" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B596" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C596" s="7">
-        <v>73.989999999999995</v>
+      <c r="C596" s="7" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="597" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B597" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C597" s="7">
-        <v>80.290000000000006</v>
+      <c r="C597" s="7" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="598" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B598" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C598" s="7">
-        <v>24.900000000000002</v>
+      <c r="C598" s="6" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="599" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B599" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C599" s="7">
-        <v>40.35</v>
+      <c r="C599" s="7" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B600" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C600" s="7">
-        <v>62.4</v>
+      <c r="C600" s="6" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B601" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C601" s="7">
-        <v>45.800000000000004</v>
+      <c r="C601" s="6" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B602" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C602" s="7">
-        <v>85.99</v>
+      <c r="C602" s="7" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B603" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C603" s="7">
-        <v>199.9</v>
+      <c r="C603" s="6" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144AE123-861F-44C9-A874-9C9427FA05FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F8F59-0004-4585-ADF8-58DA2BF05BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1046">
   <si>
     <t>ABACAXI CRISTALIZADO RODELAS</t>
   </si>
@@ -3157,6 +3157,12 @@
   </si>
   <si>
     <t>/mn-transparency/Imagens/temperodavo.jpg</t>
+  </si>
+  <si>
+    <t>/mn-transparency/Imagens/pega-marido.jpg</t>
+  </si>
+  <si>
+    <t>O "tempero pega marido" é um condimento versátil e prático, composto por uma mistura de ingredientes desidratados, como cebola, alho, pimentão, tomate, açafrão, mostarda, entre outros. Tem uma textura flocada e um sabor levemente picante. Pode ser usado em vários pratos salgados, como frangos, caldos, ensopados, arroz, saladas, carnes e legumes. Uma pequena quantidade é suficiente para dar sabor aos alimentos</t>
   </si>
 </sst>
 </file>
@@ -3650,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDFFF4-1065-423A-9D84-2B43E484132F}">
   <dimension ref="A1:G603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G548" sqref="G548"/>
+    <sheetView tabSelected="1" topLeftCell="A559" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D573" sqref="D573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11122,8 +11128,12 @@
       <c r="C573" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D573" s="1"/>
-      <c r="E573" s="1"/>
+      <c r="D573" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1044</v>
+      </c>
       <c r="F573" s="7" t="s">
         <v>843</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F8F59-0004-4585-ADF8-58DA2BF05BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE83D8E-FF3C-4C70-A091-ABCE39E1E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -3159,10 +3159,10 @@
     <t>/mn-transparency/Imagens/temperodavo.jpg</t>
   </si>
   <si>
-    <t>/mn-transparency/Imagens/pega-marido.jpg</t>
-  </si>
-  <si>
     <t>O "tempero pega marido" é um condimento versátil e prático, composto por uma mistura de ingredientes desidratados, como cebola, alho, pimentão, tomate, açafrão, mostarda, entre outros. Tem uma textura flocada e um sabor levemente picante. Pode ser usado em vários pratos salgados, como frangos, caldos, ensopados, arroz, saladas, carnes e legumes. Uma pequena quantidade é suficiente para dar sabor aos alimentos</t>
+  </si>
+  <si>
+    <t>/oliveirajulio.github.io/mn-transparency/imagens/pega-marido.jpg</t>
   </si>
 </sst>
 </file>
@@ -3657,7 +3657,7 @@
   <dimension ref="A1:G603"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A559" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D573" sqref="D573"/>
+      <selection activeCell="K573" sqref="K573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11129,10 +11129,10 @@
         <v>569</v>
       </c>
       <c r="D573" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E573" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="E573" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="F573" s="7" t="s">
         <v>843</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE83D8E-FF3C-4C70-A091-ABCE39E1E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263E6E09-BC5A-4269-9435-EC6338904AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -3162,7 +3162,7 @@
     <t>O "tempero pega marido" é um condimento versátil e prático, composto por uma mistura de ingredientes desidratados, como cebola, alho, pimentão, tomate, açafrão, mostarda, entre outros. Tem uma textura flocada e um sabor levemente picante. Pode ser usado em vários pratos salgados, como frangos, caldos, ensopados, arroz, saladas, carnes e legumes. Uma pequena quantidade é suficiente para dar sabor aos alimentos</t>
   </si>
   <si>
-    <t>/oliveirajulio.github.io/mn-transparency/imagens/pega-marido.jpg</t>
+    <t>/mn-transparency/imagens/pega-marido.jpg</t>
   </si>
 </sst>
 </file>
@@ -3656,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDFFF4-1065-423A-9D84-2B43E484132F}">
   <dimension ref="A1:G603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A559" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K573" sqref="K573"/>
+    <sheetView tabSelected="1" topLeftCell="A568" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E573" sqref="E573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263E6E09-BC5A-4269-9435-EC6338904AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36244A5-6DA0-404F-8334-51C96EC7941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -3162,7 +3162,7 @@
     <t>O "tempero pega marido" é um condimento versátil e prático, composto por uma mistura de ingredientes desidratados, como cebola, alho, pimentão, tomate, açafrão, mostarda, entre outros. Tem uma textura flocada e um sabor levemente picante. Pode ser usado em vários pratos salgados, como frangos, caldos, ensopados, arroz, saladas, carnes e legumes. Uma pequena quantidade é suficiente para dar sabor aos alimentos</t>
   </si>
   <si>
-    <t>/mn-transparency/imagens/pega-marido.jpg</t>
+    <t>/mn-transparency/Imagens/pega-marido.jpg</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36244A5-6DA0-404F-8334-51C96EC7941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC1006-B33B-4049-9280-07CF4AF8435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -3162,7 +3162,7 @@
     <t>O "tempero pega marido" é um condimento versátil e prático, composto por uma mistura de ingredientes desidratados, como cebola, alho, pimentão, tomate, açafrão, mostarda, entre outros. Tem uma textura flocada e um sabor levemente picante. Pode ser usado em vários pratos salgados, como frangos, caldos, ensopados, arroz, saladas, carnes e legumes. Uma pequena quantidade é suficiente para dar sabor aos alimentos</t>
   </si>
   <si>
-    <t>/mn-transparency/Imagens/pega-marido.jpg</t>
+    <t>/Imagens/pega-marido.jpg</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC1006-B33B-4049-9280-07CF4AF8435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17190E4F-9910-4CD7-B550-FAE99A6B00A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1052">
   <si>
     <t>ABACAXI CRISTALIZADO RODELAS</t>
   </si>
@@ -423,9 +423,6 @@
     <t>CAFE VERDE EM PO</t>
   </si>
   <si>
-    <t>CALDO BACON PENINA</t>
-  </si>
-  <si>
     <t>CALDO DE BACALHAU</t>
   </si>
   <si>
@@ -3163,6 +3160,50 @@
   </si>
   <si>
     <t>/Imagens/pega-marido.jpg</t>
+  </si>
+  <si>
+    <t>CALDO DE BACON</t>
+  </si>
+  <si>
+    <t>Bacon em pó pode ser utilizada como tempero para carnes ou pratos em que o sabor da defumação seja desejado. Pode ser acrescentada em linguiças frescas e cozidas, linguiça calabresa entre outros produtos de charcutaria. É altamente versátil e pode ser utilizado em uma variedade de produtos alimentícios, desde molhos, massas, salgadinhos (snacks) até outros produtos processados, como hambúrgueres vegetarianos e batatas fritas.</t>
+  </si>
+  <si>
+    <t>/Imagens/caldobacon.jpg</t>
+  </si>
+  <si>
+    <t>/Imagens/caldovegetais.jpg</t>
+  </si>
+  <si>
+    <t>O "caldo de vegetais" é uma mistura de temperos e vegetais desidratados, como cenoura, cebola, alho, salsão e ervas. O caldo de vegetais adiciona um sabor leve e aromático a sopas, risotos, molhos e pratos vegetarianos, oferecendo um toque de frescor e um sabor profundo sem ser excessivamente forte. Ideal para realçar o sabor de pratos leves.</t>
+  </si>
+  <si>
+    <r>
+      <t>O "caldo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de tomate" é um tempero em pó ou líquido feito a partir de tomate desidratado e especiarias, como alho, cebola e ervas. traz um sabor rico e levemente ácido, ideal para sopas, molhos, risotos e pratos à base de tomates. Proporciona um toque de profundidade e frescor, realçando receitas simples com um sabor intenso e equilibrado.</t>
+    </r>
+  </si>
+  <si>
+    <t>/Imagens/caldotomate.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3172,7 +3213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3207,6 +3248,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3235,7 +3289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3265,6 +3319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3339,6 +3394,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3656,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDFFF4-1065-423A-9D84-2B43E484132F}">
   <dimension ref="A1:G603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E573" sqref="E573"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,25 +3730,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3703,7 +3762,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3717,7 +3776,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3730,7 +3789,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3743,7 +3802,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3756,7 +3815,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3769,7 +3828,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3782,7 +3841,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,7 +3854,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3808,7 +3867,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3821,7 +3880,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3834,7 +3893,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3847,7 +3906,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,7 +3919,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3873,7 +3932,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3886,7 +3945,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,7 +3958,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3912,7 +3971,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,7 +3984,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3938,7 +3997,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3951,7 +4010,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,7 +4023,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3977,7 +4036,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3990,7 +4049,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4003,7 +4062,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4016,7 +4075,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,7 +4088,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4042,7 +4101,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,7 +4114,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4068,7 +4127,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4081,7 +4140,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4094,7 +4153,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4107,7 +4166,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4120,7 +4179,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -4133,7 +4192,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4146,7 +4205,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4159,7 +4218,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4172,7 +4231,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,7 +4244,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4198,7 +4257,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,7 +4270,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4237,7 +4296,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,7 +4309,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4263,7 +4322,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,7 +4335,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4289,7 +4348,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4302,7 +4361,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4315,7 +4374,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4328,7 +4387,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4341,7 +4400,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4354,7 +4413,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4367,7 +4426,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4380,7 +4439,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4393,7 +4452,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4406,7 +4465,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4419,7 +4478,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,7 +4491,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,7 +4504,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4458,7 +4517,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4471,7 +4530,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,7 +4543,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4497,7 +4556,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,7 +4569,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4523,7 +4582,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4536,7 +4595,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4549,7 +4608,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,7 +4621,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4575,7 +4634,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,7 +4647,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4601,7 +4660,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4614,7 +4673,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4627,7 +4686,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4640,7 +4699,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4653,7 +4712,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4666,7 +4725,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,7 +4738,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,7 +4751,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,7 +4764,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4718,7 +4777,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4731,7 +4790,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,7 +4803,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4757,7 +4816,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4770,7 +4829,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4783,7 +4842,7 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4796,7 +4855,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,7 +4868,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4822,7 +4881,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4835,7 +4894,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4848,7 +4907,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4861,7 +4920,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4874,7 +4933,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4887,7 +4946,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4900,7 +4959,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4913,7 +4972,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4926,7 +4985,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,7 +4998,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4952,7 +5011,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4965,7 +5024,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4978,7 +5037,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4991,7 +5050,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -5004,7 +5063,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -5017,7 +5076,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -5030,7 +5089,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -5043,7 +5102,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -5056,7 +5115,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -5069,7 +5128,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,7 +5141,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -5095,7 +5154,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -5108,7 +5167,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -5121,7 +5180,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -5134,7 +5193,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -5147,7 +5206,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -5160,7 +5219,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -5173,7 +5232,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -5186,7 +5245,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -5199,7 +5258,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5212,7 +5271,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,7 +5284,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -5238,7 +5297,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -5251,7 +5310,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -5264,7 +5323,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -5277,7 +5336,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -5290,7 +5349,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -5303,7 +5362,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -5316,7 +5375,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5329,7 +5388,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5342,7 +5401,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5355,7 +5414,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,7 +5427,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5381,7 +5440,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5394,7 +5453,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5407,7 +5466,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5415,12 +5474,16 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+        <v>1045</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>1047</v>
+      </c>
       <c r="F134" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5428,12 +5491,12 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5441,12 +5504,12 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5454,12 +5517,12 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5467,12 +5530,12 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5480,12 +5543,12 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5493,12 +5556,12 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5506,12 +5569,12 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5519,12 +5582,16 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>1051</v>
+      </c>
       <c r="F142" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5532,12 +5599,16 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>1048</v>
+      </c>
       <c r="F143" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5545,12 +5616,12 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5558,12 +5629,12 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5571,12 +5642,12 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5584,12 +5655,12 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,12 +5668,12 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5610,12 +5681,12 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5623,12 +5694,12 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5636,12 +5707,12 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5649,12 +5720,12 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5662,12 +5733,12 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5675,12 +5746,12 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5688,12 +5759,12 @@
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5701,12 +5772,12 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5714,12 +5785,12 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,12 +5798,12 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5740,12 +5811,12 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5753,12 +5824,12 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5766,12 +5837,12 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,12 +5850,12 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5792,12 +5863,12 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,12 +5876,12 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,12 +5889,12 @@
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5831,12 +5902,12 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5844,12 +5915,12 @@
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5857,12 +5928,12 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5870,12 +5941,12 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5883,12 +5954,12 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5896,12 +5967,12 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5909,12 +5980,12 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5922,12 +5993,12 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5935,12 +6006,12 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5948,12 +6019,12 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5961,12 +6032,12 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5974,12 +6045,12 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5987,12 +6058,12 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6000,12 +6071,12 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6013,12 +6084,12 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6026,12 +6097,12 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6039,12 +6110,12 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6052,12 +6123,12 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,12 +6136,12 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6078,12 +6149,12 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6091,12 +6162,12 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6104,12 +6175,12 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6117,12 +6188,12 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6130,12 +6201,12 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6143,12 +6214,12 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6156,12 +6227,12 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6169,12 +6240,12 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6182,12 +6253,12 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6195,12 +6266,12 @@
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6208,12 +6279,12 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6221,12 +6292,12 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6234,12 +6305,12 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6247,12 +6318,12 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6260,12 +6331,12 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6273,12 +6344,12 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6286,12 +6357,12 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,12 +6370,12 @@
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6312,12 +6383,12 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6325,12 +6396,12 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6338,12 +6409,12 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6351,12 +6422,12 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6364,12 +6435,12 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6377,12 +6448,12 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6390,12 +6461,12 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6403,12 +6474,12 @@
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,12 +6487,12 @@
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6429,12 +6500,12 @@
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6442,12 +6513,12 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6455,12 +6526,12 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6468,12 +6539,12 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6481,12 +6552,12 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6494,12 +6565,12 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6507,12 +6578,12 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6520,12 +6591,12 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6533,12 +6604,12 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6546,12 +6617,12 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6559,12 +6630,12 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6572,12 +6643,12 @@
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6585,12 +6656,12 @@
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6598,12 +6669,12 @@
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6611,12 +6682,12 @@
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6624,12 +6695,12 @@
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6637,12 +6708,12 @@
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6650,12 +6721,12 @@
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6663,12 +6734,12 @@
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6676,12 +6747,12 @@
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6689,12 +6760,12 @@
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6702,12 +6773,12 @@
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6715,12 +6786,12 @@
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6728,12 +6799,12 @@
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6741,12 +6812,12 @@
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6754,12 +6825,12 @@
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6767,12 +6838,12 @@
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6780,12 +6851,12 @@
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6793,12 +6864,12 @@
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6806,12 +6877,12 @@
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6819,12 +6890,12 @@
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6832,12 +6903,12 @@
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6845,12 +6916,12 @@
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6858,12 +6929,12 @@
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6871,12 +6942,12 @@
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6884,12 +6955,12 @@
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6897,12 +6968,12 @@
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6910,12 +6981,12 @@
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,12 +6994,12 @@
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6936,12 +7007,12 @@
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6949,12 +7020,12 @@
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6962,12 +7033,12 @@
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6975,12 +7046,12 @@
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6988,12 +7059,12 @@
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7001,12 +7072,12 @@
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7014,12 +7085,12 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -7027,12 +7098,12 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7040,12 +7111,12 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7053,12 +7124,12 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7066,12 +7137,12 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7079,12 +7150,12 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7092,12 +7163,12 @@
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -7105,12 +7176,12 @@
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7118,12 +7189,12 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7131,12 +7202,12 @@
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7144,12 +7215,12 @@
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7157,12 +7228,12 @@
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7170,12 +7241,12 @@
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7183,12 +7254,12 @@
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7196,12 +7267,12 @@
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7209,12 +7280,12 @@
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7222,12 +7293,12 @@
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7235,12 +7306,12 @@
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7248,12 +7319,12 @@
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -7261,12 +7332,12 @@
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7274,12 +7345,12 @@
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7287,12 +7358,12 @@
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -7300,12 +7371,12 @@
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7313,12 +7384,12 @@
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -7326,12 +7397,12 @@
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,12 +7410,12 @@
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -7352,12 +7423,12 @@
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -7365,12 +7436,12 @@
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -7378,12 +7449,12 @@
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -7391,12 +7462,12 @@
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -7404,12 +7475,12 @@
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -7417,12 +7488,12 @@
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -7430,12 +7501,12 @@
         <v>288</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -7443,12 +7514,12 @@
         <v>289</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -7456,12 +7527,12 @@
         <v>290</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -7469,12 +7540,12 @@
         <v>291</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -7482,12 +7553,12 @@
         <v>292</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -7495,12 +7566,12 @@
         <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -7508,12 +7579,12 @@
         <v>294</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -7521,12 +7592,12 @@
         <v>295</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -7534,12 +7605,12 @@
         <v>296</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -7547,12 +7618,12 @@
         <v>297</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -7560,12 +7631,12 @@
         <v>298</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -7573,12 +7644,12 @@
         <v>299</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -7586,12 +7657,12 @@
         <v>300</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -7599,12 +7670,12 @@
         <v>301</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -7612,12 +7683,12 @@
         <v>302</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -7625,12 +7696,12 @@
         <v>303</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -7638,12 +7709,12 @@
         <v>304</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -7651,12 +7722,12 @@
         <v>305</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -7664,12 +7735,12 @@
         <v>306</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -7677,12 +7748,12 @@
         <v>307</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -7690,12 +7761,12 @@
         <v>308</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -7703,12 +7774,12 @@
         <v>309</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -7716,12 +7787,12 @@
         <v>310</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -7729,12 +7800,12 @@
         <v>311</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -7742,12 +7813,12 @@
         <v>312</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -7755,12 +7826,12 @@
         <v>313</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -7768,12 +7839,12 @@
         <v>314</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7781,12 +7852,12 @@
         <v>315</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -7794,12 +7865,12 @@
         <v>316</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -7807,12 +7878,12 @@
         <v>317</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -7820,12 +7891,12 @@
         <v>318</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -7833,12 +7904,12 @@
         <v>319</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -7846,12 +7917,12 @@
         <v>320</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7859,12 +7930,12 @@
         <v>321</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7872,12 +7943,12 @@
         <v>322</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -7885,12 +7956,12 @@
         <v>323</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -7898,12 +7969,12 @@
         <v>324</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7911,12 +7982,12 @@
         <v>325</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7924,12 +7995,12 @@
         <v>326</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -7937,12 +8008,12 @@
         <v>327</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -7950,12 +8021,12 @@
         <v>328</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -7963,12 +8034,12 @@
         <v>329</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7976,12 +8047,12 @@
         <v>330</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7989,12 +8060,12 @@
         <v>331</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -8002,12 +8073,12 @@
         <v>332</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -8015,12 +8086,12 @@
         <v>333</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -8028,12 +8099,12 @@
         <v>334</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -8041,12 +8112,12 @@
         <v>335</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,12 +8125,12 @@
         <v>336</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -8067,12 +8138,12 @@
         <v>337</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -8080,12 +8151,12 @@
         <v>338</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -8093,12 +8164,12 @@
         <v>339</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -8106,12 +8177,12 @@
         <v>340</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -8119,12 +8190,12 @@
         <v>341</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -8132,12 +8203,12 @@
         <v>342</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8145,12 +8216,12 @@
         <v>343</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -8158,12 +8229,12 @@
         <v>344</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -8171,12 +8242,12 @@
         <v>345</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -8184,12 +8255,12 @@
         <v>346</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -8197,12 +8268,12 @@
         <v>347</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -8210,12 +8281,12 @@
         <v>348</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -8223,12 +8294,12 @@
         <v>349</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -8236,12 +8307,12 @@
         <v>350</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -8249,12 +8320,12 @@
         <v>351</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -8262,12 +8333,12 @@
         <v>352</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -8275,12 +8346,12 @@
         <v>353</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -8288,12 +8359,12 @@
         <v>354</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -8301,12 +8372,12 @@
         <v>355</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -8314,12 +8385,12 @@
         <v>356</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -8327,12 +8398,12 @@
         <v>357</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -8340,12 +8411,12 @@
         <v>358</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -8353,12 +8424,12 @@
         <v>359</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -8366,12 +8437,12 @@
         <v>360</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -8379,12 +8450,12 @@
         <v>361</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -8392,12 +8463,12 @@
         <v>362</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -8405,12 +8476,12 @@
         <v>363</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -8418,12 +8489,12 @@
         <v>364</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -8431,12 +8502,12 @@
         <v>365</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -8444,12 +8515,12 @@
         <v>366</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -8457,12 +8528,12 @@
         <v>367</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -8470,12 +8541,12 @@
         <v>368</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -8483,12 +8554,12 @@
         <v>369</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -8496,12 +8567,12 @@
         <v>370</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -8509,12 +8580,12 @@
         <v>371</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -8522,12 +8593,12 @@
         <v>372</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -8535,12 +8606,12 @@
         <v>373</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -8548,12 +8619,12 @@
         <v>374</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -8561,12 +8632,12 @@
         <v>375</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -8574,12 +8645,12 @@
         <v>376</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -8587,12 +8658,12 @@
         <v>377</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -8600,12 +8671,12 @@
         <v>378</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -8613,12 +8684,12 @@
         <v>379</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -8626,12 +8697,12 @@
         <v>380</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -8639,12 +8710,12 @@
         <v>381</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -8652,12 +8723,12 @@
         <v>382</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -8665,12 +8736,12 @@
         <v>383</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -8678,12 +8749,12 @@
         <v>384</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -8691,12 +8762,12 @@
         <v>385</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -8704,12 +8775,12 @@
         <v>386</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -8717,12 +8788,12 @@
         <v>387</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -8730,12 +8801,12 @@
         <v>388</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -8743,12 +8814,12 @@
         <v>389</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -8756,12 +8827,12 @@
         <v>390</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -8769,12 +8840,12 @@
         <v>391</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -8782,12 +8853,12 @@
         <v>392</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -8795,12 +8866,12 @@
         <v>393</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -8808,12 +8879,12 @@
         <v>394</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -8821,12 +8892,12 @@
         <v>395</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -8834,12 +8905,12 @@
         <v>396</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -8847,7 +8918,7 @@
         <v>397</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -8860,12 +8931,12 @@
         <v>398</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -8873,12 +8944,12 @@
         <v>399</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -8886,12 +8957,12 @@
         <v>400</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -8899,12 +8970,12 @@
         <v>401</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -8912,12 +8983,12 @@
         <v>402</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -8925,12 +8996,12 @@
         <v>403</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -8938,12 +9009,12 @@
         <v>404</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -8951,12 +9022,12 @@
         <v>405</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -8964,12 +9035,12 @@
         <v>406</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -8977,12 +9048,12 @@
         <v>407</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -8990,12 +9061,12 @@
         <v>408</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -9003,12 +9074,12 @@
         <v>409</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -9016,12 +9087,12 @@
         <v>410</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -9029,12 +9100,12 @@
         <v>411</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -9042,12 +9113,12 @@
         <v>412</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -9055,12 +9126,12 @@
         <v>413</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -9068,12 +9139,12 @@
         <v>414</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -9081,12 +9152,12 @@
         <v>415</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -9094,7 +9165,7 @@
         <v>416</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -9107,12 +9178,12 @@
         <v>417</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -9120,12 +9191,12 @@
         <v>418</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -9133,12 +9204,12 @@
         <v>419</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -9146,12 +9217,12 @@
         <v>420</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -9159,12 +9230,12 @@
         <v>421</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -9172,12 +9243,12 @@
         <v>422</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -9185,12 +9256,12 @@
         <v>423</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -9198,12 +9269,12 @@
         <v>424</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -9211,12 +9282,12 @@
         <v>425</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -9224,12 +9295,12 @@
         <v>426</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -9237,7 +9308,7 @@
         <v>427</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -9250,12 +9321,12 @@
         <v>428</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -9263,12 +9334,12 @@
         <v>429</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -9276,12 +9347,12 @@
         <v>430</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -9289,12 +9360,12 @@
         <v>431</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -9302,12 +9373,12 @@
         <v>432</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -9315,12 +9386,12 @@
         <v>433</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -9328,12 +9399,12 @@
         <v>434</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -9341,12 +9412,12 @@
         <v>435</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -9354,12 +9425,12 @@
         <v>436</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -9367,12 +9438,12 @@
         <v>437</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -9380,12 +9451,12 @@
         <v>438</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -9393,12 +9464,12 @@
         <v>439</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -9406,12 +9477,12 @@
         <v>440</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -9419,12 +9490,12 @@
         <v>441</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -9432,12 +9503,12 @@
         <v>442</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -9445,12 +9516,12 @@
         <v>443</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -9458,12 +9529,12 @@
         <v>444</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -9471,12 +9542,12 @@
         <v>445</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -9484,12 +9555,12 @@
         <v>446</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -9497,12 +9568,12 @@
         <v>447</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -9510,12 +9581,12 @@
         <v>448</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -9523,12 +9594,12 @@
         <v>449</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -9536,12 +9607,12 @@
         <v>450</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -9549,12 +9620,12 @@
         <v>451</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -9562,12 +9633,12 @@
         <v>452</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -9575,12 +9646,12 @@
         <v>453</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -9588,12 +9659,12 @@
         <v>454</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -9601,12 +9672,12 @@
         <v>455</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -9614,12 +9685,12 @@
         <v>456</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -9627,12 +9698,12 @@
         <v>457</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -9640,12 +9711,12 @@
         <v>458</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -9653,12 +9724,12 @@
         <v>459</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -9666,12 +9737,12 @@
         <v>460</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -9679,12 +9750,12 @@
         <v>461</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -9692,12 +9763,12 @@
         <v>462</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -9705,12 +9776,12 @@
         <v>463</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -9718,12 +9789,12 @@
         <v>464</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -9731,12 +9802,12 @@
         <v>465</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -9744,12 +9815,12 @@
         <v>466</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -9757,12 +9828,12 @@
         <v>467</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -9770,12 +9841,12 @@
         <v>468</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -9783,12 +9854,12 @@
         <v>469</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -9796,12 +9867,12 @@
         <v>470</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -9809,12 +9880,12 @@
         <v>471</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -9822,12 +9893,12 @@
         <v>472</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -9835,12 +9906,12 @@
         <v>473</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -9848,12 +9919,12 @@
         <v>474</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -9861,12 +9932,12 @@
         <v>475</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -9874,12 +9945,12 @@
         <v>476</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -9887,12 +9958,12 @@
         <v>477</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -9900,12 +9971,12 @@
         <v>478</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -9913,12 +9984,12 @@
         <v>479</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -9926,12 +9997,12 @@
         <v>480</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -9939,12 +10010,12 @@
         <v>481</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
       <c r="F482" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -9952,12 +10023,12 @@
         <v>482</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
       <c r="F483" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -9965,12 +10036,12 @@
         <v>483</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -9978,12 +10049,12 @@
         <v>484</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -9991,12 +10062,12 @@
         <v>485</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
       <c r="F486" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -10004,12 +10075,12 @@
         <v>486</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -10017,12 +10088,12 @@
         <v>487</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -10030,12 +10101,12 @@
         <v>488</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
       <c r="F489" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -10043,12 +10114,12 @@
         <v>489</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -10056,12 +10127,12 @@
         <v>490</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -10069,12 +10140,12 @@
         <v>491</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -10082,12 +10153,12 @@
         <v>492</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -10095,12 +10166,12 @@
         <v>493</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -10108,12 +10179,12 @@
         <v>494</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
       <c r="F495" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -10121,12 +10192,12 @@
         <v>495</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
       <c r="F496" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -10134,12 +10205,12 @@
         <v>496</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
       <c r="F497" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -10147,12 +10218,12 @@
         <v>497</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
       <c r="F498" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -10160,12 +10231,12 @@
         <v>498</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -10173,12 +10244,12 @@
         <v>499</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -10186,12 +10257,12 @@
         <v>500</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
       <c r="F501" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -10199,12 +10270,12 @@
         <v>501</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
       <c r="F502" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -10212,12 +10283,12 @@
         <v>502</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
       <c r="F503" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -10225,12 +10296,12 @@
         <v>503</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
       <c r="F504" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -10238,12 +10309,12 @@
         <v>504</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
       <c r="F505" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -10251,12 +10322,12 @@
         <v>505</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
       <c r="F506" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -10264,12 +10335,12 @@
         <v>506</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
       <c r="F507" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -10277,12 +10348,12 @@
         <v>507</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
       <c r="F508" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -10290,12 +10361,12 @@
         <v>508</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
       <c r="F509" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -10303,12 +10374,12 @@
         <v>509</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
       <c r="F510" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -10316,12 +10387,12 @@
         <v>510</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
       <c r="F511" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -10329,12 +10400,12 @@
         <v>511</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
       <c r="F512" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -10342,12 +10413,12 @@
         <v>512</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
       <c r="F513" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -10355,12 +10426,12 @@
         <v>513</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
       <c r="F514" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -10368,12 +10439,12 @@
         <v>514</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
       <c r="F515" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -10381,12 +10452,12 @@
         <v>515</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
       <c r="F516" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -10394,12 +10465,12 @@
         <v>516</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
       <c r="F517" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -10407,12 +10478,12 @@
         <v>517</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
       <c r="F518" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -10420,12 +10491,12 @@
         <v>518</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
       <c r="F519" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -10433,12 +10504,12 @@
         <v>519</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
       <c r="F520" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -10446,12 +10517,12 @@
         <v>520</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
       <c r="F521" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -10459,12 +10530,12 @@
         <v>521</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
       <c r="F522" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -10472,12 +10543,12 @@
         <v>522</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
       <c r="F523" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -10485,12 +10556,12 @@
         <v>523</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
       <c r="F524" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -10498,12 +10569,12 @@
         <v>524</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
       <c r="F525" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -10511,12 +10582,12 @@
         <v>525</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
       <c r="F526" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -10524,12 +10595,12 @@
         <v>526</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
       <c r="F527" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -10537,12 +10608,12 @@
         <v>527</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
       <c r="F528" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -10550,12 +10621,12 @@
         <v>528</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
       <c r="F529" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -10563,12 +10634,12 @@
         <v>529</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
       <c r="F530" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -10576,12 +10647,12 @@
         <v>530</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -10589,12 +10660,12 @@
         <v>531</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
       <c r="F532" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -10602,12 +10673,12 @@
         <v>532</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
       <c r="F533" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -10615,12 +10686,12 @@
         <v>533</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
       <c r="F534" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -10628,12 +10699,12 @@
         <v>534</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
       <c r="F535" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -10641,12 +10712,12 @@
         <v>535</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
       <c r="F536" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -10654,12 +10725,12 @@
         <v>536</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
       <c r="F537" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -10667,12 +10738,12 @@
         <v>537</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
       <c r="F538" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -10680,12 +10751,12 @@
         <v>538</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
       <c r="F539" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -10693,12 +10764,12 @@
         <v>539</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
       <c r="F540" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -10706,12 +10777,12 @@
         <v>540</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
       <c r="F541" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -10719,12 +10790,12 @@
         <v>541</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
       <c r="F542" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -10732,12 +10803,12 @@
         <v>542</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
       <c r="F543" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -10745,12 +10816,12 @@
         <v>543</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
       <c r="F544" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -10758,12 +10829,12 @@
         <v>544</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
       <c r="F545" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -10771,12 +10842,12 @@
         <v>545</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
       <c r="F546" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -10784,12 +10855,12 @@
         <v>546</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
       <c r="F547" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -10797,12 +10868,12 @@
         <v>547</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
       <c r="F548" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -10810,12 +10881,12 @@
         <v>548</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
       <c r="F549" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -10823,12 +10894,12 @@
         <v>549</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
       <c r="F550" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -10836,12 +10907,12 @@
         <v>550</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
       <c r="F551" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -10849,16 +10920,16 @@
         <v>551</v>
       </c>
       <c r="C552" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E552" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D552" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E552" s="1" t="s">
-        <v>1043</v>
-      </c>
       <c r="F552" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -10866,12 +10937,12 @@
         <v>552</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
       <c r="F553" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -10879,12 +10950,12 @@
         <v>553</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
       <c r="F554" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -10892,12 +10963,12 @@
         <v>554</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
       <c r="F555" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -10905,12 +10976,12 @@
         <v>555</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
       <c r="F556" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -10918,12 +10989,12 @@
         <v>556</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
       <c r="F557" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -10931,12 +11002,12 @@
         <v>557</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
       <c r="F558" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -10944,12 +11015,12 @@
         <v>558</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
       <c r="F559" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -10957,12 +11028,12 @@
         <v>559</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
       <c r="F560" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -10970,12 +11041,12 @@
         <v>560</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
       <c r="F561" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -10983,12 +11054,12 @@
         <v>561</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
       <c r="F562" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -10996,12 +11067,12 @@
         <v>562</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
       <c r="F563" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -11009,12 +11080,12 @@
         <v>563</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
       <c r="F564" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -11022,12 +11093,12 @@
         <v>564</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
       <c r="F565" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -11035,12 +11106,12 @@
         <v>565</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
       <c r="F566" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -11048,12 +11119,12 @@
         <v>566</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
       <c r="F567" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
@@ -11061,12 +11132,12 @@
         <v>567</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
       <c r="F568" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -11074,12 +11145,12 @@
         <v>568</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
       <c r="F569" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -11087,12 +11158,12 @@
         <v>569</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
       <c r="F570" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -11100,12 +11171,12 @@
         <v>570</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
       <c r="F571" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -11113,12 +11184,12 @@
         <v>571</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
       <c r="F572" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
@@ -11126,16 +11197,16 @@
         <v>572</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D573" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E573" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="E573" s="1" t="s">
-        <v>1045</v>
-      </c>
       <c r="F573" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,12 +11214,12 @@
         <v>573</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
       <c r="F574" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -11156,12 +11227,12 @@
         <v>574</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
       <c r="F575" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
@@ -11169,12 +11240,12 @@
         <v>575</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
       <c r="F576" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
@@ -11182,12 +11253,12 @@
         <v>576</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
       <c r="F577" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
@@ -11195,12 +11266,12 @@
         <v>577</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
       <c r="F578" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -11208,12 +11279,12 @@
         <v>578</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
       <c r="F579" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
@@ -11221,12 +11292,12 @@
         <v>579</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
       <c r="F580" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
@@ -11234,12 +11305,12 @@
         <v>580</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
       <c r="F581" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
@@ -11247,12 +11318,12 @@
         <v>581</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
       <c r="F582" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
@@ -11260,12 +11331,12 @@
         <v>582</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
       <c r="F583" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
@@ -11273,12 +11344,12 @@
         <v>583</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
       <c r="F584" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
@@ -11286,12 +11357,12 @@
         <v>584</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
       <c r="F585" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
@@ -11299,12 +11370,12 @@
         <v>585</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
       <c r="F586" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
@@ -11312,12 +11383,12 @@
         <v>586</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
       <c r="F587" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -11325,12 +11396,12 @@
         <v>587</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
       <c r="F588" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
@@ -11338,12 +11409,12 @@
         <v>588</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
       <c r="F589" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -11351,12 +11422,12 @@
         <v>589</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
       <c r="F590" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
@@ -11364,12 +11435,12 @@
         <v>590</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
       <c r="F591" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
@@ -11377,12 +11448,12 @@
         <v>591</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
       <c r="F592" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
@@ -11390,12 +11461,12 @@
         <v>592</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
       <c r="F593" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
@@ -11403,12 +11474,12 @@
         <v>593</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
       <c r="F594" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
@@ -11416,12 +11487,12 @@
         <v>594</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
       <c r="F595" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
@@ -11429,12 +11500,12 @@
         <v>595</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
       <c r="F596" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -11442,12 +11513,12 @@
         <v>596</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
       <c r="F597" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
@@ -11455,12 +11526,12 @@
         <v>597</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
       <c r="F598" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
@@ -11468,12 +11539,12 @@
         <v>598</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
       <c r="F599" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
@@ -11481,12 +11552,12 @@
         <v>599</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
       <c r="F600" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -11494,12 +11565,12 @@
         <v>600</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
       <c r="F601" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
@@ -11507,12 +11578,12 @@
         <v>601</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
       <c r="F602" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
@@ -11520,12 +11591,12 @@
         <v>602</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
       <c r="F603" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17190E4F-9910-4CD7-B550-FAE99A6B00A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC391AC-0E87-43B2-8145-14501D3E1ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3153,25 +3153,13 @@
     <t>TEMPERO DA VÓ</t>
   </si>
   <si>
-    <t>/mn-transparency/Imagens/temperodavo.jpg</t>
-  </si>
-  <si>
     <t>O "tempero pega marido" é um condimento versátil e prático, composto por uma mistura de ingredientes desidratados, como cebola, alho, pimentão, tomate, açafrão, mostarda, entre outros. Tem uma textura flocada e um sabor levemente picante. Pode ser usado em vários pratos salgados, como frangos, caldos, ensopados, arroz, saladas, carnes e legumes. Uma pequena quantidade é suficiente para dar sabor aos alimentos</t>
   </si>
   <si>
-    <t>/Imagens/pega-marido.jpg</t>
-  </si>
-  <si>
     <t>CALDO DE BACON</t>
   </si>
   <si>
     <t>Bacon em pó pode ser utilizada como tempero para carnes ou pratos em que o sabor da defumação seja desejado. Pode ser acrescentada em linguiças frescas e cozidas, linguiça calabresa entre outros produtos de charcutaria. É altamente versátil e pode ser utilizado em uma variedade de produtos alimentícios, desde molhos, massas, salgadinhos (snacks) até outros produtos processados, como hambúrgueres vegetarianos e batatas fritas.</t>
-  </si>
-  <si>
-    <t>/Imagens/caldobacon.jpg</t>
-  </si>
-  <si>
-    <t>/Imagens/caldovegetais.jpg</t>
   </si>
   <si>
     <t>O "caldo de vegetais" é uma mistura de temperos e vegetais desidratados, como cenoura, cebola, alho, salsão e ervas. O caldo de vegetais adiciona um sabor leve e aromático a sopas, risotos, molhos e pratos vegetarianos, oferecendo um toque de frescor e um sabor profundo sem ser excessivamente forte. Ideal para realçar o sabor de pratos leves.</t>
@@ -3203,7 +3191,19 @@
     </r>
   </si>
   <si>
-    <t>/Imagens/caldotomate.jpeg</t>
+    <t>/imagens/caldobacon.jpg</t>
+  </si>
+  <si>
+    <t>/imagens/caldotomate.jpeg</t>
+  </si>
+  <si>
+    <t>/imagens/caldovegetais.jpg</t>
+  </si>
+  <si>
+    <t>/mn-transparency/imagens/temperodavo.jpg</t>
+  </si>
+  <si>
+    <t>/imagens/pega-marido.jpg</t>
   </si>
 </sst>
 </file>
@@ -3211,7 +3211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -3287,7 +3287,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3322,8 +3322,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3417,9 +3417,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3457,7 +3457,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3563,7 +3563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3705,7 +3705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5474,10 +5474,10 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>1047</v>
@@ -5585,10 +5585,10 @@
         <v>139</v>
       </c>
       <c r="D142" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>897</v>
@@ -5602,10 +5602,10 @@
         <v>140</v>
       </c>
       <c r="D143" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>898</v>
@@ -10926,7 +10926,7 @@
         <v>1039</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="F552" s="7" t="s">
         <v>836</v>
@@ -11200,10 +11200,10 @@
         <v>568</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="F573" s="7" t="s">
         <v>842</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC391AC-0E87-43B2-8145-14501D3E1ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D8F03C-CC10-4984-90CB-685A8D8099D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1053">
   <si>
     <t>ABACAXI CRISTALIZADO RODELAS</t>
   </si>
@@ -3204,6 +3204,9 @@
   </si>
   <si>
     <t>/imagens/pega-marido.jpg</t>
+  </si>
+  <si>
+    <t>O "caldo de bacalhau" é um tempero feito com extrato de bacalhau e especiarias, conferindo um sabor marcante e característico de frutos do mar. Ele oferece um sabor intenso e salgado, perfeito para caldos, moquecas, risotos e pratos à base de peixes e frutos do mar. Proporciona um toque autêntico e aromático às receitas.</t>
   </si>
 </sst>
 </file>
@@ -3715,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDFFF4-1065-423A-9D84-2B43E484132F}">
   <dimension ref="A1:G603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L144" sqref="L144"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M141" sqref="M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5493,7 +5496,9 @@
       <c r="C135" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>1052</v>
+      </c>
       <c r="E135" s="1"/>
       <c r="F135" s="6" t="s">
         <v>895</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D8F03C-CC10-4984-90CB-685A8D8099D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2EE5C-7682-4415-AD18-3A2B35C8D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1073">
   <si>
     <t>ABACAXI CRISTALIZADO RODELAS</t>
   </si>
@@ -3208,13 +3208,398 @@
   <si>
     <t>O "caldo de bacalhau" é um tempero feito com extrato de bacalhau e especiarias, conferindo um sabor marcante e característico de frutos do mar. Ele oferece um sabor intenso e salgado, perfeito para caldos, moquecas, risotos e pratos à base de peixes e frutos do mar. Proporciona um toque autêntico e aromático às receitas.</t>
   </si>
+  <si>
+    <t>O "caldo de camarão" é feito com extrato de camarão, alho, cebola, pimentão, óleo vegetal, sal e especiarias diversas. Traz o sabor característico e intenso do camarão, com um toque levemente salgado e um aroma marcante de frutos do mar. Ideal para moquecas, caldos, risotos, sopas e pratos que pedem um toque especial de frutos do mar. Realça o sabor das receitas com praticidade e profundidade.</t>
+  </si>
+  <si>
+    <r>
+      <t>O "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caldo de churrasco"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> combina ingredientes como extrato de carne, sal, alho, cebola, pimenta, especiarias defumadas e realçadores de sabor. Oferece um sabor marcante e levemente defumado, remetendo ao churrasco tradicional. Perfeito para marinadas, feijão, carnes ensopadas e sopas, trazendo um toque robusto e suculento às receitas.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caldo de picanha"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é preparado com extrato de carne, sal, alho, cebola, pimenta e aromas defumados. Confere às receitas o sabor suculento e característico da picanha grelhada. Excelente para temperar feijão, sopas, molhos e marinadas, agregando um toque saboroso e sofisticado.</t>
+    </r>
+  </si>
+  <si>
+    <t>O caldo de costela é composto por extrato de carne bovina, alho, cebola, pimenta e especiarias intensas. Oferece um sabor encorpado, salgado e aromático, perfeito para pratos robustos como feijão, sopas, carnes ensopadas e molhos que pedem profundidade e intensidade.</t>
+  </si>
+  <si>
+    <t>O "dry rub" é uma mistura seca que pode conter páprica, alho, cebola, açúcar mascavo, sal, pimenta-do-reino, cominho e outras especiarias. Traz um sabor intenso e equilibrado, com notas levemente adocicadas, picantes e defumadas. Ideal para temperar carnes antes de grelhar, assar ou defumar, garantindo crocância e sabor marcante na superfície.</t>
+  </si>
+  <si>
+    <r>
+      <t>O "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zaatar"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é feito de tomilho seco, gergelim torrado, sumagre e, às vezes, orégano e sal Possui um sabor herbal, levemente ácido e fresco, com um toque de nozes do gergelim. Usado tradicionalmente no pão com azeite, também é ótimo para carnes, saladas, legumes assados e molhos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aipo moído</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é feito de talos de aipo desidratados e triturado. Apresenta um sabor herbal, fresco e levemente salgado. Excelente para sopas, caldos, saladas e molhos, adicionando um toque sutil e aromático às receitas.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">O "tempero pega espos" é uma mistura caseira que geralmente combina alho, cebola, salsa, cebolinha e pimenta-do-reino. Traz um sabor equilibrado e aromático, com um toque fresco das ervas e leve picância. Ideal para temperar carnes, feijão, arroz e sopas, deixando os pratos saborosos e cativantes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma combinação de ingredientes básicos como alho, cebola, salsa desidratada e tomate em pó. Apresenta um sabor equilibrado, fresco e levemente adocicado pelo tomate. Ótimo para molhos, refogados, sopas e pratos do dia a dia, agregando aroma e sabor marcante.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistura simples de alho desidratado, cebola em pó e salsa seca. Versátil e aromático, confere sabor suave e herbal às receitas. Ideal para refogados, sopas, feijão e carnes, com um toque clássico e reconfortante.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>O "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tempero do Edu"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é uma mistura que geralmente inclui alho, cebola, salsa, orégano, pimenta-do-reino e sal. Versátil e equilibrado, traz um toque caseiro e aromático para as receitas. Excelente para temperar carnes, arroz, feijão e saladas, deixando os pratos com um sabor acolhedor e bem temperado.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sazon é composto por glutamato monossódico, alho, cebola, cúrcuma, sal e outras especiarias, variando conforme o sabor específico. Oferece praticidade e um sabor marcante, que realça o gosto natural dos alimentos. Usado em arroz, feijão, carnes, sopas e ensopados, proporciona um toque especial com rapidez e eficiência.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colorífico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é uma mistura de urucum em pó e farinha de milho ou mandioca. Tem um sabor suave, quase neutro, e é usado principalmente para dar cor vibrante às receitas. Ideal para caldos, carnes e arroz, conferindo uma aparência apetitosa aos pratos.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>páprica defumada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é feita a partir de pimentões secos e defumados, moídos em pó. Possui um sabor levemente doce e defumado, com aroma intenso. Excelente para carnes, aves, sopas, molhos e vegetais, trazendo um toque robusto e sofisticado às receitas.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caldo de galinha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é composto por extrato de carne de frango, sal, alho, cebola e especiarias. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Oferece um sabor suave e reconfortante, com notas características de galinha. Perfeito para sopas, risotos, molhos e ensopados, trazendo um toque caseiro e nutritivo.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lemon pepper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é uma mistura de pimenta-do-reino, raspas de limão e sal, às vezes enriquecida com especiarias como ervas finas. Proporciona um sabor cítrico e levemente picante, ideal para aves, peixes, saladas e legumes, com um toque refrescante e vibrante.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é um blend de especiarias, como cúrcuma, coentro, cominho, pimenta e gengibre. Possui um sabor rico, quente e levemente picante, com aroma exótico e envolvente. Ideal para pratos indianos, molhos, sopas e carnes, conferindo um toque marcante e aromático.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tempero feijão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> combina alho, cebola, louro, cominho e pimenta-do-reino, entre outros ingredientes. Realça o sabor do feijão com um toque tradicional e aromático. Ideal para deixar o prato com sabor equilibrado, intenso e irresistível.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vinagrete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é composto por cebola, tomate, pimentão, vinagre, azeite e sal, podendo incluir ervas como coentro. Traz frescor e leve acidez, ideal para acompanhar churrascos, carnes grelhadas, saladas e petiscos, com um sabor leve e equilibrado.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caldo de legumes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> combina extratos de cenoura, cebola, alho-poró, aipo e especiarias. Possui um sabor suave e vegetal, ótimo para sopas, risotos, ensopados e molhos, conferindo frescor e leveza às receitas.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -3290,9 +3675,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3323,10 +3708,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3399,10 +3790,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9312D5D3-2DEE-492A-83F2-7EB5E9998E53}" name="Tabela1" displayName="Tabela1" ref="A1:G603" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:G603" xr:uid="{9312D5D3-2DEE-492A-83F2-7EB5E9998E53}"/>
@@ -3420,9 +3807,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3460,7 +3847,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3566,7 +3953,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3708,7 +4095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3718,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDFFF4-1065-423A-9D84-2B43E484132F}">
   <dimension ref="A1:G603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M141" sqref="M141"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,9 +4116,10 @@
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1037</v>
       </c>
@@ -3768,7 +4156,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3782,7 +4170,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3795,7 +4183,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3808,7 +4196,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3821,7 +4209,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3834,7 +4222,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3847,7 +4235,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3860,7 +4248,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3873,20 +4261,22 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="13" t="s">
+        <v>1059</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="6" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3899,7 +4289,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -3912,7 +4302,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3925,7 +4315,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3938,7 +4328,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -3951,7 +4341,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3964,7 +4354,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -3977,7 +4367,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3990,7 +4380,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -4003,33 +4393,37 @@
         <v>858</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="13" t="s">
+        <v>1061</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="6" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="13" t="s">
+        <v>1062</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -4042,7 +4436,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -4055,7 +4449,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -4068,7 +4462,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -4081,7 +4475,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -4094,7 +4488,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -4107,7 +4501,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -4120,7 +4514,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -4133,7 +4527,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -4146,7 +4540,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -4159,7 +4553,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -4172,7 +4566,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -4185,7 +4579,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -4198,7 +4592,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -4211,7 +4605,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -4224,7 +4618,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -4237,7 +4631,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -4250,7 +4644,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -4263,7 +4657,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -4276,7 +4670,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -4289,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -4302,7 +4696,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -4315,7 +4709,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -4328,7 +4722,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -4341,7 +4735,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -4354,7 +4748,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -4367,7 +4761,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -4380,7 +4774,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -4393,7 +4787,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -4406,7 +4800,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -4419,7 +4813,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -4432,7 +4826,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -4445,7 +4839,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -4458,7 +4852,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -4471,7 +4865,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -4484,7 +4878,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -4497,7 +4891,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -4510,7 +4904,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -4523,7 +4917,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -4536,7 +4930,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -4549,7 +4943,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -4562,7 +4956,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -4575,7 +4969,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -4588,7 +4982,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -4601,7 +4995,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -4614,7 +5008,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -4627,7 +5021,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -4640,7 +5034,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -4653,7 +5047,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -4666,7 +5060,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -4679,7 +5073,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -4692,7 +5086,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -4705,7 +5099,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -4718,7 +5112,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -4731,7 +5125,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -4744,7 +5138,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -4757,7 +5151,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -4770,7 +5164,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -4783,7 +5177,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -4796,7 +5190,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -4809,7 +5203,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -4822,7 +5216,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -4835,7 +5229,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -4848,7 +5242,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -4861,7 +5255,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -4874,7 +5268,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -4887,7 +5281,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -4900,7 +5294,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -4913,7 +5307,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -4926,7 +5320,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -4939,7 +5333,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -4952,7 +5346,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -4965,7 +5359,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -4978,7 +5372,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -4991,7 +5385,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -5004,7 +5398,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -5017,7 +5411,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -5030,7 +5424,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -5043,7 +5437,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -5056,7 +5450,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>101</v>
       </c>
@@ -5069,7 +5463,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -5082,7 +5476,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -5095,7 +5489,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -5108,7 +5502,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -5121,7 +5515,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -5134,7 +5528,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -5147,7 +5541,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -5160,7 +5554,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -5173,7 +5567,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -5186,7 +5580,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -5199,7 +5593,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -5212,7 +5606,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -5225,7 +5619,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -5238,7 +5632,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -5251,7 +5645,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -5264,7 +5658,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -5277,7 +5671,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -5290,7 +5684,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -5303,7 +5697,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -5316,7 +5710,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -5329,7 +5723,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -5342,7 +5736,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>123</v>
       </c>
@@ -5355,7 +5749,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -5368,7 +5762,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -5381,7 +5775,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -5394,7 +5788,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -5407,7 +5801,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -5420,7 +5814,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>129</v>
       </c>
@@ -5433,7 +5827,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -5446,7 +5840,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -5459,7 +5853,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -5472,7 +5866,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -5489,7 +5883,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -5504,85 +5898,97 @@
         <v>895</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>1053</v>
+      </c>
       <c r="E136" s="1"/>
       <c r="F136" s="7" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="13" t="s">
+        <v>1054</v>
+      </c>
       <c r="E137" s="1"/>
       <c r="F137" s="7" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>1056</v>
+      </c>
       <c r="E138" s="1"/>
       <c r="F138" s="6" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="13" t="s">
+        <v>1067</v>
+      </c>
       <c r="E139" s="1"/>
       <c r="F139" s="7" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="13" t="s">
+        <v>1072</v>
+      </c>
       <c r="E140" s="1"/>
       <c r="F140" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" t="s">
+        <v>1055</v>
+      </c>
       <c r="E141" s="1"/>
       <c r="F141" s="7" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>141</v>
       </c>
@@ -5599,7 +6005,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -5616,7 +6022,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -5629,7 +6035,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
         <v>144</v>
       </c>
@@ -5642,7 +6048,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>145</v>
       </c>
@@ -5655,7 +6061,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>146</v>
       </c>
@@ -5668,7 +6074,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>147</v>
       </c>
@@ -5681,7 +6087,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>148</v>
       </c>
@@ -5694,7 +6100,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>149</v>
       </c>
@@ -5707,7 +6113,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>150</v>
       </c>
@@ -5720,7 +6126,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>151</v>
       </c>
@@ -5733,7 +6139,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -5746,7 +6152,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>153</v>
       </c>
@@ -5759,7 +6165,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>154</v>
       </c>
@@ -5772,7 +6178,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>155</v>
       </c>
@@ -5785,7 +6191,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
         <v>156</v>
       </c>
@@ -5798,7 +6204,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>157</v>
       </c>
@@ -5811,7 +6217,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>158</v>
       </c>
@@ -5824,7 +6230,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>159</v>
       </c>
@@ -5837,7 +6243,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>160</v>
       </c>
@@ -5850,7 +6256,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -5863,7 +6269,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
         <v>162</v>
       </c>
@@ -5876,7 +6282,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -5889,7 +6295,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -5902,7 +6308,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>165</v>
       </c>
@@ -5915,7 +6321,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -5928,7 +6334,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -5941,7 +6347,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
         <v>168</v>
       </c>
@@ -5954,7 +6360,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -5967,7 +6373,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>170</v>
       </c>
@@ -5980,7 +6386,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>171</v>
       </c>
@@ -5993,7 +6399,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>172</v>
       </c>
@@ -6006,7 +6412,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>173</v>
       </c>
@@ -6019,7 +6425,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
         <v>174</v>
       </c>
@@ -6032,7 +6438,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>175</v>
       </c>
@@ -6045,7 +6451,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>176</v>
       </c>
@@ -6058,7 +6464,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>177</v>
       </c>
@@ -6071,7 +6477,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>178</v>
       </c>
@@ -6084,7 +6490,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9">
         <v>179</v>
       </c>
@@ -6097,7 +6503,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10">
         <v>180</v>
       </c>
@@ -6110,7 +6516,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>181</v>
       </c>
@@ -6123,7 +6529,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9">
         <v>182</v>
       </c>
@@ -6136,7 +6542,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>183</v>
       </c>
@@ -6149,7 +6555,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9">
         <v>184</v>
       </c>
@@ -6162,7 +6568,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9">
         <v>185</v>
       </c>
@@ -6175,7 +6581,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
         <v>186</v>
       </c>
@@ -6188,7 +6594,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9">
         <v>187</v>
       </c>
@@ -6201,7 +6607,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9">
         <v>188</v>
       </c>
@@ -6214,7 +6620,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>189</v>
       </c>
@@ -6227,7 +6633,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>190</v>
       </c>
@@ -6240,7 +6646,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
         <v>191</v>
       </c>
@@ -6253,7 +6659,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
         <v>192</v>
       </c>
@@ -6266,7 +6672,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
         <v>193</v>
       </c>
@@ -6279,7 +6685,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
         <v>194</v>
       </c>
@@ -6292,7 +6698,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
         <v>195</v>
       </c>
@@ -6305,7 +6711,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9">
         <v>196</v>
       </c>
@@ -6318,7 +6724,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
         <v>197</v>
       </c>
@@ -6331,7 +6737,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
         <v>198</v>
       </c>
@@ -6344,7 +6750,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9">
         <v>199</v>
       </c>
@@ -6357,7 +6763,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -6370,7 +6776,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10">
         <v>201</v>
       </c>
@@ -6383,7 +6789,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -6396,7 +6802,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -6409,7 +6815,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>204</v>
       </c>
@@ -6422,7 +6828,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -6435,7 +6841,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -6448,7 +6854,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
         <v>207</v>
       </c>
@@ -6461,7 +6867,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -6474,7 +6880,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
         <v>209</v>
       </c>
@@ -6487,7 +6893,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>210</v>
       </c>
@@ -6500,7 +6906,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9">
         <v>211</v>
       </c>
@@ -6513,7 +6919,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9">
         <v>212</v>
       </c>
@@ -6526,7 +6932,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10">
         <v>213</v>
       </c>
@@ -6539,7 +6945,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
         <v>214</v>
       </c>
@@ -6552,7 +6958,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>215</v>
       </c>
@@ -6565,7 +6971,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>216</v>
       </c>
@@ -6578,7 +6984,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>217</v>
       </c>
@@ -6591,7 +6997,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>218</v>
       </c>
@@ -6604,7 +7010,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>219</v>
       </c>
@@ -6617,7 +7023,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>220</v>
       </c>
@@ -6630,7 +7036,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
         <v>221</v>
       </c>
@@ -6643,7 +7049,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>222</v>
       </c>
@@ -6656,7 +7062,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>223</v>
       </c>
@@ -6669,7 +7075,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>224</v>
       </c>
@@ -6682,7 +7088,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>225</v>
       </c>
@@ -6695,7 +7101,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>226</v>
       </c>
@@ -6708,20 +7114,22 @@
         <v>914</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D228" s="1"/>
+      <c r="D228" s="13" t="s">
+        <v>1065</v>
+      </c>
       <c r="E228" s="1"/>
       <c r="F228" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>228</v>
       </c>
@@ -6734,7 +7142,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>229</v>
       </c>
@@ -6747,7 +7155,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>230</v>
       </c>
@@ -6760,7 +7168,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>231</v>
       </c>
@@ -6773,7 +7181,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>232</v>
       </c>
@@ -6786,7 +7194,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>233</v>
       </c>
@@ -6799,7 +7207,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>234</v>
       </c>
@@ -6812,7 +7220,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9">
         <v>235</v>
       </c>
@@ -6825,7 +7233,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>236</v>
       </c>
@@ -6838,7 +7246,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10">
         <v>237</v>
       </c>
@@ -6851,7 +7259,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
         <v>238</v>
       </c>
@@ -6864,20 +7272,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D240" s="1"/>
+      <c r="D240" s="13" t="s">
+        <v>1069</v>
+      </c>
       <c r="E240" s="1"/>
       <c r="F240" s="7" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10">
         <v>240</v>
       </c>
@@ -6890,7 +7300,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>241</v>
       </c>
@@ -6903,7 +7313,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9">
         <v>242</v>
       </c>
@@ -6916,7 +7326,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10">
         <v>243</v>
       </c>
@@ -6929,7 +7339,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
         <v>244</v>
       </c>
@@ -6942,7 +7352,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
         <v>245</v>
       </c>
@@ -6955,7 +7365,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10">
         <v>246</v>
       </c>
@@ -6968,7 +7378,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
         <v>247</v>
       </c>
@@ -6981,7 +7391,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9">
         <v>248</v>
       </c>
@@ -6994,7 +7404,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10">
         <v>249</v>
       </c>
@@ -7007,7 +7417,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
         <v>250</v>
       </c>
@@ -7020,7 +7430,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
         <v>251</v>
       </c>
@@ -7033,7 +7443,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10">
         <v>252</v>
       </c>
@@ -7046,7 +7456,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
         <v>253</v>
       </c>
@@ -7059,7 +7469,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9">
         <v>254</v>
       </c>
@@ -7072,7 +7482,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10">
         <v>255</v>
       </c>
@@ -7085,7 +7495,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
         <v>256</v>
       </c>
@@ -7098,7 +7508,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>257</v>
       </c>
@@ -7111,7 +7521,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10">
         <v>258</v>
       </c>
@@ -7124,7 +7534,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>259</v>
       </c>
@@ -7137,7 +7547,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>260</v>
       </c>
@@ -7150,20 +7560,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10">
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D262" s="1"/>
+      <c r="D262" s="1" t="s">
+        <v>1057</v>
+      </c>
       <c r="E262" s="1"/>
       <c r="F262" s="6" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
         <v>262</v>
       </c>
@@ -7176,7 +7588,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
         <v>263</v>
       </c>
@@ -7189,7 +7601,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10">
         <v>264</v>
       </c>
@@ -7202,7 +7614,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
         <v>265</v>
       </c>
@@ -7215,7 +7627,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
         <v>266</v>
       </c>
@@ -7228,7 +7640,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10">
         <v>267</v>
       </c>
@@ -7241,7 +7653,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
         <v>268</v>
       </c>
@@ -7254,7 +7666,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>269</v>
       </c>
@@ -7267,7 +7679,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10">
         <v>270</v>
       </c>
@@ -7280,7 +7692,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>271</v>
       </c>
@@ -7293,7 +7705,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
         <v>272</v>
       </c>
@@ -7306,7 +7718,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10">
         <v>273</v>
       </c>
@@ -7319,7 +7731,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9">
         <v>274</v>
       </c>
@@ -7332,7 +7744,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9">
         <v>275</v>
       </c>
@@ -7345,7 +7757,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10">
         <v>276</v>
       </c>
@@ -7358,7 +7770,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9">
         <v>277</v>
       </c>
@@ -7371,7 +7783,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9">
         <v>278</v>
       </c>
@@ -7384,7 +7796,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10">
         <v>279</v>
       </c>
@@ -7397,7 +7809,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9">
         <v>280</v>
       </c>
@@ -7410,7 +7822,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9">
         <v>281</v>
       </c>
@@ -7423,7 +7835,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10">
         <v>282</v>
       </c>
@@ -7436,7 +7848,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9">
         <v>283</v>
       </c>
@@ -7449,7 +7861,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9">
         <v>284</v>
       </c>
@@ -7462,7 +7874,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10">
         <v>285</v>
       </c>
@@ -7475,7 +7887,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9">
         <v>286</v>
       </c>
@@ -7488,7 +7900,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9">
         <v>287</v>
       </c>
@@ -7501,7 +7913,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10">
         <v>288</v>
       </c>
@@ -7514,7 +7926,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9">
         <v>289</v>
       </c>
@@ -7527,7 +7939,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9">
         <v>290</v>
       </c>
@@ -7540,7 +7952,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10">
         <v>291</v>
       </c>
@@ -7553,7 +7965,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9">
         <v>292</v>
       </c>
@@ -7566,7 +7978,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9">
         <v>293</v>
       </c>
@@ -7579,7 +7991,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10">
         <v>294</v>
       </c>
@@ -7592,7 +8004,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9">
         <v>295</v>
       </c>
@@ -7605,7 +8017,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9">
         <v>296</v>
       </c>
@@ -7618,7 +8030,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10">
         <v>297</v>
       </c>
@@ -7631,7 +8043,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9">
         <v>298</v>
       </c>
@@ -7644,7 +8056,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9">
         <v>299</v>
       </c>
@@ -7657,7 +8069,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10">
         <v>300</v>
       </c>
@@ -7670,7 +8082,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9">
         <v>301</v>
       </c>
@@ -7683,7 +8095,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9">
         <v>302</v>
       </c>
@@ -7696,7 +8108,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10">
         <v>303</v>
       </c>
@@ -7709,7 +8121,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9">
         <v>304</v>
       </c>
@@ -7722,7 +8134,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9">
         <v>305</v>
       </c>
@@ -7735,7 +8147,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10">
         <v>306</v>
       </c>
@@ -7748,7 +8160,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9">
         <v>307</v>
       </c>
@@ -7761,7 +8173,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9">
         <v>308</v>
       </c>
@@ -7774,7 +8186,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10">
         <v>309</v>
       </c>
@@ -7787,7 +8199,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9">
         <v>310</v>
       </c>
@@ -7800,7 +8212,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9">
         <v>311</v>
       </c>
@@ -7813,7 +8225,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10">
         <v>312</v>
       </c>
@@ -7826,7 +8238,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9">
         <v>313</v>
       </c>
@@ -7839,7 +8251,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9">
         <v>314</v>
       </c>
@@ -7852,7 +8264,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10">
         <v>315</v>
       </c>
@@ -7865,7 +8277,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9">
         <v>316</v>
       </c>
@@ -7878,7 +8290,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9">
         <v>317</v>
       </c>
@@ -7891,7 +8303,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10">
         <v>318</v>
       </c>
@@ -7904,7 +8316,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9">
         <v>319</v>
       </c>
@@ -7917,7 +8329,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9">
         <v>320</v>
       </c>
@@ -7930,7 +8342,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10">
         <v>321</v>
       </c>
@@ -7943,7 +8355,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9">
         <v>322</v>
       </c>
@@ -7956,7 +8368,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9">
         <v>323</v>
       </c>
@@ -7969,7 +8381,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10">
         <v>324</v>
       </c>
@@ -7982,7 +8394,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9">
         <v>325</v>
       </c>
@@ -7995,7 +8407,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9">
         <v>326</v>
       </c>
@@ -8008,7 +8420,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10">
         <v>327</v>
       </c>
@@ -8021,7 +8433,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9">
         <v>328</v>
       </c>
@@ -8034,7 +8446,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9">
         <v>329</v>
       </c>
@@ -8047,7 +8459,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10">
         <v>330</v>
       </c>
@@ -8060,7 +8472,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9">
         <v>331</v>
       </c>
@@ -8073,7 +8485,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9">
         <v>332</v>
       </c>
@@ -8086,7 +8498,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10">
         <v>333</v>
       </c>
@@ -8099,7 +8511,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9">
         <v>334</v>
       </c>
@@ -8112,7 +8524,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9">
         <v>335</v>
       </c>
@@ -8125,7 +8537,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10">
         <v>336</v>
       </c>
@@ -8138,7 +8550,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9">
         <v>337</v>
       </c>
@@ -8151,7 +8563,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9">
         <v>338</v>
       </c>
@@ -8164,7 +8576,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10">
         <v>339</v>
       </c>
@@ -8177,7 +8589,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9">
         <v>340</v>
       </c>
@@ -8190,7 +8602,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9">
         <v>341</v>
       </c>
@@ -8203,7 +8615,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10">
         <v>342</v>
       </c>
@@ -8216,7 +8628,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9">
         <v>343</v>
       </c>
@@ -8229,7 +8641,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9">
         <v>344</v>
       </c>
@@ -8242,7 +8654,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10">
         <v>345</v>
       </c>
@@ -8255,7 +8667,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9">
         <v>346</v>
       </c>
@@ -8268,7 +8680,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9">
         <v>347</v>
       </c>
@@ -8281,7 +8693,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10">
         <v>348</v>
       </c>
@@ -8294,7 +8706,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9">
         <v>349</v>
       </c>
@@ -8307,7 +8719,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9">
         <v>350</v>
       </c>
@@ -8320,7 +8732,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="10">
         <v>351</v>
       </c>
@@ -8333,7 +8745,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9">
         <v>352</v>
       </c>
@@ -8346,7 +8758,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9">
         <v>353</v>
       </c>
@@ -8359,7 +8771,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10">
         <v>354</v>
       </c>
@@ -8372,7 +8784,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9">
         <v>355</v>
       </c>
@@ -8385,7 +8797,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9">
         <v>356</v>
       </c>
@@ -8398,7 +8810,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="10">
         <v>357</v>
       </c>
@@ -8411,7 +8823,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9">
         <v>358</v>
       </c>
@@ -8424,7 +8836,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9">
         <v>359</v>
       </c>
@@ -8437,7 +8849,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10">
         <v>360</v>
       </c>
@@ -8450,7 +8862,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9">
         <v>361</v>
       </c>
@@ -8463,7 +8875,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9">
         <v>362</v>
       </c>
@@ -8476,7 +8888,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="10">
         <v>363</v>
       </c>
@@ -8489,7 +8901,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9">
         <v>364</v>
       </c>
@@ -8502,7 +8914,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9">
         <v>365</v>
       </c>
@@ -8515,7 +8927,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10">
         <v>366</v>
       </c>
@@ -8528,7 +8940,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9">
         <v>367</v>
       </c>
@@ -8541,7 +8953,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9">
         <v>368</v>
       </c>
@@ -8554,7 +8966,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10">
         <v>369</v>
       </c>
@@ -8567,7 +8979,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9">
         <v>370</v>
       </c>
@@ -8580,7 +8992,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9">
         <v>371</v>
       </c>
@@ -8593,7 +9005,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="10">
         <v>372</v>
       </c>
@@ -8606,7 +9018,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9">
         <v>373</v>
       </c>
@@ -8619,7 +9031,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9">
         <v>374</v>
       </c>
@@ -8632,7 +9044,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="10">
         <v>375</v>
       </c>
@@ -8645,7 +9057,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9">
         <v>376</v>
       </c>
@@ -8658,7 +9070,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9">
         <v>377</v>
       </c>
@@ -8671,7 +9083,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="10">
         <v>378</v>
       </c>
@@ -8684,7 +9096,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9">
         <v>379</v>
       </c>
@@ -8697,7 +9109,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9">
         <v>380</v>
       </c>
@@ -8710,7 +9122,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="10">
         <v>381</v>
       </c>
@@ -8723,7 +9135,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9">
         <v>382</v>
       </c>
@@ -8736,7 +9148,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9">
         <v>383</v>
       </c>
@@ -8749,7 +9161,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="10">
         <v>384</v>
       </c>
@@ -8762,7 +9174,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9">
         <v>385</v>
       </c>
@@ -8775,20 +9187,22 @@
         <v>711</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9">
         <v>386</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D387" s="1"/>
+      <c r="D387" s="13" t="s">
+        <v>1068</v>
+      </c>
       <c r="E387" s="1"/>
       <c r="F387" s="7" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="10">
         <v>387</v>
       </c>
@@ -8801,7 +9215,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9">
         <v>388</v>
       </c>
@@ -8814,7 +9228,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9">
         <v>389</v>
       </c>
@@ -8827,7 +9241,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="10">
         <v>390</v>
       </c>
@@ -8840,7 +9254,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9">
         <v>391</v>
       </c>
@@ -8853,7 +9267,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9">
         <v>392</v>
       </c>
@@ -8866,7 +9280,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="10">
         <v>393</v>
       </c>
@@ -8879,7 +9293,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9">
         <v>394</v>
       </c>
@@ -8892,7 +9306,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9">
         <v>395</v>
       </c>
@@ -8905,7 +9319,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="10">
         <v>396</v>
       </c>
@@ -8918,7 +9332,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9">
         <v>397</v>
       </c>
@@ -8931,7 +9345,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9">
         <v>398</v>
       </c>
@@ -8944,7 +9358,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="10">
         <v>399</v>
       </c>
@@ -8957,7 +9371,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9">
         <v>400</v>
       </c>
@@ -8970,7 +9384,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9">
         <v>401</v>
       </c>
@@ -8983,7 +9397,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="10">
         <v>402</v>
       </c>
@@ -8996,7 +9410,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9">
         <v>403</v>
       </c>
@@ -9009,7 +9423,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9">
         <v>404</v>
       </c>
@@ -9022,7 +9436,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="10">
         <v>405</v>
       </c>
@@ -9035,7 +9449,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9">
         <v>406</v>
       </c>
@@ -9048,7 +9462,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9">
         <v>407</v>
       </c>
@@ -9061,7 +9475,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="10">
         <v>408</v>
       </c>
@@ -9074,7 +9488,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9">
         <v>409</v>
       </c>
@@ -9087,7 +9501,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9">
         <v>410</v>
       </c>
@@ -9100,7 +9514,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="10">
         <v>411</v>
       </c>
@@ -9113,7 +9527,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="9">
         <v>412</v>
       </c>
@@ -9126,7 +9540,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="9">
         <v>413</v>
       </c>
@@ -9139,7 +9553,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="10">
         <v>414</v>
       </c>
@@ -9152,7 +9566,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="9">
         <v>415</v>
       </c>
@@ -9165,7 +9579,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9">
         <v>416</v>
       </c>
@@ -9178,7 +9592,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="10">
         <v>417</v>
       </c>
@@ -9191,7 +9605,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9">
         <v>418</v>
       </c>
@@ -9204,7 +9618,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9">
         <v>419</v>
       </c>
@@ -9217,7 +9631,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="10">
         <v>420</v>
       </c>
@@ -9230,7 +9644,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9">
         <v>421</v>
       </c>
@@ -9243,7 +9657,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9">
         <v>422</v>
       </c>
@@ -9256,7 +9670,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="10">
         <v>423</v>
       </c>
@@ -9269,7 +9683,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="9">
         <v>424</v>
       </c>
@@ -9282,7 +9696,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="9">
         <v>425</v>
       </c>
@@ -9295,7 +9709,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="10">
         <v>426</v>
       </c>
@@ -9308,7 +9722,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="9">
         <v>427</v>
       </c>
@@ -9321,7 +9735,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="9">
         <v>428</v>
       </c>
@@ -9334,7 +9748,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="10">
         <v>429</v>
       </c>
@@ -9347,7 +9761,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9">
         <v>430</v>
       </c>
@@ -9360,7 +9774,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="9">
         <v>431</v>
       </c>
@@ -9373,7 +9787,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="10">
         <v>432</v>
       </c>
@@ -9386,7 +9800,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9">
         <v>433</v>
       </c>
@@ -9399,7 +9813,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9">
         <v>434</v>
       </c>
@@ -9412,7 +9826,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="10">
         <v>435</v>
       </c>
@@ -9425,7 +9839,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="9">
         <v>436</v>
       </c>
@@ -9438,7 +9852,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9">
         <v>437</v>
       </c>
@@ -9451,7 +9865,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="10">
         <v>438</v>
       </c>
@@ -9464,7 +9878,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="9">
         <v>439</v>
       </c>
@@ -9477,7 +9891,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="9">
         <v>440</v>
       </c>
@@ -9490,7 +9904,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="10">
         <v>441</v>
       </c>
@@ -9503,7 +9917,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9">
         <v>442</v>
       </c>
@@ -9516,7 +9930,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9">
         <v>443</v>
       </c>
@@ -9529,7 +9943,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="10">
         <v>444</v>
       </c>
@@ -9542,7 +9956,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9">
         <v>445</v>
       </c>
@@ -9555,7 +9969,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9">
         <v>446</v>
       </c>
@@ -9568,7 +9982,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="10">
         <v>447</v>
       </c>
@@ -9581,7 +9995,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9">
         <v>448</v>
       </c>
@@ -9594,7 +10008,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9">
         <v>449</v>
       </c>
@@ -9607,20 +10021,22 @@
         <v>793</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="10">
         <v>450</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D451" s="1"/>
+      <c r="D451" s="13" t="s">
+        <v>1066</v>
+      </c>
       <c r="E451" s="1"/>
       <c r="F451" s="7" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9">
         <v>451</v>
       </c>
@@ -9633,7 +10049,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9">
         <v>452</v>
       </c>
@@ -9646,7 +10062,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="10">
         <v>453</v>
       </c>
@@ -9659,7 +10075,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9">
         <v>454</v>
       </c>
@@ -9672,7 +10088,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9">
         <v>455</v>
       </c>
@@ -9685,7 +10101,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="10">
         <v>456</v>
       </c>
@@ -9698,7 +10114,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9">
         <v>457</v>
       </c>
@@ -9711,7 +10127,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9">
         <v>458</v>
       </c>
@@ -9724,7 +10140,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="10">
         <v>459</v>
       </c>
@@ -9737,7 +10153,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9">
         <v>460</v>
       </c>
@@ -9750,7 +10166,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9">
         <v>461</v>
       </c>
@@ -9763,7 +10179,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="10">
         <v>462</v>
       </c>
@@ -9776,7 +10192,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9">
         <v>463</v>
       </c>
@@ -9789,7 +10205,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9">
         <v>464</v>
       </c>
@@ -9802,7 +10218,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="10">
         <v>465</v>
       </c>
@@ -9815,7 +10231,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9">
         <v>466</v>
       </c>
@@ -9828,7 +10244,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="9">
         <v>467</v>
       </c>
@@ -9841,7 +10257,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="10">
         <v>468</v>
       </c>
@@ -9854,7 +10270,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="9">
         <v>469</v>
       </c>
@@ -9867,7 +10283,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="9">
         <v>470</v>
       </c>
@@ -9880,7 +10296,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="10">
         <v>471</v>
       </c>
@@ -9893,7 +10309,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="9">
         <v>472</v>
       </c>
@@ -9906,7 +10322,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="9">
         <v>473</v>
       </c>
@@ -9919,7 +10335,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="10">
         <v>474</v>
       </c>
@@ -9932,7 +10348,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="9">
         <v>475</v>
       </c>
@@ -9945,7 +10361,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="9">
         <v>476</v>
       </c>
@@ -9958,7 +10374,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="10">
         <v>477</v>
       </c>
@@ -9971,7 +10387,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="9">
         <v>478</v>
       </c>
@@ -9984,7 +10400,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="9">
         <v>479</v>
       </c>
@@ -9997,7 +10413,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="10">
         <v>480</v>
       </c>
@@ -10010,7 +10426,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="9">
         <v>481</v>
       </c>
@@ -10023,7 +10439,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="9">
         <v>482</v>
       </c>
@@ -10036,7 +10452,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="10">
         <v>483</v>
       </c>
@@ -10049,7 +10465,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="9">
         <v>484</v>
       </c>
@@ -10062,7 +10478,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="9">
         <v>485</v>
       </c>
@@ -10075,7 +10491,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="10">
         <v>486</v>
       </c>
@@ -10088,7 +10504,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="9">
         <v>487</v>
       </c>
@@ -10101,7 +10517,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="9">
         <v>488</v>
       </c>
@@ -10114,7 +10530,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="10">
         <v>489</v>
       </c>
@@ -10127,7 +10543,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="9">
         <v>490</v>
       </c>
@@ -10140,7 +10556,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="9">
         <v>491</v>
       </c>
@@ -10153,7 +10569,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="10">
         <v>492</v>
       </c>
@@ -10166,7 +10582,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="9">
         <v>493</v>
       </c>
@@ -10179,7 +10595,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="9">
         <v>494</v>
       </c>
@@ -10192,7 +10608,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="10">
         <v>495</v>
       </c>
@@ -10205,7 +10621,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="9">
         <v>496</v>
       </c>
@@ -10218,7 +10634,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="9">
         <v>497</v>
       </c>
@@ -10231,7 +10647,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="10">
         <v>498</v>
       </c>
@@ -10244,7 +10660,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="9">
         <v>499</v>
       </c>
@@ -10257,7 +10673,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="9">
         <v>500</v>
       </c>
@@ -10270,7 +10686,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="10">
         <v>501</v>
       </c>
@@ -10283,7 +10699,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="9">
         <v>502</v>
       </c>
@@ -10296,7 +10712,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="9">
         <v>503</v>
       </c>
@@ -10309,7 +10725,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="10">
         <v>504</v>
       </c>
@@ -10322,7 +10738,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="9">
         <v>505</v>
       </c>
@@ -10335,7 +10751,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="9">
         <v>506</v>
       </c>
@@ -10348,7 +10764,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="10">
         <v>507</v>
       </c>
@@ -10361,7 +10777,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="9">
         <v>508</v>
       </c>
@@ -10374,7 +10790,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="9">
         <v>509</v>
       </c>
@@ -10387,7 +10803,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="10">
         <v>510</v>
       </c>
@@ -10400,7 +10816,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="9">
         <v>511</v>
       </c>
@@ -10413,7 +10829,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="9">
         <v>512</v>
       </c>
@@ -10426,7 +10842,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="10">
         <v>513</v>
       </c>
@@ -10439,7 +10855,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="9">
         <v>514</v>
       </c>
@@ -10452,7 +10868,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="9">
         <v>515</v>
       </c>
@@ -10465,7 +10881,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="10">
         <v>516</v>
       </c>
@@ -10478,7 +10894,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="9">
         <v>517</v>
       </c>
@@ -10491,7 +10907,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="9">
         <v>518</v>
       </c>
@@ -10504,7 +10920,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="10">
         <v>519</v>
       </c>
@@ -10517,7 +10933,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="9">
         <v>520</v>
       </c>
@@ -10530,7 +10946,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="9">
         <v>521</v>
       </c>
@@ -10543,7 +10959,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="10">
         <v>522</v>
       </c>
@@ -10556,7 +10972,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="9">
         <v>523</v>
       </c>
@@ -10569,7 +10985,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="9">
         <v>524</v>
       </c>
@@ -10582,7 +10998,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="10">
         <v>525</v>
       </c>
@@ -10595,7 +11011,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="9">
         <v>526</v>
       </c>
@@ -10608,7 +11024,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="9">
         <v>527</v>
       </c>
@@ -10621,7 +11037,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="10">
         <v>528</v>
       </c>
@@ -10634,7 +11050,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="9">
         <v>529</v>
       </c>
@@ -10647,7 +11063,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="9">
         <v>530</v>
       </c>
@@ -10660,7 +11076,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="10">
         <v>531</v>
       </c>
@@ -10673,7 +11089,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="9">
         <v>532</v>
       </c>
@@ -10686,7 +11102,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="9">
         <v>533</v>
       </c>
@@ -10699,7 +11115,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="10">
         <v>534</v>
       </c>
@@ -10712,7 +11128,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="9">
         <v>535</v>
       </c>
@@ -10725,7 +11141,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="9">
         <v>536</v>
       </c>
@@ -10738,7 +11154,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="10">
         <v>537</v>
       </c>
@@ -10751,7 +11167,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="9">
         <v>538</v>
       </c>
@@ -10764,7 +11180,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="9">
         <v>539</v>
       </c>
@@ -10777,7 +11193,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="10">
         <v>540</v>
       </c>
@@ -10790,7 +11206,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="9">
         <v>541</v>
       </c>
@@ -10803,7 +11219,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="9">
         <v>542</v>
       </c>
@@ -10816,7 +11232,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="10">
         <v>543</v>
       </c>
@@ -10829,7 +11245,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="9">
         <v>544</v>
       </c>
@@ -10842,7 +11258,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="9">
         <v>545</v>
       </c>
@@ -10855,7 +11271,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="10">
         <v>546</v>
       </c>
@@ -10868,7 +11284,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9">
         <v>547</v>
       </c>
@@ -10881,7 +11297,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9">
         <v>548</v>
       </c>
@@ -10894,7 +11310,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="10">
         <v>549</v>
       </c>
@@ -10907,7 +11323,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9">
         <v>550</v>
       </c>
@@ -10920,7 +11336,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9">
         <v>551</v>
       </c>
@@ -10937,7 +11353,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="10">
         <v>552</v>
       </c>
@@ -10950,7 +11366,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="9">
         <v>553</v>
       </c>
@@ -10963,7 +11379,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9">
         <v>554</v>
       </c>
@@ -10976,7 +11392,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="10">
         <v>555</v>
       </c>
@@ -10989,20 +11405,22 @@
         <v>620</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="9">
         <v>556</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D557" s="1"/>
+      <c r="D557" s="13" t="s">
+        <v>1063</v>
+      </c>
       <c r="E557" s="1"/>
       <c r="F557" s="7" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="9">
         <v>557</v>
       </c>
@@ -11015,20 +11433,22 @@
         <v>638</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="10">
         <v>558</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D559" s="1"/>
+      <c r="D559" s="13" t="s">
+        <v>1070</v>
+      </c>
       <c r="E559" s="1"/>
       <c r="F559" s="7" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9">
         <v>559</v>
       </c>
@@ -11041,7 +11461,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="9">
         <v>560</v>
       </c>
@@ -11054,7 +11474,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="10">
         <v>561</v>
       </c>
@@ -11067,7 +11487,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9">
         <v>562</v>
       </c>
@@ -11080,7 +11500,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="9">
         <v>563</v>
       </c>
@@ -11093,7 +11513,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="10">
         <v>564</v>
       </c>
@@ -11106,7 +11526,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9">
         <v>565</v>
       </c>
@@ -11119,20 +11539,22 @@
         <v>609</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9">
         <v>566</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D567" s="1"/>
+      <c r="D567" s="12" t="s">
+        <v>1064</v>
+      </c>
       <c r="E567" s="1"/>
       <c r="F567" s="7" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="10">
         <v>567</v>
       </c>
@@ -11145,7 +11567,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="9">
         <v>568</v>
       </c>
@@ -11158,7 +11580,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="9">
         <v>569</v>
       </c>
@@ -11171,7 +11593,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="10">
         <v>570</v>
       </c>
@@ -11184,20 +11606,22 @@
         <v>868</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="9">
         <v>571</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D572" s="1"/>
+      <c r="D572" s="12" t="s">
+        <v>1060</v>
+      </c>
       <c r="E572" s="1"/>
       <c r="F572" s="6" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9">
         <v>572</v>
       </c>
@@ -11214,7 +11638,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="10">
         <v>573</v>
       </c>
@@ -11227,7 +11651,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="9">
         <v>574</v>
       </c>
@@ -11240,7 +11664,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="9">
         <v>575</v>
       </c>
@@ -11253,7 +11677,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="10">
         <v>576</v>
       </c>
@@ -11266,7 +11690,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="9">
         <v>577</v>
       </c>
@@ -11279,7 +11703,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="9">
         <v>578</v>
       </c>
@@ -11292,7 +11716,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="10">
         <v>579</v>
       </c>
@@ -11305,7 +11729,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="9">
         <v>580</v>
       </c>
@@ -11318,7 +11742,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="9">
         <v>581</v>
       </c>
@@ -11331,7 +11755,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="10">
         <v>582</v>
       </c>
@@ -11344,7 +11768,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="9">
         <v>583</v>
       </c>
@@ -11357,7 +11781,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="9">
         <v>584</v>
       </c>
@@ -11370,7 +11794,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="10">
         <v>585</v>
       </c>
@@ -11383,7 +11807,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="9">
         <v>586</v>
       </c>
@@ -11396,7 +11820,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="9">
         <v>587</v>
       </c>
@@ -11409,7 +11833,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="10">
         <v>588</v>
       </c>
@@ -11422,7 +11846,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="9">
         <v>589</v>
       </c>
@@ -11435,7 +11859,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="9">
         <v>590</v>
       </c>
@@ -11448,7 +11872,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="10">
         <v>591</v>
       </c>
@@ -11461,7 +11885,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="9">
         <v>592</v>
       </c>
@@ -11474,7 +11898,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="9">
         <v>593</v>
       </c>
@@ -11487,7 +11911,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="10">
         <v>594</v>
       </c>
@@ -11500,20 +11924,22 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9">
         <v>595</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D596" s="1"/>
+      <c r="D596" s="13" t="s">
+        <v>1071</v>
+      </c>
       <c r="E596" s="1"/>
       <c r="F596" s="7" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="9">
         <v>596</v>
       </c>
@@ -11526,7 +11952,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="10">
         <v>597</v>
       </c>
@@ -11539,7 +11965,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="9">
         <v>598</v>
       </c>
@@ -11552,7 +11978,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="9">
         <v>599</v>
       </c>
@@ -11565,7 +11991,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="10">
         <v>600</v>
       </c>
@@ -11578,20 +12004,22 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9">
         <v>601</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D602" s="1"/>
+      <c r="D602" t="s">
+        <v>1058</v>
+      </c>
       <c r="E602" s="1"/>
       <c r="F602" s="7" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="9">
         <v>602</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinopc\Project\mn-transparency\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2EE5C-7682-4415-AD18-3A2B35C8D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6091965C-1730-4EB5-B029-2DEFEB0E8AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1074">
   <si>
     <t>ABACAXI CRISTALIZADO RODELAS</t>
   </si>
@@ -3593,13 +3593,16 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Temperos e Condimentos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -3675,7 +3678,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3716,8 +3719,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3807,9 +3810,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3847,7 +3850,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3953,7 +3956,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4095,7 +4098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4105,8 +4108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDFFF4-1065-423A-9D84-2B43E484132F}">
   <dimension ref="A1:G603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,6 +4278,9 @@
       <c r="F11" s="6" t="s">
         <v>851</v>
       </c>
+      <c r="G11" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -4341,7 +4347,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -4354,7 +4360,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -4367,7 +4373,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -4407,8 +4413,11 @@
       <c r="F21" s="6" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -4422,8 +4431,11 @@
       <c r="F22" s="6" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -4449,7 +4461,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -4462,7 +4474,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -4475,7 +4487,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -4488,7 +4500,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -4501,7 +4513,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -4514,7 +4526,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -4527,7 +4539,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -4540,7 +4552,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -5801,7 +5813,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -5814,7 +5826,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>129</v>
       </c>
@@ -5827,7 +5839,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>130</v>
       </c>
@@ -5840,7 +5852,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>131</v>
       </c>
@@ -5853,7 +5865,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -5866,7 +5878,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>133</v>
       </c>
@@ -5882,8 +5894,11 @@
       <c r="F134" s="6" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>134</v>
       </c>
@@ -5897,8 +5912,11 @@
       <c r="F135" s="6" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>135</v>
       </c>
@@ -5912,8 +5930,11 @@
       <c r="F136" s="7" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>136</v>
       </c>
@@ -5927,8 +5948,11 @@
       <c r="F137" s="7" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>137</v>
       </c>
@@ -5942,8 +5966,11 @@
       <c r="F138" s="6" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>138</v>
       </c>
@@ -5957,8 +5984,11 @@
       <c r="F139" s="7" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>139</v>
       </c>
@@ -5972,8 +6002,11 @@
       <c r="F140" s="7" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>140</v>
       </c>
@@ -5987,8 +6020,11 @@
       <c r="F141" s="7" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>141</v>
       </c>
@@ -6004,8 +6040,11 @@
       <c r="F142" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>142</v>
       </c>
@@ -6021,8 +6060,11 @@
       <c r="F143" s="6" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>143</v>
       </c>
@@ -7075,7 +7117,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>224</v>
       </c>
@@ -7088,7 +7130,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>225</v>
       </c>
@@ -7101,7 +7143,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>226</v>
       </c>
@@ -7114,7 +7156,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>227</v>
       </c>
@@ -7128,8 +7170,11 @@
       <c r="F228" s="7" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>228</v>
       </c>
@@ -7142,7 +7187,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>229</v>
       </c>
@@ -7155,7 +7200,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>230</v>
       </c>
@@ -7168,7 +7213,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>231</v>
       </c>
@@ -7181,7 +7226,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>232</v>
       </c>
@@ -7194,7 +7239,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>233</v>
       </c>
@@ -7207,7 +7252,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>234</v>
       </c>
@@ -7220,7 +7265,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9">
         <v>235</v>
       </c>
@@ -7233,7 +7278,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>236</v>
       </c>
@@ -7246,7 +7291,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10">
         <v>237</v>
       </c>
@@ -7259,7 +7304,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
         <v>238</v>
       </c>
@@ -7272,7 +7317,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
         <v>239</v>
       </c>
@@ -7285,6 +7330,9 @@
       <c r="E240" s="1"/>
       <c r="F240" s="7" t="s">
         <v>704</v>
+      </c>
+      <c r="G240" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7495,7 +7543,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
         <v>256</v>
       </c>
@@ -7508,7 +7556,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>257</v>
       </c>
@@ -7521,7 +7569,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10">
         <v>258</v>
       </c>
@@ -7534,7 +7582,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>259</v>
       </c>
@@ -7547,7 +7595,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>260</v>
       </c>
@@ -7560,7 +7608,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10">
         <v>261</v>
       </c>
@@ -7574,8 +7622,11 @@
       <c r="F262" s="6" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G262" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
         <v>262</v>
       </c>
@@ -7588,7 +7639,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
         <v>263</v>
       </c>
@@ -7601,7 +7652,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10">
         <v>264</v>
       </c>
@@ -7614,7 +7665,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
         <v>265</v>
       </c>
@@ -7627,7 +7678,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
         <v>266</v>
       </c>
@@ -7640,7 +7691,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10">
         <v>267</v>
       </c>
@@ -7653,7 +7704,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
         <v>268</v>
       </c>
@@ -7666,7 +7717,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>269</v>
       </c>
@@ -7679,7 +7730,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10">
         <v>270</v>
       </c>
@@ -7692,7 +7743,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>271</v>
       </c>
@@ -9161,7 +9212,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="10">
         <v>384</v>
       </c>
@@ -9174,7 +9225,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9">
         <v>385</v>
       </c>
@@ -9187,7 +9238,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9">
         <v>386</v>
       </c>
@@ -9201,8 +9252,11 @@
       <c r="F387" s="7" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G387" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="10">
         <v>387</v>
       </c>
@@ -9215,7 +9269,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9">
         <v>388</v>
       </c>
@@ -9228,7 +9282,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9">
         <v>389</v>
       </c>
@@ -9241,7 +9295,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="10">
         <v>390</v>
       </c>
@@ -9254,7 +9308,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9">
         <v>391</v>
       </c>
@@ -9267,7 +9321,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9">
         <v>392</v>
       </c>
@@ -9280,7 +9334,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="10">
         <v>393</v>
       </c>
@@ -9293,7 +9347,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9">
         <v>394</v>
       </c>
@@ -9306,7 +9360,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9">
         <v>395</v>
       </c>
@@ -9319,7 +9373,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="10">
         <v>396</v>
       </c>
@@ -9332,7 +9386,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9">
         <v>397</v>
       </c>
@@ -9345,7 +9399,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9">
         <v>398</v>
       </c>
@@ -9358,7 +9412,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="10">
         <v>399</v>
       </c>
@@ -9995,7 +10049,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9">
         <v>448</v>
       </c>
@@ -10008,7 +10062,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9">
         <v>449</v>
       </c>
@@ -10021,7 +10075,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="10">
         <v>450</v>
       </c>
@@ -10035,8 +10089,11 @@
       <c r="F451" s="7" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G451" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9">
         <v>451</v>
       </c>
@@ -10049,7 +10106,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9">
         <v>452</v>
       </c>
@@ -10062,7 +10119,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="10">
         <v>453</v>
       </c>
@@ -10075,7 +10132,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9">
         <v>454</v>
       </c>
@@ -10088,7 +10145,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9">
         <v>455</v>
       </c>
@@ -10101,7 +10158,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="10">
         <v>456</v>
       </c>
@@ -10114,7 +10171,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9">
         <v>457</v>
       </c>
@@ -10127,7 +10184,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9">
         <v>458</v>
       </c>
@@ -10140,7 +10197,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="10">
         <v>459</v>
       </c>
@@ -10153,7 +10210,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9">
         <v>460</v>
       </c>
@@ -10166,7 +10223,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9">
         <v>461</v>
       </c>
@@ -10179,7 +10236,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="10">
         <v>462</v>
       </c>
@@ -10192,7 +10249,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9">
         <v>463</v>
       </c>
@@ -11245,7 +11302,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="9">
         <v>544</v>
       </c>
@@ -11258,7 +11315,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="9">
         <v>545</v>
       </c>
@@ -11271,7 +11328,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="10">
         <v>546</v>
       </c>
@@ -11284,7 +11341,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9">
         <v>547</v>
       </c>
@@ -11297,7 +11354,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9">
         <v>548</v>
       </c>
@@ -11310,7 +11367,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="10">
         <v>549</v>
       </c>
@@ -11323,7 +11380,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9">
         <v>550</v>
       </c>
@@ -11336,7 +11393,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9">
         <v>551</v>
       </c>
@@ -11352,8 +11409,11 @@
       <c r="F552" s="7" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G552" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="10">
         <v>552</v>
       </c>
@@ -11366,7 +11426,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="9">
         <v>553</v>
       </c>
@@ -11379,7 +11439,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9">
         <v>554</v>
       </c>
@@ -11392,7 +11452,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="10">
         <v>555</v>
       </c>
@@ -11405,7 +11465,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="9">
         <v>556</v>
       </c>
@@ -11419,8 +11479,11 @@
       <c r="F557" s="7" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G557" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="9">
         <v>557</v>
       </c>
@@ -11433,7 +11496,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="10">
         <v>558</v>
       </c>
@@ -11447,8 +11510,11 @@
       <c r="F559" s="7" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G559" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9">
         <v>559</v>
       </c>
@@ -11461,7 +11527,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="9">
         <v>560</v>
       </c>
@@ -11474,7 +11540,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="10">
         <v>561</v>
       </c>
@@ -11487,7 +11553,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9">
         <v>562</v>
       </c>
@@ -11500,7 +11566,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="9">
         <v>563</v>
       </c>
@@ -11513,7 +11579,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="10">
         <v>564</v>
       </c>
@@ -11526,7 +11592,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9">
         <v>565</v>
       </c>
@@ -11539,7 +11605,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9">
         <v>566</v>
       </c>
@@ -11553,8 +11619,11 @@
       <c r="F567" s="7" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="568" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G567" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="10">
         <v>567</v>
       </c>
@@ -11567,7 +11636,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="9">
         <v>568</v>
       </c>
@@ -11580,7 +11649,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="9">
         <v>569</v>
       </c>
@@ -11593,7 +11662,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="10">
         <v>570</v>
       </c>
@@ -11606,7 +11675,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="9">
         <v>571</v>
       </c>
@@ -11620,8 +11689,11 @@
       <c r="F572" s="6" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="573" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G572" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9">
         <v>572</v>
       </c>
@@ -11637,8 +11709,11 @@
       <c r="F573" s="7" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="574" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G573" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="10">
         <v>573</v>
       </c>
@@ -11651,7 +11726,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="9">
         <v>574</v>
       </c>
@@ -11664,7 +11739,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="9">
         <v>575</v>
       </c>
@@ -11885,7 +11960,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="9">
         <v>592</v>
       </c>
@@ -11898,7 +11973,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="9">
         <v>593</v>
       </c>
@@ -11911,7 +11986,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="10">
         <v>594</v>
       </c>
@@ -11924,7 +11999,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9">
         <v>595</v>
       </c>
@@ -11938,8 +12013,11 @@
       <c r="F596" s="7" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="597" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G596" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="9">
         <v>596</v>
       </c>
@@ -11952,7 +12030,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="10">
         <v>597</v>
       </c>
@@ -11965,7 +12043,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="9">
         <v>598</v>
       </c>
@@ -11978,7 +12056,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="9">
         <v>599</v>
       </c>
@@ -11991,7 +12069,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="10">
         <v>600</v>
       </c>
@@ -12004,7 +12082,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9">
         <v>601</v>
       </c>
@@ -12018,8 +12096,11 @@
       <c r="F602" s="7" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="603" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G602" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="9">
         <v>602</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B55E5-4C4F-4CD0-A115-7D61C89CAEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F2E830-A9C3-41F4-84D1-ECE518354CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -4210,7 +4210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4241,10 +4241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4253,9 +4250,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4273,7 +4267,10 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4332,11 +4329,11 @@
   <tableColumns count="8">
     <tableColumn id="5" xr3:uid="{FF8F82A5-C4B1-41E0-8BCC-8D546E385492}" name="ID" dataDxfId="5"/>
     <tableColumn id="1" xr3:uid="{C73F26A4-B6BA-4D90-9754-8F106DB9E536}" name="Icon"/>
-    <tableColumn id="8" xr3:uid="{31BC2997-6C6F-42ED-BDF9-51B13E85D16E}" name="Codigo" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{2E06E125-A37C-44C1-A067-9105303F0412}" name="Detalhes" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{6B341554-3D61-464E-B0ED-CE6E6C07D258}" name="Imagem" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{31BC2997-6C6F-42ED-BDF9-51B13E85D16E}" name="Codigo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2E06E125-A37C-44C1-A067-9105303F0412}" name="Detalhes" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6B341554-3D61-464E-B0ED-CE6E6C07D258}" name="Imagem" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{42457639-E172-4F1A-9782-68AB0812D06F}" name="Categoria"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4642,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DDFFF4-1065-423A-9D84-2B43E484132F}">
   <dimension ref="A1:H608"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A589" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D614" sqref="D614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4652,7 +4649,7 @@
     <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4695,7 +4692,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>60.5</v>
       </c>
     </row>
@@ -4712,7 +4709,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>152.9</v>
       </c>
     </row>
@@ -4728,7 +4725,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>207.9</v>
       </c>
     </row>
@@ -4744,7 +4741,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>59.9</v>
       </c>
     </row>
@@ -4760,7 +4757,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>78.989999999999995</v>
       </c>
     </row>
@@ -4776,7 +4773,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>22.19</v>
       </c>
     </row>
@@ -4792,7 +4789,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>19.8</v>
       </c>
     </row>
@@ -4808,7 +4805,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>19.59</v>
       </c>
     </row>
@@ -4824,7 +4821,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>157.79</v>
       </c>
     </row>
@@ -4842,7 +4839,7 @@
         <v>621</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>75.599999999999994</v>
       </c>
       <c r="H11" t="s">
@@ -4861,7 +4858,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>143.6</v>
       </c>
     </row>
@@ -4877,7 +4874,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>118.5</v>
       </c>
     </row>
@@ -4893,7 +4890,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>143.6</v>
       </c>
     </row>
@@ -4909,7 +4906,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>162.9</v>
       </c>
     </row>
@@ -4925,7 +4922,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>135.69999999999999</v>
       </c>
     </row>
@@ -4941,7 +4938,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>47.9</v>
       </c>
     </row>
@@ -4957,7 +4954,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>29.39</v>
       </c>
     </row>
@@ -4973,7 +4970,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>22.400000000000002</v>
       </c>
     </row>
@@ -4989,7 +4986,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>70.5</v>
       </c>
     </row>
@@ -5007,7 +5004,7 @@
         <v>623</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>143.9</v>
       </c>
       <c r="H21" t="s">
@@ -5028,7 +5025,7 @@
         <v>624</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>62.89</v>
       </c>
       <c r="H22" t="s">
@@ -5047,7 +5044,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>56.480000000000004</v>
       </c>
     </row>
@@ -5063,7 +5060,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <v>25.900000000000002</v>
       </c>
     </row>
@@ -5079,7 +5076,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>116.9</v>
       </c>
     </row>
@@ -5095,7 +5092,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <v>82.99</v>
       </c>
     </row>
@@ -5111,7 +5108,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>69.290000000000006</v>
       </c>
     </row>
@@ -5127,7 +5124,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <v>129.9</v>
       </c>
     </row>
@@ -5143,7 +5140,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <v>16.39</v>
       </c>
     </row>
@@ -5159,7 +5156,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <v>81.290000000000006</v>
       </c>
     </row>
@@ -5175,7 +5172,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>66.58</v>
       </c>
     </row>
@@ -5191,7 +5188,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>139.13</v>
       </c>
     </row>
@@ -5207,7 +5204,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>59.99</v>
       </c>
     </row>
@@ -5223,7 +5220,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>131.59</v>
       </c>
     </row>
@@ -5239,7 +5236,7 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>115.99000000000001</v>
       </c>
     </row>
@@ -5255,7 +5252,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>133.99</v>
       </c>
     </row>
@@ -5271,7 +5268,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>81.39</v>
       </c>
     </row>
@@ -5287,7 +5284,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>75.989999999999995</v>
       </c>
     </row>
@@ -5303,7 +5300,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>31.990000000000002</v>
       </c>
     </row>
@@ -5319,7 +5316,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>40.99</v>
       </c>
     </row>
@@ -5335,7 +5332,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>40.99</v>
       </c>
     </row>
@@ -5351,7 +5348,7 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5367,7 +5364,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>27.69</v>
       </c>
     </row>
@@ -5383,7 +5380,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <v>29.900000000000002</v>
       </c>
     </row>
@@ -5399,7 +5396,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <v>29.900000000000002</v>
       </c>
     </row>
@@ -5415,7 +5412,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="13">
+      <c r="G46" s="12">
         <v>33.99</v>
       </c>
     </row>
@@ -5431,7 +5428,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="13">
+      <c r="G47" s="12">
         <v>37.99</v>
       </c>
     </row>
@@ -5447,7 +5444,7 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="13">
+      <c r="G48" s="12">
         <v>37.99</v>
       </c>
     </row>
@@ -5463,7 +5460,7 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="13">
+      <c r="G49" s="12">
         <v>37.99</v>
       </c>
     </row>
@@ -5479,7 +5476,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="13">
+      <c r="G50" s="12">
         <v>37.99</v>
       </c>
     </row>
@@ -5495,7 +5492,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="13">
+      <c r="G51" s="12">
         <v>37.99</v>
       </c>
     </row>
@@ -5511,7 +5508,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="13">
+      <c r="G52" s="12">
         <v>27.69</v>
       </c>
     </row>
@@ -5527,7 +5524,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="13">
+      <c r="G53" s="12">
         <v>27.69</v>
       </c>
     </row>
@@ -5543,7 +5540,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="13">
+      <c r="G54" s="12">
         <v>11.49</v>
       </c>
     </row>
@@ -5559,7 +5556,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="13">
+      <c r="G55" s="12">
         <v>181.05</v>
       </c>
     </row>
@@ -5575,7 +5572,7 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="13">
+      <c r="G56" s="12">
         <v>35.99</v>
       </c>
     </row>
@@ -5591,7 +5588,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>87.99</v>
       </c>
     </row>
@@ -5607,7 +5604,7 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="13">
+      <c r="G58" s="12">
         <v>14.02</v>
       </c>
     </row>
@@ -5623,7 +5620,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="13">
+      <c r="G59" s="12">
         <v>10.8</v>
       </c>
     </row>
@@ -5639,7 +5636,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="13">
+      <c r="G60" s="12">
         <v>15.92</v>
       </c>
     </row>
@@ -5655,7 +5652,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="13">
+      <c r="G61" s="12">
         <v>13.200000000000001</v>
       </c>
     </row>
@@ -5671,7 +5668,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="13">
+      <c r="G62" s="12">
         <v>12.99</v>
       </c>
     </row>
@@ -5687,7 +5684,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="13">
+      <c r="G63" s="12">
         <v>10.8</v>
       </c>
     </row>
@@ -5703,7 +5700,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="13">
+      <c r="G64" s="12">
         <v>15.92</v>
       </c>
     </row>
@@ -5719,7 +5716,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="13">
+      <c r="G65" s="12">
         <v>59.89</v>
       </c>
     </row>
@@ -5735,7 +5732,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="13">
+      <c r="G66" s="12">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -5751,7 +5748,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="13">
+      <c r="G67" s="12">
         <v>70.930000000000007</v>
       </c>
     </row>
@@ -5767,7 +5764,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="13">
+      <c r="G68" s="12">
         <v>42.99</v>
       </c>
     </row>
@@ -5783,7 +5780,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="13">
+      <c r="G69" s="12">
         <v>31.400000000000002</v>
       </c>
     </row>
@@ -5799,7 +5796,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="13">
+      <c r="G70" s="12">
         <v>33.229999999999997</v>
       </c>
     </row>
@@ -5815,7 +5812,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="13">
+      <c r="G71" s="12">
         <v>17.3</v>
       </c>
     </row>
@@ -5831,7 +5828,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="13">
+      <c r="G72" s="12">
         <v>39.9</v>
       </c>
     </row>
@@ -5847,7 +5844,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="13">
+      <c r="G73" s="12">
         <v>70.25</v>
       </c>
     </row>
@@ -5863,7 +5860,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="13">
+      <c r="G74" s="12">
         <v>79.5</v>
       </c>
     </row>
@@ -5879,7 +5876,7 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="13">
+      <c r="G75" s="12">
         <v>28.080000000000002</v>
       </c>
     </row>
@@ -5895,7 +5892,7 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="13">
+      <c r="G76" s="12">
         <v>15.99</v>
       </c>
     </row>
@@ -5911,7 +5908,7 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="13">
+      <c r="G77" s="12">
         <v>22.900000000000002</v>
       </c>
     </row>
@@ -5927,7 +5924,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="13">
+      <c r="G78" s="12">
         <v>182.9</v>
       </c>
     </row>
@@ -5943,7 +5940,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="13">
+      <c r="G79" s="12">
         <v>31.92</v>
       </c>
     </row>
@@ -5959,7 +5956,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="13">
+      <c r="G80" s="12">
         <v>43.99</v>
       </c>
     </row>
@@ -5975,7 +5972,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="13">
+      <c r="G81" s="12">
         <v>26.35</v>
       </c>
     </row>
@@ -5991,7 +5988,7 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="13">
+      <c r="G82" s="12">
         <v>36.99</v>
       </c>
     </row>
@@ -6007,7 +6004,7 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="13">
+      <c r="G83" s="12">
         <v>66.94</v>
       </c>
     </row>
@@ -6023,7 +6020,7 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="13">
+      <c r="G84" s="12">
         <v>66.94</v>
       </c>
     </row>
@@ -6039,7 +6036,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="13">
+      <c r="G85" s="12">
         <v>109.9</v>
       </c>
     </row>
@@ -6055,7 +6052,7 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="13">
+      <c r="G86" s="12">
         <v>77.7</v>
       </c>
     </row>
@@ -6071,7 +6068,7 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="13">
+      <c r="G87" s="12">
         <v>99.990000000000009</v>
       </c>
     </row>
@@ -6087,7 +6084,7 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="13">
+      <c r="G88" s="12">
         <v>99.990000000000009</v>
       </c>
     </row>
@@ -6103,7 +6100,7 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="13">
+      <c r="G89" s="12">
         <v>99.9</v>
       </c>
     </row>
@@ -6119,7 +6116,7 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="13">
+      <c r="G90" s="12">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -6135,7 +6132,7 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="13">
+      <c r="G91" s="12">
         <v>62.89</v>
       </c>
     </row>
@@ -6151,7 +6148,7 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="13">
+      <c r="G92" s="12">
         <v>41.85</v>
       </c>
     </row>
@@ -6167,7 +6164,7 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="13">
+      <c r="G93" s="12">
         <v>31.5</v>
       </c>
     </row>
@@ -6183,7 +6180,7 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="13">
+      <c r="G94" s="12">
         <v>2221.25</v>
       </c>
     </row>
@@ -6199,7 +6196,7 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="13">
+      <c r="G95" s="12">
         <v>175.77</v>
       </c>
     </row>
@@ -6215,7 +6212,7 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="13">
+      <c r="G96" s="12">
         <v>14.4</v>
       </c>
     </row>
@@ -6231,7 +6228,7 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="13">
+      <c r="G97" s="12">
         <v>15.99</v>
       </c>
     </row>
@@ -6247,7 +6244,7 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="13">
+      <c r="G98" s="12">
         <v>34.99</v>
       </c>
     </row>
@@ -6263,7 +6260,7 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="13">
+      <c r="G99" s="12">
         <v>32.130000000000003</v>
       </c>
     </row>
@@ -6279,7 +6276,7 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="13">
+      <c r="G100" s="12">
         <v>54.6</v>
       </c>
     </row>
@@ -6295,7 +6292,7 @@
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="13">
+      <c r="G101" s="12">
         <v>34.99</v>
       </c>
     </row>
@@ -6311,7 +6308,7 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="13">
+      <c r="G102" s="12">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -6327,7 +6324,7 @@
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="13">
+      <c r="G103" s="12">
         <v>44.9</v>
       </c>
     </row>
@@ -6343,7 +6340,7 @@
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="13">
+      <c r="G104" s="12">
         <v>36.75</v>
       </c>
     </row>
@@ -6359,7 +6356,7 @@
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="13">
+      <c r="G105" s="12">
         <v>33.75</v>
       </c>
     </row>
@@ -6375,7 +6372,7 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="13">
+      <c r="G106" s="12">
         <v>32.130000000000003</v>
       </c>
     </row>
@@ -6391,7 +6388,7 @@
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="13">
+      <c r="G107" s="12">
         <v>90.53</v>
       </c>
     </row>
@@ -6407,7 +6404,7 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="13">
+      <c r="G108" s="12">
         <v>89.9</v>
       </c>
     </row>
@@ -6423,7 +6420,7 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="13">
+      <c r="G109" s="12">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -6439,7 +6436,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="13">
+      <c r="G110" s="12">
         <v>89.9</v>
       </c>
     </row>
@@ -6455,7 +6452,7 @@
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="13">
+      <c r="G111" s="12">
         <v>42.5</v>
       </c>
     </row>
@@ -6471,7 +6468,7 @@
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="13">
+      <c r="G112" s="12">
         <v>34.99</v>
       </c>
     </row>
@@ -6487,7 +6484,7 @@
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="13">
+      <c r="G113" s="12">
         <v>33.75</v>
       </c>
     </row>
@@ -6503,7 +6500,7 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="13">
+      <c r="G114" s="12">
         <v>39.99</v>
       </c>
     </row>
@@ -6519,7 +6516,7 @@
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="13">
+      <c r="G115" s="12">
         <v>42.5</v>
       </c>
     </row>
@@ -6535,7 +6532,7 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="13">
+      <c r="G116" s="12">
         <v>39.99</v>
       </c>
     </row>
@@ -6551,7 +6548,7 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="13">
+      <c r="G117" s="12">
         <v>34.99</v>
       </c>
     </row>
@@ -6567,7 +6564,7 @@
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="13">
+      <c r="G118" s="12">
         <v>42.95</v>
       </c>
     </row>
@@ -6583,7 +6580,7 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="13">
+      <c r="G119" s="12">
         <v>34.99</v>
       </c>
     </row>
@@ -6599,7 +6596,7 @@
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="13">
+      <c r="G120" s="12">
         <v>61.99</v>
       </c>
     </row>
@@ -6615,7 +6612,7 @@
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="13">
+      <c r="G121" s="12">
         <v>63.89</v>
       </c>
     </row>
@@ -6631,7 +6628,7 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="13">
+      <c r="G122" s="12">
         <v>38.5</v>
       </c>
     </row>
@@ -6647,7 +6644,7 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="13">
+      <c r="G123" s="12">
         <v>39.99</v>
       </c>
     </row>
@@ -6663,7 +6660,7 @@
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="13">
+      <c r="G124" s="12">
         <v>34.99</v>
       </c>
     </row>
@@ -6679,7 +6676,7 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="13">
+      <c r="G125" s="12">
         <v>39.99</v>
       </c>
     </row>
@@ -6695,7 +6692,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="13">
+      <c r="G126" s="12">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -6711,7 +6708,7 @@
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="13">
+      <c r="G127" s="12">
         <v>235.9</v>
       </c>
     </row>
@@ -6727,7 +6724,7 @@
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="13">
+      <c r="G128" s="12">
         <v>83.8</v>
       </c>
     </row>
@@ -6743,7 +6740,7 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="13">
+      <c r="G129" s="12">
         <v>95.4</v>
       </c>
     </row>
@@ -6759,7 +6756,7 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="13">
+      <c r="G130" s="12">
         <v>57.120000000000005</v>
       </c>
     </row>
@@ -6775,7 +6772,7 @@
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="13">
+      <c r="G131" s="12">
         <v>183</v>
       </c>
     </row>
@@ -6791,7 +6788,7 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="13">
+      <c r="G132" s="12">
         <v>33.99</v>
       </c>
     </row>
@@ -6807,7 +6804,7 @@
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="13">
+      <c r="G133" s="12">
         <v>94.9</v>
       </c>
     </row>
@@ -6823,7 +6820,7 @@
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="13">
+      <c r="G134" s="12">
         <v>155.09</v>
       </c>
     </row>
@@ -6843,7 +6840,7 @@
       <c r="F135" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="G135" s="13">
+      <c r="G135" s="12">
         <v>15.39</v>
       </c>
       <c r="H135" t="s">
@@ -6864,7 +6861,7 @@
         <v>614</v>
       </c>
       <c r="F136" s="1"/>
-      <c r="G136" s="13">
+      <c r="G136" s="12">
         <v>19.7</v>
       </c>
       <c r="H136" t="s">
@@ -6885,7 +6882,7 @@
         <v>615</v>
       </c>
       <c r="F137" s="1"/>
-      <c r="G137" s="13">
+      <c r="G137" s="12">
         <v>15.99</v>
       </c>
       <c r="H137" t="s">
@@ -6906,7 +6903,7 @@
         <v>616</v>
       </c>
       <c r="F138" s="1"/>
-      <c r="G138" s="13">
+      <c r="G138" s="12">
         <v>14.69</v>
       </c>
       <c r="H138" t="s">
@@ -6927,7 +6924,7 @@
         <v>618</v>
       </c>
       <c r="F139" s="1"/>
-      <c r="G139" s="13">
+      <c r="G139" s="12">
         <v>15.99</v>
       </c>
       <c r="H139" t="s">
@@ -6948,7 +6945,7 @@
         <v>629</v>
       </c>
       <c r="F140" s="1"/>
-      <c r="G140" s="13">
+      <c r="G140" s="12">
         <v>14.89</v>
       </c>
       <c r="H140" t="s">
@@ -6969,7 +6966,7 @@
         <v>634</v>
       </c>
       <c r="F141" s="1"/>
-      <c r="G141" s="13">
+      <c r="G141" s="12">
         <v>15.49</v>
       </c>
       <c r="H141" t="s">
@@ -6990,7 +6987,7 @@
         <v>617</v>
       </c>
       <c r="F142" s="1"/>
-      <c r="G142" s="13">
+      <c r="G142" s="12">
         <v>14.99</v>
       </c>
       <c r="H142" t="s">
@@ -7013,7 +7010,7 @@
       <c r="F143" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G143" s="13">
+      <c r="G143" s="12">
         <v>14.700000000000001</v>
       </c>
       <c r="H143" t="s">
@@ -7036,7 +7033,7 @@
       <c r="F144" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="G144" s="13">
+      <c r="G144" s="12">
         <v>15.8</v>
       </c>
       <c r="H144" t="s">
@@ -7055,7 +7052,7 @@
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="13">
+      <c r="G145" s="12">
         <v>67.989999999999995</v>
       </c>
     </row>
@@ -7071,7 +7068,7 @@
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="13">
+      <c r="G146" s="12">
         <v>275.89999999999998</v>
       </c>
     </row>
@@ -7087,7 +7084,7 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="13">
+      <c r="G147" s="12">
         <v>24.900000000000002</v>
       </c>
     </row>
@@ -7103,7 +7100,7 @@
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="13">
+      <c r="G148" s="12">
         <v>42.99</v>
       </c>
     </row>
@@ -7119,7 +7116,7 @@
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="13">
+      <c r="G149" s="12">
         <v>131.59</v>
       </c>
     </row>
@@ -7135,7 +7132,7 @@
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="13">
+      <c r="G150" s="12">
         <v>14.9</v>
       </c>
     </row>
@@ -7151,7 +7148,7 @@
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="13">
+      <c r="G151" s="12">
         <v>31.490000000000002</v>
       </c>
     </row>
@@ -7167,7 +7164,7 @@
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="13">
+      <c r="G152" s="12">
         <v>83.9</v>
       </c>
     </row>
@@ -7183,7 +7180,7 @@
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="13">
+      <c r="G153" s="12">
         <v>12.99</v>
       </c>
     </row>
@@ -7199,7 +7196,7 @@
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="13">
+      <c r="G154" s="12">
         <v>499.90000000000003</v>
       </c>
     </row>
@@ -7215,7 +7212,7 @@
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="13">
+      <c r="G155" s="12">
         <v>349.90000000000003</v>
       </c>
     </row>
@@ -7231,7 +7228,7 @@
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="13">
+      <c r="G156" s="12">
         <v>34.89</v>
       </c>
     </row>
@@ -7247,7 +7244,7 @@
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="13">
+      <c r="G157" s="12">
         <v>20.8</v>
       </c>
     </row>
@@ -7263,7 +7260,7 @@
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="13">
+      <c r="G158" s="12">
         <v>172.19</v>
       </c>
     </row>
@@ -7279,7 +7276,7 @@
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="13">
+      <c r="G159" s="12">
         <v>106.53</v>
       </c>
     </row>
@@ -7295,7 +7292,7 @@
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="13">
+      <c r="G160" s="12">
         <v>65.77</v>
       </c>
     </row>
@@ -7311,7 +7308,7 @@
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="13">
+      <c r="G161" s="12">
         <v>214.5</v>
       </c>
     </row>
@@ -7327,7 +7324,7 @@
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="13">
+      <c r="G162" s="12">
         <v>210.99</v>
       </c>
     </row>
@@ -7343,7 +7340,7 @@
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="13">
+      <c r="G163" s="12">
         <v>132.88999999999999</v>
       </c>
     </row>
@@ -7359,7 +7356,7 @@
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="13">
+      <c r="G164" s="12">
         <v>78.790000000000006</v>
       </c>
     </row>
@@ -7375,7 +7372,7 @@
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="13">
+      <c r="G165" s="12">
         <v>78.790000000000006</v>
       </c>
     </row>
@@ -7391,7 +7388,7 @@
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="13">
+      <c r="G166" s="12">
         <v>78.790000000000006</v>
       </c>
     </row>
@@ -7407,7 +7404,7 @@
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="13">
+      <c r="G167" s="12">
         <v>78.790000000000006</v>
       </c>
     </row>
@@ -7423,7 +7420,7 @@
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="13">
+      <c r="G168" s="12">
         <v>122.9</v>
       </c>
     </row>
@@ -7439,7 +7436,7 @@
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="13">
+      <c r="G169" s="12">
         <v>139.88999999999999</v>
       </c>
     </row>
@@ -7455,7 +7452,7 @@
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="13">
+      <c r="G170" s="12">
         <v>65.900000000000006</v>
       </c>
     </row>
@@ -7471,7 +7468,7 @@
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="13">
+      <c r="G171" s="12">
         <v>132.88999999999999</v>
       </c>
     </row>
@@ -7487,7 +7484,7 @@
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="13">
+      <c r="G172" s="12">
         <v>121.49000000000001</v>
       </c>
     </row>
@@ -7503,7 +7500,7 @@
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="13">
+      <c r="G173" s="12">
         <v>121.49000000000001</v>
       </c>
     </row>
@@ -7519,7 +7516,7 @@
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="13">
+      <c r="G174" s="12">
         <v>171.99</v>
       </c>
     </row>
@@ -7535,7 +7532,7 @@
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="13">
+      <c r="G175" s="12">
         <v>130.69</v>
       </c>
     </row>
@@ -7551,7 +7548,7 @@
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="13">
+      <c r="G176" s="12">
         <v>64.900000000000006</v>
       </c>
     </row>
@@ -7567,7 +7564,7 @@
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="13">
+      <c r="G177" s="12">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -7583,7 +7580,7 @@
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="13">
+      <c r="G178" s="12">
         <v>38.99</v>
       </c>
     </row>
@@ -7599,7 +7596,7 @@
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="13">
+      <c r="G179" s="12">
         <v>38.49</v>
       </c>
     </row>
@@ -7615,7 +7612,7 @@
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="13">
+      <c r="G180" s="12">
         <v>54.79</v>
       </c>
     </row>
@@ -7631,7 +7628,7 @@
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="13">
+      <c r="G181" s="12">
         <v>60.35</v>
       </c>
     </row>
@@ -7647,7 +7644,7 @@
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="13">
+      <c r="G182" s="12">
         <v>50.93</v>
       </c>
     </row>
@@ -7663,7 +7660,7 @@
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="13">
+      <c r="G183" s="12">
         <v>44.99</v>
       </c>
     </row>
@@ -7679,7 +7676,7 @@
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="13">
+      <c r="G184" s="12">
         <v>61.5</v>
       </c>
     </row>
@@ -7695,7 +7692,7 @@
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="13">
+      <c r="G185" s="12">
         <v>90.49</v>
       </c>
     </row>
@@ -7711,7 +7708,7 @@
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="13">
+      <c r="G186" s="12">
         <v>60.99</v>
       </c>
     </row>
@@ -7727,7 +7724,7 @@
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="13">
+      <c r="G187" s="12">
         <v>101.5</v>
       </c>
     </row>
@@ -7743,7 +7740,7 @@
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="13">
+      <c r="G188" s="12">
         <v>14.6</v>
       </c>
     </row>
@@ -7759,7 +7756,7 @@
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="13">
+      <c r="G189" s="12">
         <v>32.4</v>
       </c>
     </row>
@@ -7775,7 +7772,7 @@
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="13">
+      <c r="G190" s="12">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -7791,7 +7788,7 @@
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="13">
+      <c r="G191" s="12">
         <v>199.9</v>
       </c>
     </row>
@@ -7807,7 +7804,7 @@
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="13">
+      <c r="G192" s="12">
         <v>91.4</v>
       </c>
     </row>
@@ -7823,7 +7820,7 @@
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="13">
+      <c r="G193" s="12">
         <v>31.900000000000002</v>
       </c>
     </row>
@@ -7839,7 +7836,7 @@
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="13">
+      <c r="G194" s="12">
         <v>182.70000000000002</v>
       </c>
     </row>
@@ -7855,7 +7852,7 @@
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="13">
+      <c r="G195" s="12">
         <v>199.9</v>
       </c>
     </row>
@@ -7871,7 +7868,7 @@
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="13">
+      <c r="G196" s="12">
         <v>37.99</v>
       </c>
     </row>
@@ -7887,7 +7884,7 @@
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="13">
+      <c r="G197" s="12">
         <v>27.400000000000002</v>
       </c>
     </row>
@@ -7903,7 +7900,7 @@
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="13">
+      <c r="G198" s="12">
         <v>156.49</v>
       </c>
     </row>
@@ -7919,7 +7916,7 @@
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="13">
+      <c r="G199" s="12">
         <v>133.13</v>
       </c>
     </row>
@@ -7935,7 +7932,7 @@
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="13">
+      <c r="G200" s="12">
         <v>29.990000000000002</v>
       </c>
     </row>
@@ -7951,7 +7948,7 @@
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="13">
+      <c r="G201" s="12">
         <v>68.900000000000006</v>
       </c>
     </row>
@@ -7967,7 +7964,7 @@
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="13">
+      <c r="G202" s="12">
         <v>45.89</v>
       </c>
     </row>
@@ -7983,7 +7980,7 @@
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="13">
+      <c r="G203" s="12">
         <v>68.849999999999994</v>
       </c>
     </row>
@@ -7999,7 +7996,7 @@
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="13">
+      <c r="G204" s="12">
         <v>34.19</v>
       </c>
     </row>
@@ -8015,7 +8012,7 @@
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="13">
+      <c r="G205" s="12">
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -8031,7 +8028,7 @@
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="13">
+      <c r="G206" s="12">
         <v>44.75</v>
       </c>
     </row>
@@ -8047,7 +8044,7 @@
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="13">
+      <c r="G207" s="12">
         <v>59.99</v>
       </c>
     </row>
@@ -8063,7 +8060,7 @@
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="13">
+      <c r="G208" s="12">
         <v>44.7</v>
       </c>
     </row>
@@ -8079,7 +8076,7 @@
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="13">
+      <c r="G209" s="12">
         <v>15.9</v>
       </c>
     </row>
@@ -8095,7 +8092,7 @@
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="13">
+      <c r="G210" s="12">
         <v>130.30000000000001</v>
       </c>
     </row>
@@ -8111,7 +8108,7 @@
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="13">
+      <c r="G211" s="12">
         <v>115.10000000000001</v>
       </c>
     </row>
@@ -8127,7 +8124,7 @@
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-      <c r="G212" s="13">
+      <c r="G212" s="12">
         <v>136.99</v>
       </c>
     </row>
@@ -8143,7 +8140,7 @@
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="13">
+      <c r="G213" s="12">
         <v>70.5</v>
       </c>
     </row>
@@ -8159,7 +8156,7 @@
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="13">
+      <c r="G214" s="12">
         <v>69.989999999999995</v>
       </c>
     </row>
@@ -8175,7 +8172,7 @@
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="13">
+      <c r="G215" s="12">
         <v>140.4</v>
       </c>
     </row>
@@ -8191,7 +8188,7 @@
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="13">
+      <c r="G216" s="12">
         <v>71.900000000000006</v>
       </c>
     </row>
@@ -8207,7 +8204,7 @@
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="13">
+      <c r="G217" s="12">
         <v>399.90000000000003</v>
       </c>
     </row>
@@ -8223,7 +8220,7 @@
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="13">
+      <c r="G218" s="12">
         <v>61.9</v>
       </c>
     </row>
@@ -8239,7 +8236,7 @@
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-      <c r="G219" s="13">
+      <c r="G219" s="12">
         <v>73.989999999999995</v>
       </c>
     </row>
@@ -8255,7 +8252,7 @@
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-      <c r="G220" s="13">
+      <c r="G220" s="12">
         <v>60.89</v>
       </c>
     </row>
@@ -8271,7 +8268,7 @@
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="13">
+      <c r="G221" s="12">
         <v>71.3</v>
       </c>
     </row>
@@ -8287,7 +8284,7 @@
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-      <c r="G222" s="13">
+      <c r="G222" s="12">
         <v>70.5</v>
       </c>
     </row>
@@ -8303,7 +8300,7 @@
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-      <c r="G223" s="13">
+      <c r="G223" s="12">
         <v>95.990000000000009</v>
       </c>
     </row>
@@ -8319,7 +8316,7 @@
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-      <c r="G224" s="13">
+      <c r="G224" s="12">
         <v>25.990000000000002</v>
       </c>
     </row>
@@ -8335,7 +8332,7 @@
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-      <c r="G225" s="13">
+      <c r="G225" s="12">
         <v>34.89</v>
       </c>
     </row>
@@ -8351,7 +8348,7 @@
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="13">
+      <c r="G226" s="12">
         <v>42.99</v>
       </c>
     </row>
@@ -8367,7 +8364,7 @@
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="13">
+      <c r="G227" s="12">
         <v>138.9</v>
       </c>
     </row>
@@ -8383,7 +8380,7 @@
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-      <c r="G228" s="13">
+      <c r="G228" s="12">
         <v>139.80000000000001</v>
       </c>
     </row>
@@ -8399,7 +8396,7 @@
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-      <c r="G229" s="13">
+      <c r="G229" s="12">
         <v>199.9</v>
       </c>
     </row>
@@ -8417,7 +8414,7 @@
         <v>627</v>
       </c>
       <c r="F230" s="1"/>
-      <c r="G230" s="13">
+      <c r="G230" s="12">
         <v>12.99</v>
       </c>
       <c r="H230" t="s">
@@ -8436,7 +8433,7 @@
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-      <c r="G231" s="13">
+      <c r="G231" s="12">
         <v>27.900000000000002</v>
       </c>
     </row>
@@ -8452,7 +8449,7 @@
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-      <c r="G232" s="13">
+      <c r="G232" s="12">
         <v>68.349999999999994</v>
       </c>
     </row>
@@ -8468,7 +8465,7 @@
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-      <c r="G233" s="13">
+      <c r="G233" s="12">
         <v>37.6</v>
       </c>
     </row>
@@ -8484,7 +8481,7 @@
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-      <c r="G234" s="13">
+      <c r="G234" s="12">
         <v>56.29</v>
       </c>
     </row>
@@ -8500,7 +8497,7 @@
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="13">
+      <c r="G235" s="12">
         <v>50.39</v>
       </c>
     </row>
@@ -8516,7 +8513,7 @@
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="13">
+      <c r="G236" s="12">
         <v>119.9</v>
       </c>
     </row>
@@ -8532,7 +8529,7 @@
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="13">
+      <c r="G237" s="12">
         <v>75.69</v>
       </c>
     </row>
@@ -8548,7 +8545,7 @@
       </c>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-      <c r="G238" s="13">
+      <c r="G238" s="12">
         <v>99.9</v>
       </c>
     </row>
@@ -8564,7 +8561,7 @@
       </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-      <c r="G239" s="13">
+      <c r="G239" s="12">
         <v>27.39</v>
       </c>
     </row>
@@ -8580,7 +8577,7 @@
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-      <c r="G240" s="13">
+      <c r="G240" s="12">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -8596,7 +8593,7 @@
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-      <c r="G241" s="13">
+      <c r="G241" s="12">
         <v>46.7</v>
       </c>
     </row>
@@ -8614,7 +8611,7 @@
         <v>631</v>
       </c>
       <c r="F242" s="1"/>
-      <c r="G242" s="13">
+      <c r="G242" s="12">
         <v>22.900000000000002</v>
       </c>
       <c r="H242" t="s">
@@ -8633,7 +8630,7 @@
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-      <c r="G243" s="13">
+      <c r="G243" s="12">
         <v>105.49000000000001</v>
       </c>
     </row>
@@ -8649,7 +8646,7 @@
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-      <c r="G244" s="13">
+      <c r="G244" s="12">
         <v>58.99</v>
       </c>
     </row>
@@ -8665,7 +8662,7 @@
       </c>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-      <c r="G245" s="13">
+      <c r="G245" s="12">
         <v>80.989999999999995</v>
       </c>
     </row>
@@ -8681,7 +8678,7 @@
       </c>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-      <c r="G246" s="13">
+      <c r="G246" s="12">
         <v>199.99</v>
       </c>
     </row>
@@ -8697,7 +8694,7 @@
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-      <c r="G247" s="13">
+      <c r="G247" s="12">
         <v>99.9</v>
       </c>
     </row>
@@ -8713,7 +8710,7 @@
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-      <c r="G248" s="13">
+      <c r="G248" s="12">
         <v>135.99</v>
       </c>
     </row>
@@ -8729,7 +8726,7 @@
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-      <c r="G249" s="13">
+      <c r="G249" s="12">
         <v>99.9</v>
       </c>
     </row>
@@ -8745,7 +8742,7 @@
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-      <c r="G250" s="13">
+      <c r="G250" s="12">
         <v>52.69</v>
       </c>
     </row>
@@ -8761,7 +8758,7 @@
       </c>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
-      <c r="G251" s="13">
+      <c r="G251" s="12">
         <v>113.99000000000001</v>
       </c>
     </row>
@@ -8777,7 +8774,7 @@
       </c>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
-      <c r="G252" s="13">
+      <c r="G252" s="12">
         <v>125.92</v>
       </c>
     </row>
@@ -8793,7 +8790,7 @@
       </c>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
-      <c r="G253" s="13">
+      <c r="G253" s="12">
         <v>92.69</v>
       </c>
     </row>
@@ -8809,7 +8806,7 @@
       </c>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
-      <c r="G254" s="13">
+      <c r="G254" s="12">
         <v>214.5</v>
       </c>
     </row>
@@ -8825,7 +8822,7 @@
       </c>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
-      <c r="G255" s="13">
+      <c r="G255" s="12">
         <v>144.47999999999999</v>
       </c>
     </row>
@@ -8841,7 +8838,7 @@
       </c>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
-      <c r="G256" s="13">
+      <c r="G256" s="12">
         <v>111.99000000000001</v>
       </c>
     </row>
@@ -8857,7 +8854,7 @@
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-      <c r="G257" s="13">
+      <c r="G257" s="12">
         <v>238.20000000000002</v>
       </c>
     </row>
@@ -8873,7 +8870,7 @@
       </c>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
-      <c r="G258" s="13">
+      <c r="G258" s="12">
         <v>113.99000000000001</v>
       </c>
     </row>
@@ -8889,7 +8886,7 @@
       </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
-      <c r="G259" s="13">
+      <c r="G259" s="12">
         <v>133.99</v>
       </c>
     </row>
@@ -8905,7 +8902,7 @@
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
-      <c r="G260" s="13">
+      <c r="G260" s="12">
         <v>140.4</v>
       </c>
     </row>
@@ -8921,7 +8918,7 @@
       </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
-      <c r="G261" s="13">
+      <c r="G261" s="12">
         <v>88.9</v>
       </c>
     </row>
@@ -8937,7 +8934,7 @@
       </c>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
-      <c r="G262" s="13">
+      <c r="G262" s="12">
         <v>195.97</v>
       </c>
     </row>
@@ -8953,7 +8950,7 @@
       </c>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-      <c r="G263" s="13">
+      <c r="G263" s="12">
         <v>151.47</v>
       </c>
     </row>
@@ -8971,7 +8968,7 @@
         <v>619</v>
       </c>
       <c r="F264" s="1"/>
-      <c r="G264" s="13">
+      <c r="G264" s="12">
         <v>45.99</v>
       </c>
       <c r="H264" t="s">
@@ -8990,7 +8987,7 @@
       </c>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-      <c r="G265" s="13">
+      <c r="G265" s="12">
         <v>40.99</v>
       </c>
     </row>
@@ -9006,7 +9003,7 @@
       </c>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-      <c r="G266" s="13">
+      <c r="G266" s="12">
         <v>31.63</v>
       </c>
     </row>
@@ -9022,7 +9019,7 @@
       </c>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-      <c r="G267" s="13">
+      <c r="G267" s="12">
         <v>59.99</v>
       </c>
     </row>
@@ -9038,7 +9035,7 @@
       </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-      <c r="G268" s="13">
+      <c r="G268" s="12">
         <v>21.400000000000002</v>
       </c>
     </row>
@@ -9054,7 +9051,7 @@
       </c>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-      <c r="G269" s="13">
+      <c r="G269" s="12">
         <v>144.9</v>
       </c>
     </row>
@@ -9070,7 +9067,7 @@
       </c>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-      <c r="G270" s="13">
+      <c r="G270" s="12">
         <v>54.7</v>
       </c>
     </row>
@@ -9086,7 +9083,7 @@
       </c>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-      <c r="G271" s="13">
+      <c r="G271" s="12">
         <v>12.5</v>
       </c>
     </row>
@@ -9102,7 +9099,7 @@
       </c>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-      <c r="G272" s="13">
+      <c r="G272" s="12">
         <v>17.79</v>
       </c>
     </row>
@@ -9118,7 +9115,7 @@
       </c>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-      <c r="G273" s="13">
+      <c r="G273" s="12">
         <v>101.5</v>
       </c>
     </row>
@@ -9134,7 +9131,7 @@
       </c>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-      <c r="G274" s="13">
+      <c r="G274" s="12">
         <v>40.9</v>
       </c>
     </row>
@@ -9150,7 +9147,7 @@
       </c>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-      <c r="G275" s="13">
+      <c r="G275" s="12">
         <v>52.89</v>
       </c>
     </row>
@@ -9166,7 +9163,7 @@
       </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-      <c r="G276" s="13">
+      <c r="G276" s="12">
         <v>22.67</v>
       </c>
     </row>
@@ -9182,7 +9179,7 @@
       </c>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-      <c r="G277" s="13">
+      <c r="G277" s="12">
         <v>23.67</v>
       </c>
     </row>
@@ -9198,7 +9195,7 @@
       </c>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-      <c r="G278" s="13">
+      <c r="G278" s="12">
         <v>23.67</v>
       </c>
     </row>
@@ -9214,7 +9211,7 @@
       </c>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-      <c r="G279" s="13">
+      <c r="G279" s="12">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -9230,7 +9227,7 @@
       </c>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-      <c r="G280" s="13">
+      <c r="G280" s="12">
         <v>27</v>
       </c>
     </row>
@@ -9246,7 +9243,7 @@
       </c>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-      <c r="G281" s="13">
+      <c r="G281" s="12">
         <v>29.990000000000002</v>
       </c>
     </row>
@@ -9262,7 +9259,7 @@
       </c>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-      <c r="G282" s="13">
+      <c r="G282" s="12">
         <v>18.190000000000001</v>
       </c>
     </row>
@@ -9278,7 +9275,7 @@
       </c>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-      <c r="G283" s="13">
+      <c r="G283" s="12">
         <v>28.900000000000002</v>
       </c>
     </row>
@@ -9294,7 +9291,7 @@
       </c>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-      <c r="G284" s="13">
+      <c r="G284" s="12">
         <v>22.900000000000002</v>
       </c>
     </row>
@@ -9310,7 +9307,7 @@
       </c>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-      <c r="G285" s="13">
+      <c r="G285" s="12">
         <v>50.64</v>
       </c>
     </row>
@@ -9326,7 +9323,7 @@
       </c>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="13">
+      <c r="G286" s="12">
         <v>99.9</v>
       </c>
     </row>
@@ -9342,7 +9339,7 @@
       </c>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="13">
+      <c r="G287" s="12">
         <v>137.99</v>
       </c>
     </row>
@@ -9358,7 +9355,7 @@
       </c>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="13">
+      <c r="G288" s="12">
         <v>27.69</v>
       </c>
     </row>
@@ -9374,7 +9371,7 @@
       </c>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-      <c r="G289" s="13">
+      <c r="G289" s="12">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -9390,7 +9387,7 @@
       </c>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="13">
+      <c r="G290" s="12">
         <v>20.490000000000002</v>
       </c>
     </row>
@@ -9406,7 +9403,7 @@
       </c>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="13">
+      <c r="G291" s="12">
         <v>14.200000000000001</v>
       </c>
     </row>
@@ -9422,7 +9419,7 @@
       </c>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-      <c r="G292" s="13">
+      <c r="G292" s="12">
         <v>14.99</v>
       </c>
     </row>
@@ -9438,7 +9435,7 @@
       </c>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-      <c r="G293" s="13">
+      <c r="G293" s="12">
         <v>23.900000000000002</v>
       </c>
     </row>
@@ -9454,7 +9451,7 @@
       </c>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-      <c r="G294" s="13">
+      <c r="G294" s="12">
         <v>36.99</v>
       </c>
     </row>
@@ -9470,7 +9467,7 @@
       </c>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-      <c r="G295" s="13">
+      <c r="G295" s="12">
         <v>33.99</v>
       </c>
     </row>
@@ -9486,7 +9483,7 @@
       </c>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="13">
+      <c r="G296" s="12">
         <v>83.99</v>
       </c>
     </row>
@@ -9502,7 +9499,7 @@
       </c>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-      <c r="G297" s="13">
+      <c r="G297" s="12">
         <v>74.39</v>
       </c>
     </row>
@@ -9518,7 +9515,7 @@
       </c>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-      <c r="G298" s="13">
+      <c r="G298" s="12">
         <v>32.799999999999997</v>
       </c>
     </row>
@@ -9534,7 +9531,7 @@
       </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-      <c r="G299" s="13">
+      <c r="G299" s="12">
         <v>39.9</v>
       </c>
     </row>
@@ -9550,7 +9547,7 @@
       </c>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-      <c r="G300" s="13">
+      <c r="G300" s="12">
         <v>61.99</v>
       </c>
     </row>
@@ -9566,7 +9563,7 @@
       </c>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-      <c r="G301" s="13">
+      <c r="G301" s="12">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -9582,7 +9579,7 @@
       </c>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-      <c r="G302" s="13">
+      <c r="G302" s="12">
         <v>28.8</v>
       </c>
     </row>
@@ -9598,7 +9595,7 @@
       </c>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-      <c r="G303" s="13">
+      <c r="G303" s="12">
         <v>23.69</v>
       </c>
     </row>
@@ -9614,7 +9611,7 @@
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-      <c r="G304" s="13">
+      <c r="G304" s="12">
         <v>11.700000000000001</v>
       </c>
     </row>
@@ -9630,7 +9627,7 @@
       </c>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-      <c r="G305" s="13">
+      <c r="G305" s="12">
         <v>28.25</v>
       </c>
     </row>
@@ -9646,7 +9643,7 @@
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-      <c r="G306" s="13">
+      <c r="G306" s="12">
         <v>22.3</v>
       </c>
     </row>
@@ -9662,7 +9659,7 @@
       </c>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-      <c r="G307" s="13">
+      <c r="G307" s="12">
         <v>75</v>
       </c>
     </row>
@@ -9678,7 +9675,7 @@
       </c>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-      <c r="G308" s="13">
+      <c r="G308" s="12">
         <v>25.490000000000002</v>
       </c>
     </row>
@@ -9694,7 +9691,7 @@
       </c>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-      <c r="G309" s="13">
+      <c r="G309" s="12">
         <v>24.900000000000002</v>
       </c>
     </row>
@@ -9710,7 +9707,7 @@
       </c>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-      <c r="G310" s="13">
+      <c r="G310" s="12">
         <v>44.99</v>
       </c>
     </row>
@@ -9726,7 +9723,7 @@
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-      <c r="G311" s="13">
+      <c r="G311" s="12">
         <v>33.99</v>
       </c>
     </row>
@@ -9742,7 +9739,7 @@
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-      <c r="G312" s="13">
+      <c r="G312" s="12">
         <v>15.39</v>
       </c>
     </row>
@@ -9758,7 +9755,7 @@
       </c>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-      <c r="G313" s="13">
+      <c r="G313" s="12">
         <v>15</v>
       </c>
     </row>
@@ -9774,7 +9771,7 @@
       </c>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-      <c r="G314" s="13">
+      <c r="G314" s="12">
         <v>18.690000000000001</v>
       </c>
     </row>
@@ -9790,7 +9787,7 @@
       </c>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-      <c r="G315" s="13">
+      <c r="G315" s="12">
         <v>15.5</v>
       </c>
     </row>
@@ -9806,7 +9803,7 @@
       </c>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-      <c r="G316" s="13">
+      <c r="G316" s="12">
         <v>50.4</v>
       </c>
     </row>
@@ -9822,7 +9819,7 @@
       </c>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-      <c r="G317" s="13">
+      <c r="G317" s="12">
         <v>55.19</v>
       </c>
     </row>
@@ -9838,7 +9835,7 @@
       </c>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-      <c r="G318" s="13">
+      <c r="G318" s="12">
         <v>20.39</v>
       </c>
     </row>
@@ -9854,7 +9851,7 @@
       </c>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-      <c r="G319" s="13">
+      <c r="G319" s="12">
         <v>41.85</v>
       </c>
     </row>
@@ -9870,7 +9867,7 @@
       </c>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-      <c r="G320" s="13">
+      <c r="G320" s="12">
         <v>93.15</v>
       </c>
     </row>
@@ -9886,7 +9883,7 @@
       </c>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-      <c r="G321" s="13">
+      <c r="G321" s="12">
         <v>27.69</v>
       </c>
     </row>
@@ -9902,7 +9899,7 @@
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-      <c r="G322" s="13">
+      <c r="G322" s="12">
         <v>47.88</v>
       </c>
     </row>
@@ -9918,7 +9915,7 @@
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-      <c r="G323" s="13">
+      <c r="G323" s="12">
         <v>42.5</v>
       </c>
     </row>
@@ -9934,7 +9931,7 @@
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-      <c r="G324" s="13">
+      <c r="G324" s="12">
         <v>22.900000000000002</v>
       </c>
     </row>
@@ -9950,7 +9947,7 @@
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-      <c r="G325" s="13">
+      <c r="G325" s="12">
         <v>17.75</v>
       </c>
     </row>
@@ -9966,7 +9963,7 @@
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-      <c r="G326" s="13">
+      <c r="G326" s="12">
         <v>25.8</v>
       </c>
     </row>
@@ -9982,7 +9979,7 @@
       </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-      <c r="G327" s="13">
+      <c r="G327" s="12">
         <v>25.650000000000002</v>
       </c>
     </row>
@@ -9998,7 +9995,7 @@
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-      <c r="G328" s="13">
+      <c r="G328" s="12">
         <v>13.31</v>
       </c>
     </row>
@@ -10014,7 +10011,7 @@
       </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-      <c r="G329" s="13">
+      <c r="G329" s="12">
         <v>12.14</v>
       </c>
     </row>
@@ -10030,7 +10027,7 @@
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-      <c r="G330" s="13">
+      <c r="G330" s="12">
         <v>12.18</v>
       </c>
     </row>
@@ -10046,7 +10043,7 @@
       </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-      <c r="G331" s="13">
+      <c r="G331" s="12">
         <v>22.89</v>
       </c>
     </row>
@@ -10062,7 +10059,7 @@
       </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-      <c r="G332" s="13">
+      <c r="G332" s="12">
         <v>13.99</v>
       </c>
     </row>
@@ -10078,7 +10075,7 @@
       </c>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-      <c r="G333" s="13">
+      <c r="G333" s="12">
         <v>44.99</v>
       </c>
     </row>
@@ -10094,7 +10091,7 @@
       </c>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-      <c r="G334" s="13">
+      <c r="G334" s="12">
         <v>50.79</v>
       </c>
     </row>
@@ -10110,7 +10107,7 @@
       </c>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-      <c r="G335" s="13">
+      <c r="G335" s="12">
         <v>106.9</v>
       </c>
     </row>
@@ -10126,7 +10123,7 @@
       </c>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-      <c r="G336" s="13">
+      <c r="G336" s="12">
         <v>8.4</v>
       </c>
     </row>
@@ -10142,7 +10139,7 @@
       </c>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-      <c r="G337" s="13">
+      <c r="G337" s="12">
         <v>81.69</v>
       </c>
     </row>
@@ -10158,7 +10155,7 @@
       </c>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-      <c r="G338" s="13">
+      <c r="G338" s="12">
         <v>65.69</v>
       </c>
     </row>
@@ -10174,7 +10171,7 @@
       </c>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-      <c r="G339" s="13">
+      <c r="G339" s="12">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -10190,7 +10187,7 @@
       </c>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-      <c r="G340" s="13">
+      <c r="G340" s="12">
         <v>97.5</v>
       </c>
     </row>
@@ -10206,7 +10203,7 @@
       </c>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-      <c r="G341" s="13">
+      <c r="G341" s="12">
         <v>32.99</v>
       </c>
     </row>
@@ -10222,7 +10219,7 @@
       </c>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-      <c r="G342" s="13">
+      <c r="G342" s="12">
         <v>138.9</v>
       </c>
     </row>
@@ -10238,7 +10235,7 @@
       </c>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-      <c r="G343" s="13">
+      <c r="G343" s="12">
         <v>213.8</v>
       </c>
     </row>
@@ -10254,7 +10251,7 @@
       </c>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-      <c r="G344" s="13">
+      <c r="G344" s="12">
         <v>134.9</v>
       </c>
     </row>
@@ -10270,7 +10267,7 @@
       </c>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-      <c r="G345" s="13">
+      <c r="G345" s="12">
         <v>29.69</v>
       </c>
     </row>
@@ -10286,7 +10283,7 @@
       </c>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-      <c r="G346" s="13">
+      <c r="G346" s="12">
         <v>135.9</v>
       </c>
     </row>
@@ -10302,7 +10299,7 @@
       </c>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-      <c r="G347" s="13">
+      <c r="G347" s="12">
         <v>50.99</v>
       </c>
     </row>
@@ -10318,7 +10315,7 @@
       </c>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-      <c r="G348" s="13">
+      <c r="G348" s="12">
         <v>61.29</v>
       </c>
     </row>
@@ -10334,7 +10331,7 @@
       </c>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-      <c r="G349" s="13">
+      <c r="G349" s="12">
         <v>32.99</v>
       </c>
     </row>
@@ -10350,7 +10347,7 @@
       </c>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-      <c r="G350" s="13">
+      <c r="G350" s="12">
         <v>149.80000000000001</v>
       </c>
     </row>
@@ -10366,7 +10363,7 @@
       </c>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-      <c r="G351" s="13">
+      <c r="G351" s="12">
         <v>134.80000000000001</v>
       </c>
     </row>
@@ -10382,7 +10379,7 @@
       </c>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-      <c r="G352" s="13">
+      <c r="G352" s="12">
         <v>57.9</v>
       </c>
     </row>
@@ -10398,7 +10395,7 @@
       </c>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-      <c r="G353" s="13">
+      <c r="G353" s="12">
         <v>30.900000000000002</v>
       </c>
     </row>
@@ -10414,7 +10411,7 @@
       </c>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-      <c r="G354" s="13">
+      <c r="G354" s="12">
         <v>256.5</v>
       </c>
     </row>
@@ -10430,7 +10427,7 @@
       </c>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-      <c r="G355" s="13">
+      <c r="G355" s="12">
         <v>61.5</v>
       </c>
     </row>
@@ -10446,7 +10443,7 @@
       </c>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-      <c r="G356" s="13">
+      <c r="G356" s="12">
         <v>114.25</v>
       </c>
     </row>
@@ -10462,7 +10459,7 @@
       </c>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
-      <c r="G357" s="13">
+      <c r="G357" s="12">
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -10478,7 +10475,7 @@
       </c>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
-      <c r="G358" s="13">
+      <c r="G358" s="12">
         <v>49.89</v>
       </c>
     </row>
@@ -10494,7 +10491,7 @@
       </c>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
-      <c r="G359" s="13">
+      <c r="G359" s="12">
         <v>157.9</v>
       </c>
     </row>
@@ -10510,7 +10507,7 @@
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
-      <c r="G360" s="13">
+      <c r="G360" s="12">
         <v>210.99</v>
       </c>
     </row>
@@ -10526,7 +10523,7 @@
       </c>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
-      <c r="G361" s="13">
+      <c r="G361" s="12">
         <v>134.25</v>
       </c>
     </row>
@@ -10542,7 +10539,7 @@
       </c>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
-      <c r="G362" s="13">
+      <c r="G362" s="12">
         <v>35.9</v>
       </c>
     </row>
@@ -10558,7 +10555,7 @@
       </c>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
-      <c r="G363" s="13">
+      <c r="G363" s="12">
         <v>32.11</v>
       </c>
     </row>
@@ -10574,7 +10571,7 @@
       </c>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
-      <c r="G364" s="13">
+      <c r="G364" s="12">
         <v>46.9</v>
       </c>
     </row>
@@ -10590,7 +10587,7 @@
       </c>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
-      <c r="G365" s="13">
+      <c r="G365" s="12">
         <v>57.59</v>
       </c>
     </row>
@@ -10606,7 +10603,7 @@
       </c>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
-      <c r="G366" s="13">
+      <c r="G366" s="12">
         <v>39.9</v>
       </c>
     </row>
@@ -10622,7 +10619,7 @@
       </c>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
-      <c r="G367" s="13">
+      <c r="G367" s="12">
         <v>50.4</v>
       </c>
     </row>
@@ -10638,7 +10635,7 @@
       </c>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
-      <c r="G368" s="13">
+      <c r="G368" s="12">
         <v>34.9</v>
       </c>
     </row>
@@ -10654,7 +10651,7 @@
       </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
-      <c r="G369" s="13">
+      <c r="G369" s="12">
         <v>22.8</v>
       </c>
     </row>
@@ -10670,7 +10667,7 @@
       </c>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
-      <c r="G370" s="13">
+      <c r="G370" s="12">
         <v>59.9</v>
       </c>
     </row>
@@ -10686,7 +10683,7 @@
       </c>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
-      <c r="G371" s="13">
+      <c r="G371" s="12">
         <v>35.9</v>
       </c>
     </row>
@@ -10702,7 +10699,7 @@
       </c>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
-      <c r="G372" s="13">
+      <c r="G372" s="12">
         <v>22.56</v>
       </c>
     </row>
@@ -10718,7 +10715,7 @@
       </c>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
-      <c r="G373" s="13">
+      <c r="G373" s="12">
         <v>44.82</v>
       </c>
     </row>
@@ -10734,7 +10731,7 @@
       </c>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
-      <c r="G374" s="13">
+      <c r="G374" s="12">
         <v>103.2</v>
       </c>
     </row>
@@ -10750,7 +10747,7 @@
       </c>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
-      <c r="G375" s="13">
+      <c r="G375" s="12">
         <v>76.989999999999995</v>
       </c>
     </row>
@@ -10766,7 +10763,7 @@
       </c>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
-      <c r="G376" s="13">
+      <c r="G376" s="12">
         <v>49.25</v>
       </c>
     </row>
@@ -10782,7 +10779,7 @@
       </c>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
-      <c r="G377" s="13">
+      <c r="G377" s="12">
         <v>52.5</v>
       </c>
     </row>
@@ -10798,7 +10795,7 @@
       </c>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
-      <c r="G378" s="13">
+      <c r="G378" s="12">
         <v>23.34</v>
       </c>
     </row>
@@ -10814,7 +10811,7 @@
       </c>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
-      <c r="G379" s="13">
+      <c r="G379" s="12">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -10830,7 +10827,7 @@
       </c>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
-      <c r="G380" s="13">
+      <c r="G380" s="12">
         <v>14.15</v>
       </c>
     </row>
@@ -10846,7 +10843,7 @@
       </c>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
-      <c r="G381" s="13">
+      <c r="G381" s="12">
         <v>115.99000000000001</v>
       </c>
     </row>
@@ -10862,7 +10859,7 @@
       </c>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
-      <c r="G382" s="13">
+      <c r="G382" s="12">
         <v>88.600000000000009</v>
       </c>
     </row>
@@ -10878,7 +10875,7 @@
       </c>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
-      <c r="G383" s="13">
+      <c r="G383" s="12">
         <v>210.99</v>
       </c>
     </row>
@@ -10894,7 +10891,7 @@
       </c>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
-      <c r="G384" s="13">
+      <c r="G384" s="12">
         <v>4.1900000000000004</v>
       </c>
     </row>
@@ -10910,7 +10907,7 @@
       </c>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
-      <c r="G385" s="13">
+      <c r="G385" s="12">
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -10926,7 +10923,7 @@
       </c>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
-      <c r="G386" s="13">
+      <c r="G386" s="12">
         <v>117.9</v>
       </c>
     </row>
@@ -10942,7 +10939,7 @@
       </c>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
-      <c r="G387" s="13">
+      <c r="G387" s="12">
         <v>107.9</v>
       </c>
     </row>
@@ -10958,7 +10955,7 @@
       </c>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
-      <c r="G388" s="13">
+      <c r="G388" s="12">
         <v>113.99000000000001</v>
       </c>
     </row>
@@ -10976,7 +10973,7 @@
         <v>630</v>
       </c>
       <c r="F389" s="1"/>
-      <c r="G389" s="13">
+      <c r="G389" s="12">
         <v>38.49</v>
       </c>
       <c r="H389" t="s">
@@ -10995,7 +10992,7 @@
       </c>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
-      <c r="G390" s="13">
+      <c r="G390" s="12">
         <v>43.9</v>
       </c>
     </row>
@@ -11011,7 +11008,7 @@
       </c>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
-      <c r="G391" s="13">
+      <c r="G391" s="12">
         <v>13.13</v>
       </c>
     </row>
@@ -11027,7 +11024,7 @@
       </c>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
-      <c r="G392" s="13">
+      <c r="G392" s="12">
         <v>64.19</v>
       </c>
     </row>
@@ -11043,7 +11040,7 @@
       </c>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
-      <c r="G393" s="13">
+      <c r="G393" s="12">
         <v>199.4</v>
       </c>
     </row>
@@ -11059,7 +11056,7 @@
       </c>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
-      <c r="G394" s="13">
+      <c r="G394" s="12">
         <v>54.99</v>
       </c>
     </row>
@@ -11075,7 +11072,7 @@
       </c>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
-      <c r="G395" s="13">
+      <c r="G395" s="12">
         <v>85.9</v>
       </c>
     </row>
@@ -11091,7 +11088,7 @@
       </c>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
-      <c r="G396" s="13">
+      <c r="G396" s="12">
         <v>107.9</v>
       </c>
     </row>
@@ -11107,7 +11104,7 @@
       </c>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
-      <c r="G397" s="13">
+      <c r="G397" s="12">
         <v>75.69</v>
       </c>
     </row>
@@ -11123,7 +11120,7 @@
       </c>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
-      <c r="G398" s="13">
+      <c r="G398" s="12">
         <v>36.299999999999997</v>
       </c>
     </row>
@@ -11139,7 +11136,7 @@
       </c>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
-      <c r="G399" s="13">
+      <c r="G399" s="12">
         <v>6.29</v>
       </c>
     </row>
@@ -11155,7 +11152,7 @@
       </c>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
-      <c r="G400" s="13">
+      <c r="G400" s="12">
         <v>284</v>
       </c>
     </row>
@@ -11171,7 +11168,7 @@
       </c>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
-      <c r="G401" s="13">
+      <c r="G401" s="12">
         <v>599</v>
       </c>
     </row>
@@ -11187,7 +11184,7 @@
       </c>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
-      <c r="G402" s="13">
+      <c r="G402" s="12">
         <v>63.5</v>
       </c>
     </row>
@@ -11203,7 +11200,7 @@
       </c>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
-      <c r="G403" s="13">
+      <c r="G403" s="12">
         <v>279.92</v>
       </c>
     </row>
@@ -11219,7 +11216,7 @@
       </c>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
-      <c r="G404" s="13">
+      <c r="G404" s="12">
         <v>199.9</v>
       </c>
     </row>
@@ -11235,7 +11232,7 @@
       </c>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
-      <c r="G405" s="13">
+      <c r="G405" s="12">
         <v>106.2</v>
       </c>
     </row>
@@ -11251,7 +11248,7 @@
       </c>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
-      <c r="G406" s="13">
+      <c r="G406" s="12">
         <v>47.25</v>
       </c>
     </row>
@@ -11267,7 +11264,7 @@
       </c>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
-      <c r="G407" s="13">
+      <c r="G407" s="12">
         <v>131.6</v>
       </c>
     </row>
@@ -11283,7 +11280,7 @@
       </c>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
-      <c r="G408" s="13">
+      <c r="G408" s="12">
         <v>10.9</v>
       </c>
     </row>
@@ -11299,7 +11296,7 @@
       </c>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
-      <c r="G409" s="13">
+      <c r="G409" s="12">
         <v>3.99</v>
       </c>
     </row>
@@ -11315,7 +11312,7 @@
       </c>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
-      <c r="G410" s="13">
+      <c r="G410" s="12">
         <v>95</v>
       </c>
     </row>
@@ -11331,7 +11328,7 @@
       </c>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
-      <c r="G411" s="13">
+      <c r="G411" s="12">
         <v>5.9</v>
       </c>
     </row>
@@ -11347,7 +11344,7 @@
       </c>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
-      <c r="G412" s="13">
+      <c r="G412" s="12">
         <v>121.8</v>
       </c>
     </row>
@@ -11363,7 +11360,7 @@
       </c>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
-      <c r="G413" s="13">
+      <c r="G413" s="12">
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -11379,7 +11376,7 @@
       </c>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
-      <c r="G414" s="13">
+      <c r="G414" s="12">
         <v>28.990000000000002</v>
       </c>
     </row>
@@ -11395,7 +11392,7 @@
       </c>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
-      <c r="G415" s="13">
+      <c r="G415" s="12">
         <v>167.36</v>
       </c>
     </row>
@@ -11411,7 +11408,7 @@
       </c>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
-      <c r="G416" s="13">
+      <c r="G416" s="12">
         <v>71.900000000000006</v>
       </c>
     </row>
@@ -11427,7 +11424,7 @@
       </c>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
-      <c r="G417" s="13">
+      <c r="G417" s="12">
         <v>34.65</v>
       </c>
     </row>
@@ -11443,7 +11440,7 @@
       </c>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
-      <c r="G418" s="13">
+      <c r="G418" s="12">
         <v>40.700000000000003</v>
       </c>
     </row>
@@ -11459,7 +11456,7 @@
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
-      <c r="G419" s="13">
+      <c r="G419" s="12">
         <v>228</v>
       </c>
     </row>
@@ -11475,7 +11472,7 @@
       </c>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
-      <c r="G420" s="13">
+      <c r="G420" s="12">
         <v>55.29</v>
       </c>
     </row>
@@ -11491,7 +11488,7 @@
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
-      <c r="G421" s="13">
+      <c r="G421" s="12">
         <v>10.99</v>
       </c>
     </row>
@@ -11507,7 +11504,7 @@
       </c>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
-      <c r="G422" s="13">
+      <c r="G422" s="12">
         <v>43.6</v>
       </c>
     </row>
@@ -11523,7 +11520,7 @@
       </c>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
-      <c r="G423" s="13">
+      <c r="G423" s="12">
         <v>86.99</v>
       </c>
     </row>
@@ -11539,7 +11536,7 @@
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
-      <c r="G424" s="13">
+      <c r="G424" s="12">
         <v>83.69</v>
       </c>
     </row>
@@ -11555,7 +11552,7 @@
       </c>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
-      <c r="G425" s="13">
+      <c r="G425" s="12">
         <v>129.99</v>
       </c>
     </row>
@@ -11571,7 +11568,7 @@
       </c>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
-      <c r="G426" s="13">
+      <c r="G426" s="12">
         <v>139.80000000000001</v>
       </c>
     </row>
@@ -11587,7 +11584,7 @@
       </c>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
-      <c r="G427" s="13">
+      <c r="G427" s="12">
         <v>101.5</v>
       </c>
     </row>
@@ -11603,7 +11600,7 @@
       </c>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
-      <c r="G428" s="13">
+      <c r="G428" s="12">
         <v>102.49000000000001</v>
       </c>
     </row>
@@ -11619,7 +11616,7 @@
       </c>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
-      <c r="G429" s="13">
+      <c r="G429" s="12">
         <v>177.99</v>
       </c>
     </row>
@@ -11635,7 +11632,7 @@
       </c>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
-      <c r="G430" s="13">
+      <c r="G430" s="12">
         <v>132</v>
       </c>
     </row>
@@ -11651,7 +11648,7 @@
       </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
-      <c r="G431" s="13">
+      <c r="G431" s="12">
         <v>73.900000000000006</v>
       </c>
     </row>
@@ -11667,7 +11664,7 @@
       </c>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
-      <c r="G432" s="13">
+      <c r="G432" s="12">
         <v>95.9</v>
       </c>
     </row>
@@ -11683,7 +11680,7 @@
       </c>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
-      <c r="G433" s="13">
+      <c r="G433" s="12">
         <v>59.99</v>
       </c>
     </row>
@@ -11699,7 +11696,7 @@
       </c>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
-      <c r="G434" s="13">
+      <c r="G434" s="12">
         <v>65.89</v>
       </c>
     </row>
@@ -11715,7 +11712,7 @@
       </c>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
-      <c r="G435" s="13">
+      <c r="G435" s="12">
         <v>82.79</v>
       </c>
     </row>
@@ -11731,7 +11728,7 @@
       </c>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
-      <c r="G436" s="13">
+      <c r="G436" s="12">
         <v>0</v>
       </c>
     </row>
@@ -11747,7 +11744,7 @@
       </c>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
-      <c r="G437" s="13">
+      <c r="G437" s="12">
         <v>52.49</v>
       </c>
     </row>
@@ -11763,7 +11760,7 @@
       </c>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
-      <c r="G438" s="13">
+      <c r="G438" s="12">
         <v>23.67</v>
       </c>
     </row>
@@ -11779,7 +11776,7 @@
       </c>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
-      <c r="G439" s="13">
+      <c r="G439" s="12">
         <v>133.4</v>
       </c>
     </row>
@@ -11795,7 +11792,7 @@
       </c>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
-      <c r="G440" s="13">
+      <c r="G440" s="12">
         <v>99.9</v>
       </c>
     </row>
@@ -11811,7 +11808,7 @@
       </c>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
-      <c r="G441" s="13">
+      <c r="G441" s="12">
         <v>88.9</v>
       </c>
     </row>
@@ -11827,7 +11824,7 @@
       </c>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
-      <c r="G442" s="13">
+      <c r="G442" s="12">
         <v>197.79</v>
       </c>
     </row>
@@ -11843,7 +11840,7 @@
       </c>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
-      <c r="G443" s="13">
+      <c r="G443" s="12">
         <v>49.99</v>
       </c>
     </row>
@@ -11859,7 +11856,7 @@
       </c>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
-      <c r="G444" s="13">
+      <c r="G444" s="12">
         <v>127.29</v>
       </c>
     </row>
@@ -11875,7 +11872,7 @@
       </c>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
-      <c r="G445" s="13">
+      <c r="G445" s="12">
         <v>137.80000000000001</v>
       </c>
     </row>
@@ -11891,7 +11888,7 @@
       </c>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
-      <c r="G446" s="13">
+      <c r="G446" s="12">
         <v>108.39</v>
       </c>
     </row>
@@ -11907,7 +11904,7 @@
       </c>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
-      <c r="G447" s="13">
+      <c r="G447" s="12">
         <v>109.45</v>
       </c>
     </row>
@@ -11923,7 +11920,7 @@
       </c>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
-      <c r="G448" s="13">
+      <c r="G448" s="12">
         <v>68.989999999999995</v>
       </c>
     </row>
@@ -11939,7 +11936,7 @@
       </c>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
-      <c r="G449" s="13">
+      <c r="G449" s="12">
         <v>91.99</v>
       </c>
     </row>
@@ -11955,7 +11952,7 @@
       </c>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
-      <c r="G450" s="13">
+      <c r="G450" s="12">
         <v>75</v>
       </c>
     </row>
@@ -11971,7 +11968,7 @@
       </c>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
-      <c r="G451" s="13">
+      <c r="G451" s="12">
         <v>58.980000000000004</v>
       </c>
     </row>
@@ -11987,7 +11984,7 @@
       </c>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
-      <c r="G452" s="13">
+      <c r="G452" s="12">
         <v>44.9</v>
       </c>
     </row>
@@ -12003,7 +12000,7 @@
       </c>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
-      <c r="G453" s="13">
+      <c r="G453" s="12">
         <v>34.99</v>
       </c>
     </row>
@@ -12021,7 +12018,7 @@
         <v>628</v>
       </c>
       <c r="F454" s="1"/>
-      <c r="G454" s="13">
+      <c r="G454" s="12">
         <v>28.900000000000002</v>
       </c>
       <c r="H454" t="s">
@@ -12040,7 +12037,7 @@
       </c>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
-      <c r="G455" s="13">
+      <c r="G455" s="12">
         <v>29.990000000000002</v>
       </c>
     </row>
@@ -12056,7 +12053,7 @@
       </c>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
-      <c r="G456" s="13">
+      <c r="G456" s="12">
         <v>83.29</v>
       </c>
     </row>
@@ -12072,7 +12069,7 @@
       </c>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
-      <c r="G457" s="13">
+      <c r="G457" s="12">
         <v>33.49</v>
       </c>
     </row>
@@ -12088,7 +12085,7 @@
       </c>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
-      <c r="G458" s="13">
+      <c r="G458" s="12">
         <v>87.39</v>
       </c>
     </row>
@@ -12104,7 +12101,7 @@
       </c>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
-      <c r="G459" s="13">
+      <c r="G459" s="12">
         <v>49.95</v>
       </c>
     </row>
@@ -12120,7 +12117,7 @@
       </c>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
-      <c r="G460" s="13">
+      <c r="G460" s="12">
         <v>43.980000000000004</v>
       </c>
     </row>
@@ -12136,7 +12133,7 @@
       </c>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
-      <c r="G461" s="13">
+      <c r="G461" s="12">
         <v>58.99</v>
       </c>
     </row>
@@ -12152,7 +12149,7 @@
       </c>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
-      <c r="G462" s="13">
+      <c r="G462" s="12">
         <v>139</v>
       </c>
     </row>
@@ -12168,7 +12165,7 @@
       </c>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
-      <c r="G463" s="13">
+      <c r="G463" s="12">
         <v>23.67</v>
       </c>
     </row>
@@ -12184,7 +12181,7 @@
       </c>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
-      <c r="G464" s="13">
+      <c r="G464" s="12">
         <v>13.99</v>
       </c>
     </row>
@@ -12200,7 +12197,7 @@
       </c>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
-      <c r="G465" s="13">
+      <c r="G465" s="12">
         <v>124.9</v>
       </c>
     </row>
@@ -12216,7 +12213,7 @@
       </c>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
-      <c r="G466" s="13">
+      <c r="G466" s="12">
         <v>67.83</v>
       </c>
     </row>
@@ -12232,7 +12229,7 @@
       </c>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
-      <c r="G467" s="13">
+      <c r="G467" s="12">
         <v>179.9</v>
       </c>
     </row>
@@ -12248,7 +12245,7 @@
       </c>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
-      <c r="G468" s="13">
+      <c r="G468" s="12">
         <v>225.9</v>
       </c>
     </row>
@@ -12264,7 +12261,7 @@
       </c>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
-      <c r="G469" s="13">
+      <c r="G469" s="12">
         <v>41.9</v>
       </c>
     </row>
@@ -12280,7 +12277,7 @@
       </c>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
-      <c r="G470" s="13">
+      <c r="G470" s="12">
         <v>72.69</v>
       </c>
     </row>
@@ -12296,7 +12293,7 @@
       </c>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
-      <c r="G471" s="13">
+      <c r="G471" s="12">
         <v>69.790000000000006</v>
       </c>
     </row>
@@ -12312,7 +12309,7 @@
       </c>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
-      <c r="G472" s="13">
+      <c r="G472" s="12">
         <v>72.599999999999994</v>
       </c>
     </row>
@@ -12328,7 +12325,7 @@
       </c>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
-      <c r="G473" s="13">
+      <c r="G473" s="12">
         <v>87.99</v>
       </c>
     </row>
@@ -12344,7 +12341,7 @@
       </c>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
-      <c r="G474" s="13">
+      <c r="G474" s="12">
         <v>144.88999999999999</v>
       </c>
     </row>
@@ -12360,7 +12357,7 @@
       </c>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
-      <c r="G475" s="13">
+      <c r="G475" s="12">
         <v>25.990000000000002</v>
       </c>
     </row>
@@ -12376,7 +12373,7 @@
       </c>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
-      <c r="G476" s="13">
+      <c r="G476" s="12">
         <v>131.19</v>
       </c>
     </row>
@@ -12392,7 +12389,7 @@
       </c>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
-      <c r="G477" s="13">
+      <c r="G477" s="12">
         <v>20.3</v>
       </c>
     </row>
@@ -12408,7 +12405,7 @@
       </c>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
-      <c r="G478" s="13">
+      <c r="G478" s="12">
         <v>227.9</v>
       </c>
     </row>
@@ -12424,7 +12421,7 @@
       </c>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
-      <c r="G479" s="13">
+      <c r="G479" s="12">
         <v>186.49</v>
       </c>
     </row>
@@ -12440,7 +12437,7 @@
       </c>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
-      <c r="G480" s="13">
+      <c r="G480" s="12">
         <v>374.7</v>
       </c>
     </row>
@@ -12456,7 +12453,7 @@
       </c>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
-      <c r="G481" s="13">
+      <c r="G481" s="12">
         <v>19.989999999999998</v>
       </c>
     </row>
@@ -12472,7 +12469,7 @@
       </c>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
-      <c r="G482" s="13">
+      <c r="G482" s="12">
         <v>15.99</v>
       </c>
     </row>
@@ -12488,7 +12485,7 @@
       </c>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
-      <c r="G483" s="13">
+      <c r="G483" s="12">
         <v>103.85000000000001</v>
       </c>
     </row>
@@ -12504,7 +12501,7 @@
       </c>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
-      <c r="G484" s="13">
+      <c r="G484" s="12">
         <v>75.86</v>
       </c>
     </row>
@@ -12520,7 +12517,7 @@
       </c>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
-      <c r="G485" s="13">
+      <c r="G485" s="12">
         <v>53.9</v>
       </c>
     </row>
@@ -12536,7 +12533,7 @@
       </c>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
-      <c r="G486" s="13">
+      <c r="G486" s="12">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -12552,7 +12549,7 @@
       </c>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
-      <c r="G487" s="13">
+      <c r="G487" s="12">
         <v>97.8</v>
       </c>
     </row>
@@ -12568,7 +12565,7 @@
       </c>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
-      <c r="G488" s="13">
+      <c r="G488" s="12">
         <v>27.900000000000002</v>
       </c>
     </row>
@@ -12584,7 +12581,7 @@
       </c>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
-      <c r="G489" s="13">
+      <c r="G489" s="12">
         <v>37.5</v>
       </c>
     </row>
@@ -12600,7 +12597,7 @@
       </c>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
-      <c r="G490" s="13">
+      <c r="G490" s="12">
         <v>27.490000000000002</v>
       </c>
     </row>
@@ -12616,7 +12613,7 @@
       </c>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
-      <c r="G491" s="13">
+      <c r="G491" s="12">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -12632,7 +12629,7 @@
       </c>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
-      <c r="G492" s="13">
+      <c r="G492" s="12">
         <v>93.3</v>
       </c>
     </row>
@@ -12648,7 +12645,7 @@
       </c>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
-      <c r="G493" s="13">
+      <c r="G493" s="12">
         <v>99.9</v>
       </c>
     </row>
@@ -12664,7 +12661,7 @@
       </c>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
-      <c r="G494" s="13">
+      <c r="G494" s="12">
         <v>59.99</v>
       </c>
     </row>
@@ -12680,7 +12677,7 @@
       </c>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
-      <c r="G495" s="13">
+      <c r="G495" s="12">
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -12696,7 +12693,7 @@
       </c>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
-      <c r="G496" s="13">
+      <c r="G496" s="12">
         <v>75</v>
       </c>
     </row>
@@ -12712,7 +12709,7 @@
       </c>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
-      <c r="G497" s="13">
+      <c r="G497" s="12">
         <v>199.9</v>
       </c>
     </row>
@@ -12728,7 +12725,7 @@
       </c>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
-      <c r="G498" s="13">
+      <c r="G498" s="12">
         <v>50.4</v>
       </c>
     </row>
@@ -12744,7 +12741,7 @@
       </c>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
-      <c r="G499" s="13">
+      <c r="G499" s="12">
         <v>30.35</v>
       </c>
     </row>
@@ -12760,7 +12757,7 @@
       </c>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
-      <c r="G500" s="13">
+      <c r="G500" s="12">
         <v>33.5</v>
       </c>
     </row>
@@ -12776,7 +12773,7 @@
       </c>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
-      <c r="G501" s="13">
+      <c r="G501" s="12">
         <v>67.2</v>
       </c>
     </row>
@@ -12792,7 +12789,7 @@
       </c>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
-      <c r="G502" s="13">
+      <c r="G502" s="12">
         <v>81.040000000000006</v>
       </c>
     </row>
@@ -12808,7 +12805,7 @@
       </c>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
-      <c r="G503" s="13">
+      <c r="G503" s="12">
         <v>26.42</v>
       </c>
     </row>
@@ -12824,7 +12821,7 @@
       </c>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
-      <c r="G504" s="13">
+      <c r="G504" s="12">
         <v>57.120000000000005</v>
       </c>
     </row>
@@ -12840,7 +12837,7 @@
       </c>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
-      <c r="G505" s="13">
+      <c r="G505" s="12">
         <v>23</v>
       </c>
     </row>
@@ -12856,7 +12853,7 @@
       </c>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
-      <c r="G506" s="13">
+      <c r="G506" s="12">
         <v>87.9</v>
       </c>
     </row>
@@ -12872,7 +12869,7 @@
       </c>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
-      <c r="G507" s="13">
+      <c r="G507" s="12">
         <v>58.7</v>
       </c>
     </row>
@@ -12888,7 +12885,7 @@
       </c>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
-      <c r="G508" s="13">
+      <c r="G508" s="12">
         <v>199.9</v>
       </c>
     </row>
@@ -12904,7 +12901,7 @@
       </c>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
-      <c r="G509" s="13">
+      <c r="G509" s="12">
         <v>58.160000000000004</v>
       </c>
     </row>
@@ -12920,7 +12917,7 @@
       </c>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
-      <c r="G510" s="13">
+      <c r="G510" s="12">
         <v>41.4</v>
       </c>
     </row>
@@ -12936,7 +12933,7 @@
       </c>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
-      <c r="G511" s="13">
+      <c r="G511" s="12">
         <v>50.99</v>
       </c>
     </row>
@@ -12952,7 +12949,7 @@
       </c>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
-      <c r="G512" s="13">
+      <c r="G512" s="12">
         <v>47.25</v>
       </c>
     </row>
@@ -12968,7 +12965,7 @@
       </c>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
-      <c r="G513" s="13">
+      <c r="G513" s="12">
         <v>46.800000000000004</v>
       </c>
     </row>
@@ -12984,7 +12981,7 @@
       </c>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
-      <c r="G514" s="13">
+      <c r="G514" s="12">
         <v>32.36</v>
       </c>
     </row>
@@ -13000,7 +12997,7 @@
       </c>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
-      <c r="G515" s="13">
+      <c r="G515" s="12">
         <v>32.36</v>
       </c>
     </row>
@@ -13016,7 +13013,7 @@
       </c>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
-      <c r="G516" s="13">
+      <c r="G516" s="12">
         <v>13.55</v>
       </c>
     </row>
@@ -13032,7 +13029,7 @@
       </c>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
-      <c r="G517" s="13">
+      <c r="G517" s="12">
         <v>337.90000000000003</v>
       </c>
     </row>
@@ -13048,7 +13045,7 @@
       </c>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
-      <c r="G518" s="13">
+      <c r="G518" s="12">
         <v>28.79</v>
       </c>
     </row>
@@ -13064,7 +13061,7 @@
       </c>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
-      <c r="G519" s="13">
+      <c r="G519" s="12">
         <v>5.29</v>
       </c>
     </row>
@@ -13080,7 +13077,7 @@
       </c>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
-      <c r="G520" s="13">
+      <c r="G520" s="12">
         <v>10.39</v>
       </c>
     </row>
@@ -13096,7 +13093,7 @@
       </c>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
-      <c r="G521" s="13">
+      <c r="G521" s="12">
         <v>7.83</v>
       </c>
     </row>
@@ -13112,7 +13109,7 @@
       </c>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
-      <c r="G522" s="13">
+      <c r="G522" s="12">
         <v>8.99</v>
       </c>
     </row>
@@ -13128,7 +13125,7 @@
       </c>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
-      <c r="G523" s="13">
+      <c r="G523" s="12">
         <v>6</v>
       </c>
     </row>
@@ -13144,7 +13141,7 @@
       </c>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
-      <c r="G524" s="13">
+      <c r="G524" s="12">
         <v>15.99</v>
       </c>
     </row>
@@ -13160,7 +13157,7 @@
       </c>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
-      <c r="G525" s="13">
+      <c r="G525" s="12">
         <v>5.5</v>
       </c>
     </row>
@@ -13176,7 +13173,7 @@
       </c>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
-      <c r="G526" s="13">
+      <c r="G526" s="12">
         <v>13.6</v>
       </c>
     </row>
@@ -13192,7 +13189,7 @@
       </c>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
-      <c r="G527" s="13">
+      <c r="G527" s="12">
         <v>37.61</v>
       </c>
     </row>
@@ -13208,7 +13205,7 @@
       </c>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
-      <c r="G528" s="13">
+      <c r="G528" s="12">
         <v>11.49</v>
       </c>
     </row>
@@ -13224,7 +13221,7 @@
       </c>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
-      <c r="G529" s="13">
+      <c r="G529" s="12">
         <v>9.99</v>
       </c>
     </row>
@@ -13240,7 +13237,7 @@
       </c>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
-      <c r="G530" s="13">
+      <c r="G530" s="12">
         <v>55.49</v>
       </c>
     </row>
@@ -13256,7 +13253,7 @@
       </c>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
-      <c r="G531" s="13">
+      <c r="G531" s="12">
         <v>31.900000000000002</v>
       </c>
     </row>
@@ -13272,7 +13269,7 @@
       </c>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
-      <c r="G532" s="13">
+      <c r="G532" s="12">
         <v>55.7</v>
       </c>
     </row>
@@ -13288,7 +13285,7 @@
       </c>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
-      <c r="G533" s="13">
+      <c r="G533" s="12">
         <v>74.89</v>
       </c>
     </row>
@@ -13304,7 +13301,7 @@
       </c>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
-      <c r="G534" s="13">
+      <c r="G534" s="12">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -13320,7 +13317,7 @@
       </c>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
-      <c r="G535" s="13">
+      <c r="G535" s="12">
         <v>36.49</v>
       </c>
     </row>
@@ -13336,7 +13333,7 @@
       </c>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
-      <c r="G536" s="13">
+      <c r="G536" s="12">
         <v>74.67</v>
       </c>
     </row>
@@ -13352,7 +13349,7 @@
       </c>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
-      <c r="G537" s="13">
+      <c r="G537" s="12">
         <v>24.36</v>
       </c>
     </row>
@@ -13368,7 +13365,7 @@
       </c>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
-      <c r="G538" s="13">
+      <c r="G538" s="12">
         <v>17.98</v>
       </c>
     </row>
@@ -13384,7 +13381,7 @@
       </c>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
-      <c r="G539" s="13">
+      <c r="G539" s="12">
         <v>49.39</v>
       </c>
     </row>
@@ -13400,7 +13397,7 @@
       </c>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
-      <c r="G540" s="13">
+      <c r="G540" s="12">
         <v>19.45</v>
       </c>
     </row>
@@ -13416,7 +13413,7 @@
       </c>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
-      <c r="G541" s="13">
+      <c r="G541" s="12">
         <v>188.9</v>
       </c>
     </row>
@@ -13432,7 +13429,7 @@
       </c>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
-      <c r="G542" s="13">
+      <c r="G542" s="12">
         <v>20.79</v>
       </c>
     </row>
@@ -13448,7 +13445,7 @@
       </c>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
-      <c r="G543" s="13">
+      <c r="G543" s="12">
         <v>24.01</v>
       </c>
     </row>
@@ -13464,7 +13461,7 @@
       </c>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
-      <c r="G544" s="13">
+      <c r="G544" s="12">
         <v>46.62</v>
       </c>
     </row>
@@ -13480,7 +13477,7 @@
       </c>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
-      <c r="G545" s="13">
+      <c r="G545" s="12">
         <v>5.78</v>
       </c>
     </row>
@@ -13496,7 +13493,7 @@
       </c>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
-      <c r="G546" s="13">
+      <c r="G546" s="12">
         <v>13.23</v>
       </c>
     </row>
@@ -13512,7 +13509,7 @@
       </c>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
-      <c r="G547" s="13">
+      <c r="G547" s="12">
         <v>112.5</v>
       </c>
     </row>
@@ -13528,7 +13525,7 @@
       </c>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
-      <c r="G548" s="13">
+      <c r="G548" s="12">
         <v>41.13</v>
       </c>
     </row>
@@ -13544,7 +13541,7 @@
       </c>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
-      <c r="G549" s="13">
+      <c r="G549" s="12">
         <v>5.99</v>
       </c>
     </row>
@@ -13560,7 +13557,7 @@
       </c>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
-      <c r="G550" s="13">
+      <c r="G550" s="12">
         <v>55.99</v>
       </c>
     </row>
@@ -13576,7 +13573,7 @@
       </c>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
-      <c r="G551" s="13">
+      <c r="G551" s="12">
         <v>44.99</v>
       </c>
     </row>
@@ -13592,7 +13589,7 @@
       </c>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
-      <c r="G552" s="13">
+      <c r="G552" s="12">
         <v>76.95</v>
       </c>
     </row>
@@ -13608,7 +13605,7 @@
       </c>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
-      <c r="G553" s="13">
+      <c r="G553" s="12">
         <v>21.59</v>
       </c>
     </row>
@@ -13624,7 +13621,7 @@
       </c>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
-      <c r="G554" s="13">
+      <c r="G554" s="12">
         <v>37.43</v>
       </c>
     </row>
@@ -13640,7 +13637,7 @@
       </c>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
-      <c r="G555" s="13">
+      <c r="G555" s="12">
         <v>41.79</v>
       </c>
     </row>
@@ -13656,7 +13653,7 @@
       </c>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
-      <c r="G556" s="13">
+      <c r="G556" s="12">
         <v>19.59</v>
       </c>
     </row>
@@ -13676,7 +13673,7 @@
       <c r="F557" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G557" s="13">
+      <c r="G557" s="12">
         <v>56.99</v>
       </c>
       <c r="H557" t="s">
@@ -13695,7 +13692,7 @@
       </c>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
-      <c r="G558" s="13">
+      <c r="G558" s="12">
         <v>61.800000000000004</v>
       </c>
     </row>
@@ -13711,7 +13708,7 @@
       </c>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
-      <c r="G559" s="13">
+      <c r="G559" s="12">
         <v>51.99</v>
       </c>
     </row>
@@ -13727,7 +13724,7 @@
       </c>
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
-      <c r="G560" s="13">
+      <c r="G560" s="12">
         <v>43.800000000000004</v>
       </c>
     </row>
@@ -13743,7 +13740,7 @@
       </c>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
-      <c r="G561" s="13">
+      <c r="G561" s="12">
         <v>48.19</v>
       </c>
     </row>
@@ -13761,7 +13758,7 @@
         <v>625</v>
       </c>
       <c r="F562" s="1"/>
-      <c r="G562" s="13">
+      <c r="G562" s="12">
         <v>51.9</v>
       </c>
       <c r="H562" t="s">
@@ -13780,7 +13777,7 @@
       </c>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
-      <c r="G563" s="13">
+      <c r="G563" s="12">
         <v>44.19</v>
       </c>
     </row>
@@ -13798,7 +13795,7 @@
         <v>632</v>
       </c>
       <c r="F564" s="1"/>
-      <c r="G564" s="13">
+      <c r="G564" s="12">
         <v>46.99</v>
       </c>
       <c r="H564" t="s">
@@ -13817,7 +13814,7 @@
       </c>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
-      <c r="G565" s="13">
+      <c r="G565" s="12">
         <v>41.99</v>
       </c>
     </row>
@@ -13833,7 +13830,7 @@
       </c>
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
-      <c r="G566" s="13">
+      <c r="G566" s="12">
         <v>43.99</v>
       </c>
     </row>
@@ -13849,7 +13846,7 @@
       </c>
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
-      <c r="G567" s="13">
+      <c r="G567" s="12">
         <v>39.9</v>
       </c>
     </row>
@@ -13865,7 +13862,7 @@
       </c>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
-      <c r="G568" s="13">
+      <c r="G568" s="12">
         <v>39.99</v>
       </c>
     </row>
@@ -13881,7 +13878,7 @@
       </c>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
-      <c r="G569" s="13">
+      <c r="G569" s="12">
         <v>58.7</v>
       </c>
     </row>
@@ -13897,7 +13894,7 @@
       </c>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
-      <c r="G570" s="13">
+      <c r="G570" s="12">
         <v>45.4</v>
       </c>
     </row>
@@ -13913,7 +13910,7 @@
       </c>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
-      <c r="G571" s="13">
+      <c r="G571" s="12">
         <v>24.990000000000002</v>
       </c>
     </row>
@@ -13931,7 +13928,7 @@
         <v>626</v>
       </c>
       <c r="F572" s="1"/>
-      <c r="G572" s="13">
+      <c r="G572" s="12">
         <v>26.990000000000002</v>
       </c>
       <c r="H572" t="s">
@@ -13950,7 +13947,7 @@
       </c>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
-      <c r="G573" s="13">
+      <c r="G573" s="12">
         <v>44.6</v>
       </c>
     </row>
@@ -13966,7 +13963,7 @@
       </c>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
-      <c r="G574" s="13">
+      <c r="G574" s="12">
         <v>52.9</v>
       </c>
     </row>
@@ -13982,7 +13979,7 @@
       </c>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
-      <c r="G575" s="13">
+      <c r="G575" s="12">
         <v>25.25</v>
       </c>
     </row>
@@ -13998,7 +13995,7 @@
       </c>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
-      <c r="G576" s="13">
+      <c r="G576" s="12">
         <v>35.9</v>
       </c>
     </row>
@@ -14016,7 +14013,7 @@
         <v>622</v>
       </c>
       <c r="F577" s="1"/>
-      <c r="G577" s="13">
+      <c r="G577" s="12">
         <v>73.150000000000006</v>
       </c>
       <c r="H577" t="s">
@@ -14039,7 +14036,7 @@
       <c r="F578" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G578" s="13">
+      <c r="G578" s="12">
         <v>59.99</v>
       </c>
       <c r="H578" t="s">
@@ -14058,7 +14055,7 @@
       </c>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
-      <c r="G579" s="13">
+      <c r="G579" s="12">
         <v>29.8</v>
       </c>
     </row>
@@ -14074,7 +14071,7 @@
       </c>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
-      <c r="G580" s="13">
+      <c r="G580" s="12">
         <v>198.9</v>
       </c>
     </row>
@@ -14090,7 +14087,7 @@
       </c>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
-      <c r="G581" s="13">
+      <c r="G581" s="12">
         <v>73.150000000000006</v>
       </c>
     </row>
@@ -14106,7 +14103,7 @@
       </c>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
-      <c r="G582" s="13">
+      <c r="G582" s="12">
         <v>30.990000000000002</v>
       </c>
     </row>
@@ -14122,7 +14119,7 @@
       </c>
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
-      <c r="G583" s="13">
+      <c r="G583" s="12">
         <v>49.25</v>
       </c>
     </row>
@@ -14138,7 +14135,7 @@
       </c>
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
-      <c r="G584" s="13">
+      <c r="G584" s="12">
         <v>99.7</v>
       </c>
     </row>
@@ -14154,7 +14151,7 @@
       </c>
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
-      <c r="G585" s="13">
+      <c r="G585" s="12">
         <v>27.990000000000002</v>
       </c>
     </row>
@@ -14170,7 +14167,7 @@
       </c>
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
-      <c r="G586" s="13">
+      <c r="G586" s="12">
         <v>41.9</v>
       </c>
     </row>
@@ -14186,7 +14183,7 @@
       </c>
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
-      <c r="G587" s="13">
+      <c r="G587" s="12">
         <v>26.29</v>
       </c>
     </row>
@@ -14202,7 +14199,7 @@
       </c>
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
-      <c r="G588" s="13">
+      <c r="G588" s="12">
         <v>76.989999999999995</v>
       </c>
     </row>
@@ -14218,7 +14215,7 @@
       </c>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
-      <c r="G589" s="13">
+      <c r="G589" s="12">
         <v>279.83999999999997</v>
       </c>
     </row>
@@ -14234,7 +14231,7 @@
       </c>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
-      <c r="G590" s="13">
+      <c r="G590" s="12">
         <v>22.990000000000002</v>
       </c>
     </row>
@@ -14250,7 +14247,7 @@
       </c>
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
-      <c r="G591" s="13">
+      <c r="G591" s="12">
         <v>27.5</v>
       </c>
     </row>
@@ -14266,7 +14263,7 @@
       </c>
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
-      <c r="G592" s="13">
+      <c r="G592" s="12">
         <v>0</v>
       </c>
     </row>
@@ -14282,7 +14279,7 @@
       </c>
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
-      <c r="G593" s="13">
+      <c r="G593" s="12">
         <v>47.5</v>
       </c>
     </row>
@@ -14298,7 +14295,7 @@
       </c>
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
-      <c r="G594" s="13">
+      <c r="G594" s="12">
         <v>78.989999999999995</v>
       </c>
     </row>
@@ -14314,7 +14311,7 @@
       </c>
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
-      <c r="G595" s="13">
+      <c r="G595" s="12">
         <v>41.1</v>
       </c>
     </row>
@@ -14330,7 +14327,7 @@
       </c>
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
-      <c r="G596" s="13">
+      <c r="G596" s="12">
         <v>60.35</v>
       </c>
     </row>
@@ -14346,7 +14343,7 @@
       </c>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
-      <c r="G597" s="13">
+      <c r="G597" s="12">
         <v>99.9</v>
       </c>
     </row>
@@ -14362,7 +14359,7 @@
       </c>
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
-      <c r="G598" s="13">
+      <c r="G598" s="12">
         <v>71.290000000000006</v>
       </c>
     </row>
@@ -14378,7 +14375,7 @@
       </c>
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
-      <c r="G599" s="13">
+      <c r="G599" s="12">
         <v>52.65</v>
       </c>
     </row>
@@ -14394,7 +14391,7 @@
       </c>
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
-      <c r="G600" s="13">
+      <c r="G600" s="12">
         <v>421.25</v>
       </c>
     </row>
@@ -14412,7 +14409,7 @@
         <v>633</v>
       </c>
       <c r="F601" s="1"/>
-      <c r="G601" s="13">
+      <c r="G601" s="12">
         <v>73.989999999999995</v>
       </c>
       <c r="H601" t="s">
@@ -14431,7 +14428,7 @@
       </c>
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
-      <c r="G602" s="13">
+      <c r="G602" s="12">
         <v>80.290000000000006</v>
       </c>
     </row>
@@ -14447,12 +14444,14 @@
       </c>
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
-      <c r="G603" s="13">
+      <c r="G603" s="12">
         <v>27.69</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A604" s="12"/>
+      <c r="A604" s="7">
+        <v>603</v>
+      </c>
       <c r="C604" s="1" t="s">
         <v>1248</v>
       </c>
@@ -14461,12 +14460,14 @@
       </c>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
-      <c r="G604" s="13">
+      <c r="G604" s="12">
         <v>58.99</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A605" s="12"/>
+      <c r="A605" s="7">
+        <v>604</v>
+      </c>
       <c r="C605" s="1" t="s">
         <v>1249</v>
       </c>
@@ -14475,12 +14476,14 @@
       </c>
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
-      <c r="G605" s="13">
+      <c r="G605" s="12">
         <v>71.290000000000006</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="12"/>
+      <c r="A606" s="8">
+        <v>605</v>
+      </c>
       <c r="C606" s="1" t="s">
         <v>1250</v>
       </c>
@@ -14489,12 +14492,14 @@
       </c>
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
-      <c r="G606" s="13">
+      <c r="G606" s="12">
         <v>45.800000000000004</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A607" s="12"/>
+      <c r="A607" s="7">
+        <v>606</v>
+      </c>
       <c r="C607" s="1" t="s">
         <v>1251</v>
       </c>
@@ -14505,7 +14510,7 @@
         <v>620</v>
       </c>
       <c r="F607" s="1"/>
-      <c r="G607" s="13">
+      <c r="G607" s="12">
         <v>85.99</v>
       </c>
       <c r="H607" t="s">
@@ -14513,7 +14518,9 @@
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A608" s="12"/>
+      <c r="A608" s="7">
+        <v>607</v>
+      </c>
       <c r="C608" s="1" t="s">
         <v>1252</v>
       </c>
@@ -14522,7 +14529,7 @@
       </c>
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
-      <c r="G608" s="13">
+      <c r="G608" s="12">
         <v>219.9</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BB23D9-EB38-42EA-8D88-04D24659A2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5025EA-2733-4B0A-9F11-56B5276C2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -5361,21 +5361,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5393,8 +5385,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5449,11 +5447,11 @@
   <tableColumns count="8">
     <tableColumn id="5" xr3:uid="{FF8F82A5-C4B1-41E0-8BCC-8D546E385492}" name="ID" dataDxfId="5"/>
     <tableColumn id="1" xr3:uid="{C73F26A4-B6BA-4D90-9754-8F106DB9E536}" name="Icon"/>
-    <tableColumn id="8" xr3:uid="{31BC2997-6C6F-42ED-BDF9-51B13E85D16E}" name="Codigo" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{2E06E125-A37C-44C1-A067-9105303F0412}" name="Detalhes" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{6B341554-3D61-464E-B0ED-CE6E6C07D258}" name="Imagem" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{31BC2997-6C6F-42ED-BDF9-51B13E85D16E}" name="Codigo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2E06E125-A37C-44C1-A067-9105303F0412}" name="Detalhes" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6B341554-3D61-464E-B0ED-CE6E6C07D258}" name="Imagem" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{42457639-E172-4F1A-9782-68AB0812D06F}" name="Categoria"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5760,7 +5758,7 @@
   <dimension ref="A1:H609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G2" sqref="G2:G609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5814,7 +5812,7 @@
         <v>612</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2">
+      <c r="G2" s="9">
         <v>60.5</v>
       </c>
     </row>
@@ -5833,7 +5831,7 @@
         <v>613</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>152.9</v>
       </c>
     </row>
@@ -5851,7 +5849,7 @@
         <v>614</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>207.9</v>
       </c>
     </row>
@@ -5869,7 +5867,7 @@
         <v>615</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>59.9</v>
       </c>
     </row>
@@ -5884,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>78.989999999999995</v>
       </c>
     </row>
@@ -5902,7 +5900,7 @@
         <v>616</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5920,7 +5918,7 @@
         <v>617</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>19.8</v>
       </c>
     </row>
@@ -5938,7 +5936,7 @@
         <v>618</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>19.59</v>
       </c>
     </row>
@@ -5956,7 +5954,7 @@
         <v>619</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>157.79</v>
       </c>
     </row>
@@ -5974,7 +5972,7 @@
         <v>620</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>75.599999999999994</v>
       </c>
       <c r="H11" t="s">
@@ -5995,7 +5993,7 @@
         <v>621</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>143.6</v>
       </c>
     </row>
@@ -6013,7 +6011,7 @@
         <v>622</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>118.5</v>
       </c>
     </row>
@@ -6031,7 +6029,7 @@
         <v>622</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14">
+      <c r="G14" s="9">
         <v>143.6</v>
       </c>
     </row>
@@ -6049,7 +6047,7 @@
         <v>623</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15">
+      <c r="G15" s="9">
         <v>162.9</v>
       </c>
     </row>
@@ -6067,7 +6065,7 @@
         <v>624</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16">
+      <c r="G16" s="9">
         <v>135.69999999999999</v>
       </c>
     </row>
@@ -6085,7 +6083,7 @@
         <v>625</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>47.9</v>
       </c>
     </row>
@@ -6103,7 +6101,7 @@
         <v>626</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18">
+      <c r="G18" s="9">
         <v>29.39</v>
       </c>
     </row>
@@ -6121,7 +6119,7 @@
         <v>627</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>22.4</v>
       </c>
     </row>
@@ -6139,7 +6137,7 @@
         <v>628</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20">
+      <c r="G20" s="9">
         <v>70.5</v>
       </c>
     </row>
@@ -6157,7 +6155,7 @@
         <v>621</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21">
+      <c r="G21" s="9">
         <v>143.9</v>
       </c>
       <c r="H21" t="s">
@@ -6178,7 +6176,7 @@
         <v>629</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22">
+      <c r="G22" s="9">
         <v>62.89</v>
       </c>
       <c r="H22" t="s">
@@ -6199,7 +6197,7 @@
         <v>630</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23">
+      <c r="G23" s="9">
         <v>56.48</v>
       </c>
     </row>
@@ -6217,7 +6215,7 @@
         <v>631</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24">
+      <c r="G24" s="9">
         <v>25.9</v>
       </c>
     </row>
@@ -6235,7 +6233,7 @@
         <v>632</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25">
+      <c r="G25" s="9">
         <v>116.9</v>
       </c>
     </row>
@@ -6253,7 +6251,7 @@
         <v>633</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26">
+      <c r="G26" s="9">
         <v>82.99</v>
       </c>
     </row>
@@ -6271,7 +6269,7 @@
         <v>634</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27">
+      <c r="G27" s="9">
         <v>69.290000000000006</v>
       </c>
     </row>
@@ -6289,7 +6287,7 @@
         <v>635</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28">
+      <c r="G28" s="9">
         <v>129.9</v>
       </c>
     </row>
@@ -6307,7 +6305,7 @@
         <v>636</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29">
+      <c r="G29" s="9">
         <v>16.39</v>
       </c>
     </row>
@@ -6325,7 +6323,7 @@
         <v>637</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30">
+      <c r="G30" s="9">
         <v>81.290000000000006</v>
       </c>
     </row>
@@ -6343,7 +6341,7 @@
         <v>638</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31">
+      <c r="G31" s="9">
         <v>66.58</v>
       </c>
     </row>
@@ -6361,7 +6359,7 @@
         <v>621</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32">
+      <c r="G32" s="9">
         <v>139.13</v>
       </c>
     </row>
@@ -6379,7 +6377,7 @@
         <v>639</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33">
+      <c r="G33" s="9">
         <v>59.99</v>
       </c>
     </row>
@@ -6397,7 +6395,7 @@
         <v>640</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34">
+      <c r="G34" s="9">
         <v>131.59</v>
       </c>
     </row>
@@ -6415,7 +6413,7 @@
         <v>641</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35">
+      <c r="G35" s="9">
         <v>115.99</v>
       </c>
     </row>
@@ -6433,7 +6431,7 @@
         <v>642</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36">
+      <c r="G36" s="9">
         <v>133.99</v>
       </c>
     </row>
@@ -6451,7 +6449,7 @@
         <v>643</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37">
+      <c r="G37" s="9">
         <v>81.39</v>
       </c>
     </row>
@@ -6469,7 +6467,7 @@
         <v>644</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38">
+      <c r="G38" s="9">
         <v>75.989999999999995</v>
       </c>
     </row>
@@ -6487,7 +6485,7 @@
         <v>645</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39">
+      <c r="G39" s="9">
         <v>31.99</v>
       </c>
     </row>
@@ -6505,7 +6503,7 @@
         <v>646</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40">
+      <c r="G40" s="9">
         <v>40.99</v>
       </c>
     </row>
@@ -6523,7 +6521,7 @@
         <v>647</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41">
+      <c r="G41" s="9">
         <v>40.99</v>
       </c>
     </row>
@@ -6541,7 +6539,7 @@
         <v>646</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42">
+      <c r="G42" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6559,7 +6557,7 @@
         <v>648</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43">
+      <c r="G43" s="9">
         <v>27.69</v>
       </c>
     </row>
@@ -6577,7 +6575,7 @@
         <v>621</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44">
+      <c r="G44" s="9">
         <v>29.9</v>
       </c>
     </row>
@@ -6595,7 +6593,7 @@
         <v>649</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45">
+      <c r="G45" s="9">
         <v>29.9</v>
       </c>
     </row>
@@ -6613,7 +6611,7 @@
         <v>650</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46">
+      <c r="G46" s="9">
         <v>33.99</v>
       </c>
     </row>
@@ -6631,7 +6629,7 @@
         <v>651</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47">
+      <c r="G47" s="9">
         <v>37.99</v>
       </c>
     </row>
@@ -6649,7 +6647,7 @@
         <v>652</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48">
+      <c r="G48" s="9">
         <v>37.99</v>
       </c>
     </row>
@@ -6667,7 +6665,7 @@
         <v>653</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49">
+      <c r="G49" s="9">
         <v>37.99</v>
       </c>
     </row>
@@ -6685,7 +6683,7 @@
         <v>654</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50">
+      <c r="G50" s="9">
         <v>37.99</v>
       </c>
     </row>
@@ -6703,7 +6701,7 @@
         <v>655</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="G51">
+      <c r="G51" s="9">
         <v>37.99</v>
       </c>
     </row>
@@ -6721,7 +6719,7 @@
         <v>656</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52">
+      <c r="G52" s="9">
         <v>27.69</v>
       </c>
     </row>
@@ -6739,7 +6737,7 @@
         <v>657</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53">
+      <c r="G53" s="9">
         <v>27.69</v>
       </c>
     </row>
@@ -6757,7 +6755,7 @@
         <v>658</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54">
+      <c r="G54" s="9">
         <v>11.49</v>
       </c>
     </row>
@@ -6775,7 +6773,7 @@
         <v>659</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="G55">
+      <c r="G55" s="9">
         <v>181.05</v>
       </c>
     </row>
@@ -6793,7 +6791,7 @@
         <v>660</v>
       </c>
       <c r="F56" s="1"/>
-      <c r="G56">
+      <c r="G56" s="9">
         <v>35.99</v>
       </c>
     </row>
@@ -6811,7 +6809,7 @@
         <v>661</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="G57">
+      <c r="G57" s="9">
         <v>87.99</v>
       </c>
     </row>
@@ -6829,7 +6827,7 @@
         <v>662</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="G58">
+      <c r="G58" s="9">
         <v>14.02</v>
       </c>
     </row>
@@ -6847,7 +6845,7 @@
         <v>663</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="G59">
+      <c r="G59" s="9">
         <v>10.8</v>
       </c>
     </row>
@@ -6865,7 +6863,7 @@
         <v>664</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="G60">
+      <c r="G60" s="9">
         <v>15.92</v>
       </c>
     </row>
@@ -6883,7 +6881,7 @@
         <v>665</v>
       </c>
       <c r="F61" s="1"/>
-      <c r="G61">
+      <c r="G61" s="9">
         <v>13.2</v>
       </c>
     </row>
@@ -6901,7 +6899,7 @@
         <v>666</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="G62">
+      <c r="G62" s="9">
         <v>12.99</v>
       </c>
     </row>
@@ -6919,7 +6917,7 @@
         <v>667</v>
       </c>
       <c r="F63" s="1"/>
-      <c r="G63">
+      <c r="G63" s="9">
         <v>10.8</v>
       </c>
     </row>
@@ -6937,7 +6935,7 @@
         <v>668</v>
       </c>
       <c r="F64" s="1"/>
-      <c r="G64">
+      <c r="G64" s="9">
         <v>15.92</v>
       </c>
     </row>
@@ -6955,7 +6953,7 @@
         <v>669</v>
       </c>
       <c r="F65" s="1"/>
-      <c r="G65">
+      <c r="G65" s="9">
         <v>59.89</v>
       </c>
     </row>
@@ -6973,7 +6971,7 @@
         <v>670</v>
       </c>
       <c r="F66" s="1"/>
-      <c r="G66">
+      <c r="G66" s="9">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -6991,7 +6989,7 @@
         <v>671</v>
       </c>
       <c r="F67" s="1"/>
-      <c r="G67">
+      <c r="G67" s="9">
         <v>70.930000000000007</v>
       </c>
     </row>
@@ -7009,7 +7007,7 @@
         <v>672</v>
       </c>
       <c r="F68" s="1"/>
-      <c r="G68">
+      <c r="G68" s="9">
         <v>42.99</v>
       </c>
     </row>
@@ -7027,7 +7025,7 @@
         <v>673</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69">
+      <c r="G69" s="9">
         <v>31.4</v>
       </c>
     </row>
@@ -7045,7 +7043,7 @@
         <v>674</v>
       </c>
       <c r="F70" s="1"/>
-      <c r="G70">
+      <c r="G70" s="9">
         <v>33.229999999999997</v>
       </c>
     </row>
@@ -7063,7 +7061,7 @@
         <v>675</v>
       </c>
       <c r="F71" s="1"/>
-      <c r="G71">
+      <c r="G71" s="9">
         <v>17.3</v>
       </c>
     </row>
@@ -7081,7 +7079,7 @@
         <v>621</v>
       </c>
       <c r="F72" s="1"/>
-      <c r="G72">
+      <c r="G72" s="9">
         <v>39.9</v>
       </c>
     </row>
@@ -7099,7 +7097,7 @@
         <v>676</v>
       </c>
       <c r="F73" s="1"/>
-      <c r="G73">
+      <c r="G73" s="9">
         <v>70.25</v>
       </c>
     </row>
@@ -7117,7 +7115,7 @@
         <v>677</v>
       </c>
       <c r="F74" s="1"/>
-      <c r="G74">
+      <c r="G74" s="9">
         <v>79.5</v>
       </c>
     </row>
@@ -7135,7 +7133,7 @@
         <v>678</v>
       </c>
       <c r="F75" s="1"/>
-      <c r="G75">
+      <c r="G75" s="9">
         <v>28.08</v>
       </c>
     </row>
@@ -7153,7 +7151,7 @@
         <v>679</v>
       </c>
       <c r="F76" s="1"/>
-      <c r="G76">
+      <c r="G76" s="9">
         <v>15.99</v>
       </c>
     </row>
@@ -7171,7 +7169,7 @@
         <v>680</v>
       </c>
       <c r="F77" s="1"/>
-      <c r="G77">
+      <c r="G77" s="9">
         <v>22.9</v>
       </c>
     </row>
@@ -7189,7 +7187,7 @@
         <v>681</v>
       </c>
       <c r="F78" s="1"/>
-      <c r="G78">
+      <c r="G78" s="9">
         <v>182.9</v>
       </c>
     </row>
@@ -7207,7 +7205,7 @@
         <v>682</v>
       </c>
       <c r="F79" s="1"/>
-      <c r="G79">
+      <c r="G79" s="9">
         <v>31.92</v>
       </c>
     </row>
@@ -7225,7 +7223,7 @@
         <v>683</v>
       </c>
       <c r="F80" s="1"/>
-      <c r="G80">
+      <c r="G80" s="9">
         <v>43.99</v>
       </c>
     </row>
@@ -7243,7 +7241,7 @@
         <v>684</v>
       </c>
       <c r="F81" s="1"/>
-      <c r="G81">
+      <c r="G81" s="9">
         <v>26.35</v>
       </c>
     </row>
@@ -7261,7 +7259,7 @@
         <v>621</v>
       </c>
       <c r="F82" s="1"/>
-      <c r="G82">
+      <c r="G82" s="9">
         <v>36.99</v>
       </c>
     </row>
@@ -7279,7 +7277,7 @@
         <v>621</v>
       </c>
       <c r="F83" s="1"/>
-      <c r="G83">
+      <c r="G83" s="9">
         <v>66.94</v>
       </c>
     </row>
@@ -7297,7 +7295,7 @@
         <v>621</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="G84">
+      <c r="G84" s="9">
         <v>66.94</v>
       </c>
     </row>
@@ -7315,7 +7313,7 @@
         <v>685</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85">
+      <c r="G85" s="9">
         <v>109.9</v>
       </c>
     </row>
@@ -7333,7 +7331,7 @@
         <v>686</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86">
+      <c r="G86" s="9">
         <v>77.7</v>
       </c>
     </row>
@@ -7351,7 +7349,7 @@
         <v>687</v>
       </c>
       <c r="F87" s="1"/>
-      <c r="G87">
+      <c r="G87" s="9">
         <v>99.990000000000009</v>
       </c>
     </row>
@@ -7369,7 +7367,7 @@
         <v>688</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88">
+      <c r="G88" s="9">
         <v>99.990000000000009</v>
       </c>
     </row>
@@ -7387,7 +7385,7 @@
         <v>689</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89">
+      <c r="G89" s="9">
         <v>99.9</v>
       </c>
     </row>
@@ -7405,7 +7403,7 @@
         <v>690</v>
       </c>
       <c r="F90" s="1"/>
-      <c r="G90">
+      <c r="G90" s="9">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -7423,7 +7421,7 @@
         <v>691</v>
       </c>
       <c r="F91" s="1"/>
-      <c r="G91">
+      <c r="G91" s="9">
         <v>62.89</v>
       </c>
     </row>
@@ -7441,7 +7439,7 @@
         <v>692</v>
       </c>
       <c r="F92" s="1"/>
-      <c r="G92">
+      <c r="G92" s="9">
         <v>41.85</v>
       </c>
     </row>
@@ -7459,7 +7457,7 @@
         <v>693</v>
       </c>
       <c r="F93" s="1"/>
-      <c r="G93">
+      <c r="G93" s="9">
         <v>31.5</v>
       </c>
     </row>
@@ -7477,7 +7475,7 @@
         <v>694</v>
       </c>
       <c r="F94" s="1"/>
-      <c r="G94">
+      <c r="G94" s="9">
         <v>2221.25</v>
       </c>
     </row>
@@ -7495,7 +7493,7 @@
         <v>695</v>
       </c>
       <c r="F95" s="1"/>
-      <c r="G95">
+      <c r="G95" s="9">
         <v>175.77</v>
       </c>
     </row>
@@ -7513,7 +7511,7 @@
         <v>696</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96">
+      <c r="G96" s="9">
         <v>14.4</v>
       </c>
     </row>
@@ -7531,7 +7529,7 @@
         <v>697</v>
       </c>
       <c r="F97" s="1"/>
-      <c r="G97">
+      <c r="G97" s="9">
         <v>15.99</v>
       </c>
     </row>
@@ -7549,7 +7547,7 @@
         <v>621</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98">
+      <c r="G98" s="9">
         <v>34.99</v>
       </c>
     </row>
@@ -7567,7 +7565,7 @@
         <v>698</v>
       </c>
       <c r="F99" s="1"/>
-      <c r="G99">
+      <c r="G99" s="9">
         <v>32.130000000000003</v>
       </c>
     </row>
@@ -7585,7 +7583,7 @@
         <v>621</v>
       </c>
       <c r="F100" s="1"/>
-      <c r="G100">
+      <c r="G100" s="9">
         <v>54.6</v>
       </c>
     </row>
@@ -7603,7 +7601,7 @@
         <v>699</v>
       </c>
       <c r="F101" s="1"/>
-      <c r="G101">
+      <c r="G101" s="9">
         <v>34.99</v>
       </c>
     </row>
@@ -7621,7 +7619,7 @@
         <v>700</v>
       </c>
       <c r="F102" s="1"/>
-      <c r="G102">
+      <c r="G102" s="9">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -7639,7 +7637,7 @@
         <v>621</v>
       </c>
       <c r="F103" s="1"/>
-      <c r="G103">
+      <c r="G103" s="9">
         <v>44.9</v>
       </c>
     </row>
@@ -7657,7 +7655,7 @@
         <v>621</v>
       </c>
       <c r="F104" s="1"/>
-      <c r="G104">
+      <c r="G104" s="9">
         <v>36.75</v>
       </c>
     </row>
@@ -7675,7 +7673,7 @@
         <v>701</v>
       </c>
       <c r="F105" s="1"/>
-      <c r="G105">
+      <c r="G105" s="9">
         <v>33.75</v>
       </c>
     </row>
@@ -7693,7 +7691,7 @@
         <v>621</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="G106">
+      <c r="G106" s="9">
         <v>32.130000000000003</v>
       </c>
     </row>
@@ -7711,7 +7709,7 @@
         <v>702</v>
       </c>
       <c r="F107" s="1"/>
-      <c r="G107">
+      <c r="G107" s="9">
         <v>90.53</v>
       </c>
     </row>
@@ -7729,7 +7727,7 @@
         <v>703</v>
       </c>
       <c r="F108" s="1"/>
-      <c r="G108">
+      <c r="G108" s="9">
         <v>89.9</v>
       </c>
     </row>
@@ -7747,7 +7745,7 @@
         <v>702</v>
       </c>
       <c r="F109" s="1"/>
-      <c r="G109">
+      <c r="G109" s="9">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -7765,7 +7763,7 @@
         <v>621</v>
       </c>
       <c r="F110" s="1"/>
-      <c r="G110">
+      <c r="G110" s="9">
         <v>89.9</v>
       </c>
     </row>
@@ -7783,7 +7781,7 @@
         <v>621</v>
       </c>
       <c r="F111" s="1"/>
-      <c r="G111">
+      <c r="G111" s="9">
         <v>42.5</v>
       </c>
     </row>
@@ -7801,7 +7799,7 @@
         <v>621</v>
       </c>
       <c r="F112" s="1"/>
-      <c r="G112">
+      <c r="G112" s="9">
         <v>34.99</v>
       </c>
     </row>
@@ -7819,7 +7817,7 @@
         <v>704</v>
       </c>
       <c r="F113" s="1"/>
-      <c r="G113">
+      <c r="G113" s="9">
         <v>33.75</v>
       </c>
     </row>
@@ -7837,7 +7835,7 @@
         <v>705</v>
       </c>
       <c r="F114" s="1"/>
-      <c r="G114">
+      <c r="G114" s="9">
         <v>39.99</v>
       </c>
     </row>
@@ -7855,7 +7853,7 @@
         <v>706</v>
       </c>
       <c r="F115" s="1"/>
-      <c r="G115">
+      <c r="G115" s="9">
         <v>42.5</v>
       </c>
     </row>
@@ -7873,7 +7871,7 @@
         <v>707</v>
       </c>
       <c r="F116" s="1"/>
-      <c r="G116">
+      <c r="G116" s="9">
         <v>39.99</v>
       </c>
     </row>
@@ -7891,7 +7889,7 @@
         <v>621</v>
       </c>
       <c r="F117" s="1"/>
-      <c r="G117">
+      <c r="G117" s="9">
         <v>34.99</v>
       </c>
     </row>
@@ -7909,7 +7907,7 @@
         <v>708</v>
       </c>
       <c r="F118" s="1"/>
-      <c r="G118">
+      <c r="G118" s="9">
         <v>42.95</v>
       </c>
     </row>
@@ -7927,7 +7925,7 @@
         <v>709</v>
       </c>
       <c r="F119" s="1"/>
-      <c r="G119">
+      <c r="G119" s="9">
         <v>34.99</v>
       </c>
     </row>
@@ -7945,7 +7943,7 @@
         <v>710</v>
       </c>
       <c r="F120" s="1"/>
-      <c r="G120">
+      <c r="G120" s="9">
         <v>61.99</v>
       </c>
     </row>
@@ -7963,7 +7961,7 @@
         <v>711</v>
       </c>
       <c r="F121" s="1"/>
-      <c r="G121">
+      <c r="G121" s="9">
         <v>63.89</v>
       </c>
     </row>
@@ -7981,7 +7979,7 @@
         <v>621</v>
       </c>
       <c r="F122" s="1"/>
-      <c r="G122">
+      <c r="G122" s="9">
         <v>38.5</v>
       </c>
     </row>
@@ -7999,7 +7997,7 @@
         <v>712</v>
       </c>
       <c r="F123" s="1"/>
-      <c r="G123">
+      <c r="G123" s="9">
         <v>39.99</v>
       </c>
     </row>
@@ -8017,7 +8015,7 @@
         <v>713</v>
       </c>
       <c r="F124" s="1"/>
-      <c r="G124">
+      <c r="G124" s="9">
         <v>34.99</v>
       </c>
     </row>
@@ -8035,7 +8033,7 @@
         <v>714</v>
       </c>
       <c r="F125" s="1"/>
-      <c r="G125">
+      <c r="G125" s="9">
         <v>39.99</v>
       </c>
     </row>
@@ -8053,7 +8051,7 @@
         <v>715</v>
       </c>
       <c r="F126" s="1"/>
-      <c r="G126">
+      <c r="G126" s="9">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -8071,7 +8069,7 @@
         <v>716</v>
       </c>
       <c r="F127" s="1"/>
-      <c r="G127">
+      <c r="G127" s="9">
         <v>235.9</v>
       </c>
     </row>
@@ -8089,7 +8087,7 @@
         <v>717</v>
       </c>
       <c r="F128" s="1"/>
-      <c r="G128">
+      <c r="G128" s="9">
         <v>83.8</v>
       </c>
     </row>
@@ -8107,7 +8105,7 @@
         <v>718</v>
       </c>
       <c r="F129" s="1"/>
-      <c r="G129">
+      <c r="G129" s="9">
         <v>95.4</v>
       </c>
     </row>
@@ -8125,7 +8123,7 @@
         <v>719</v>
       </c>
       <c r="F130" s="1"/>
-      <c r="G130">
+      <c r="G130" s="9">
         <v>57.12</v>
       </c>
     </row>
@@ -8143,7 +8141,7 @@
         <v>720</v>
       </c>
       <c r="F131" s="1"/>
-      <c r="G131">
+      <c r="G131" s="9">
         <v>183</v>
       </c>
     </row>
@@ -8161,7 +8159,7 @@
         <v>721</v>
       </c>
       <c r="F132" s="1"/>
-      <c r="G132">
+      <c r="G132" s="9">
         <v>33.99</v>
       </c>
     </row>
@@ -8179,7 +8177,7 @@
         <v>722</v>
       </c>
       <c r="F133" s="1"/>
-      <c r="G133">
+      <c r="G133" s="9">
         <v>94.9</v>
       </c>
     </row>
@@ -8199,7 +8197,7 @@
       <c r="F134" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="9">
         <v>155.09</v>
       </c>
     </row>
@@ -8217,7 +8215,7 @@
         <v>723</v>
       </c>
       <c r="F135" s="1"/>
-      <c r="G135">
+      <c r="G135" s="9">
         <v>15.39</v>
       </c>
       <c r="H135" t="s">
@@ -8238,7 +8236,7 @@
         <v>724</v>
       </c>
       <c r="F136" s="1"/>
-      <c r="G136">
+      <c r="G136" s="9">
         <v>19.7</v>
       </c>
       <c r="H136" t="s">
@@ -8259,7 +8257,7 @@
         <v>725</v>
       </c>
       <c r="F137" s="1"/>
-      <c r="G137">
+      <c r="G137" s="9">
         <v>15.99</v>
       </c>
       <c r="H137" t="s">
@@ -8280,7 +8278,7 @@
         <v>726</v>
       </c>
       <c r="F138" s="1"/>
-      <c r="G138">
+      <c r="G138" s="9">
         <v>14.69</v>
       </c>
       <c r="H138" t="s">
@@ -8301,7 +8299,7 @@
         <v>727</v>
       </c>
       <c r="F139" s="1"/>
-      <c r="G139">
+      <c r="G139" s="9">
         <v>15.99</v>
       </c>
       <c r="H139" t="s">
@@ -8322,7 +8320,7 @@
         <v>728</v>
       </c>
       <c r="F140" s="1"/>
-      <c r="G140">
+      <c r="G140" s="9">
         <v>14.89</v>
       </c>
       <c r="H140" t="s">
@@ -8343,7 +8341,7 @@
         <v>621</v>
       </c>
       <c r="F141" s="1"/>
-      <c r="G141">
+      <c r="G141" s="9">
         <v>15.49</v>
       </c>
       <c r="H141" t="s">
@@ -8366,7 +8364,7 @@
       <c r="F142" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="9">
         <v>14.99</v>
       </c>
       <c r="H142" t="s">
@@ -8389,7 +8387,7 @@
       <c r="F143" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="9">
         <v>14.7</v>
       </c>
       <c r="H143" t="s">
@@ -8410,7 +8408,7 @@
         <v>729</v>
       </c>
       <c r="F144" s="1"/>
-      <c r="G144">
+      <c r="G144" s="9">
         <v>15.8</v>
       </c>
       <c r="H144" t="s">
@@ -8431,7 +8429,7 @@
         <v>730</v>
       </c>
       <c r="F145" s="1"/>
-      <c r="G145">
+      <c r="G145" s="9">
         <v>67.989999999999995</v>
       </c>
     </row>
@@ -8449,7 +8447,7 @@
         <v>731</v>
       </c>
       <c r="F146" s="1"/>
-      <c r="G146">
+      <c r="G146" s="9">
         <v>275.89999999999998</v>
       </c>
     </row>
@@ -8467,7 +8465,7 @@
         <v>732</v>
       </c>
       <c r="F147" s="1"/>
-      <c r="G147">
+      <c r="G147" s="9">
         <v>24.9</v>
       </c>
     </row>
@@ -8485,7 +8483,7 @@
         <v>733</v>
       </c>
       <c r="F148" s="1"/>
-      <c r="G148">
+      <c r="G148" s="9">
         <v>42.99</v>
       </c>
     </row>
@@ -8503,7 +8501,7 @@
         <v>734</v>
       </c>
       <c r="F149" s="1"/>
-      <c r="G149">
+      <c r="G149" s="9">
         <v>131.59</v>
       </c>
     </row>
@@ -8521,7 +8519,7 @@
         <v>735</v>
       </c>
       <c r="F150" s="1"/>
-      <c r="G150">
+      <c r="G150" s="9">
         <v>14.9</v>
       </c>
     </row>
@@ -8539,7 +8537,7 @@
         <v>736</v>
       </c>
       <c r="F151" s="1"/>
-      <c r="G151">
+      <c r="G151" s="9">
         <v>31.49</v>
       </c>
     </row>
@@ -8557,7 +8555,7 @@
         <v>621</v>
       </c>
       <c r="F152" s="1"/>
-      <c r="G152">
+      <c r="G152" s="9">
         <v>83.9</v>
       </c>
     </row>
@@ -8575,7 +8573,7 @@
         <v>737</v>
       </c>
       <c r="F153" s="1"/>
-      <c r="G153">
+      <c r="G153" s="9">
         <v>12.99</v>
       </c>
     </row>
@@ -8593,7 +8591,7 @@
         <v>738</v>
       </c>
       <c r="F154" s="1"/>
-      <c r="G154">
+      <c r="G154" s="9">
         <v>499.9</v>
       </c>
     </row>
@@ -8611,7 +8609,7 @@
         <v>739</v>
       </c>
       <c r="F155" s="1"/>
-      <c r="G155">
+      <c r="G155" s="9">
         <v>349.9</v>
       </c>
     </row>
@@ -8629,7 +8627,7 @@
         <v>740</v>
       </c>
       <c r="F156" s="1"/>
-      <c r="G156">
+      <c r="G156" s="9">
         <v>34.89</v>
       </c>
     </row>
@@ -8647,7 +8645,7 @@
         <v>741</v>
       </c>
       <c r="F157" s="1"/>
-      <c r="G157">
+      <c r="G157" s="9">
         <v>20.8</v>
       </c>
     </row>
@@ -8665,7 +8663,7 @@
         <v>742</v>
       </c>
       <c r="F158" s="1"/>
-      <c r="G158">
+      <c r="G158" s="9">
         <v>172.19</v>
       </c>
     </row>
@@ -8683,7 +8681,7 @@
         <v>743</v>
       </c>
       <c r="F159" s="1"/>
-      <c r="G159">
+      <c r="G159" s="9">
         <v>106.53</v>
       </c>
     </row>
@@ -8701,7 +8699,7 @@
         <v>744</v>
       </c>
       <c r="F160" s="1"/>
-      <c r="G160">
+      <c r="G160" s="9">
         <v>65.77</v>
       </c>
     </row>
@@ -8719,7 +8717,7 @@
         <v>621</v>
       </c>
       <c r="F161" s="1"/>
-      <c r="G161">
+      <c r="G161" s="9">
         <v>214.5</v>
       </c>
     </row>
@@ -8737,7 +8735,7 @@
         <v>745</v>
       </c>
       <c r="F162" s="1"/>
-      <c r="G162">
+      <c r="G162" s="9">
         <v>210.99</v>
       </c>
     </row>
@@ -8755,7 +8753,7 @@
         <v>621</v>
       </c>
       <c r="F163" s="1"/>
-      <c r="G163">
+      <c r="G163" s="9">
         <v>132.88999999999999</v>
       </c>
     </row>
@@ -8773,7 +8771,7 @@
         <v>746</v>
       </c>
       <c r="F164" s="1"/>
-      <c r="G164">
+      <c r="G164" s="9">
         <v>78.790000000000006</v>
       </c>
     </row>
@@ -8791,7 +8789,7 @@
         <v>747</v>
       </c>
       <c r="F165" s="1"/>
-      <c r="G165">
+      <c r="G165" s="9">
         <v>78.790000000000006</v>
       </c>
     </row>
@@ -8809,7 +8807,7 @@
         <v>748</v>
       </c>
       <c r="F166" s="1"/>
-      <c r="G166">
+      <c r="G166" s="9">
         <v>78.790000000000006</v>
       </c>
     </row>
@@ -8827,7 +8825,7 @@
         <v>749</v>
       </c>
       <c r="F167" s="1"/>
-      <c r="G167">
+      <c r="G167" s="9">
         <v>78.790000000000006</v>
       </c>
     </row>
@@ -8845,7 +8843,7 @@
         <v>750</v>
       </c>
       <c r="F168" s="1"/>
-      <c r="G168">
+      <c r="G168" s="9">
         <v>122.9</v>
       </c>
     </row>
@@ -8863,7 +8861,7 @@
         <v>751</v>
       </c>
       <c r="F169" s="1"/>
-      <c r="G169">
+      <c r="G169" s="9">
         <v>139.88999999999999</v>
       </c>
     </row>
@@ -8881,7 +8879,7 @@
         <v>621</v>
       </c>
       <c r="F170" s="1"/>
-      <c r="G170">
+      <c r="G170" s="9">
         <v>65.900000000000006</v>
       </c>
     </row>
@@ -8899,7 +8897,7 @@
         <v>752</v>
       </c>
       <c r="F171" s="1"/>
-      <c r="G171">
+      <c r="G171" s="9">
         <v>132.88999999999999</v>
       </c>
     </row>
@@ -8917,7 +8915,7 @@
         <v>753</v>
       </c>
       <c r="F172" s="1"/>
-      <c r="G172">
+      <c r="G172" s="9">
         <v>121.49</v>
       </c>
     </row>
@@ -8935,7 +8933,7 @@
         <v>621</v>
       </c>
       <c r="F173" s="1"/>
-      <c r="G173">
+      <c r="G173" s="9">
         <v>121.49</v>
       </c>
     </row>
@@ -8953,7 +8951,7 @@
         <v>754</v>
       </c>
       <c r="F174" s="1"/>
-      <c r="G174">
+      <c r="G174" s="9">
         <v>171.99</v>
       </c>
     </row>
@@ -8971,7 +8969,7 @@
         <v>755</v>
       </c>
       <c r="F175" s="1"/>
-      <c r="G175">
+      <c r="G175" s="9">
         <v>130.69</v>
       </c>
     </row>
@@ -8989,7 +8987,7 @@
         <v>756</v>
       </c>
       <c r="F176" s="1"/>
-      <c r="G176">
+      <c r="G176" s="9">
         <v>64.900000000000006</v>
       </c>
     </row>
@@ -9007,7 +9005,7 @@
         <v>757</v>
       </c>
       <c r="F177" s="1"/>
-      <c r="G177">
+      <c r="G177" s="9">
         <v>30.99</v>
       </c>
     </row>
@@ -9025,7 +9023,7 @@
         <v>621</v>
       </c>
       <c r="F178" s="1"/>
-      <c r="G178">
+      <c r="G178" s="9">
         <v>38.99</v>
       </c>
     </row>
@@ -9043,7 +9041,7 @@
         <v>758</v>
       </c>
       <c r="F179" s="1"/>
-      <c r="G179">
+      <c r="G179" s="9">
         <v>38.49</v>
       </c>
     </row>
@@ -9061,7 +9059,7 @@
         <v>759</v>
       </c>
       <c r="F180" s="1"/>
-      <c r="G180">
+      <c r="G180" s="9">
         <v>54.79</v>
       </c>
     </row>
@@ -9079,7 +9077,7 @@
         <v>760</v>
       </c>
       <c r="F181" s="1"/>
-      <c r="G181">
+      <c r="G181" s="9">
         <v>60.35</v>
       </c>
     </row>
@@ -9097,7 +9095,7 @@
         <v>761</v>
       </c>
       <c r="F182" s="1"/>
-      <c r="G182">
+      <c r="G182" s="9">
         <v>50.93</v>
       </c>
     </row>
@@ -9115,7 +9113,7 @@
         <v>762</v>
       </c>
       <c r="F183" s="1"/>
-      <c r="G183">
+      <c r="G183" s="9">
         <v>44.99</v>
       </c>
     </row>
@@ -9133,7 +9131,7 @@
         <v>763</v>
       </c>
       <c r="F184" s="1"/>
-      <c r="G184">
+      <c r="G184" s="9">
         <v>61.5</v>
       </c>
     </row>
@@ -9151,7 +9149,7 @@
         <v>764</v>
       </c>
       <c r="F185" s="1"/>
-      <c r="G185">
+      <c r="G185" s="9">
         <v>90.49</v>
       </c>
     </row>
@@ -9169,7 +9167,7 @@
         <v>765</v>
       </c>
       <c r="F186" s="1"/>
-      <c r="G186">
+      <c r="G186" s="9">
         <v>60.99</v>
       </c>
     </row>
@@ -9187,7 +9185,7 @@
         <v>766</v>
       </c>
       <c r="F187" s="1"/>
-      <c r="G187">
+      <c r="G187" s="9">
         <v>101.5</v>
       </c>
     </row>
@@ -9205,7 +9203,7 @@
         <v>767</v>
       </c>
       <c r="F188" s="1"/>
-      <c r="G188">
+      <c r="G188" s="9">
         <v>14.6</v>
       </c>
     </row>
@@ -9223,7 +9221,7 @@
         <v>621</v>
       </c>
       <c r="F189" s="1"/>
-      <c r="G189">
+      <c r="G189" s="9">
         <v>32.4</v>
       </c>
     </row>
@@ -9241,7 +9239,7 @@
         <v>768</v>
       </c>
       <c r="F190" s="1"/>
-      <c r="G190">
+      <c r="G190" s="9">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -9256,7 +9254,7 @@
         <v>186</v>
       </c>
       <c r="F191" s="1"/>
-      <c r="G191">
+      <c r="G191" s="9">
         <v>199.9</v>
       </c>
     </row>
@@ -9274,7 +9272,7 @@
         <v>769</v>
       </c>
       <c r="F192" s="1"/>
-      <c r="G192">
+      <c r="G192" s="9">
         <v>91.4</v>
       </c>
     </row>
@@ -9292,7 +9290,7 @@
         <v>770</v>
       </c>
       <c r="F193" s="1"/>
-      <c r="G193">
+      <c r="G193" s="9">
         <v>31.9</v>
       </c>
     </row>
@@ -9310,7 +9308,7 @@
         <v>771</v>
       </c>
       <c r="F194" s="1"/>
-      <c r="G194">
+      <c r="G194" s="9">
         <v>182.7</v>
       </c>
     </row>
@@ -9328,7 +9326,7 @@
         <v>772</v>
       </c>
       <c r="F195" s="1"/>
-      <c r="G195">
+      <c r="G195" s="9">
         <v>199.9</v>
       </c>
     </row>
@@ -9346,7 +9344,7 @@
         <v>773</v>
       </c>
       <c r="F196" s="1"/>
-      <c r="G196">
+      <c r="G196" s="9">
         <v>37.99</v>
       </c>
     </row>
@@ -9364,7 +9362,7 @@
         <v>774</v>
       </c>
       <c r="F197" s="1"/>
-      <c r="G197">
+      <c r="G197" s="9">
         <v>27.4</v>
       </c>
     </row>
@@ -9382,7 +9380,7 @@
         <v>775</v>
       </c>
       <c r="F198" s="1"/>
-      <c r="G198">
+      <c r="G198" s="9">
         <v>156.49</v>
       </c>
     </row>
@@ -9400,7 +9398,7 @@
         <v>776</v>
       </c>
       <c r="F199" s="1"/>
-      <c r="G199">
+      <c r="G199" s="9">
         <v>133.13</v>
       </c>
     </row>
@@ -9418,7 +9416,7 @@
         <v>777</v>
       </c>
       <c r="F200" s="1"/>
-      <c r="G200">
+      <c r="G200" s="9">
         <v>29.99</v>
       </c>
     </row>
@@ -9436,7 +9434,7 @@
         <v>778</v>
       </c>
       <c r="F201" s="1"/>
-      <c r="G201">
+      <c r="G201" s="9">
         <v>68.900000000000006</v>
       </c>
     </row>
@@ -9454,7 +9452,7 @@
         <v>779</v>
       </c>
       <c r="F202" s="1"/>
-      <c r="G202">
+      <c r="G202" s="9">
         <v>45.89</v>
       </c>
     </row>
@@ -9472,7 +9470,7 @@
         <v>780</v>
       </c>
       <c r="F203" s="1"/>
-      <c r="G203">
+      <c r="G203" s="9">
         <v>68.849999999999994</v>
       </c>
     </row>
@@ -9490,7 +9488,7 @@
         <v>781</v>
       </c>
       <c r="F204" s="1"/>
-      <c r="G204">
+      <c r="G204" s="9">
         <v>34.19</v>
       </c>
     </row>
@@ -9508,7 +9506,7 @@
         <v>782</v>
       </c>
       <c r="F205" s="1"/>
-      <c r="G205">
+      <c r="G205" s="9">
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -9526,7 +9524,7 @@
         <v>783</v>
       </c>
       <c r="F206" s="1"/>
-      <c r="G206">
+      <c r="G206" s="9">
         <v>44.75</v>
       </c>
     </row>
@@ -9544,7 +9542,7 @@
         <v>784</v>
       </c>
       <c r="F207" s="1"/>
-      <c r="G207">
+      <c r="G207" s="9">
         <v>59.99</v>
       </c>
     </row>
@@ -9562,7 +9560,7 @@
         <v>621</v>
       </c>
       <c r="F208" s="1"/>
-      <c r="G208">
+      <c r="G208" s="9">
         <v>44.7</v>
       </c>
     </row>
@@ -9580,7 +9578,7 @@
         <v>785</v>
       </c>
       <c r="F209" s="1"/>
-      <c r="G209">
+      <c r="G209" s="9">
         <v>15.9</v>
       </c>
     </row>
@@ -9598,7 +9596,7 @@
         <v>786</v>
       </c>
       <c r="F210" s="1"/>
-      <c r="G210">
+      <c r="G210" s="9">
         <v>130.30000000000001</v>
       </c>
     </row>
@@ -9616,7 +9614,7 @@
         <v>787</v>
       </c>
       <c r="F211" s="1"/>
-      <c r="G211">
+      <c r="G211" s="9">
         <v>115.1</v>
       </c>
     </row>
@@ -9634,7 +9632,7 @@
         <v>788</v>
       </c>
       <c r="F212" s="1"/>
-      <c r="G212">
+      <c r="G212" s="9">
         <v>136.99</v>
       </c>
     </row>
@@ -9652,7 +9650,7 @@
         <v>621</v>
       </c>
       <c r="F213" s="1"/>
-      <c r="G213">
+      <c r="G213" s="9">
         <v>70.5</v>
       </c>
     </row>
@@ -9670,7 +9668,7 @@
         <v>789</v>
       </c>
       <c r="F214" s="1"/>
-      <c r="G214">
+      <c r="G214" s="9">
         <v>69.989999999999995</v>
       </c>
     </row>
@@ -9688,7 +9686,7 @@
         <v>790</v>
       </c>
       <c r="F215" s="1"/>
-      <c r="G215">
+      <c r="G215" s="9">
         <v>140.4</v>
       </c>
     </row>
@@ -9706,7 +9704,7 @@
         <v>791</v>
       </c>
       <c r="F216" s="1"/>
-      <c r="G216">
+      <c r="G216" s="9">
         <v>71.900000000000006</v>
       </c>
     </row>
@@ -9724,7 +9722,7 @@
         <v>621</v>
       </c>
       <c r="F217" s="1"/>
-      <c r="G217">
+      <c r="G217" s="9">
         <v>399.9</v>
       </c>
     </row>
@@ -9742,7 +9740,7 @@
         <v>621</v>
       </c>
       <c r="F218" s="1"/>
-      <c r="G218">
+      <c r="G218" s="9">
         <v>61.9</v>
       </c>
     </row>
@@ -9760,7 +9758,7 @@
         <v>792</v>
       </c>
       <c r="F219" s="1"/>
-      <c r="G219">
+      <c r="G219" s="9">
         <v>73.989999999999995</v>
       </c>
     </row>
@@ -9778,7 +9776,7 @@
         <v>793</v>
       </c>
       <c r="F220" s="1"/>
-      <c r="G220">
+      <c r="G220" s="9">
         <v>60.89</v>
       </c>
     </row>
@@ -9796,7 +9794,7 @@
         <v>793</v>
       </c>
       <c r="F221" s="1"/>
-      <c r="G221">
+      <c r="G221" s="9">
         <v>71.3</v>
       </c>
     </row>
@@ -9814,7 +9812,7 @@
         <v>794</v>
       </c>
       <c r="F222" s="1"/>
-      <c r="G222">
+      <c r="G222" s="9">
         <v>70.5</v>
       </c>
     </row>
@@ -9832,7 +9830,7 @@
         <v>795</v>
       </c>
       <c r="F223" s="1"/>
-      <c r="G223">
+      <c r="G223" s="9">
         <v>95.990000000000009</v>
       </c>
     </row>
@@ -9850,7 +9848,7 @@
         <v>796</v>
       </c>
       <c r="F224" s="1"/>
-      <c r="G224">
+      <c r="G224" s="9">
         <v>25.99</v>
       </c>
     </row>
@@ -9868,7 +9866,7 @@
         <v>797</v>
       </c>
       <c r="F225" s="1"/>
-      <c r="G225">
+      <c r="G225" s="9">
         <v>34.89</v>
       </c>
     </row>
@@ -9886,7 +9884,7 @@
         <v>798</v>
       </c>
       <c r="F226" s="1"/>
-      <c r="G226">
+      <c r="G226" s="9">
         <v>42.99</v>
       </c>
     </row>
@@ -9904,7 +9902,7 @@
         <v>621</v>
       </c>
       <c r="F227" s="1"/>
-      <c r="G227">
+      <c r="G227" s="9">
         <v>138.9</v>
       </c>
     </row>
@@ -9922,7 +9920,7 @@
         <v>799</v>
       </c>
       <c r="F228" s="1"/>
-      <c r="G228">
+      <c r="G228" s="9">
         <v>139.80000000000001</v>
       </c>
     </row>
@@ -9940,7 +9938,7 @@
         <v>800</v>
       </c>
       <c r="F229" s="1"/>
-      <c r="G229">
+      <c r="G229" s="9">
         <v>199.9</v>
       </c>
     </row>
@@ -9958,7 +9956,7 @@
         <v>801</v>
       </c>
       <c r="F230" s="1"/>
-      <c r="G230">
+      <c r="G230" s="9">
         <v>12.99</v>
       </c>
       <c r="H230" t="s">
@@ -9979,7 +9977,7 @@
         <v>802</v>
       </c>
       <c r="F231" s="1"/>
-      <c r="G231">
+      <c r="G231" s="9">
         <v>27.9</v>
       </c>
     </row>
@@ -9997,7 +9995,7 @@
         <v>803</v>
       </c>
       <c r="F232" s="1"/>
-      <c r="G232">
+      <c r="G232" s="9">
         <v>68.349999999999994</v>
       </c>
     </row>
@@ -10015,7 +10013,7 @@
         <v>804</v>
       </c>
       <c r="F233" s="1"/>
-      <c r="G233">
+      <c r="G233" s="9">
         <v>37.6</v>
       </c>
     </row>
@@ -10033,7 +10031,7 @@
         <v>805</v>
       </c>
       <c r="F234" s="1"/>
-      <c r="G234">
+      <c r="G234" s="9">
         <v>56.29</v>
       </c>
     </row>
@@ -10051,7 +10049,7 @@
         <v>806</v>
       </c>
       <c r="F235" s="1"/>
-      <c r="G235">
+      <c r="G235" s="9">
         <v>50.39</v>
       </c>
     </row>
@@ -10069,7 +10067,7 @@
         <v>807</v>
       </c>
       <c r="F236" s="1"/>
-      <c r="G236">
+      <c r="G236" s="9">
         <v>119.9</v>
       </c>
     </row>
@@ -10087,7 +10085,7 @@
         <v>808</v>
       </c>
       <c r="F237" s="1"/>
-      <c r="G237">
+      <c r="G237" s="9">
         <v>75.69</v>
       </c>
     </row>
@@ -10105,7 +10103,7 @@
         <v>809</v>
       </c>
       <c r="F238" s="1"/>
-      <c r="G238">
+      <c r="G238" s="9">
         <v>99.9</v>
       </c>
     </row>
@@ -10123,7 +10121,7 @@
         <v>810</v>
       </c>
       <c r="F239" s="1"/>
-      <c r="G239">
+      <c r="G239" s="9">
         <v>27.39</v>
       </c>
     </row>
@@ -10141,7 +10139,7 @@
         <v>811</v>
       </c>
       <c r="F240" s="1"/>
-      <c r="G240">
+      <c r="G240" s="9">
         <v>30.99</v>
       </c>
     </row>
@@ -10159,7 +10157,7 @@
         <v>812</v>
       </c>
       <c r="F241" s="1"/>
-      <c r="G241">
+      <c r="G241" s="9">
         <v>46.7</v>
       </c>
     </row>
@@ -10177,7 +10175,7 @@
         <v>813</v>
       </c>
       <c r="F242" s="1"/>
-      <c r="G242">
+      <c r="G242" s="9">
         <v>22.9</v>
       </c>
       <c r="H242" t="s">
@@ -10198,7 +10196,7 @@
         <v>814</v>
       </c>
       <c r="F243" s="1"/>
-      <c r="G243">
+      <c r="G243" s="9">
         <v>105.49</v>
       </c>
     </row>
@@ -10216,7 +10214,7 @@
         <v>621</v>
       </c>
       <c r="F244" s="1"/>
-      <c r="G244">
+      <c r="G244" s="9">
         <v>58.99</v>
       </c>
     </row>
@@ -10234,7 +10232,7 @@
         <v>815</v>
       </c>
       <c r="F245" s="1"/>
-      <c r="G245">
+      <c r="G245" s="9">
         <v>80.989999999999995</v>
       </c>
     </row>
@@ -10252,7 +10250,7 @@
         <v>621</v>
       </c>
       <c r="F246" s="1"/>
-      <c r="G246">
+      <c r="G246" s="9">
         <v>199.99</v>
       </c>
     </row>
@@ -10270,7 +10268,7 @@
         <v>621</v>
       </c>
       <c r="F247" s="1"/>
-      <c r="G247">
+      <c r="G247" s="9">
         <v>99.9</v>
       </c>
     </row>
@@ -10288,7 +10286,7 @@
         <v>816</v>
       </c>
       <c r="F248" s="1"/>
-      <c r="G248">
+      <c r="G248" s="9">
         <v>135.99</v>
       </c>
     </row>
@@ -10306,7 +10304,7 @@
         <v>817</v>
       </c>
       <c r="F249" s="1"/>
-      <c r="G249">
+      <c r="G249" s="9">
         <v>99.9</v>
       </c>
     </row>
@@ -10324,7 +10322,7 @@
         <v>818</v>
       </c>
       <c r="F250" s="1"/>
-      <c r="G250">
+      <c r="G250" s="9">
         <v>52.69</v>
       </c>
     </row>
@@ -10342,7 +10340,7 @@
         <v>819</v>
       </c>
       <c r="F251" s="1"/>
-      <c r="G251">
+      <c r="G251" s="9">
         <v>113.99</v>
       </c>
     </row>
@@ -10360,7 +10358,7 @@
         <v>820</v>
       </c>
       <c r="F252" s="1"/>
-      <c r="G252">
+      <c r="G252" s="9">
         <v>125.92</v>
       </c>
     </row>
@@ -10378,7 +10376,7 @@
         <v>621</v>
       </c>
       <c r="F253" s="1"/>
-      <c r="G253">
+      <c r="G253" s="9">
         <v>92.69</v>
       </c>
     </row>
@@ -10396,7 +10394,7 @@
         <v>821</v>
       </c>
       <c r="F254" s="1"/>
-      <c r="G254">
+      <c r="G254" s="9">
         <v>214.5</v>
       </c>
     </row>
@@ -10414,7 +10412,7 @@
         <v>822</v>
       </c>
       <c r="F255" s="1"/>
-      <c r="G255">
+      <c r="G255" s="9">
         <v>144.47999999999999</v>
       </c>
     </row>
@@ -10432,7 +10430,7 @@
         <v>823</v>
       </c>
       <c r="F256" s="1"/>
-      <c r="G256">
+      <c r="G256" s="9">
         <v>111.99</v>
       </c>
     </row>
@@ -10450,7 +10448,7 @@
         <v>824</v>
       </c>
       <c r="F257" s="1"/>
-      <c r="G257">
+      <c r="G257" s="9">
         <v>238.2</v>
       </c>
     </row>
@@ -10468,7 +10466,7 @@
         <v>825</v>
       </c>
       <c r="F258" s="1"/>
-      <c r="G258">
+      <c r="G258" s="9">
         <v>113.99</v>
       </c>
     </row>
@@ -10486,7 +10484,7 @@
         <v>826</v>
       </c>
       <c r="F259" s="1"/>
-      <c r="G259">
+      <c r="G259" s="9">
         <v>133.99</v>
       </c>
     </row>
@@ -10504,7 +10502,7 @@
         <v>827</v>
       </c>
       <c r="F260" s="1"/>
-      <c r="G260">
+      <c r="G260" s="9">
         <v>140.4</v>
       </c>
     </row>
@@ -10522,7 +10520,7 @@
         <v>828</v>
       </c>
       <c r="F261" s="1"/>
-      <c r="G261">
+      <c r="G261" s="9">
         <v>88.9</v>
       </c>
     </row>
@@ -10540,7 +10538,7 @@
         <v>829</v>
       </c>
       <c r="F262" s="1"/>
-      <c r="G262">
+      <c r="G262" s="9">
         <v>195.97</v>
       </c>
     </row>
@@ -10558,7 +10556,7 @@
         <v>830</v>
       </c>
       <c r="F263" s="1"/>
-      <c r="G263">
+      <c r="G263" s="9">
         <v>151.47</v>
       </c>
     </row>
@@ -10576,7 +10574,7 @@
         <v>831</v>
       </c>
       <c r="F264" s="1"/>
-      <c r="G264">
+      <c r="G264" s="9">
         <v>45.99</v>
       </c>
       <c r="H264" t="s">
@@ -10597,7 +10595,7 @@
         <v>832</v>
       </c>
       <c r="F265" s="1"/>
-      <c r="G265">
+      <c r="G265" s="9">
         <v>40.99</v>
       </c>
     </row>
@@ -10615,7 +10613,7 @@
         <v>833</v>
       </c>
       <c r="F266" s="1"/>
-      <c r="G266">
+      <c r="G266" s="9">
         <v>31.63</v>
       </c>
     </row>
@@ -10633,7 +10631,7 @@
         <v>834</v>
       </c>
       <c r="F267" s="1"/>
-      <c r="G267">
+      <c r="G267" s="9">
         <v>59.99</v>
       </c>
     </row>
@@ -10651,7 +10649,7 @@
         <v>835</v>
       </c>
       <c r="F268" s="1"/>
-      <c r="G268">
+      <c r="G268" s="9">
         <v>21.4</v>
       </c>
     </row>
@@ -10669,7 +10667,7 @@
         <v>836</v>
       </c>
       <c r="F269" s="1"/>
-      <c r="G269">
+      <c r="G269" s="9">
         <v>144.9</v>
       </c>
     </row>
@@ -10687,7 +10685,7 @@
         <v>837</v>
       </c>
       <c r="F270" s="1"/>
-      <c r="G270">
+      <c r="G270" s="9">
         <v>54.7</v>
       </c>
     </row>
@@ -10705,7 +10703,7 @@
         <v>838</v>
       </c>
       <c r="F271" s="1"/>
-      <c r="G271">
+      <c r="G271" s="9">
         <v>12.5</v>
       </c>
     </row>
@@ -10723,7 +10721,7 @@
         <v>839</v>
       </c>
       <c r="F272" s="1"/>
-      <c r="G272">
+      <c r="G272" s="9">
         <v>17.79</v>
       </c>
     </row>
@@ -10741,7 +10739,7 @@
         <v>840</v>
       </c>
       <c r="F273" s="1"/>
-      <c r="G273">
+      <c r="G273" s="9">
         <v>101.5</v>
       </c>
     </row>
@@ -10759,7 +10757,7 @@
         <v>841</v>
       </c>
       <c r="F274" s="1"/>
-      <c r="G274">
+      <c r="G274" s="9">
         <v>40.9</v>
       </c>
     </row>
@@ -10777,7 +10775,7 @@
         <v>842</v>
       </c>
       <c r="F275" s="1"/>
-      <c r="G275">
+      <c r="G275" s="9">
         <v>52.89</v>
       </c>
     </row>
@@ -10795,7 +10793,7 @@
         <v>621</v>
       </c>
       <c r="F276" s="1"/>
-      <c r="G276">
+      <c r="G276" s="9">
         <v>22.67</v>
       </c>
     </row>
@@ -10813,7 +10811,7 @@
         <v>843</v>
       </c>
       <c r="F277" s="1"/>
-      <c r="G277">
+      <c r="G277" s="9">
         <v>23.67</v>
       </c>
     </row>
@@ -10831,7 +10829,7 @@
         <v>844</v>
       </c>
       <c r="F278" s="1"/>
-      <c r="G278">
+      <c r="G278" s="9">
         <v>23.67</v>
       </c>
     </row>
@@ -10849,7 +10847,7 @@
         <v>845</v>
       </c>
       <c r="F279" s="1"/>
-      <c r="G279">
+      <c r="G279" s="9">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -10867,7 +10865,7 @@
         <v>846</v>
       </c>
       <c r="F280" s="1"/>
-      <c r="G280">
+      <c r="G280" s="9">
         <v>27</v>
       </c>
     </row>
@@ -10885,7 +10883,7 @@
         <v>847</v>
       </c>
       <c r="F281" s="1"/>
-      <c r="G281">
+      <c r="G281" s="9">
         <v>29.99</v>
       </c>
     </row>
@@ -10903,7 +10901,7 @@
         <v>848</v>
       </c>
       <c r="F282" s="1"/>
-      <c r="G282">
+      <c r="G282" s="9">
         <v>18.190000000000001</v>
       </c>
     </row>
@@ -10921,7 +10919,7 @@
         <v>849</v>
       </c>
       <c r="F283" s="1"/>
-      <c r="G283">
+      <c r="G283" s="9">
         <v>28.9</v>
       </c>
     </row>
@@ -10939,7 +10937,7 @@
         <v>850</v>
       </c>
       <c r="F284" s="1"/>
-      <c r="G284">
+      <c r="G284" s="9">
         <v>22.9</v>
       </c>
     </row>
@@ -10957,7 +10955,7 @@
         <v>851</v>
       </c>
       <c r="F285" s="1"/>
-      <c r="G285">
+      <c r="G285" s="9">
         <v>50.64</v>
       </c>
     </row>
@@ -10975,7 +10973,7 @@
         <v>852</v>
       </c>
       <c r="F286" s="1"/>
-      <c r="G286">
+      <c r="G286" s="9">
         <v>99.9</v>
       </c>
     </row>
@@ -10993,7 +10991,7 @@
         <v>853</v>
       </c>
       <c r="F287" s="1"/>
-      <c r="G287">
+      <c r="G287" s="9">
         <v>137.99</v>
       </c>
     </row>
@@ -11011,7 +11009,7 @@
         <v>854</v>
       </c>
       <c r="F288" s="1"/>
-      <c r="G288">
+      <c r="G288" s="9">
         <v>27.69</v>
       </c>
     </row>
@@ -11029,7 +11027,7 @@
         <v>855</v>
       </c>
       <c r="F289" s="1"/>
-      <c r="G289">
+      <c r="G289" s="9">
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -11047,7 +11045,7 @@
         <v>621</v>
       </c>
       <c r="F290" s="1"/>
-      <c r="G290">
+      <c r="G290" s="9">
         <v>20.49</v>
       </c>
     </row>
@@ -11065,7 +11063,7 @@
         <v>856</v>
       </c>
       <c r="F291" s="1"/>
-      <c r="G291">
+      <c r="G291" s="9">
         <v>14.2</v>
       </c>
     </row>
@@ -11083,7 +11081,7 @@
         <v>857</v>
       </c>
       <c r="F292" s="1"/>
-      <c r="G292">
+      <c r="G292" s="9">
         <v>14.99</v>
       </c>
     </row>
@@ -11101,7 +11099,7 @@
         <v>858</v>
       </c>
       <c r="F293" s="1"/>
-      <c r="G293">
+      <c r="G293" s="9">
         <v>23.9</v>
       </c>
     </row>
@@ -11119,7 +11117,7 @@
         <v>859</v>
       </c>
       <c r="F294" s="1"/>
-      <c r="G294">
+      <c r="G294" s="9">
         <v>36.99</v>
       </c>
     </row>
@@ -11137,7 +11135,7 @@
         <v>860</v>
       </c>
       <c r="F295" s="1"/>
-      <c r="G295">
+      <c r="G295" s="9">
         <v>33.99</v>
       </c>
     </row>
@@ -11155,7 +11153,7 @@
         <v>861</v>
       </c>
       <c r="F296" s="1"/>
-      <c r="G296">
+      <c r="G296" s="9">
         <v>83.99</v>
       </c>
     </row>
@@ -11173,7 +11171,7 @@
         <v>862</v>
       </c>
       <c r="F297" s="1"/>
-      <c r="G297">
+      <c r="G297" s="9">
         <v>74.39</v>
       </c>
     </row>
@@ -11191,7 +11189,7 @@
         <v>863</v>
       </c>
       <c r="F298" s="1"/>
-      <c r="G298">
+      <c r="G298" s="9">
         <v>32.799999999999997</v>
       </c>
     </row>
@@ -11209,7 +11207,7 @@
         <v>863</v>
       </c>
       <c r="F299" s="1"/>
-      <c r="G299">
+      <c r="G299" s="9">
         <v>39.9</v>
       </c>
     </row>
@@ -11227,7 +11225,7 @@
         <v>864</v>
       </c>
       <c r="F300" s="1"/>
-      <c r="G300">
+      <c r="G300" s="9">
         <v>61.99</v>
       </c>
     </row>
@@ -11245,7 +11243,7 @@
         <v>865</v>
       </c>
       <c r="F301" s="1"/>
-      <c r="G301">
+      <c r="G301" s="9">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -11263,7 +11261,7 @@
         <v>866</v>
       </c>
       <c r="F302" s="1"/>
-      <c r="G302">
+      <c r="G302" s="9">
         <v>28.8</v>
       </c>
     </row>
@@ -11281,7 +11279,7 @@
         <v>867</v>
       </c>
       <c r="F303" s="1"/>
-      <c r="G303">
+      <c r="G303" s="9">
         <v>23.69</v>
       </c>
     </row>
@@ -11299,7 +11297,7 @@
         <v>868</v>
       </c>
       <c r="F304" s="1"/>
-      <c r="G304">
+      <c r="G304" s="9">
         <v>11.7</v>
       </c>
     </row>
@@ -11317,7 +11315,7 @@
         <v>869</v>
       </c>
       <c r="F305" s="1"/>
-      <c r="G305">
+      <c r="G305" s="9">
         <v>28.25</v>
       </c>
     </row>
@@ -11335,7 +11333,7 @@
         <v>870</v>
       </c>
       <c r="F306" s="1"/>
-      <c r="G306">
+      <c r="G306" s="9">
         <v>22.3</v>
       </c>
     </row>
@@ -11353,7 +11351,7 @@
         <v>621</v>
       </c>
       <c r="F307" s="1"/>
-      <c r="G307">
+      <c r="G307" s="9">
         <v>75</v>
       </c>
     </row>
@@ -11371,7 +11369,7 @@
         <v>871</v>
       </c>
       <c r="F308" s="1"/>
-      <c r="G308">
+      <c r="G308" s="9">
         <v>25.49</v>
       </c>
     </row>
@@ -11389,7 +11387,7 @@
         <v>872</v>
       </c>
       <c r="F309" s="1"/>
-      <c r="G309">
+      <c r="G309" s="9">
         <v>24.9</v>
       </c>
     </row>
@@ -11407,7 +11405,7 @@
         <v>873</v>
       </c>
       <c r="F310" s="1"/>
-      <c r="G310">
+      <c r="G310" s="9">
         <v>44.99</v>
       </c>
     </row>
@@ -11425,7 +11423,7 @@
         <v>874</v>
       </c>
       <c r="F311" s="1"/>
-      <c r="G311">
+      <c r="G311" s="9">
         <v>33.99</v>
       </c>
     </row>
@@ -11443,7 +11441,7 @@
         <v>875</v>
       </c>
       <c r="F312" s="1"/>
-      <c r="G312">
+      <c r="G312" s="9">
         <v>15.39</v>
       </c>
     </row>
@@ -11461,7 +11459,7 @@
         <v>876</v>
       </c>
       <c r="F313" s="1"/>
-      <c r="G313">
+      <c r="G313" s="9">
         <v>15</v>
       </c>
     </row>
@@ -11479,7 +11477,7 @@
         <v>877</v>
       </c>
       <c r="F314" s="1"/>
-      <c r="G314">
+      <c r="G314" s="9">
         <v>18.690000000000001</v>
       </c>
     </row>
@@ -11497,7 +11495,7 @@
         <v>878</v>
       </c>
       <c r="F315" s="1"/>
-      <c r="G315">
+      <c r="G315" s="9">
         <v>15.5</v>
       </c>
     </row>
@@ -11515,7 +11513,7 @@
         <v>879</v>
       </c>
       <c r="F316" s="1"/>
-      <c r="G316">
+      <c r="G316" s="9">
         <v>50.4</v>
       </c>
     </row>
@@ -11533,7 +11531,7 @@
         <v>880</v>
       </c>
       <c r="F317" s="1"/>
-      <c r="G317">
+      <c r="G317" s="9">
         <v>55.19</v>
       </c>
     </row>
@@ -11551,7 +11549,7 @@
         <v>881</v>
       </c>
       <c r="F318" s="1"/>
-      <c r="G318">
+      <c r="G318" s="9">
         <v>20.39</v>
       </c>
     </row>
@@ -11569,7 +11567,7 @@
         <v>882</v>
       </c>
       <c r="F319" s="1"/>
-      <c r="G319">
+      <c r="G319" s="9">
         <v>41.85</v>
       </c>
     </row>
@@ -11587,7 +11585,7 @@
         <v>883</v>
       </c>
       <c r="F320" s="1"/>
-      <c r="G320">
+      <c r="G320" s="9">
         <v>93.15</v>
       </c>
     </row>
@@ -11605,7 +11603,7 @@
         <v>621</v>
       </c>
       <c r="F321" s="1"/>
-      <c r="G321">
+      <c r="G321" s="9">
         <v>27.69</v>
       </c>
     </row>
@@ -11623,7 +11621,7 @@
         <v>884</v>
       </c>
       <c r="F322" s="1"/>
-      <c r="G322">
+      <c r="G322" s="9">
         <v>47.88</v>
       </c>
     </row>
@@ -11641,7 +11639,7 @@
         <v>885</v>
       </c>
       <c r="F323" s="1"/>
-      <c r="G323">
+      <c r="G323" s="9">
         <v>42.5</v>
       </c>
     </row>
@@ -11659,7 +11657,7 @@
         <v>886</v>
       </c>
       <c r="F324" s="1"/>
-      <c r="G324">
+      <c r="G324" s="9">
         <v>22.9</v>
       </c>
     </row>
@@ -11677,7 +11675,7 @@
         <v>887</v>
       </c>
       <c r="F325" s="1"/>
-      <c r="G325">
+      <c r="G325" s="9">
         <v>17.75</v>
       </c>
     </row>
@@ -11695,7 +11693,7 @@
         <v>888</v>
       </c>
       <c r="F326" s="1"/>
-      <c r="G326">
+      <c r="G326" s="9">
         <v>25.8</v>
       </c>
     </row>
@@ -11713,7 +11711,7 @@
         <v>889</v>
       </c>
       <c r="F327" s="1"/>
-      <c r="G327">
+      <c r="G327" s="9">
         <v>25.65</v>
       </c>
     </row>
@@ -11731,7 +11729,7 @@
         <v>890</v>
       </c>
       <c r="F328" s="1"/>
-      <c r="G328">
+      <c r="G328" s="9">
         <v>13.31</v>
       </c>
     </row>
@@ -11749,7 +11747,7 @@
         <v>891</v>
       </c>
       <c r="F329" s="1"/>
-      <c r="G329">
+      <c r="G329" s="9">
         <v>12.14</v>
       </c>
     </row>
@@ -11767,7 +11765,7 @@
         <v>892</v>
       </c>
       <c r="F330" s="1"/>
-      <c r="G330">
+      <c r="G330" s="9">
         <v>12.18</v>
       </c>
     </row>
@@ -11785,7 +11783,7 @@
         <v>893</v>
       </c>
       <c r="F331" s="1"/>
-      <c r="G331">
+      <c r="G331" s="9">
         <v>22.89</v>
       </c>
     </row>
@@ -11803,7 +11801,7 @@
         <v>894</v>
       </c>
       <c r="F332" s="1"/>
-      <c r="G332">
+      <c r="G332" s="9">
         <v>13.99</v>
       </c>
     </row>
@@ -11821,7 +11819,7 @@
         <v>895</v>
       </c>
       <c r="F333" s="1"/>
-      <c r="G333">
+      <c r="G333" s="9">
         <v>44.99</v>
       </c>
     </row>
@@ -11839,7 +11837,7 @@
         <v>896</v>
       </c>
       <c r="F334" s="1"/>
-      <c r="G334">
+      <c r="G334" s="9">
         <v>50.79</v>
       </c>
     </row>
@@ -11857,7 +11855,7 @@
         <v>897</v>
       </c>
       <c r="F335" s="1"/>
-      <c r="G335">
+      <c r="G335" s="9">
         <v>106.9</v>
       </c>
     </row>
@@ -11875,7 +11873,7 @@
         <v>898</v>
       </c>
       <c r="F336" s="1"/>
-      <c r="G336">
+      <c r="G336" s="9">
         <v>8.4</v>
       </c>
     </row>
@@ -11893,7 +11891,7 @@
         <v>899</v>
       </c>
       <c r="F337" s="1"/>
-      <c r="G337">
+      <c r="G337" s="9">
         <v>81.69</v>
       </c>
     </row>
@@ -11911,7 +11909,7 @@
         <v>900</v>
       </c>
       <c r="F338" s="1"/>
-      <c r="G338">
+      <c r="G338" s="9">
         <v>65.69</v>
       </c>
     </row>
@@ -11929,7 +11927,7 @@
         <v>901</v>
       </c>
       <c r="F339" s="1"/>
-      <c r="G339">
+      <c r="G339" s="9">
         <v>30.99</v>
       </c>
     </row>
@@ -11947,7 +11945,7 @@
         <v>902</v>
       </c>
       <c r="F340" s="1"/>
-      <c r="G340">
+      <c r="G340" s="9">
         <v>97.5</v>
       </c>
     </row>
@@ -11965,7 +11963,7 @@
         <v>903</v>
       </c>
       <c r="F341" s="1"/>
-      <c r="G341">
+      <c r="G341" s="9">
         <v>32.99</v>
       </c>
     </row>
@@ -11983,7 +11981,7 @@
         <v>904</v>
       </c>
       <c r="F342" s="1"/>
-      <c r="G342">
+      <c r="G342" s="9">
         <v>138.9</v>
       </c>
     </row>
@@ -12001,7 +11999,7 @@
         <v>905</v>
       </c>
       <c r="F343" s="1"/>
-      <c r="G343">
+      <c r="G343" s="9">
         <v>213.8</v>
       </c>
     </row>
@@ -12019,7 +12017,7 @@
         <v>906</v>
       </c>
       <c r="F344" s="1"/>
-      <c r="G344">
+      <c r="G344" s="9">
         <v>134.9</v>
       </c>
     </row>
@@ -12037,7 +12035,7 @@
         <v>907</v>
       </c>
       <c r="F345" s="1"/>
-      <c r="G345">
+      <c r="G345" s="9">
         <v>29.69</v>
       </c>
     </row>
@@ -12055,7 +12053,7 @@
         <v>908</v>
       </c>
       <c r="F346" s="1"/>
-      <c r="G346">
+      <c r="G346" s="9">
         <v>135.9</v>
       </c>
     </row>
@@ -12073,7 +12071,7 @@
         <v>909</v>
       </c>
       <c r="F347" s="1"/>
-      <c r="G347">
+      <c r="G347" s="9">
         <v>50.99</v>
       </c>
     </row>
@@ -12091,7 +12089,7 @@
         <v>910</v>
       </c>
       <c r="F348" s="1"/>
-      <c r="G348">
+      <c r="G348" s="9">
         <v>61.29</v>
       </c>
     </row>
@@ -12109,7 +12107,7 @@
         <v>911</v>
       </c>
       <c r="F349" s="1"/>
-      <c r="G349">
+      <c r="G349" s="9">
         <v>32.99</v>
       </c>
     </row>
@@ -12127,7 +12125,7 @@
         <v>912</v>
       </c>
       <c r="F350" s="1"/>
-      <c r="G350">
+      <c r="G350" s="9">
         <v>149.80000000000001</v>
       </c>
     </row>
@@ -12145,7 +12143,7 @@
         <v>913</v>
       </c>
       <c r="F351" s="1"/>
-      <c r="G351">
+      <c r="G351" s="9">
         <v>134.80000000000001</v>
       </c>
     </row>
@@ -12163,7 +12161,7 @@
         <v>914</v>
       </c>
       <c r="F352" s="1"/>
-      <c r="G352">
+      <c r="G352" s="9">
         <v>57.9</v>
       </c>
     </row>
@@ -12181,7 +12179,7 @@
         <v>915</v>
       </c>
       <c r="F353" s="1"/>
-      <c r="G353">
+      <c r="G353" s="9">
         <v>30.9</v>
       </c>
     </row>
@@ -12199,7 +12197,7 @@
         <v>916</v>
       </c>
       <c r="F354" s="1"/>
-      <c r="G354">
+      <c r="G354" s="9">
         <v>256.5</v>
       </c>
     </row>
@@ -12217,7 +12215,7 @@
         <v>917</v>
       </c>
       <c r="F355" s="1"/>
-      <c r="G355">
+      <c r="G355" s="9">
         <v>61.5</v>
       </c>
     </row>
@@ -12235,7 +12233,7 @@
         <v>621</v>
       </c>
       <c r="F356" s="1"/>
-      <c r="G356">
+      <c r="G356" s="9">
         <v>114.25</v>
       </c>
     </row>
@@ -12253,7 +12251,7 @@
         <v>918</v>
       </c>
       <c r="F357" s="1"/>
-      <c r="G357">
+      <c r="G357" s="9">
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -12271,7 +12269,7 @@
         <v>919</v>
       </c>
       <c r="F358" s="1"/>
-      <c r="G358">
+      <c r="G358" s="9">
         <v>49.89</v>
       </c>
     </row>
@@ -12289,7 +12287,7 @@
         <v>920</v>
       </c>
       <c r="F359" s="1"/>
-      <c r="G359">
+      <c r="G359" s="9">
         <v>157.9</v>
       </c>
     </row>
@@ -12307,7 +12305,7 @@
         <v>921</v>
       </c>
       <c r="F360" s="1"/>
-      <c r="G360">
+      <c r="G360" s="9">
         <v>210.99</v>
       </c>
     </row>
@@ -12325,7 +12323,7 @@
         <v>621</v>
       </c>
       <c r="F361" s="1"/>
-      <c r="G361">
+      <c r="G361" s="9">
         <v>134.25</v>
       </c>
     </row>
@@ -12343,7 +12341,7 @@
         <v>922</v>
       </c>
       <c r="F362" s="1"/>
-      <c r="G362">
+      <c r="G362" s="9">
         <v>35.9</v>
       </c>
     </row>
@@ -12361,7 +12359,7 @@
         <v>923</v>
       </c>
       <c r="F363" s="1"/>
-      <c r="G363">
+      <c r="G363" s="9">
         <v>32.11</v>
       </c>
     </row>
@@ -12379,7 +12377,7 @@
         <v>924</v>
       </c>
       <c r="F364" s="1"/>
-      <c r="G364">
+      <c r="G364" s="9">
         <v>46.9</v>
       </c>
     </row>
@@ -12397,7 +12395,7 @@
         <v>925</v>
       </c>
       <c r="F365" s="1"/>
-      <c r="G365">
+      <c r="G365" s="9">
         <v>57.59</v>
       </c>
     </row>
@@ -12415,7 +12413,7 @@
         <v>926</v>
       </c>
       <c r="F366" s="1"/>
-      <c r="G366">
+      <c r="G366" s="9">
         <v>39.9</v>
       </c>
     </row>
@@ -12433,7 +12431,7 @@
         <v>927</v>
       </c>
       <c r="F367" s="1"/>
-      <c r="G367">
+      <c r="G367" s="9">
         <v>50.4</v>
       </c>
     </row>
@@ -12451,7 +12449,7 @@
         <v>928</v>
       </c>
       <c r="F368" s="1"/>
-      <c r="G368">
+      <c r="G368" s="9">
         <v>34.9</v>
       </c>
     </row>
@@ -12469,7 +12467,7 @@
         <v>929</v>
       </c>
       <c r="F369" s="1"/>
-      <c r="G369">
+      <c r="G369" s="9">
         <v>22.8</v>
       </c>
     </row>
@@ -12487,7 +12485,7 @@
         <v>930</v>
       </c>
       <c r="F370" s="1"/>
-      <c r="G370">
+      <c r="G370" s="9">
         <v>59.9</v>
       </c>
     </row>
@@ -12505,7 +12503,7 @@
         <v>931</v>
       </c>
       <c r="F371" s="1"/>
-      <c r="G371">
+      <c r="G371" s="9">
         <v>35.9</v>
       </c>
     </row>
@@ -12523,7 +12521,7 @@
         <v>932</v>
       </c>
       <c r="F372" s="1"/>
-      <c r="G372">
+      <c r="G372" s="9">
         <v>22.56</v>
       </c>
     </row>
@@ -12541,7 +12539,7 @@
         <v>621</v>
       </c>
       <c r="F373" s="1"/>
-      <c r="G373">
+      <c r="G373" s="9">
         <v>44.82</v>
       </c>
     </row>
@@ -12559,7 +12557,7 @@
         <v>933</v>
       </c>
       <c r="F374" s="1"/>
-      <c r="G374">
+      <c r="G374" s="9">
         <v>103.2</v>
       </c>
     </row>
@@ -12577,7 +12575,7 @@
         <v>934</v>
       </c>
       <c r="F375" s="1"/>
-      <c r="G375">
+      <c r="G375" s="9">
         <v>76.989999999999995</v>
       </c>
     </row>
@@ -12595,7 +12593,7 @@
         <v>935</v>
       </c>
       <c r="F376" s="1"/>
-      <c r="G376">
+      <c r="G376" s="9">
         <v>49.25</v>
       </c>
     </row>
@@ -12613,7 +12611,7 @@
         <v>936</v>
       </c>
       <c r="F377" s="1"/>
-      <c r="G377">
+      <c r="G377" s="9">
         <v>52.5</v>
       </c>
     </row>
@@ -12631,7 +12629,7 @@
         <v>937</v>
       </c>
       <c r="F378" s="1"/>
-      <c r="G378">
+      <c r="G378" s="9">
         <v>23.34</v>
       </c>
     </row>
@@ -12649,7 +12647,7 @@
         <v>938</v>
       </c>
       <c r="F379" s="1"/>
-      <c r="G379">
+      <c r="G379" s="9">
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -12667,7 +12665,7 @@
         <v>938</v>
       </c>
       <c r="F380" s="1"/>
-      <c r="G380">
+      <c r="G380" s="9">
         <v>14.15</v>
       </c>
     </row>
@@ -12685,7 +12683,7 @@
         <v>939</v>
       </c>
       <c r="F381" s="1"/>
-      <c r="G381">
+      <c r="G381" s="9">
         <v>115.99</v>
       </c>
     </row>
@@ -12703,7 +12701,7 @@
         <v>940</v>
       </c>
       <c r="F382" s="1"/>
-      <c r="G382">
+      <c r="G382" s="9">
         <v>88.600000000000009</v>
       </c>
     </row>
@@ -12721,7 +12719,7 @@
         <v>941</v>
       </c>
       <c r="F383" s="1"/>
-      <c r="G383">
+      <c r="G383" s="9">
         <v>210.99</v>
       </c>
     </row>
@@ -12739,7 +12737,7 @@
         <v>942</v>
       </c>
       <c r="F384" s="1"/>
-      <c r="G384">
+      <c r="G384" s="9">
         <v>4.1900000000000004</v>
       </c>
     </row>
@@ -12757,7 +12755,7 @@
         <v>943</v>
       </c>
       <c r="F385" s="1"/>
-      <c r="G385">
+      <c r="G385" s="9">
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -12775,7 +12773,7 @@
         <v>944</v>
       </c>
       <c r="F386" s="1"/>
-      <c r="G386">
+      <c r="G386" s="9">
         <v>117.9</v>
       </c>
     </row>
@@ -12793,7 +12791,7 @@
         <v>945</v>
       </c>
       <c r="F387" s="1"/>
-      <c r="G387">
+      <c r="G387" s="9">
         <v>107.9</v>
       </c>
     </row>
@@ -12811,7 +12809,7 @@
         <v>621</v>
       </c>
       <c r="F388" s="1"/>
-      <c r="G388">
+      <c r="G388" s="9">
         <v>113.99</v>
       </c>
     </row>
@@ -12829,7 +12827,7 @@
         <v>946</v>
       </c>
       <c r="F389" s="1"/>
-      <c r="G389">
+      <c r="G389" s="9">
         <v>38.49</v>
       </c>
       <c r="H389" t="s">
@@ -12850,7 +12848,7 @@
         <v>947</v>
       </c>
       <c r="F390" s="1"/>
-      <c r="G390">
+      <c r="G390" s="9">
         <v>43.9</v>
       </c>
     </row>
@@ -12868,7 +12866,7 @@
         <v>948</v>
       </c>
       <c r="F391" s="1"/>
-      <c r="G391">
+      <c r="G391" s="9">
         <v>13.13</v>
       </c>
     </row>
@@ -12886,7 +12884,7 @@
         <v>949</v>
       </c>
       <c r="F392" s="1"/>
-      <c r="G392">
+      <c r="G392" s="9">
         <v>64.19</v>
       </c>
     </row>
@@ -12904,7 +12902,7 @@
         <v>950</v>
       </c>
       <c r="F393" s="1"/>
-      <c r="G393">
+      <c r="G393" s="9">
         <v>199.4</v>
       </c>
     </row>
@@ -12922,7 +12920,7 @@
         <v>951</v>
       </c>
       <c r="F394" s="1"/>
-      <c r="G394">
+      <c r="G394" s="9">
         <v>54.99</v>
       </c>
     </row>
@@ -12940,7 +12938,7 @@
         <v>952</v>
       </c>
       <c r="F395" s="1"/>
-      <c r="G395">
+      <c r="G395" s="9">
         <v>85.9</v>
       </c>
     </row>
@@ -12958,7 +12956,7 @@
         <v>953</v>
       </c>
       <c r="F396" s="1"/>
-      <c r="G396">
+      <c r="G396" s="9">
         <v>107.9</v>
       </c>
     </row>
@@ -12976,7 +12974,7 @@
         <v>954</v>
       </c>
       <c r="F397" s="1"/>
-      <c r="G397">
+      <c r="G397" s="9">
         <v>75.69</v>
       </c>
     </row>
@@ -12994,7 +12992,7 @@
         <v>955</v>
       </c>
       <c r="F398" s="1"/>
-      <c r="G398">
+      <c r="G398" s="9">
         <v>36.299999999999997</v>
       </c>
     </row>
@@ -13012,7 +13010,7 @@
         <v>956</v>
       </c>
       <c r="F399" s="1"/>
-      <c r="G399">
+      <c r="G399" s="9">
         <v>6.29</v>
       </c>
     </row>
@@ -13030,7 +13028,7 @@
         <v>957</v>
       </c>
       <c r="F400" s="1"/>
-      <c r="G400">
+      <c r="G400" s="9">
         <v>284</v>
       </c>
     </row>
@@ -13048,7 +13046,7 @@
         <v>958</v>
       </c>
       <c r="F401" s="1"/>
-      <c r="G401">
+      <c r="G401" s="9">
         <v>599</v>
       </c>
     </row>
@@ -13066,7 +13064,7 @@
         <v>959</v>
       </c>
       <c r="F402" s="1"/>
-      <c r="G402">
+      <c r="G402" s="9">
         <v>63.5</v>
       </c>
     </row>
@@ -13084,7 +13082,7 @@
         <v>621</v>
       </c>
       <c r="F403" s="1"/>
-      <c r="G403">
+      <c r="G403" s="9">
         <v>279.92</v>
       </c>
     </row>
@@ -13102,7 +13100,7 @@
         <v>960</v>
       </c>
       <c r="F404" s="1"/>
-      <c r="G404">
+      <c r="G404" s="9">
         <v>199.9</v>
       </c>
     </row>
@@ -13120,7 +13118,7 @@
         <v>961</v>
       </c>
       <c r="F405" s="1"/>
-      <c r="G405">
+      <c r="G405" s="9">
         <v>106.2</v>
       </c>
     </row>
@@ -13138,7 +13136,7 @@
         <v>962</v>
       </c>
       <c r="F406" s="1"/>
-      <c r="G406">
+      <c r="G406" s="9">
         <v>47.25</v>
       </c>
     </row>
@@ -13156,7 +13154,7 @@
         <v>963</v>
       </c>
       <c r="F407" s="1"/>
-      <c r="G407">
+      <c r="G407" s="9">
         <v>131.6</v>
       </c>
     </row>
@@ -13174,7 +13172,7 @@
         <v>964</v>
       </c>
       <c r="F408" s="1"/>
-      <c r="G408">
+      <c r="G408" s="9">
         <v>10.9</v>
       </c>
     </row>
@@ -13192,7 +13190,7 @@
         <v>965</v>
       </c>
       <c r="F409" s="1"/>
-      <c r="G409">
+      <c r="G409" s="9">
         <v>3.99</v>
       </c>
     </row>
@@ -13210,7 +13208,7 @@
         <v>966</v>
       </c>
       <c r="F410" s="1"/>
-      <c r="G410">
+      <c r="G410" s="9">
         <v>95</v>
       </c>
     </row>
@@ -13228,7 +13226,7 @@
         <v>967</v>
       </c>
       <c r="F411" s="1"/>
-      <c r="G411">
+      <c r="G411" s="9">
         <v>5.9</v>
       </c>
     </row>
@@ -13246,7 +13244,7 @@
         <v>621</v>
       </c>
       <c r="F412" s="1"/>
-      <c r="G412">
+      <c r="G412" s="9">
         <v>121.8</v>
       </c>
     </row>
@@ -13264,7 +13262,7 @@
         <v>968</v>
       </c>
       <c r="F413" s="1"/>
-      <c r="G413">
+      <c r="G413" s="9">
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -13282,7 +13280,7 @@
         <v>969</v>
       </c>
       <c r="F414" s="1"/>
-      <c r="G414">
+      <c r="G414" s="9">
         <v>28.99</v>
       </c>
     </row>
@@ -13300,7 +13298,7 @@
         <v>970</v>
       </c>
       <c r="F415" s="1"/>
-      <c r="G415">
+      <c r="G415" s="9">
         <v>167.36</v>
       </c>
     </row>
@@ -13318,7 +13316,7 @@
         <v>971</v>
       </c>
       <c r="F416" s="1"/>
-      <c r="G416">
+      <c r="G416" s="9">
         <v>71.900000000000006</v>
       </c>
     </row>
@@ -13336,7 +13334,7 @@
         <v>972</v>
       </c>
       <c r="F417" s="1"/>
-      <c r="G417">
+      <c r="G417" s="9">
         <v>34.65</v>
       </c>
     </row>
@@ -13354,7 +13352,7 @@
         <v>621</v>
       </c>
       <c r="F418" s="1"/>
-      <c r="G418">
+      <c r="G418" s="9">
         <v>40.700000000000003</v>
       </c>
     </row>
@@ -13372,7 +13370,7 @@
         <v>973</v>
       </c>
       <c r="F419" s="1"/>
-      <c r="G419">
+      <c r="G419" s="9">
         <v>228</v>
       </c>
     </row>
@@ -13390,7 +13388,7 @@
         <v>974</v>
       </c>
       <c r="F420" s="1"/>
-      <c r="G420">
+      <c r="G420" s="9">
         <v>55.29</v>
       </c>
     </row>
@@ -13408,7 +13406,7 @@
         <v>975</v>
       </c>
       <c r="F421" s="1"/>
-      <c r="G421">
+      <c r="G421" s="9">
         <v>10.99</v>
       </c>
     </row>
@@ -13426,7 +13424,7 @@
         <v>976</v>
       </c>
       <c r="F422" s="1"/>
-      <c r="G422">
+      <c r="G422" s="9">
         <v>43.6</v>
       </c>
     </row>
@@ -13444,7 +13442,7 @@
         <v>977</v>
       </c>
       <c r="F423" s="1"/>
-      <c r="G423">
+      <c r="G423" s="9">
         <v>86.99</v>
       </c>
     </row>
@@ -13462,7 +13460,7 @@
         <v>978</v>
       </c>
       <c r="F424" s="1"/>
-      <c r="G424">
+      <c r="G424" s="9">
         <v>83.69</v>
       </c>
     </row>
@@ -13480,7 +13478,7 @@
         <v>621</v>
       </c>
       <c r="F425" s="1"/>
-      <c r="G425">
+      <c r="G425" s="9">
         <v>129.99</v>
       </c>
     </row>
@@ -13498,7 +13496,7 @@
         <v>621</v>
       </c>
       <c r="F426" s="1"/>
-      <c r="G426">
+      <c r="G426" s="9">
         <v>139.80000000000001</v>
       </c>
     </row>
@@ -13516,7 +13514,7 @@
         <v>979</v>
       </c>
       <c r="F427" s="1"/>
-      <c r="G427">
+      <c r="G427" s="9">
         <v>101.5</v>
       </c>
     </row>
@@ -13534,7 +13532,7 @@
         <v>980</v>
       </c>
       <c r="F428" s="1"/>
-      <c r="G428">
+      <c r="G428" s="9">
         <v>102.49</v>
       </c>
     </row>
@@ -13552,7 +13550,7 @@
         <v>621</v>
       </c>
       <c r="F429" s="1"/>
-      <c r="G429">
+      <c r="G429" s="9">
         <v>177.99</v>
       </c>
     </row>
@@ -13570,7 +13568,7 @@
         <v>981</v>
       </c>
       <c r="F430" s="1"/>
-      <c r="G430">
+      <c r="G430" s="9">
         <v>132</v>
       </c>
     </row>
@@ -13588,7 +13586,7 @@
         <v>982</v>
       </c>
       <c r="F431" s="1"/>
-      <c r="G431">
+      <c r="G431" s="9">
         <v>73.900000000000006</v>
       </c>
     </row>
@@ -13606,7 +13604,7 @@
         <v>983</v>
       </c>
       <c r="F432" s="1"/>
-      <c r="G432">
+      <c r="G432" s="9">
         <v>95.9</v>
       </c>
     </row>
@@ -13624,7 +13622,7 @@
         <v>984</v>
       </c>
       <c r="F433" s="1"/>
-      <c r="G433">
+      <c r="G433" s="9">
         <v>59.99</v>
       </c>
     </row>
@@ -13642,7 +13640,7 @@
         <v>985</v>
       </c>
       <c r="F434" s="1"/>
-      <c r="G434">
+      <c r="G434" s="9">
         <v>65.89</v>
       </c>
     </row>
@@ -13660,7 +13658,7 @@
         <v>986</v>
       </c>
       <c r="F435" s="1"/>
-      <c r="G435">
+      <c r="G435" s="9">
         <v>82.79</v>
       </c>
     </row>
@@ -13678,7 +13676,7 @@
         <v>621</v>
       </c>
       <c r="F436" s="1"/>
-      <c r="G436">
+      <c r="G436" s="9">
         <v>0</v>
       </c>
     </row>
@@ -13696,7 +13694,7 @@
         <v>987</v>
       </c>
       <c r="F437" s="1"/>
-      <c r="G437">
+      <c r="G437" s="9">
         <v>52.49</v>
       </c>
     </row>
@@ -13714,7 +13712,7 @@
         <v>621</v>
       </c>
       <c r="F438" s="1"/>
-      <c r="G438">
+      <c r="G438" s="9">
         <v>23.67</v>
       </c>
     </row>
@@ -13732,7 +13730,7 @@
         <v>988</v>
       </c>
       <c r="F439" s="1"/>
-      <c r="G439">
+      <c r="G439" s="9">
         <v>133.4</v>
       </c>
     </row>
@@ -13750,7 +13748,7 @@
         <v>989</v>
       </c>
       <c r="F440" s="1"/>
-      <c r="G440">
+      <c r="G440" s="9">
         <v>99.9</v>
       </c>
     </row>
@@ -13768,7 +13766,7 @@
         <v>990</v>
       </c>
       <c r="F441" s="1"/>
-      <c r="G441">
+      <c r="G441" s="9">
         <v>88.9</v>
       </c>
     </row>
@@ -13786,7 +13784,7 @@
         <v>991</v>
       </c>
       <c r="F442" s="1"/>
-      <c r="G442">
+      <c r="G442" s="9">
         <v>197.79</v>
       </c>
     </row>
@@ -13804,7 +13802,7 @@
         <v>992</v>
       </c>
       <c r="F443" s="1"/>
-      <c r="G443">
+      <c r="G443" s="9">
         <v>49.99</v>
       </c>
     </row>
@@ -13822,7 +13820,7 @@
         <v>993</v>
       </c>
       <c r="F444" s="1"/>
-      <c r="G444">
+      <c r="G444" s="9">
         <v>127.29</v>
       </c>
     </row>
@@ -13840,7 +13838,7 @@
         <v>994</v>
       </c>
       <c r="F445" s="1"/>
-      <c r="G445">
+      <c r="G445" s="9">
         <v>137.80000000000001</v>
       </c>
     </row>
@@ -13858,7 +13856,7 @@
         <v>995</v>
       </c>
       <c r="F446" s="1"/>
-      <c r="G446">
+      <c r="G446" s="9">
         <v>108.39</v>
       </c>
     </row>
@@ -13876,7 +13874,7 @@
         <v>996</v>
       </c>
       <c r="F447" s="1"/>
-      <c r="G447">
+      <c r="G447" s="9">
         <v>109.45</v>
       </c>
     </row>
@@ -13894,7 +13892,7 @@
         <v>621</v>
       </c>
       <c r="F448" s="1"/>
-      <c r="G448">
+      <c r="G448" s="9">
         <v>68.989999999999995</v>
       </c>
     </row>
@@ -13912,7 +13910,7 @@
         <v>997</v>
       </c>
       <c r="F449" s="1"/>
-      <c r="G449">
+      <c r="G449" s="9">
         <v>91.99</v>
       </c>
     </row>
@@ -13930,7 +13928,7 @@
         <v>621</v>
       </c>
       <c r="F450" s="1"/>
-      <c r="G450">
+      <c r="G450" s="9">
         <v>75</v>
       </c>
     </row>
@@ -13948,7 +13946,7 @@
         <v>998</v>
       </c>
       <c r="F451" s="1"/>
-      <c r="G451">
+      <c r="G451" s="9">
         <v>58.98</v>
       </c>
     </row>
@@ -13966,7 +13964,7 @@
         <v>999</v>
       </c>
       <c r="F452" s="1"/>
-      <c r="G452">
+      <c r="G452" s="9">
         <v>44.9</v>
       </c>
     </row>
@@ -13984,7 +13982,7 @@
         <v>1000</v>
       </c>
       <c r="F453" s="1"/>
-      <c r="G453">
+      <c r="G453" s="9">
         <v>34.99</v>
       </c>
     </row>
@@ -14002,7 +14000,7 @@
         <v>1001</v>
       </c>
       <c r="F454" s="1"/>
-      <c r="G454">
+      <c r="G454" s="9">
         <v>28.9</v>
       </c>
       <c r="H454" t="s">
@@ -14023,7 +14021,7 @@
         <v>1002</v>
       </c>
       <c r="F455" s="1"/>
-      <c r="G455">
+      <c r="G455" s="9">
         <v>29.99</v>
       </c>
     </row>
@@ -14041,7 +14039,7 @@
         <v>1003</v>
       </c>
       <c r="F456" s="1"/>
-      <c r="G456">
+      <c r="G456" s="9">
         <v>83.29</v>
       </c>
     </row>
@@ -14059,7 +14057,7 @@
         <v>1004</v>
       </c>
       <c r="F457" s="1"/>
-      <c r="G457">
+      <c r="G457" s="9">
         <v>33.49</v>
       </c>
     </row>
@@ -14077,7 +14075,7 @@
         <v>1005</v>
       </c>
       <c r="F458" s="1"/>
-      <c r="G458">
+      <c r="G458" s="9">
         <v>87.39</v>
       </c>
     </row>
@@ -14095,7 +14093,7 @@
         <v>1006</v>
       </c>
       <c r="F459" s="1"/>
-      <c r="G459">
+      <c r="G459" s="9">
         <v>49.95</v>
       </c>
     </row>
@@ -14113,7 +14111,7 @@
         <v>1007</v>
       </c>
       <c r="F460" s="1"/>
-      <c r="G460">
+      <c r="G460" s="9">
         <v>43.98</v>
       </c>
     </row>
@@ -14131,7 +14129,7 @@
         <v>621</v>
       </c>
       <c r="F461" s="1"/>
-      <c r="G461">
+      <c r="G461" s="9">
         <v>58.99</v>
       </c>
     </row>
@@ -14149,7 +14147,7 @@
         <v>1008</v>
       </c>
       <c r="F462" s="1"/>
-      <c r="G462">
+      <c r="G462" s="9">
         <v>139</v>
       </c>
     </row>
@@ -14167,7 +14165,7 @@
         <v>1009</v>
       </c>
       <c r="F463" s="1"/>
-      <c r="G463">
+      <c r="G463" s="9">
         <v>23.67</v>
       </c>
     </row>
@@ -14185,7 +14183,7 @@
         <v>1010</v>
       </c>
       <c r="F464" s="1"/>
-      <c r="G464">
+      <c r="G464" s="9">
         <v>11.99</v>
       </c>
     </row>
@@ -14203,7 +14201,7 @@
         <v>621</v>
       </c>
       <c r="F465" s="1"/>
-      <c r="G465">
+      <c r="G465" s="9">
         <v>124.9</v>
       </c>
     </row>
@@ -14221,7 +14219,7 @@
         <v>1011</v>
       </c>
       <c r="F466" s="1"/>
-      <c r="G466">
+      <c r="G466" s="9">
         <v>67.83</v>
       </c>
     </row>
@@ -14239,7 +14237,7 @@
         <v>1012</v>
       </c>
       <c r="F467" s="1"/>
-      <c r="G467">
+      <c r="G467" s="9">
         <v>179.9</v>
       </c>
     </row>
@@ -14257,7 +14255,7 @@
         <v>1013</v>
       </c>
       <c r="F468" s="1"/>
-      <c r="G468">
+      <c r="G468" s="9">
         <v>225.9</v>
       </c>
     </row>
@@ -14275,7 +14273,7 @@
         <v>1014</v>
       </c>
       <c r="F469" s="1"/>
-      <c r="G469">
+      <c r="G469" s="9">
         <v>41.9</v>
       </c>
     </row>
@@ -14293,7 +14291,7 @@
         <v>1015</v>
       </c>
       <c r="F470" s="1"/>
-      <c r="G470">
+      <c r="G470" s="9">
         <v>72.69</v>
       </c>
     </row>
@@ -14311,7 +14309,7 @@
         <v>1016</v>
       </c>
       <c r="F471" s="1"/>
-      <c r="G471">
+      <c r="G471" s="9">
         <v>69.790000000000006</v>
       </c>
     </row>
@@ -14329,7 +14327,7 @@
         <v>1017</v>
       </c>
       <c r="F472" s="1"/>
-      <c r="G472">
+      <c r="G472" s="9">
         <v>72.599999999999994</v>
       </c>
     </row>
@@ -14347,7 +14345,7 @@
         <v>621</v>
       </c>
       <c r="F473" s="1"/>
-      <c r="G473">
+      <c r="G473" s="9">
         <v>87.99</v>
       </c>
     </row>
@@ -14365,7 +14363,7 @@
         <v>1018</v>
       </c>
       <c r="F474" s="1"/>
-      <c r="G474">
+      <c r="G474" s="9">
         <v>144.88999999999999</v>
       </c>
     </row>
@@ -14383,7 +14381,7 @@
         <v>1019</v>
       </c>
       <c r="F475" s="1"/>
-      <c r="G475">
+      <c r="G475" s="9">
         <v>25.99</v>
       </c>
     </row>
@@ -14401,7 +14399,7 @@
         <v>1020</v>
       </c>
       <c r="F476" s="1"/>
-      <c r="G476">
+      <c r="G476" s="9">
         <v>131.19</v>
       </c>
     </row>
@@ -14419,7 +14417,7 @@
         <v>1021</v>
       </c>
       <c r="F477" s="1"/>
-      <c r="G477">
+      <c r="G477" s="9">
         <v>20.3</v>
       </c>
     </row>
@@ -14437,7 +14435,7 @@
         <v>1022</v>
       </c>
       <c r="F478" s="1"/>
-      <c r="G478">
+      <c r="G478" s="9">
         <v>227.9</v>
       </c>
     </row>
@@ -14455,7 +14453,7 @@
         <v>621</v>
       </c>
       <c r="F479" s="1"/>
-      <c r="G479">
+      <c r="G479" s="9">
         <v>186.49</v>
       </c>
     </row>
@@ -14473,7 +14471,7 @@
         <v>1023</v>
       </c>
       <c r="F480" s="1"/>
-      <c r="G480">
+      <c r="G480" s="9">
         <v>374.7</v>
       </c>
     </row>
@@ -14491,7 +14489,7 @@
         <v>1024</v>
       </c>
       <c r="F481" s="1"/>
-      <c r="G481">
+      <c r="G481" s="9">
         <v>19.989999999999998</v>
       </c>
     </row>
@@ -14509,7 +14507,7 @@
         <v>1025</v>
       </c>
       <c r="F482" s="1"/>
-      <c r="G482">
+      <c r="G482" s="9">
         <v>15.99</v>
       </c>
     </row>
@@ -14527,7 +14525,7 @@
         <v>1026</v>
       </c>
       <c r="F483" s="1"/>
-      <c r="G483">
+      <c r="G483" s="9">
         <v>103.85</v>
       </c>
     </row>
@@ -14545,7 +14543,7 @@
         <v>1027</v>
       </c>
       <c r="F484" s="1"/>
-      <c r="G484">
+      <c r="G484" s="9">
         <v>75.86</v>
       </c>
     </row>
@@ -14563,7 +14561,7 @@
         <v>1028</v>
       </c>
       <c r="F485" s="1"/>
-      <c r="G485">
+      <c r="G485" s="9">
         <v>53.9</v>
       </c>
     </row>
@@ -14581,7 +14579,7 @@
         <v>1029</v>
       </c>
       <c r="F486" s="1"/>
-      <c r="G486">
+      <c r="G486" s="9">
         <v>30.99</v>
       </c>
     </row>
@@ -14599,7 +14597,7 @@
         <v>621</v>
       </c>
       <c r="F487" s="1"/>
-      <c r="G487">
+      <c r="G487" s="9">
         <v>97.8</v>
       </c>
     </row>
@@ -14617,7 +14615,7 @@
         <v>621</v>
       </c>
       <c r="F488" s="1"/>
-      <c r="G488">
+      <c r="G488" s="9">
         <v>27.9</v>
       </c>
     </row>
@@ -14635,7 +14633,7 @@
         <v>1030</v>
       </c>
       <c r="F489" s="1"/>
-      <c r="G489">
+      <c r="G489" s="9">
         <v>37.5</v>
       </c>
     </row>
@@ -14653,7 +14651,7 @@
         <v>1031</v>
       </c>
       <c r="F490" s="1"/>
-      <c r="G490">
+      <c r="G490" s="9">
         <v>27.49</v>
       </c>
     </row>
@@ -14671,7 +14669,7 @@
         <v>1032</v>
       </c>
       <c r="F491" s="1"/>
-      <c r="G491">
+      <c r="G491" s="9">
         <v>30.99</v>
       </c>
     </row>
@@ -14689,7 +14687,7 @@
         <v>1033</v>
       </c>
       <c r="F492" s="1"/>
-      <c r="G492">
+      <c r="G492" s="9">
         <v>93.3</v>
       </c>
     </row>
@@ -14707,7 +14705,7 @@
         <v>1034</v>
       </c>
       <c r="F493" s="1"/>
-      <c r="G493">
+      <c r="G493" s="9">
         <v>99.9</v>
       </c>
     </row>
@@ -14725,7 +14723,7 @@
         <v>1035</v>
       </c>
       <c r="F494" s="1"/>
-      <c r="G494">
+      <c r="G494" s="9">
         <v>59.99</v>
       </c>
     </row>
@@ -14743,7 +14741,7 @@
         <v>1036</v>
       </c>
       <c r="F495" s="1"/>
-      <c r="G495">
+      <c r="G495" s="9">
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -14761,7 +14759,7 @@
         <v>1037</v>
       </c>
       <c r="F496" s="1"/>
-      <c r="G496">
+      <c r="G496" s="9">
         <v>75</v>
       </c>
     </row>
@@ -14779,7 +14777,7 @@
         <v>621</v>
       </c>
       <c r="F497" s="1"/>
-      <c r="G497">
+      <c r="G497" s="9">
         <v>199.9</v>
       </c>
     </row>
@@ -14797,7 +14795,7 @@
         <v>621</v>
       </c>
       <c r="F498" s="1"/>
-      <c r="G498">
+      <c r="G498" s="9">
         <v>50.4</v>
       </c>
     </row>
@@ -14815,7 +14813,7 @@
         <v>1038</v>
       </c>
       <c r="F499" s="1"/>
-      <c r="G499">
+      <c r="G499" s="9">
         <v>30.35</v>
       </c>
     </row>
@@ -14833,7 +14831,7 @@
         <v>1039</v>
       </c>
       <c r="F500" s="1"/>
-      <c r="G500">
+      <c r="G500" s="9">
         <v>33.5</v>
       </c>
     </row>
@@ -14851,7 +14849,7 @@
         <v>1040</v>
       </c>
       <c r="F501" s="1"/>
-      <c r="G501">
+      <c r="G501" s="9">
         <v>67.2</v>
       </c>
     </row>
@@ -14869,7 +14867,7 @@
         <v>1041</v>
       </c>
       <c r="F502" s="1"/>
-      <c r="G502">
+      <c r="G502" s="9">
         <v>81.040000000000006</v>
       </c>
     </row>
@@ -14887,7 +14885,7 @@
         <v>621</v>
       </c>
       <c r="F503" s="1"/>
-      <c r="G503">
+      <c r="G503" s="9">
         <v>26.42</v>
       </c>
     </row>
@@ -14905,7 +14903,7 @@
         <v>1042</v>
       </c>
       <c r="F504" s="1"/>
-      <c r="G504">
+      <c r="G504" s="9">
         <v>57.12</v>
       </c>
     </row>
@@ -14923,7 +14921,7 @@
         <v>621</v>
       </c>
       <c r="F505" s="1"/>
-      <c r="G505">
+      <c r="G505" s="9">
         <v>23</v>
       </c>
     </row>
@@ -14941,7 +14939,7 @@
         <v>621</v>
       </c>
       <c r="F506" s="1"/>
-      <c r="G506">
+      <c r="G506" s="9">
         <v>87.9</v>
       </c>
     </row>
@@ -14959,7 +14957,7 @@
         <v>1042</v>
       </c>
       <c r="F507" s="1"/>
-      <c r="G507">
+      <c r="G507" s="9">
         <v>58.7</v>
       </c>
     </row>
@@ -14977,7 +14975,7 @@
         <v>1043</v>
       </c>
       <c r="F508" s="1"/>
-      <c r="G508">
+      <c r="G508" s="9">
         <v>199.9</v>
       </c>
     </row>
@@ -14995,7 +14993,7 @@
         <v>1044</v>
       </c>
       <c r="F509" s="1"/>
-      <c r="G509">
+      <c r="G509" s="9">
         <v>58.16</v>
       </c>
     </row>
@@ -15013,7 +15011,7 @@
         <v>1045</v>
       </c>
       <c r="F510" s="1"/>
-      <c r="G510">
+      <c r="G510" s="9">
         <v>41.4</v>
       </c>
     </row>
@@ -15031,7 +15029,7 @@
         <v>1046</v>
       </c>
       <c r="F511" s="1"/>
-      <c r="G511">
+      <c r="G511" s="9">
         <v>50.99</v>
       </c>
     </row>
@@ -15049,7 +15047,7 @@
         <v>1047</v>
       </c>
       <c r="F512" s="1"/>
-      <c r="G512">
+      <c r="G512" s="9">
         <v>47.25</v>
       </c>
     </row>
@@ -15067,7 +15065,7 @@
         <v>1048</v>
       </c>
       <c r="F513" s="1"/>
-      <c r="G513">
+      <c r="G513" s="9">
         <v>46.8</v>
       </c>
     </row>
@@ -15085,7 +15083,7 @@
         <v>1049</v>
       </c>
       <c r="F514" s="1"/>
-      <c r="G514">
+      <c r="G514" s="9">
         <v>32.36</v>
       </c>
     </row>
@@ -15103,7 +15101,7 @@
         <v>1050</v>
       </c>
       <c r="F515" s="1"/>
-      <c r="G515">
+      <c r="G515" s="9">
         <v>32.36</v>
       </c>
     </row>
@@ -15121,7 +15119,7 @@
         <v>1051</v>
       </c>
       <c r="F516" s="1"/>
-      <c r="G516">
+      <c r="G516" s="9">
         <v>13.55</v>
       </c>
     </row>
@@ -15139,7 +15137,7 @@
         <v>1052</v>
       </c>
       <c r="F517" s="1"/>
-      <c r="G517">
+      <c r="G517" s="9">
         <v>337.9</v>
       </c>
     </row>
@@ -15157,7 +15155,7 @@
         <v>1053</v>
       </c>
       <c r="F518" s="1"/>
-      <c r="G518">
+      <c r="G518" s="9">
         <v>28.79</v>
       </c>
     </row>
@@ -15175,7 +15173,7 @@
         <v>1054</v>
       </c>
       <c r="F519" s="1"/>
-      <c r="G519">
+      <c r="G519" s="9">
         <v>5.29</v>
       </c>
     </row>
@@ -15193,7 +15191,7 @@
         <v>1055</v>
       </c>
       <c r="F520" s="1"/>
-      <c r="G520">
+      <c r="G520" s="9">
         <v>10.39</v>
       </c>
     </row>
@@ -15211,7 +15209,7 @@
         <v>1056</v>
       </c>
       <c r="F521" s="1"/>
-      <c r="G521">
+      <c r="G521" s="9">
         <v>7.83</v>
       </c>
     </row>
@@ -15229,7 +15227,7 @@
         <v>1057</v>
       </c>
       <c r="F522" s="1"/>
-      <c r="G522">
+      <c r="G522" s="9">
         <v>8.99</v>
       </c>
     </row>
@@ -15247,7 +15245,7 @@
         <v>1058</v>
       </c>
       <c r="F523" s="1"/>
-      <c r="G523">
+      <c r="G523" s="9">
         <v>6</v>
       </c>
     </row>
@@ -15265,7 +15263,7 @@
         <v>1059</v>
       </c>
       <c r="F524" s="1"/>
-      <c r="G524">
+      <c r="G524" s="9">
         <v>15.99</v>
       </c>
     </row>
@@ -15283,7 +15281,7 @@
         <v>1060</v>
       </c>
       <c r="F525" s="1"/>
-      <c r="G525">
+      <c r="G525" s="9">
         <v>5.5</v>
       </c>
     </row>
@@ -15301,7 +15299,7 @@
         <v>621</v>
       </c>
       <c r="F526" s="1"/>
-      <c r="G526">
+      <c r="G526" s="9">
         <v>13.6</v>
       </c>
     </row>
@@ -15319,7 +15317,7 @@
         <v>1061</v>
       </c>
       <c r="F527" s="1"/>
-      <c r="G527">
+      <c r="G527" s="9">
         <v>37.61</v>
       </c>
     </row>
@@ -15337,7 +15335,7 @@
         <v>1062</v>
       </c>
       <c r="F528" s="1"/>
-      <c r="G528">
+      <c r="G528" s="9">
         <v>11.49</v>
       </c>
     </row>
@@ -15355,7 +15353,7 @@
         <v>1063</v>
       </c>
       <c r="F529" s="1"/>
-      <c r="G529">
+      <c r="G529" s="9">
         <v>9.99</v>
       </c>
     </row>
@@ -15373,7 +15371,7 @@
         <v>1064</v>
       </c>
       <c r="F530" s="1"/>
-      <c r="G530">
+      <c r="G530" s="9">
         <v>55.49</v>
       </c>
     </row>
@@ -15391,7 +15389,7 @@
         <v>1065</v>
       </c>
       <c r="F531" s="1"/>
-      <c r="G531">
+      <c r="G531" s="9">
         <v>31.9</v>
       </c>
     </row>
@@ -15409,7 +15407,7 @@
         <v>1066</v>
       </c>
       <c r="F532" s="1"/>
-      <c r="G532">
+      <c r="G532" s="9">
         <v>55.7</v>
       </c>
     </row>
@@ -15427,7 +15425,7 @@
         <v>1067</v>
       </c>
       <c r="F533" s="1"/>
-      <c r="G533">
+      <c r="G533" s="9">
         <v>74.89</v>
       </c>
     </row>
@@ -15445,7 +15443,7 @@
         <v>1068</v>
       </c>
       <c r="F534" s="1"/>
-      <c r="G534">
+      <c r="G534" s="9">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -15463,7 +15461,7 @@
         <v>1069</v>
       </c>
       <c r="F535" s="1"/>
-      <c r="G535">
+      <c r="G535" s="9">
         <v>36.49</v>
       </c>
     </row>
@@ -15481,7 +15479,7 @@
         <v>1070</v>
       </c>
       <c r="F536" s="1"/>
-      <c r="G536">
+      <c r="G536" s="9">
         <v>74.67</v>
       </c>
     </row>
@@ -15499,7 +15497,7 @@
         <v>1071</v>
       </c>
       <c r="F537" s="1"/>
-      <c r="G537">
+      <c r="G537" s="9">
         <v>24.36</v>
       </c>
     </row>
@@ -15517,7 +15515,7 @@
         <v>1072</v>
       </c>
       <c r="F538" s="1"/>
-      <c r="G538">
+      <c r="G538" s="9">
         <v>17.98</v>
       </c>
     </row>
@@ -15535,7 +15533,7 @@
         <v>1073</v>
       </c>
       <c r="F539" s="1"/>
-      <c r="G539">
+      <c r="G539" s="9">
         <v>49.39</v>
       </c>
     </row>
@@ -15553,7 +15551,7 @@
         <v>1074</v>
       </c>
       <c r="F540" s="1"/>
-      <c r="G540">
+      <c r="G540" s="9">
         <v>19.45</v>
       </c>
     </row>
@@ -15571,7 +15569,7 @@
         <v>1075</v>
       </c>
       <c r="F541" s="1"/>
-      <c r="G541">
+      <c r="G541" s="9">
         <v>188.9</v>
       </c>
     </row>
@@ -15589,7 +15587,7 @@
         <v>1076</v>
       </c>
       <c r="F542" s="1"/>
-      <c r="G542">
+      <c r="G542" s="9">
         <v>20.79</v>
       </c>
     </row>
@@ -15607,7 +15605,7 @@
         <v>621</v>
       </c>
       <c r="F543" s="1"/>
-      <c r="G543">
+      <c r="G543" s="9">
         <v>24.01</v>
       </c>
     </row>
@@ -15625,7 +15623,7 @@
         <v>621</v>
       </c>
       <c r="F544" s="1"/>
-      <c r="G544">
+      <c r="G544" s="9">
         <v>46.62</v>
       </c>
     </row>
@@ -15643,7 +15641,7 @@
         <v>1077</v>
       </c>
       <c r="F545" s="1"/>
-      <c r="G545">
+      <c r="G545" s="9">
         <v>5.78</v>
       </c>
     </row>
@@ -15661,7 +15659,7 @@
         <v>1078</v>
       </c>
       <c r="F546" s="1"/>
-      <c r="G546">
+      <c r="G546" s="9">
         <v>13.23</v>
       </c>
     </row>
@@ -15679,7 +15677,7 @@
         <v>1079</v>
       </c>
       <c r="F547" s="1"/>
-      <c r="G547">
+      <c r="G547" s="9">
         <v>112.5</v>
       </c>
     </row>
@@ -15697,7 +15695,7 @@
         <v>621</v>
       </c>
       <c r="F548" s="1"/>
-      <c r="G548">
+      <c r="G548" s="9">
         <v>41.13</v>
       </c>
     </row>
@@ -15715,7 +15713,7 @@
         <v>1080</v>
       </c>
       <c r="F549" s="1"/>
-      <c r="G549">
+      <c r="G549" s="9">
         <v>5.99</v>
       </c>
     </row>
@@ -15733,7 +15731,7 @@
         <v>1081</v>
       </c>
       <c r="F550" s="1"/>
-      <c r="G550">
+      <c r="G550" s="9">
         <v>55.99</v>
       </c>
     </row>
@@ -15751,7 +15749,7 @@
         <v>1082</v>
       </c>
       <c r="F551" s="1"/>
-      <c r="G551">
+      <c r="G551" s="9">
         <v>44.99</v>
       </c>
     </row>
@@ -15771,7 +15769,7 @@
       <c r="F552" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="G552">
+      <c r="G552" s="9">
         <v>76.95</v>
       </c>
     </row>
@@ -15789,7 +15787,7 @@
         <v>1084</v>
       </c>
       <c r="F553" s="1"/>
-      <c r="G553">
+      <c r="G553" s="9">
         <v>21.59</v>
       </c>
     </row>
@@ -15807,7 +15805,7 @@
         <v>1085</v>
       </c>
       <c r="F554" s="1"/>
-      <c r="G554">
+      <c r="G554" s="9">
         <v>37.43</v>
       </c>
     </row>
@@ -15825,7 +15823,7 @@
         <v>1086</v>
       </c>
       <c r="F555" s="1"/>
-      <c r="G555">
+      <c r="G555" s="9">
         <v>41.79</v>
       </c>
     </row>
@@ -15843,7 +15841,7 @@
         <v>1087</v>
       </c>
       <c r="F556" s="1"/>
-      <c r="G556">
+      <c r="G556" s="9">
         <v>19.59</v>
       </c>
     </row>
@@ -15861,7 +15859,7 @@
         <v>1088</v>
       </c>
       <c r="F557" s="1"/>
-      <c r="G557">
+      <c r="G557" s="9">
         <v>56.99</v>
       </c>
       <c r="H557" t="s">
@@ -15882,7 +15880,7 @@
         <v>1089</v>
       </c>
       <c r="F558" s="1"/>
-      <c r="G558">
+      <c r="G558" s="9">
         <v>61.8</v>
       </c>
     </row>
@@ -15900,7 +15898,7 @@
         <v>1090</v>
       </c>
       <c r="F559" s="1"/>
-      <c r="G559">
+      <c r="G559" s="9">
         <v>51.99</v>
       </c>
     </row>
@@ -15918,7 +15916,7 @@
         <v>1091</v>
       </c>
       <c r="F560" s="1"/>
-      <c r="G560">
+      <c r="G560" s="9">
         <v>43.8</v>
       </c>
     </row>
@@ -15936,7 +15934,7 @@
         <v>1092</v>
       </c>
       <c r="F561" s="1"/>
-      <c r="G561">
+      <c r="G561" s="9">
         <v>48.19</v>
       </c>
     </row>
@@ -15954,7 +15952,7 @@
         <v>621</v>
       </c>
       <c r="F562" s="1"/>
-      <c r="G562">
+      <c r="G562" s="9">
         <v>51.9</v>
       </c>
       <c r="H562" t="s">
@@ -15975,7 +15973,7 @@
         <v>621</v>
       </c>
       <c r="F563" s="1"/>
-      <c r="G563">
+      <c r="G563" s="9">
         <v>44.19</v>
       </c>
     </row>
@@ -15993,7 +15991,7 @@
         <v>1093</v>
       </c>
       <c r="F564" s="1"/>
-      <c r="G564">
+      <c r="G564" s="9">
         <v>46.99</v>
       </c>
       <c r="H564" t="s">
@@ -16014,7 +16012,7 @@
         <v>1094</v>
       </c>
       <c r="F565" s="1"/>
-      <c r="G565">
+      <c r="G565" s="9">
         <v>41.99</v>
       </c>
     </row>
@@ -16032,7 +16030,7 @@
         <v>1095</v>
       </c>
       <c r="F566" s="1"/>
-      <c r="G566">
+      <c r="G566" s="9">
         <v>43.99</v>
       </c>
     </row>
@@ -16050,7 +16048,7 @@
         <v>1096</v>
       </c>
       <c r="F567" s="1"/>
-      <c r="G567">
+      <c r="G567" s="9">
         <v>39.9</v>
       </c>
     </row>
@@ -16068,7 +16066,7 @@
         <v>1097</v>
       </c>
       <c r="F568" s="1"/>
-      <c r="G568">
+      <c r="G568" s="9">
         <v>39.99</v>
       </c>
     </row>
@@ -16086,7 +16084,7 @@
         <v>621</v>
       </c>
       <c r="F569" s="1"/>
-      <c r="G569">
+      <c r="G569" s="9">
         <v>58.7</v>
       </c>
     </row>
@@ -16104,7 +16102,7 @@
         <v>1098</v>
       </c>
       <c r="F570" s="1"/>
-      <c r="G570">
+      <c r="G570" s="9">
         <v>45.4</v>
       </c>
     </row>
@@ -16122,7 +16120,7 @@
         <v>1099</v>
       </c>
       <c r="F571" s="1"/>
-      <c r="G571">
+      <c r="G571" s="9">
         <v>24.99</v>
       </c>
     </row>
@@ -16140,7 +16138,7 @@
         <v>1100</v>
       </c>
       <c r="F572" s="1"/>
-      <c r="G572">
+      <c r="G572" s="9">
         <v>26.99</v>
       </c>
       <c r="H572" t="s">
@@ -16163,7 +16161,7 @@
       <c r="F573" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="G573">
+      <c r="G573" s="9">
         <v>44.6</v>
       </c>
     </row>
@@ -16181,7 +16179,7 @@
         <v>1102</v>
       </c>
       <c r="F574" s="1"/>
-      <c r="G574">
+      <c r="G574" s="9">
         <v>52.9</v>
       </c>
     </row>
@@ -16199,7 +16197,7 @@
         <v>1103</v>
       </c>
       <c r="F575" s="1"/>
-      <c r="G575">
+      <c r="G575" s="9">
         <v>25.25</v>
       </c>
     </row>
@@ -16217,7 +16215,7 @@
         <v>621</v>
       </c>
       <c r="F576" s="1"/>
-      <c r="G576">
+      <c r="G576" s="9">
         <v>35.9</v>
       </c>
     </row>
@@ -16235,7 +16233,7 @@
         <v>1104</v>
       </c>
       <c r="F577" s="1"/>
-      <c r="G577">
+      <c r="G577" s="9">
         <v>73.150000000000006</v>
       </c>
     </row>
@@ -16253,7 +16251,7 @@
         <v>1105</v>
       </c>
       <c r="F578" s="1"/>
-      <c r="G578">
+      <c r="G578" s="9">
         <v>59.99</v>
       </c>
       <c r="H578" t="s">
@@ -16274,7 +16272,7 @@
         <v>1106</v>
       </c>
       <c r="F579" s="1"/>
-      <c r="G579">
+      <c r="G579" s="9">
         <v>29.8</v>
       </c>
     </row>
@@ -16292,7 +16290,7 @@
         <v>1107</v>
       </c>
       <c r="F580" s="1"/>
-      <c r="G580">
+      <c r="G580" s="9">
         <v>198.9</v>
       </c>
     </row>
@@ -16310,7 +16308,7 @@
         <v>1108</v>
       </c>
       <c r="F581" s="1"/>
-      <c r="G581">
+      <c r="G581" s="9">
         <v>73.150000000000006</v>
       </c>
     </row>
@@ -16328,7 +16326,7 @@
         <v>1109</v>
       </c>
       <c r="F582" s="1"/>
-      <c r="G582">
+      <c r="G582" s="9">
         <v>30.99</v>
       </c>
     </row>
@@ -16346,7 +16344,7 @@
         <v>1110</v>
       </c>
       <c r="F583" s="1"/>
-      <c r="G583">
+      <c r="G583" s="9">
         <v>49.25</v>
       </c>
     </row>
@@ -16364,7 +16362,7 @@
         <v>621</v>
       </c>
       <c r="F584" s="1"/>
-      <c r="G584">
+      <c r="G584" s="9">
         <v>99.7</v>
       </c>
     </row>
@@ -16382,7 +16380,7 @@
         <v>1111</v>
       </c>
       <c r="F585" s="1"/>
-      <c r="G585">
+      <c r="G585" s="9">
         <v>3.99</v>
       </c>
     </row>
@@ -16400,7 +16398,7 @@
         <v>1112</v>
       </c>
       <c r="F586" s="1"/>
-      <c r="G586">
+      <c r="G586" s="9">
         <v>27.99</v>
       </c>
     </row>
@@ -16418,7 +16416,7 @@
         <v>1113</v>
       </c>
       <c r="F587" s="1"/>
-      <c r="G587">
+      <c r="G587" s="9">
         <v>41.9</v>
       </c>
     </row>
@@ -16436,7 +16434,7 @@
         <v>1114</v>
       </c>
       <c r="F588" s="1"/>
-      <c r="G588">
+      <c r="G588" s="9">
         <v>26.29</v>
       </c>
     </row>
@@ -16454,7 +16452,7 @@
         <v>1115</v>
       </c>
       <c r="F589" s="1"/>
-      <c r="G589">
+      <c r="G589" s="9">
         <v>76.989999999999995</v>
       </c>
     </row>
@@ -16472,7 +16470,7 @@
         <v>1116</v>
       </c>
       <c r="F590" s="1"/>
-      <c r="G590">
+      <c r="G590" s="9">
         <v>279.83999999999997</v>
       </c>
     </row>
@@ -16490,7 +16488,7 @@
         <v>1117</v>
       </c>
       <c r="F591" s="1"/>
-      <c r="G591">
+      <c r="G591" s="9">
         <v>22.99</v>
       </c>
     </row>
@@ -16508,7 +16506,7 @@
         <v>1118</v>
       </c>
       <c r="F592" s="1"/>
-      <c r="G592">
+      <c r="G592" s="9">
         <v>27.5</v>
       </c>
     </row>
@@ -16526,7 +16524,7 @@
         <v>1119</v>
       </c>
       <c r="F593" s="1"/>
-      <c r="G593">
+      <c r="G593" s="9">
         <v>6.79</v>
       </c>
     </row>
@@ -16544,7 +16542,7 @@
         <v>1120</v>
       </c>
       <c r="F594" s="1"/>
-      <c r="G594">
+      <c r="G594" s="9">
         <v>47.5</v>
       </c>
     </row>
@@ -16562,7 +16560,7 @@
         <v>1121</v>
       </c>
       <c r="F595" s="1"/>
-      <c r="G595">
+      <c r="G595" s="9">
         <v>78.989999999999995</v>
       </c>
     </row>
@@ -16580,7 +16578,7 @@
         <v>1122</v>
       </c>
       <c r="F596" s="1"/>
-      <c r="G596">
+      <c r="G596" s="9">
         <v>41.1</v>
       </c>
     </row>
@@ -16598,7 +16596,7 @@
         <v>1123</v>
       </c>
       <c r="F597" s="1"/>
-      <c r="G597">
+      <c r="G597" s="9">
         <v>60.35</v>
       </c>
     </row>
@@ -16616,7 +16614,7 @@
         <v>1124</v>
       </c>
       <c r="F598" s="1"/>
-      <c r="G598">
+      <c r="G598" s="9">
         <v>99.9</v>
       </c>
     </row>
@@ -16634,7 +16632,7 @@
         <v>1125</v>
       </c>
       <c r="F599" s="1"/>
-      <c r="G599">
+      <c r="G599" s="9">
         <v>71.290000000000006</v>
       </c>
     </row>
@@ -16652,7 +16650,7 @@
         <v>1126</v>
       </c>
       <c r="F600" s="1"/>
-      <c r="G600">
+      <c r="G600" s="9">
         <v>52.65</v>
       </c>
     </row>
@@ -16670,7 +16668,7 @@
         <v>1127</v>
       </c>
       <c r="F601" s="1"/>
-      <c r="G601">
+      <c r="G601" s="9">
         <v>421.25</v>
       </c>
     </row>
@@ -16688,7 +16686,7 @@
         <v>1128</v>
       </c>
       <c r="F602" s="1"/>
-      <c r="G602">
+      <c r="G602" s="9">
         <v>73.989999999999995</v>
       </c>
       <c r="H602" t="s">
@@ -16709,12 +16707,14 @@
         <v>621</v>
       </c>
       <c r="F603" s="1"/>
-      <c r="G603">
+      <c r="G603" s="9">
         <v>80.290000000000006</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A604" s="9"/>
+      <c r="A604" s="7">
+        <v>603</v>
+      </c>
       <c r="C604" s="1" t="s">
         <v>1736</v>
       </c>
@@ -16725,12 +16725,14 @@
         <v>1129</v>
       </c>
       <c r="F604" s="1"/>
-      <c r="G604">
+      <c r="G604" s="9">
         <v>27.69</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A605" s="9"/>
+      <c r="A605" s="7">
+        <v>604</v>
+      </c>
       <c r="C605" s="1" t="s">
         <v>1737</v>
       </c>
@@ -16741,12 +16743,14 @@
         <v>1130</v>
       </c>
       <c r="F605" s="1"/>
-      <c r="G605">
+      <c r="G605" s="9">
         <v>58.99</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="9"/>
+      <c r="A606" s="8">
+        <v>605</v>
+      </c>
       <c r="C606" s="1" t="s">
         <v>1738</v>
       </c>
@@ -16757,12 +16761,14 @@
         <v>1131</v>
       </c>
       <c r="F606" s="1"/>
-      <c r="G606">
+      <c r="G606" s="9">
         <v>71.290000000000006</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A607" s="9"/>
+      <c r="A607" s="7">
+        <v>606</v>
+      </c>
       <c r="C607" s="1" t="s">
         <v>1739</v>
       </c>
@@ -16773,12 +16779,14 @@
         <v>1132</v>
       </c>
       <c r="F607" s="1"/>
-      <c r="G607">
+      <c r="G607" s="9">
         <v>45.8</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A608" s="9"/>
+      <c r="A608" s="7">
+        <v>607</v>
+      </c>
       <c r="C608" s="1" t="s">
         <v>1740</v>
       </c>
@@ -16789,7 +16797,7 @@
         <v>621</v>
       </c>
       <c r="F608" s="1"/>
-      <c r="G608">
+      <c r="G608" s="9">
         <v>85.99</v>
       </c>
       <c r="H608" t="s">
@@ -16797,7 +16805,9 @@
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A609" s="9"/>
+      <c r="A609" s="8">
+        <v>608</v>
+      </c>
       <c r="C609" s="1" t="s">
         <v>1741</v>
       </c>
@@ -16808,7 +16818,7 @@
         <v>1133</v>
       </c>
       <c r="F609" s="1"/>
-      <c r="G609">
+      <c r="G609" s="9">
         <v>219.9</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5025EA-2733-4B0A-9F11-56B5276C2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D0552F-09E8-4D03-9CAF-6DCAB33F0BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -5349,9 +5349,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5361,7 +5358,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5385,7 +5385,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5451,7 +5451,7 @@
     <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{2E06E125-A37C-44C1-A067-9105303F0412}" name="Detalhes" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{6B341554-3D61-464E-B0ED-CE6E6C07D258}" name="Imagem" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="0" dataCellStyle="Vírgula"/>
     <tableColumn id="4" xr3:uid="{42457639-E172-4F1A-9782-68AB0812D06F}" name="Categoria"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5758,7 +5758,7 @@
   <dimension ref="A1:H609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G609"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5767,12 +5767,12 @@
     <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>602</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5790,7 +5790,7 @@
       <c r="F1" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>601</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -5798,7 +5798,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
@@ -5817,7 +5817,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
@@ -5836,7 +5836,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -5854,7 +5854,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5872,7 +5872,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5887,7 +5887,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -5905,7 +5905,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5923,7 +5923,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5941,7 +5941,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5959,7 +5959,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5980,7 +5980,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5998,7 +5998,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -6016,7 +6016,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6034,7 +6034,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -6052,7 +6052,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -6070,7 +6070,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -6088,7 +6088,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6106,7 +6106,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -6124,7 +6124,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -6163,7 +6163,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -6184,7 +6184,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -6202,7 +6202,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -6220,7 +6220,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -6238,7 +6238,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -6256,7 +6256,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -6274,7 +6274,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -6292,7 +6292,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -6310,7 +6310,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -6328,7 +6328,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6346,7 +6346,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -6364,7 +6364,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6382,7 +6382,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -6400,7 +6400,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6418,7 +6418,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -6436,7 +6436,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6454,7 +6454,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -6472,7 +6472,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -6490,7 +6490,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -6508,7 +6508,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -6526,7 +6526,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -6544,7 +6544,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6562,7 +6562,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -6580,7 +6580,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -6598,7 +6598,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -6616,7 +6616,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -6634,7 +6634,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -6652,7 +6652,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -6670,7 +6670,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -6688,7 +6688,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -6706,7 +6706,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -6724,7 +6724,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -6742,7 +6742,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -6760,7 +6760,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -6778,7 +6778,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -6796,7 +6796,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -6814,7 +6814,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -6832,7 +6832,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -6850,7 +6850,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -6868,7 +6868,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -6886,7 +6886,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -6904,7 +6904,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -6922,7 +6922,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -6940,7 +6940,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -6958,7 +6958,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -6976,7 +6976,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -6994,7 +6994,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -7012,7 +7012,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -7030,7 +7030,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -7048,7 +7048,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -7066,7 +7066,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -7084,7 +7084,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -7102,7 +7102,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -7120,7 +7120,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -7138,7 +7138,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -7156,7 +7156,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -7174,7 +7174,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -7192,7 +7192,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -7210,7 +7210,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -7228,7 +7228,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -7246,7 +7246,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -7264,7 +7264,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -7282,7 +7282,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -7300,7 +7300,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -7318,7 +7318,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -7336,7 +7336,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -7354,7 +7354,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -7372,7 +7372,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -7390,7 +7390,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -7408,7 +7408,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -7426,7 +7426,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -7444,7 +7444,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -7462,7 +7462,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -7480,7 +7480,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -7498,7 +7498,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -7516,7 +7516,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -7534,7 +7534,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -7552,7 +7552,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -7570,7 +7570,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -7588,7 +7588,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -7606,7 +7606,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -7624,7 +7624,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -7642,7 +7642,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -7660,7 +7660,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -7678,7 +7678,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -7696,7 +7696,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -7714,7 +7714,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -7732,7 +7732,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -7750,7 +7750,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -7768,7 +7768,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -7804,7 +7804,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -7822,7 +7822,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -7840,7 +7840,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -7858,7 +7858,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -7876,7 +7876,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -7894,7 +7894,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -7912,7 +7912,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -7930,7 +7930,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -7948,7 +7948,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -7966,7 +7966,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -7984,7 +7984,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -8002,7 +8002,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -8020,7 +8020,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -8038,7 +8038,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -8056,7 +8056,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -8074,7 +8074,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -8092,7 +8092,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -8110,7 +8110,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -8128,7 +8128,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -8146,7 +8146,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -8164,7 +8164,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -8182,7 +8182,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -8202,7 +8202,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -8223,7 +8223,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -8244,7 +8244,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -8265,7 +8265,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -8286,7 +8286,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -8307,7 +8307,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -8349,7 +8349,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -8372,7 +8372,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -8395,7 +8395,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -8416,7 +8416,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -8434,7 +8434,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -8452,7 +8452,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -8470,7 +8470,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -8488,7 +8488,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -8506,7 +8506,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -8524,7 +8524,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -8542,7 +8542,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -8560,7 +8560,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -8578,7 +8578,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -8596,7 +8596,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -8614,7 +8614,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -8632,7 +8632,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -8650,7 +8650,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -8668,7 +8668,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -8686,7 +8686,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -8704,7 +8704,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -8722,7 +8722,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -8740,7 +8740,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -8758,7 +8758,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -8776,7 +8776,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -8794,7 +8794,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -8812,7 +8812,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -8830,7 +8830,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7">
+      <c r="A168" s="6">
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -8848,7 +8848,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -8866,7 +8866,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -8884,7 +8884,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -8902,7 +8902,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -8920,7 +8920,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -8938,7 +8938,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -8956,7 +8956,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8">
+      <c r="A175" s="7">
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -8974,7 +8974,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -8992,7 +8992,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -9010,7 +9010,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8">
+      <c r="A178" s="7">
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -9028,7 +9028,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -9046,7 +9046,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -9064,7 +9064,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8">
+      <c r="A181" s="7">
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -9082,7 +9082,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -9100,7 +9100,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -9118,7 +9118,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8">
+      <c r="A184" s="7">
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -9136,7 +9136,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -9154,7 +9154,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -9172,7 +9172,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8">
+      <c r="A187" s="7">
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -9190,7 +9190,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -9208,7 +9208,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -9226,7 +9226,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8">
+      <c r="A190" s="7">
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -9244,7 +9244,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -9259,7 +9259,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7">
+      <c r="A192" s="6">
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -9277,7 +9277,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8">
+      <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -9295,7 +9295,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7">
+      <c r="A194" s="6">
         <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -9313,7 +9313,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="7">
+      <c r="A195" s="6">
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -9331,7 +9331,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8">
+      <c r="A196" s="7">
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -9349,7 +9349,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7">
+      <c r="A197" s="6">
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -9367,7 +9367,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7">
+      <c r="A198" s="6">
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -9385,7 +9385,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8">
+      <c r="A199" s="7">
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -9403,7 +9403,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7">
+      <c r="A200" s="6">
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -9421,7 +9421,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -9439,7 +9439,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8">
+      <c r="A202" s="7">
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -9457,7 +9457,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -9475,7 +9475,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7">
+      <c r="A204" s="6">
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -9493,7 +9493,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8">
+      <c r="A205" s="7">
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -9511,7 +9511,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="7">
+      <c r="A206" s="6">
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -9529,7 +9529,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7">
+      <c r="A207" s="6">
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -9547,7 +9547,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8">
+      <c r="A208" s="7">
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -9565,7 +9565,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="7">
+      <c r="A209" s="6">
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -9583,7 +9583,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="7">
+      <c r="A210" s="6">
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -9601,7 +9601,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8">
+      <c r="A211" s="7">
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -9619,7 +9619,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="7">
+      <c r="A212" s="6">
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -9637,7 +9637,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="7">
+      <c r="A213" s="6">
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -9655,7 +9655,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="8">
+      <c r="A214" s="7">
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -9673,7 +9673,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="7">
+      <c r="A215" s="6">
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -9691,7 +9691,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="7">
+      <c r="A216" s="6">
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -9709,7 +9709,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="8">
+      <c r="A217" s="7">
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -9727,7 +9727,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="7">
+      <c r="A218" s="6">
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -9745,7 +9745,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7">
+      <c r="A219" s="6">
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -9763,7 +9763,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="8">
+      <c r="A220" s="7">
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -9781,7 +9781,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="7">
+      <c r="A221" s="6">
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -9799,7 +9799,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="7">
+      <c r="A222" s="6">
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -9817,7 +9817,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8">
+      <c r="A223" s="7">
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -9835,7 +9835,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7">
+      <c r="A224" s="6">
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -9853,7 +9853,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7">
+      <c r="A225" s="6">
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -9871,7 +9871,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="8">
+      <c r="A226" s="7">
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -9889,7 +9889,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="7">
+      <c r="A227" s="6">
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -9907,7 +9907,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="7">
+      <c r="A228" s="6">
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -9925,7 +9925,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="8">
+      <c r="A229" s="7">
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -9943,7 +9943,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="7">
+      <c r="A230" s="6">
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -9964,7 +9964,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="7">
+      <c r="A231" s="6">
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -9982,7 +9982,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="8">
+      <c r="A232" s="7">
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -10000,7 +10000,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="7">
+      <c r="A233" s="6">
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -10018,7 +10018,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="7">
+      <c r="A234" s="6">
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -10036,7 +10036,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="8">
+      <c r="A235" s="7">
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -10054,7 +10054,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="7">
+      <c r="A236" s="6">
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -10072,7 +10072,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7">
+      <c r="A237" s="6">
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -10090,7 +10090,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8">
+      <c r="A238" s="7">
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -10108,7 +10108,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="7">
+      <c r="A239" s="6">
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -10126,7 +10126,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="7">
+      <c r="A240" s="6">
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -10144,7 +10144,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8">
+      <c r="A241" s="7">
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -10162,7 +10162,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="7">
+      <c r="A242" s="6">
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -10183,7 +10183,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="7">
+      <c r="A243" s="6">
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -10201,7 +10201,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="8">
+      <c r="A244" s="7">
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -10219,7 +10219,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="7">
+      <c r="A245" s="6">
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -10237,7 +10237,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="7">
+      <c r="A246" s="6">
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -10255,7 +10255,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="8">
+      <c r="A247" s="7">
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -10273,7 +10273,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="7">
+      <c r="A248" s="6">
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -10291,7 +10291,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="7">
+      <c r="A249" s="6">
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -10309,7 +10309,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="8">
+      <c r="A250" s="7">
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -10327,7 +10327,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="7">
+      <c r="A251" s="6">
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -10345,7 +10345,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="7">
+      <c r="A252" s="6">
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -10363,7 +10363,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="8">
+      <c r="A253" s="7">
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -10381,7 +10381,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="7">
+      <c r="A254" s="6">
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -10399,7 +10399,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="7">
+      <c r="A255" s="6">
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -10417,7 +10417,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="8">
+      <c r="A256" s="7">
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -10435,7 +10435,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="7">
+      <c r="A257" s="6">
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -10453,7 +10453,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+      <c r="A258" s="6">
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -10471,7 +10471,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="8">
+      <c r="A259" s="7">
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -10489,7 +10489,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="7">
+      <c r="A260" s="6">
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -10507,7 +10507,7 @@
       </c>
     </row>
     <row r="261" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="7">
+      <c r="A261" s="6">
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -10525,7 +10525,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8">
+      <c r="A262" s="7">
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -10543,7 +10543,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="7">
+      <c r="A263" s="6">
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -10561,7 +10561,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="7">
+      <c r="A264" s="6">
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -10582,7 +10582,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="8">
+      <c r="A265" s="7">
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -10600,7 +10600,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="7">
+      <c r="A266" s="6">
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -10618,7 +10618,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="7">
+      <c r="A267" s="6">
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -10636,7 +10636,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="8">
+      <c r="A268" s="7">
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -10654,7 +10654,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="7">
+      <c r="A269" s="6">
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -10672,7 +10672,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="7">
+      <c r="A270" s="6">
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -10690,7 +10690,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="8">
+      <c r="A271" s="7">
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -10708,7 +10708,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="7">
+      <c r="A272" s="6">
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -10726,7 +10726,7 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="7">
+      <c r="A273" s="6">
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -10744,7 +10744,7 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="8">
+      <c r="A274" s="7">
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -10762,7 +10762,7 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="7">
+      <c r="A275" s="6">
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="7">
+      <c r="A276" s="6">
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -10798,7 +10798,7 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="8">
+      <c r="A277" s="7">
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -10816,7 +10816,7 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="7">
+      <c r="A278" s="6">
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -10834,7 +10834,7 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="7">
+      <c r="A279" s="6">
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -10852,7 +10852,7 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="8">
+      <c r="A280" s="7">
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -10870,7 +10870,7 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7">
+      <c r="A281" s="6">
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -10888,7 +10888,7 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7">
+      <c r="A282" s="6">
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -10906,7 +10906,7 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8">
+      <c r="A283" s="7">
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -10924,7 +10924,7 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="7">
+      <c r="A284" s="6">
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -10942,7 +10942,7 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="7">
+      <c r="A285" s="6">
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -10960,7 +10960,7 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="8">
+      <c r="A286" s="7">
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -10978,7 +10978,7 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="7">
+      <c r="A287" s="6">
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -10996,7 +10996,7 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="7">
+      <c r="A288" s="6">
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -11014,7 +11014,7 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8">
+      <c r="A289" s="7">
         <v>288</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -11032,7 +11032,7 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="7">
+      <c r="A290" s="6">
         <v>289</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -11050,7 +11050,7 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="7">
+      <c r="A291" s="6">
         <v>290</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -11068,7 +11068,7 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="8">
+      <c r="A292" s="7">
         <v>291</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -11086,7 +11086,7 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="7">
+      <c r="A293" s="6">
         <v>292</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -11104,7 +11104,7 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="7">
+      <c r="A294" s="6">
         <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -11122,7 +11122,7 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="8">
+      <c r="A295" s="7">
         <v>294</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -11140,7 +11140,7 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="7">
+      <c r="A296" s="6">
         <v>295</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -11158,7 +11158,7 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="7">
+      <c r="A297" s="6">
         <v>296</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -11176,7 +11176,7 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="8">
+      <c r="A298" s="7">
         <v>297</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -11194,7 +11194,7 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="7">
+      <c r="A299" s="6">
         <v>298</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -11212,7 +11212,7 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="7">
+      <c r="A300" s="6">
         <v>299</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -11230,7 +11230,7 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="8">
+      <c r="A301" s="7">
         <v>300</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -11248,7 +11248,7 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="7">
+      <c r="A302" s="6">
         <v>301</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -11266,7 +11266,7 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="7">
+      <c r="A303" s="6">
         <v>302</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -11284,7 +11284,7 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="8">
+      <c r="A304" s="7">
         <v>303</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -11302,7 +11302,7 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="7">
+      <c r="A305" s="6">
         <v>304</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -11320,7 +11320,7 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="7">
+      <c r="A306" s="6">
         <v>305</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -11338,7 +11338,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="8">
+      <c r="A307" s="7">
         <v>306</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -11356,7 +11356,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="7">
+      <c r="A308" s="6">
         <v>307</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -11374,7 +11374,7 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="7">
+      <c r="A309" s="6">
         <v>308</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -11392,7 +11392,7 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="8">
+      <c r="A310" s="7">
         <v>309</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -11410,7 +11410,7 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="7">
+      <c r="A311" s="6">
         <v>310</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -11428,7 +11428,7 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="7">
+      <c r="A312" s="6">
         <v>311</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -11446,7 +11446,7 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="8">
+      <c r="A313" s="7">
         <v>312</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -11464,7 +11464,7 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="7">
+      <c r="A314" s="6">
         <v>313</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -11482,7 +11482,7 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="7">
+      <c r="A315" s="6">
         <v>314</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -11500,7 +11500,7 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="8">
+      <c r="A316" s="7">
         <v>315</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -11518,7 +11518,7 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="7">
+      <c r="A317" s="6">
         <v>316</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -11536,7 +11536,7 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="7">
+      <c r="A318" s="6">
         <v>317</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -11554,7 +11554,7 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="8">
+      <c r="A319" s="7">
         <v>318</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -11572,7 +11572,7 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="7">
+      <c r="A320" s="6">
         <v>319</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -11590,7 +11590,7 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="7">
+      <c r="A321" s="6">
         <v>320</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -11608,7 +11608,7 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="8">
+      <c r="A322" s="7">
         <v>321</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -11626,7 +11626,7 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="7">
+      <c r="A323" s="6">
         <v>322</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -11644,7 +11644,7 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="7">
+      <c r="A324" s="6">
         <v>323</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -11662,7 +11662,7 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="8">
+      <c r="A325" s="7">
         <v>324</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -11680,7 +11680,7 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="7">
+      <c r="A326" s="6">
         <v>325</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -11698,7 +11698,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="7">
+      <c r="A327" s="6">
         <v>326</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -11716,7 +11716,7 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="8">
+      <c r="A328" s="7">
         <v>327</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -11734,7 +11734,7 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="7">
+      <c r="A329" s="6">
         <v>328</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -11752,7 +11752,7 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="7">
+      <c r="A330" s="6">
         <v>329</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -11770,7 +11770,7 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="8">
+      <c r="A331" s="7">
         <v>330</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -11788,7 +11788,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="7">
+      <c r="A332" s="6">
         <v>331</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -11806,7 +11806,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="7">
+      <c r="A333" s="6">
         <v>332</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -11824,7 +11824,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="8">
+      <c r="A334" s="7">
         <v>333</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -11842,7 +11842,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="7">
+      <c r="A335" s="6">
         <v>334</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -11860,7 +11860,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="7">
+      <c r="A336" s="6">
         <v>335</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -11878,7 +11878,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="8">
+      <c r="A337" s="7">
         <v>336</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -11896,7 +11896,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="7">
+      <c r="A338" s="6">
         <v>337</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -11914,7 +11914,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="7">
+      <c r="A339" s="6">
         <v>338</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -11932,7 +11932,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="8">
+      <c r="A340" s="7">
         <v>339</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -11950,7 +11950,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7">
+      <c r="A341" s="6">
         <v>340</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -11968,7 +11968,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7">
+      <c r="A342" s="6">
         <v>341</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -11986,7 +11986,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="8">
+      <c r="A343" s="7">
         <v>342</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -12004,7 +12004,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="7">
+      <c r="A344" s="6">
         <v>343</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -12022,7 +12022,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="7">
+      <c r="A345" s="6">
         <v>344</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -12040,7 +12040,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="8">
+      <c r="A346" s="7">
         <v>345</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -12058,7 +12058,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="7">
+      <c r="A347" s="6">
         <v>346</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -12076,7 +12076,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="7">
+      <c r="A348" s="6">
         <v>347</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -12094,7 +12094,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="8">
+      <c r="A349" s="7">
         <v>348</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -12112,7 +12112,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="7">
+      <c r="A350" s="6">
         <v>349</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -12130,7 +12130,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="7">
+      <c r="A351" s="6">
         <v>350</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -12148,7 +12148,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="8">
+      <c r="A352" s="7">
         <v>351</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -12166,7 +12166,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="7">
+      <c r="A353" s="6">
         <v>352</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -12184,7 +12184,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="7">
+      <c r="A354" s="6">
         <v>353</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -12202,7 +12202,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="8">
+      <c r="A355" s="7">
         <v>354</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -12220,7 +12220,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="7">
+      <c r="A356" s="6">
         <v>355</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -12238,7 +12238,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="7">
+      <c r="A357" s="6">
         <v>356</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -12256,7 +12256,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="8">
+      <c r="A358" s="7">
         <v>357</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -12274,7 +12274,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="7">
+      <c r="A359" s="6">
         <v>358</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -12292,7 +12292,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="7">
+      <c r="A360" s="6">
         <v>359</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -12310,7 +12310,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="8">
+      <c r="A361" s="7">
         <v>360</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -12328,7 +12328,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="7">
+      <c r="A362" s="6">
         <v>361</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -12346,7 +12346,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="7">
+      <c r="A363" s="6">
         <v>362</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -12364,7 +12364,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="8">
+      <c r="A364" s="7">
         <v>363</v>
       </c>
       <c r="C364" s="1" t="s">
@@ -12382,7 +12382,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="7">
+      <c r="A365" s="6">
         <v>364</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -12400,7 +12400,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="7">
+      <c r="A366" s="6">
         <v>365</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -12418,7 +12418,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="8">
+      <c r="A367" s="7">
         <v>366</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -12436,7 +12436,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="7">
+      <c r="A368" s="6">
         <v>367</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -12454,7 +12454,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="7">
+      <c r="A369" s="6">
         <v>368</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -12472,7 +12472,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="8">
+      <c r="A370" s="7">
         <v>369</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -12490,7 +12490,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="7">
+      <c r="A371" s="6">
         <v>370</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -12508,7 +12508,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="7">
+      <c r="A372" s="6">
         <v>371</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -12526,7 +12526,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="8">
+      <c r="A373" s="7">
         <v>372</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -12544,7 +12544,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="7">
+      <c r="A374" s="6">
         <v>373</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -12562,7 +12562,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="7">
+      <c r="A375" s="6">
         <v>374</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -12580,7 +12580,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="8">
+      <c r="A376" s="7">
         <v>375</v>
       </c>
       <c r="C376" s="1" t="s">
@@ -12598,7 +12598,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="7">
+      <c r="A377" s="6">
         <v>376</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -12616,7 +12616,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="7">
+      <c r="A378" s="6">
         <v>377</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -12634,7 +12634,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="8">
+      <c r="A379" s="7">
         <v>378</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -12652,7 +12652,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="7">
+      <c r="A380" s="6">
         <v>379</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -12670,7 +12670,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="7">
+      <c r="A381" s="6">
         <v>380</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -12688,7 +12688,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="8">
+      <c r="A382" s="7">
         <v>381</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -12706,7 +12706,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="7">
+      <c r="A383" s="6">
         <v>382</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -12724,7 +12724,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="7">
+      <c r="A384" s="6">
         <v>383</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -12742,7 +12742,7 @@
       </c>
     </row>
     <row r="385" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="8">
+      <c r="A385" s="7">
         <v>384</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -12760,7 +12760,7 @@
       </c>
     </row>
     <row r="386" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="7">
+      <c r="A386" s="6">
         <v>385</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -12778,7 +12778,7 @@
       </c>
     </row>
     <row r="387" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="7">
+      <c r="A387" s="6">
         <v>386</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -12796,7 +12796,7 @@
       </c>
     </row>
     <row r="388" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="8">
+      <c r="A388" s="7">
         <v>387</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -12814,7 +12814,7 @@
       </c>
     </row>
     <row r="389" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="7">
+      <c r="A389" s="6">
         <v>388</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -12835,7 +12835,7 @@
       </c>
     </row>
     <row r="390" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="7">
+      <c r="A390" s="6">
         <v>389</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -12853,7 +12853,7 @@
       </c>
     </row>
     <row r="391" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="8">
+      <c r="A391" s="7">
         <v>390</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -12871,7 +12871,7 @@
       </c>
     </row>
     <row r="392" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="7">
+      <c r="A392" s="6">
         <v>391</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -12889,7 +12889,7 @@
       </c>
     </row>
     <row r="393" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="7">
+      <c r="A393" s="6">
         <v>392</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -12907,7 +12907,7 @@
       </c>
     </row>
     <row r="394" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="8">
+      <c r="A394" s="7">
         <v>393</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -12925,7 +12925,7 @@
       </c>
     </row>
     <row r="395" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="7">
+      <c r="A395" s="6">
         <v>394</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -12943,7 +12943,7 @@
       </c>
     </row>
     <row r="396" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="7">
+      <c r="A396" s="6">
         <v>395</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -12961,7 +12961,7 @@
       </c>
     </row>
     <row r="397" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="8">
+      <c r="A397" s="7">
         <v>396</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -12979,7 +12979,7 @@
       </c>
     </row>
     <row r="398" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="7">
+      <c r="A398" s="6">
         <v>397</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -12997,7 +12997,7 @@
       </c>
     </row>
     <row r="399" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="7">
+      <c r="A399" s="6">
         <v>398</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -13015,7 +13015,7 @@
       </c>
     </row>
     <row r="400" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="8">
+      <c r="A400" s="7">
         <v>399</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -13033,7 +13033,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7">
+      <c r="A401" s="6">
         <v>400</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -13051,7 +13051,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7">
+      <c r="A402" s="6">
         <v>401</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -13069,7 +13069,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="8">
+      <c r="A403" s="7">
         <v>402</v>
       </c>
       <c r="C403" s="1" t="s">
@@ -13087,7 +13087,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="7">
+      <c r="A404" s="6">
         <v>403</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -13105,7 +13105,7 @@
       </c>
     </row>
     <row r="405" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="7">
+      <c r="A405" s="6">
         <v>404</v>
       </c>
       <c r="C405" s="1" t="s">
@@ -13123,7 +13123,7 @@
       </c>
     </row>
     <row r="406" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="8">
+      <c r="A406" s="7">
         <v>405</v>
       </c>
       <c r="C406" s="1" t="s">
@@ -13141,7 +13141,7 @@
       </c>
     </row>
     <row r="407" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="7">
+      <c r="A407" s="6">
         <v>406</v>
       </c>
       <c r="C407" s="1" t="s">
@@ -13159,7 +13159,7 @@
       </c>
     </row>
     <row r="408" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="7">
+      <c r="A408" s="6">
         <v>407</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -13177,7 +13177,7 @@
       </c>
     </row>
     <row r="409" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="8">
+      <c r="A409" s="7">
         <v>408</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -13195,7 +13195,7 @@
       </c>
     </row>
     <row r="410" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="7">
+      <c r="A410" s="6">
         <v>409</v>
       </c>
       <c r="C410" s="1" t="s">
@@ -13213,7 +13213,7 @@
       </c>
     </row>
     <row r="411" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="7">
+      <c r="A411" s="6">
         <v>410</v>
       </c>
       <c r="C411" s="1" t="s">
@@ -13231,7 +13231,7 @@
       </c>
     </row>
     <row r="412" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="8">
+      <c r="A412" s="7">
         <v>411</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -13249,7 +13249,7 @@
       </c>
     </row>
     <row r="413" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="7">
+      <c r="A413" s="6">
         <v>412</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -13267,7 +13267,7 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="7">
+      <c r="A414" s="6">
         <v>413</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -13285,7 +13285,7 @@
       </c>
     </row>
     <row r="415" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="8">
+      <c r="A415" s="7">
         <v>414</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -13303,7 +13303,7 @@
       </c>
     </row>
     <row r="416" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="7">
+      <c r="A416" s="6">
         <v>415</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -13321,7 +13321,7 @@
       </c>
     </row>
     <row r="417" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="7">
+      <c r="A417" s="6">
         <v>416</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -13339,7 +13339,7 @@
       </c>
     </row>
     <row r="418" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="8">
+      <c r="A418" s="7">
         <v>417</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -13357,7 +13357,7 @@
       </c>
     </row>
     <row r="419" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="7">
+      <c r="A419" s="6">
         <v>418</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -13375,7 +13375,7 @@
       </c>
     </row>
     <row r="420" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="7">
+      <c r="A420" s="6">
         <v>419</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -13393,7 +13393,7 @@
       </c>
     </row>
     <row r="421" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="8">
+      <c r="A421" s="7">
         <v>420</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -13411,7 +13411,7 @@
       </c>
     </row>
     <row r="422" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="7">
+      <c r="A422" s="6">
         <v>421</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -13429,7 +13429,7 @@
       </c>
     </row>
     <row r="423" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="7">
+      <c r="A423" s="6">
         <v>422</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -13447,7 +13447,7 @@
       </c>
     </row>
     <row r="424" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="8">
+      <c r="A424" s="7">
         <v>423</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -13465,7 +13465,7 @@
       </c>
     </row>
     <row r="425" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="7">
+      <c r="A425" s="6">
         <v>424</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -13483,7 +13483,7 @@
       </c>
     </row>
     <row r="426" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="7">
+      <c r="A426" s="6">
         <v>425</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -13501,7 +13501,7 @@
       </c>
     </row>
     <row r="427" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="8">
+      <c r="A427" s="7">
         <v>426</v>
       </c>
       <c r="C427" s="1" t="s">
@@ -13519,7 +13519,7 @@
       </c>
     </row>
     <row r="428" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="7">
+      <c r="A428" s="6">
         <v>427</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -13537,7 +13537,7 @@
       </c>
     </row>
     <row r="429" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="7">
+      <c r="A429" s="6">
         <v>428</v>
       </c>
       <c r="C429" s="1" t="s">
@@ -13555,7 +13555,7 @@
       </c>
     </row>
     <row r="430" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="8">
+      <c r="A430" s="7">
         <v>429</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -13573,7 +13573,7 @@
       </c>
     </row>
     <row r="431" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="7">
+      <c r="A431" s="6">
         <v>430</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -13591,7 +13591,7 @@
       </c>
     </row>
     <row r="432" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="7">
+      <c r="A432" s="6">
         <v>431</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -13609,7 +13609,7 @@
       </c>
     </row>
     <row r="433" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="8">
+      <c r="A433" s="7">
         <v>432</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -13627,7 +13627,7 @@
       </c>
     </row>
     <row r="434" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="7">
+      <c r="A434" s="6">
         <v>433</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -13645,7 +13645,7 @@
       </c>
     </row>
     <row r="435" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="7">
+      <c r="A435" s="6">
         <v>434</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -13663,7 +13663,7 @@
       </c>
     </row>
     <row r="436" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="8">
+      <c r="A436" s="7">
         <v>435</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -13681,7 +13681,7 @@
       </c>
     </row>
     <row r="437" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="7">
+      <c r="A437" s="6">
         <v>436</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -13699,7 +13699,7 @@
       </c>
     </row>
     <row r="438" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="7">
+      <c r="A438" s="6">
         <v>437</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -13717,7 +13717,7 @@
       </c>
     </row>
     <row r="439" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="8">
+      <c r="A439" s="7">
         <v>438</v>
       </c>
       <c r="C439" s="1" t="s">
@@ -13735,7 +13735,7 @@
       </c>
     </row>
     <row r="440" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="7">
+      <c r="A440" s="6">
         <v>439</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -13753,7 +13753,7 @@
       </c>
     </row>
     <row r="441" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="7">
+      <c r="A441" s="6">
         <v>440</v>
       </c>
       <c r="C441" s="1" t="s">
@@ -13771,7 +13771,7 @@
       </c>
     </row>
     <row r="442" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="8">
+      <c r="A442" s="7">
         <v>441</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -13789,7 +13789,7 @@
       </c>
     </row>
     <row r="443" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="7">
+      <c r="A443" s="6">
         <v>442</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -13807,7 +13807,7 @@
       </c>
     </row>
     <row r="444" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="7">
+      <c r="A444" s="6">
         <v>443</v>
       </c>
       <c r="C444" s="1" t="s">
@@ -13825,7 +13825,7 @@
       </c>
     </row>
     <row r="445" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="8">
+      <c r="A445" s="7">
         <v>444</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -13843,7 +13843,7 @@
       </c>
     </row>
     <row r="446" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="7">
+      <c r="A446" s="6">
         <v>445</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -13861,7 +13861,7 @@
       </c>
     </row>
     <row r="447" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="7">
+      <c r="A447" s="6">
         <v>446</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -13879,7 +13879,7 @@
       </c>
     </row>
     <row r="448" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="8">
+      <c r="A448" s="7">
         <v>447</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -13897,7 +13897,7 @@
       </c>
     </row>
     <row r="449" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="7">
+      <c r="A449" s="6">
         <v>448</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -13915,7 +13915,7 @@
       </c>
     </row>
     <row r="450" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="7">
+      <c r="A450" s="6">
         <v>449</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -13933,7 +13933,7 @@
       </c>
     </row>
     <row r="451" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="8">
+      <c r="A451" s="7">
         <v>450</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -13951,7 +13951,7 @@
       </c>
     </row>
     <row r="452" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="7">
+      <c r="A452" s="6">
         <v>451</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -13969,7 +13969,7 @@
       </c>
     </row>
     <row r="453" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="7">
+      <c r="A453" s="6">
         <v>452</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -13987,7 +13987,7 @@
       </c>
     </row>
     <row r="454" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="8">
+      <c r="A454" s="7">
         <v>453</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -14008,7 +14008,7 @@
       </c>
     </row>
     <row r="455" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="7">
+      <c r="A455" s="6">
         <v>454</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -14026,7 +14026,7 @@
       </c>
     </row>
     <row r="456" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="7">
+      <c r="A456" s="6">
         <v>455</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -14044,7 +14044,7 @@
       </c>
     </row>
     <row r="457" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="8">
+      <c r="A457" s="7">
         <v>456</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -14062,7 +14062,7 @@
       </c>
     </row>
     <row r="458" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="7">
+      <c r="A458" s="6">
         <v>457</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -14080,7 +14080,7 @@
       </c>
     </row>
     <row r="459" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="7">
+      <c r="A459" s="6">
         <v>458</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -14098,7 +14098,7 @@
       </c>
     </row>
     <row r="460" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="8">
+      <c r="A460" s="7">
         <v>459</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -14116,7 +14116,7 @@
       </c>
     </row>
     <row r="461" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="7">
+      <c r="A461" s="6">
         <v>460</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -14134,7 +14134,7 @@
       </c>
     </row>
     <row r="462" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="7">
+      <c r="A462" s="6">
         <v>461</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -14152,7 +14152,7 @@
       </c>
     </row>
     <row r="463" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="8">
+      <c r="A463" s="7">
         <v>462</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -14170,7 +14170,7 @@
       </c>
     </row>
     <row r="464" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7">
+      <c r="A464" s="6">
         <v>463</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -14188,7 +14188,7 @@
       </c>
     </row>
     <row r="465" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7">
+      <c r="A465" s="6">
         <v>464</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -14206,7 +14206,7 @@
       </c>
     </row>
     <row r="466" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="8">
+      <c r="A466" s="7">
         <v>465</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -14224,7 +14224,7 @@
       </c>
     </row>
     <row r="467" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="7">
+      <c r="A467" s="6">
         <v>466</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -14242,7 +14242,7 @@
       </c>
     </row>
     <row r="468" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="7">
+      <c r="A468" s="6">
         <v>467</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -14260,7 +14260,7 @@
       </c>
     </row>
     <row r="469" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="8">
+      <c r="A469" s="7">
         <v>468</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -14278,7 +14278,7 @@
       </c>
     </row>
     <row r="470" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="7">
+      <c r="A470" s="6">
         <v>469</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -14296,7 +14296,7 @@
       </c>
     </row>
     <row r="471" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="7">
+      <c r="A471" s="6">
         <v>470</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -14314,7 +14314,7 @@
       </c>
     </row>
     <row r="472" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="8">
+      <c r="A472" s="7">
         <v>471</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -14332,7 +14332,7 @@
       </c>
     </row>
     <row r="473" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="7">
+      <c r="A473" s="6">
         <v>472</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -14350,7 +14350,7 @@
       </c>
     </row>
     <row r="474" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="7">
+      <c r="A474" s="6">
         <v>473</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -14368,7 +14368,7 @@
       </c>
     </row>
     <row r="475" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="8">
+      <c r="A475" s="7">
         <v>474</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -14386,7 +14386,7 @@
       </c>
     </row>
     <row r="476" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="7">
+      <c r="A476" s="6">
         <v>475</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -14404,7 +14404,7 @@
       </c>
     </row>
     <row r="477" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="7">
+      <c r="A477" s="6">
         <v>476</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -14422,7 +14422,7 @@
       </c>
     </row>
     <row r="478" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="8">
+      <c r="A478" s="7">
         <v>477</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -14440,7 +14440,7 @@
       </c>
     </row>
     <row r="479" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="7">
+      <c r="A479" s="6">
         <v>478</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -14458,7 +14458,7 @@
       </c>
     </row>
     <row r="480" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="7">
+      <c r="A480" s="6">
         <v>479</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -14476,7 +14476,7 @@
       </c>
     </row>
     <row r="481" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="8">
+      <c r="A481" s="7">
         <v>480</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -14494,7 +14494,7 @@
       </c>
     </row>
     <row r="482" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="7">
+      <c r="A482" s="6">
         <v>481</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -14512,7 +14512,7 @@
       </c>
     </row>
     <row r="483" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="7">
+      <c r="A483" s="6">
         <v>482</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -14530,7 +14530,7 @@
       </c>
     </row>
     <row r="484" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="8">
+      <c r="A484" s="7">
         <v>483</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -14548,7 +14548,7 @@
       </c>
     </row>
     <row r="485" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="7">
+      <c r="A485" s="6">
         <v>484</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -14566,7 +14566,7 @@
       </c>
     </row>
     <row r="486" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="7">
+      <c r="A486" s="6">
         <v>485</v>
       </c>
       <c r="C486" s="1" t="s">
@@ -14584,7 +14584,7 @@
       </c>
     </row>
     <row r="487" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="8">
+      <c r="A487" s="7">
         <v>486</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -14602,7 +14602,7 @@
       </c>
     </row>
     <row r="488" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="7">
+      <c r="A488" s="6">
         <v>487</v>
       </c>
       <c r="C488" s="1" t="s">
@@ -14620,7 +14620,7 @@
       </c>
     </row>
     <row r="489" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="7">
+      <c r="A489" s="6">
         <v>488</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -14638,7 +14638,7 @@
       </c>
     </row>
     <row r="490" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="8">
+      <c r="A490" s="7">
         <v>489</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -14656,7 +14656,7 @@
       </c>
     </row>
     <row r="491" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="7">
+      <c r="A491" s="6">
         <v>490</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -14674,7 +14674,7 @@
       </c>
     </row>
     <row r="492" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="7">
+      <c r="A492" s="6">
         <v>491</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -14692,7 +14692,7 @@
       </c>
     </row>
     <row r="493" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="8">
+      <c r="A493" s="7">
         <v>492</v>
       </c>
       <c r="C493" s="1" t="s">
@@ -14710,7 +14710,7 @@
       </c>
     </row>
     <row r="494" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="7">
+      <c r="A494" s="6">
         <v>493</v>
       </c>
       <c r="C494" s="1" t="s">
@@ -14728,7 +14728,7 @@
       </c>
     </row>
     <row r="495" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="7">
+      <c r="A495" s="6">
         <v>494</v>
       </c>
       <c r="C495" s="1" t="s">
@@ -14746,7 +14746,7 @@
       </c>
     </row>
     <row r="496" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="8">
+      <c r="A496" s="7">
         <v>495</v>
       </c>
       <c r="C496" s="1" t="s">
@@ -14764,7 +14764,7 @@
       </c>
     </row>
     <row r="497" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="7">
+      <c r="A497" s="6">
         <v>496</v>
       </c>
       <c r="C497" s="1" t="s">
@@ -14782,7 +14782,7 @@
       </c>
     </row>
     <row r="498" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="7">
+      <c r="A498" s="6">
         <v>497</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -14800,7 +14800,7 @@
       </c>
     </row>
     <row r="499" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="8">
+      <c r="A499" s="7">
         <v>498</v>
       </c>
       <c r="C499" s="1" t="s">
@@ -14818,7 +14818,7 @@
       </c>
     </row>
     <row r="500" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="7">
+      <c r="A500" s="6">
         <v>499</v>
       </c>
       <c r="C500" s="1" t="s">
@@ -14836,7 +14836,7 @@
       </c>
     </row>
     <row r="501" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="7">
+      <c r="A501" s="6">
         <v>500</v>
       </c>
       <c r="C501" s="1" t="s">
@@ -14854,7 +14854,7 @@
       </c>
     </row>
     <row r="502" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="8">
+      <c r="A502" s="7">
         <v>501</v>
       </c>
       <c r="C502" s="1" t="s">
@@ -14872,7 +14872,7 @@
       </c>
     </row>
     <row r="503" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="7">
+      <c r="A503" s="6">
         <v>502</v>
       </c>
       <c r="C503" s="1" t="s">
@@ -14890,7 +14890,7 @@
       </c>
     </row>
     <row r="504" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="7">
+      <c r="A504" s="6">
         <v>503</v>
       </c>
       <c r="C504" s="1" t="s">
@@ -14908,7 +14908,7 @@
       </c>
     </row>
     <row r="505" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="8">
+      <c r="A505" s="7">
         <v>504</v>
       </c>
       <c r="C505" s="1" t="s">
@@ -14926,7 +14926,7 @@
       </c>
     </row>
     <row r="506" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="7">
+      <c r="A506" s="6">
         <v>505</v>
       </c>
       <c r="C506" s="1" t="s">
@@ -14944,7 +14944,7 @@
       </c>
     </row>
     <row r="507" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="7">
+      <c r="A507" s="6">
         <v>506</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -14962,7 +14962,7 @@
       </c>
     </row>
     <row r="508" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="8">
+      <c r="A508" s="7">
         <v>507</v>
       </c>
       <c r="C508" s="1" t="s">
@@ -14980,7 +14980,7 @@
       </c>
     </row>
     <row r="509" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="7">
+      <c r="A509" s="6">
         <v>508</v>
       </c>
       <c r="C509" s="1" t="s">
@@ -14998,7 +14998,7 @@
       </c>
     </row>
     <row r="510" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="7">
+      <c r="A510" s="6">
         <v>509</v>
       </c>
       <c r="C510" s="1" t="s">
@@ -15016,7 +15016,7 @@
       </c>
     </row>
     <row r="511" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="8">
+      <c r="A511" s="7">
         <v>510</v>
       </c>
       <c r="C511" s="1" t="s">
@@ -15034,7 +15034,7 @@
       </c>
     </row>
     <row r="512" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="7">
+      <c r="A512" s="6">
         <v>511</v>
       </c>
       <c r="C512" s="1" t="s">
@@ -15052,7 +15052,7 @@
       </c>
     </row>
     <row r="513" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="7">
+      <c r="A513" s="6">
         <v>512</v>
       </c>
       <c r="C513" s="1" t="s">
@@ -15070,7 +15070,7 @@
       </c>
     </row>
     <row r="514" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="8">
+      <c r="A514" s="7">
         <v>513</v>
       </c>
       <c r="C514" s="1" t="s">
@@ -15088,7 +15088,7 @@
       </c>
     </row>
     <row r="515" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="7">
+      <c r="A515" s="6">
         <v>514</v>
       </c>
       <c r="C515" s="1" t="s">
@@ -15106,7 +15106,7 @@
       </c>
     </row>
     <row r="516" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="7">
+      <c r="A516" s="6">
         <v>515</v>
       </c>
       <c r="C516" s="1" t="s">
@@ -15124,7 +15124,7 @@
       </c>
     </row>
     <row r="517" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="8">
+      <c r="A517" s="7">
         <v>516</v>
       </c>
       <c r="C517" s="1" t="s">
@@ -15142,7 +15142,7 @@
       </c>
     </row>
     <row r="518" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="7">
+      <c r="A518" s="6">
         <v>517</v>
       </c>
       <c r="C518" s="1" t="s">
@@ -15160,7 +15160,7 @@
       </c>
     </row>
     <row r="519" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="7">
+      <c r="A519" s="6">
         <v>518</v>
       </c>
       <c r="C519" s="1" t="s">
@@ -15178,7 +15178,7 @@
       </c>
     </row>
     <row r="520" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="8">
+      <c r="A520" s="7">
         <v>519</v>
       </c>
       <c r="C520" s="1" t="s">
@@ -15196,7 +15196,7 @@
       </c>
     </row>
     <row r="521" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="7">
+      <c r="A521" s="6">
         <v>520</v>
       </c>
       <c r="C521" s="1" t="s">
@@ -15214,7 +15214,7 @@
       </c>
     </row>
     <row r="522" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="7">
+      <c r="A522" s="6">
         <v>521</v>
       </c>
       <c r="C522" s="1" t="s">
@@ -15232,7 +15232,7 @@
       </c>
     </row>
     <row r="523" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="8">
+      <c r="A523" s="7">
         <v>522</v>
       </c>
       <c r="C523" s="1" t="s">
@@ -15250,7 +15250,7 @@
       </c>
     </row>
     <row r="524" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="7">
+      <c r="A524" s="6">
         <v>523</v>
       </c>
       <c r="C524" s="1" t="s">
@@ -15268,7 +15268,7 @@
       </c>
     </row>
     <row r="525" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="7">
+      <c r="A525" s="6">
         <v>524</v>
       </c>
       <c r="C525" s="1" t="s">
@@ -15286,7 +15286,7 @@
       </c>
     </row>
     <row r="526" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="8">
+      <c r="A526" s="7">
         <v>525</v>
       </c>
       <c r="C526" s="1" t="s">
@@ -15304,7 +15304,7 @@
       </c>
     </row>
     <row r="527" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="7">
+      <c r="A527" s="6">
         <v>526</v>
       </c>
       <c r="C527" s="1" t="s">
@@ -15322,7 +15322,7 @@
       </c>
     </row>
     <row r="528" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="7">
+      <c r="A528" s="6">
         <v>527</v>
       </c>
       <c r="C528" s="1" t="s">
@@ -15340,7 +15340,7 @@
       </c>
     </row>
     <row r="529" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="8">
+      <c r="A529" s="7">
         <v>528</v>
       </c>
       <c r="C529" s="1" t="s">
@@ -15358,7 +15358,7 @@
       </c>
     </row>
     <row r="530" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="7">
+      <c r="A530" s="6">
         <v>529</v>
       </c>
       <c r="C530" s="1" t="s">
@@ -15376,7 +15376,7 @@
       </c>
     </row>
     <row r="531" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="7">
+      <c r="A531" s="6">
         <v>530</v>
       </c>
       <c r="C531" s="1" t="s">
@@ -15394,7 +15394,7 @@
       </c>
     </row>
     <row r="532" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="8">
+      <c r="A532" s="7">
         <v>531</v>
       </c>
       <c r="C532" s="1" t="s">
@@ -15412,7 +15412,7 @@
       </c>
     </row>
     <row r="533" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="7">
+      <c r="A533" s="6">
         <v>532</v>
       </c>
       <c r="C533" s="1" t="s">
@@ -15430,7 +15430,7 @@
       </c>
     </row>
     <row r="534" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="7">
+      <c r="A534" s="6">
         <v>533</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -15448,7 +15448,7 @@
       </c>
     </row>
     <row r="535" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="8">
+      <c r="A535" s="7">
         <v>534</v>
       </c>
       <c r="C535" s="1" t="s">
@@ -15466,7 +15466,7 @@
       </c>
     </row>
     <row r="536" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="7">
+      <c r="A536" s="6">
         <v>535</v>
       </c>
       <c r="C536" s="1" t="s">
@@ -15484,7 +15484,7 @@
       </c>
     </row>
     <row r="537" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="7">
+      <c r="A537" s="6">
         <v>536</v>
       </c>
       <c r="C537" s="1" t="s">
@@ -15502,7 +15502,7 @@
       </c>
     </row>
     <row r="538" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="8">
+      <c r="A538" s="7">
         <v>537</v>
       </c>
       <c r="C538" s="1" t="s">
@@ -15520,7 +15520,7 @@
       </c>
     </row>
     <row r="539" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="7">
+      <c r="A539" s="6">
         <v>538</v>
       </c>
       <c r="C539" s="1" t="s">
@@ -15538,7 +15538,7 @@
       </c>
     </row>
     <row r="540" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="7">
+      <c r="A540" s="6">
         <v>539</v>
       </c>
       <c r="C540" s="1" t="s">
@@ -15556,7 +15556,7 @@
       </c>
     </row>
     <row r="541" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="8">
+      <c r="A541" s="7">
         <v>540</v>
       </c>
       <c r="C541" s="1" t="s">
@@ -15574,7 +15574,7 @@
       </c>
     </row>
     <row r="542" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="7">
+      <c r="A542" s="6">
         <v>541</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -15592,7 +15592,7 @@
       </c>
     </row>
     <row r="543" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="7">
+      <c r="A543" s="6">
         <v>542</v>
       </c>
       <c r="C543" s="1" t="s">
@@ -15610,7 +15610,7 @@
       </c>
     </row>
     <row r="544" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="8">
+      <c r="A544" s="7">
         <v>543</v>
       </c>
       <c r="C544" s="1" t="s">
@@ -15628,7 +15628,7 @@
       </c>
     </row>
     <row r="545" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="7">
+      <c r="A545" s="6">
         <v>544</v>
       </c>
       <c r="C545" s="1" t="s">
@@ -15646,7 +15646,7 @@
       </c>
     </row>
     <row r="546" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="7">
+      <c r="A546" s="6">
         <v>545</v>
       </c>
       <c r="C546" s="1" t="s">
@@ -15664,7 +15664,7 @@
       </c>
     </row>
     <row r="547" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="8">
+      <c r="A547" s="7">
         <v>546</v>
       </c>
       <c r="C547" s="1" t="s">
@@ -15682,7 +15682,7 @@
       </c>
     </row>
     <row r="548" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="7">
+      <c r="A548" s="6">
         <v>547</v>
       </c>
       <c r="C548" s="1" t="s">
@@ -15700,7 +15700,7 @@
       </c>
     </row>
     <row r="549" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="7">
+      <c r="A549" s="6">
         <v>548</v>
       </c>
       <c r="C549" s="1" t="s">
@@ -15718,7 +15718,7 @@
       </c>
     </row>
     <row r="550" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="8">
+      <c r="A550" s="7">
         <v>549</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -15736,7 +15736,7 @@
       </c>
     </row>
     <row r="551" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="7">
+      <c r="A551" s="6">
         <v>550</v>
       </c>
       <c r="C551" s="1" t="s">
@@ -15754,7 +15754,7 @@
       </c>
     </row>
     <row r="552" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="7">
+      <c r="A552" s="6">
         <v>551</v>
       </c>
       <c r="C552" s="1" t="s">
@@ -15774,7 +15774,7 @@
       </c>
     </row>
     <row r="553" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="8">
+      <c r="A553" s="7">
         <v>552</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -15792,7 +15792,7 @@
       </c>
     </row>
     <row r="554" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="7">
+      <c r="A554" s="6">
         <v>553</v>
       </c>
       <c r="C554" s="1" t="s">
@@ -15810,7 +15810,7 @@
       </c>
     </row>
     <row r="555" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="7">
+      <c r="A555" s="6">
         <v>554</v>
       </c>
       <c r="C555" s="1" t="s">
@@ -15828,7 +15828,7 @@
       </c>
     </row>
     <row r="556" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="8">
+      <c r="A556" s="7">
         <v>555</v>
       </c>
       <c r="C556" s="1" t="s">
@@ -15846,7 +15846,7 @@
       </c>
     </row>
     <row r="557" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="7">
+      <c r="A557" s="6">
         <v>556</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -15867,7 +15867,7 @@
       </c>
     </row>
     <row r="558" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="7">
+      <c r="A558" s="6">
         <v>557</v>
       </c>
       <c r="C558" s="1" t="s">
@@ -15885,7 +15885,7 @@
       </c>
     </row>
     <row r="559" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="8">
+      <c r="A559" s="7">
         <v>558</v>
       </c>
       <c r="C559" s="1" t="s">
@@ -15903,7 +15903,7 @@
       </c>
     </row>
     <row r="560" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="7">
+      <c r="A560" s="6">
         <v>559</v>
       </c>
       <c r="C560" s="1" t="s">
@@ -15921,7 +15921,7 @@
       </c>
     </row>
     <row r="561" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="7">
+      <c r="A561" s="6">
         <v>560</v>
       </c>
       <c r="C561" s="1" t="s">
@@ -15939,7 +15939,7 @@
       </c>
     </row>
     <row r="562" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="8">
+      <c r="A562" s="7">
         <v>561</v>
       </c>
       <c r="C562" s="1" t="s">
@@ -15960,7 +15960,7 @@
       </c>
     </row>
     <row r="563" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="7">
+      <c r="A563" s="6">
         <v>562</v>
       </c>
       <c r="C563" s="1" t="s">
@@ -15978,7 +15978,7 @@
       </c>
     </row>
     <row r="564" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="7">
+      <c r="A564" s="6">
         <v>563</v>
       </c>
       <c r="C564" s="1" t="s">
@@ -15999,7 +15999,7 @@
       </c>
     </row>
     <row r="565" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="8">
+      <c r="A565" s="7">
         <v>564</v>
       </c>
       <c r="C565" s="1" t="s">
@@ -16017,7 +16017,7 @@
       </c>
     </row>
     <row r="566" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="7">
+      <c r="A566" s="6">
         <v>565</v>
       </c>
       <c r="C566" s="1" t="s">
@@ -16035,7 +16035,7 @@
       </c>
     </row>
     <row r="567" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="7">
+      <c r="A567" s="6">
         <v>566</v>
       </c>
       <c r="C567" s="1" t="s">
@@ -16053,7 +16053,7 @@
       </c>
     </row>
     <row r="568" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="8">
+      <c r="A568" s="7">
         <v>567</v>
       </c>
       <c r="C568" s="1" t="s">
@@ -16071,7 +16071,7 @@
       </c>
     </row>
     <row r="569" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="7">
+      <c r="A569" s="6">
         <v>568</v>
       </c>
       <c r="C569" s="1" t="s">
@@ -16089,7 +16089,7 @@
       </c>
     </row>
     <row r="570" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="7">
+      <c r="A570" s="6">
         <v>569</v>
       </c>
       <c r="C570" s="1" t="s">
@@ -16107,7 +16107,7 @@
       </c>
     </row>
     <row r="571" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="8">
+      <c r="A571" s="7">
         <v>570</v>
       </c>
       <c r="C571" s="1" t="s">
@@ -16125,7 +16125,7 @@
       </c>
     </row>
     <row r="572" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="7">
+      <c r="A572" s="6">
         <v>571</v>
       </c>
       <c r="C572" s="1" t="s">
@@ -16146,7 +16146,7 @@
       </c>
     </row>
     <row r="573" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="7">
+      <c r="A573" s="6">
         <v>572</v>
       </c>
       <c r="C573" s="1" t="s">
@@ -16166,7 +16166,7 @@
       </c>
     </row>
     <row r="574" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="8">
+      <c r="A574" s="7">
         <v>573</v>
       </c>
       <c r="C574" s="1" t="s">
@@ -16184,7 +16184,7 @@
       </c>
     </row>
     <row r="575" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="7">
+      <c r="A575" s="6">
         <v>574</v>
       </c>
       <c r="C575" s="1" t="s">
@@ -16202,7 +16202,7 @@
       </c>
     </row>
     <row r="576" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="7">
+      <c r="A576" s="6">
         <v>575</v>
       </c>
       <c r="C576" s="1" t="s">
@@ -16220,7 +16220,7 @@
       </c>
     </row>
     <row r="577" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="8">
+      <c r="A577" s="7">
         <v>576</v>
       </c>
       <c r="C577" s="1" t="s">
@@ -16238,7 +16238,7 @@
       </c>
     </row>
     <row r="578" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="7">
+      <c r="A578" s="6">
         <v>577</v>
       </c>
       <c r="C578" s="1" t="s">
@@ -16259,7 +16259,7 @@
       </c>
     </row>
     <row r="579" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="7">
+      <c r="A579" s="6">
         <v>578</v>
       </c>
       <c r="C579" s="1" t="s">
@@ -16277,7 +16277,7 @@
       </c>
     </row>
     <row r="580" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="8">
+      <c r="A580" s="7">
         <v>579</v>
       </c>
       <c r="C580" s="1" t="s">
@@ -16295,7 +16295,7 @@
       </c>
     </row>
     <row r="581" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="7">
+      <c r="A581" s="6">
         <v>580</v>
       </c>
       <c r="C581" s="1" t="s">
@@ -16313,7 +16313,7 @@
       </c>
     </row>
     <row r="582" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="7">
+      <c r="A582" s="6">
         <v>581</v>
       </c>
       <c r="C582" s="1" t="s">
@@ -16331,7 +16331,7 @@
       </c>
     </row>
     <row r="583" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="8">
+      <c r="A583" s="7">
         <v>582</v>
       </c>
       <c r="C583" s="1" t="s">
@@ -16349,7 +16349,7 @@
       </c>
     </row>
     <row r="584" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="7">
+      <c r="A584" s="6">
         <v>583</v>
       </c>
       <c r="C584" s="1" t="s">
@@ -16367,7 +16367,7 @@
       </c>
     </row>
     <row r="585" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="7">
+      <c r="A585" s="6">
         <v>584</v>
       </c>
       <c r="C585" s="1" t="s">
@@ -16385,7 +16385,7 @@
       </c>
     </row>
     <row r="586" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="8">
+      <c r="A586" s="7">
         <v>585</v>
       </c>
       <c r="C586" s="1" t="s">
@@ -16403,7 +16403,7 @@
       </c>
     </row>
     <row r="587" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="7">
+      <c r="A587" s="6">
         <v>586</v>
       </c>
       <c r="C587" s="1" t="s">
@@ -16421,7 +16421,7 @@
       </c>
     </row>
     <row r="588" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="7">
+      <c r="A588" s="6">
         <v>587</v>
       </c>
       <c r="C588" s="1" t="s">
@@ -16439,7 +16439,7 @@
       </c>
     </row>
     <row r="589" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="8">
+      <c r="A589" s="7">
         <v>588</v>
       </c>
       <c r="C589" s="1" t="s">
@@ -16457,7 +16457,7 @@
       </c>
     </row>
     <row r="590" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="7">
+      <c r="A590" s="6">
         <v>589</v>
       </c>
       <c r="C590" s="1" t="s">
@@ -16475,7 +16475,7 @@
       </c>
     </row>
     <row r="591" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="7">
+      <c r="A591" s="6">
         <v>590</v>
       </c>
       <c r="C591" s="1" t="s">
@@ -16493,7 +16493,7 @@
       </c>
     </row>
     <row r="592" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="8">
+      <c r="A592" s="7">
         <v>591</v>
       </c>
       <c r="C592" s="1" t="s">
@@ -16511,7 +16511,7 @@
       </c>
     </row>
     <row r="593" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="7">
+      <c r="A593" s="6">
         <v>592</v>
       </c>
       <c r="C593" s="1" t="s">
@@ -16529,7 +16529,7 @@
       </c>
     </row>
     <row r="594" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="7">
+      <c r="A594" s="6">
         <v>593</v>
       </c>
       <c r="C594" s="1" t="s">
@@ -16547,7 +16547,7 @@
       </c>
     </row>
     <row r="595" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="8">
+      <c r="A595" s="7">
         <v>594</v>
       </c>
       <c r="C595" s="1" t="s">
@@ -16565,7 +16565,7 @@
       </c>
     </row>
     <row r="596" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="7">
+      <c r="A596" s="6">
         <v>595</v>
       </c>
       <c r="C596" s="1" t="s">
@@ -16583,7 +16583,7 @@
       </c>
     </row>
     <row r="597" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="7">
+      <c r="A597" s="6">
         <v>596</v>
       </c>
       <c r="C597" s="1" t="s">
@@ -16601,7 +16601,7 @@
       </c>
     </row>
     <row r="598" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="8">
+      <c r="A598" s="7">
         <v>597</v>
       </c>
       <c r="C598" s="1" t="s">
@@ -16619,7 +16619,7 @@
       </c>
     </row>
     <row r="599" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="7">
+      <c r="A599" s="6">
         <v>598</v>
       </c>
       <c r="C599" s="1" t="s">
@@ -16637,7 +16637,7 @@
       </c>
     </row>
     <row r="600" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="7">
+      <c r="A600" s="6">
         <v>599</v>
       </c>
       <c r="C600" s="1" t="s">
@@ -16655,7 +16655,7 @@
       </c>
     </row>
     <row r="601" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="8">
+      <c r="A601" s="7">
         <v>600</v>
       </c>
       <c r="C601" s="1" t="s">
@@ -16673,7 +16673,7 @@
       </c>
     </row>
     <row r="602" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="7">
+      <c r="A602" s="6">
         <v>601</v>
       </c>
       <c r="C602" s="1" t="s">
@@ -16694,7 +16694,7 @@
       </c>
     </row>
     <row r="603" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="7">
+      <c r="A603" s="6">
         <v>602</v>
       </c>
       <c r="C603" s="1" t="s">
@@ -16712,7 +16712,7 @@
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A604" s="7">
+      <c r="A604" s="6">
         <v>603</v>
       </c>
       <c r="C604" s="1" t="s">
@@ -16730,7 +16730,7 @@
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A605" s="7">
+      <c r="A605" s="6">
         <v>604</v>
       </c>
       <c r="C605" s="1" t="s">
@@ -16748,7 +16748,7 @@
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="8">
+      <c r="A606" s="7">
         <v>605</v>
       </c>
       <c r="C606" s="1" t="s">
@@ -16766,7 +16766,7 @@
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A607" s="7">
+      <c r="A607" s="6">
         <v>606</v>
       </c>
       <c r="C607" s="1" t="s">
@@ -16784,7 +16784,7 @@
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A608" s="7">
+      <c r="A608" s="6">
         <v>607</v>
       </c>
       <c r="C608" s="1" t="s">
@@ -16805,7 +16805,7 @@
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A609" s="8">
+      <c r="A609" s="7">
         <v>608</v>
       </c>
       <c r="C609" s="1" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D0552F-09E8-4D03-9CAF-6DCAB33F0BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78AEC51-4AB6-4B99-B9AC-3F0502816BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -5758,14 +5758,14 @@
   <dimension ref="A1:H609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -8194,9 +8194,7 @@
       <c r="E134" t="s">
         <v>621</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>605</v>
-      </c>
+      <c r="F134" s="1"/>
       <c r="G134" s="9">
         <v>155.09</v>
       </c>
@@ -8214,7 +8212,9 @@
       <c r="E135" t="s">
         <v>723</v>
       </c>
-      <c r="F135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>605</v>
+      </c>
       <c r="G135" s="9">
         <v>15.39</v>
       </c>
@@ -8361,9 +8361,7 @@
       <c r="E142" t="s">
         <v>621</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>606</v>
-      </c>
+      <c r="F142" s="1"/>
       <c r="G142" s="9">
         <v>14.99</v>
       </c>
@@ -8385,7 +8383,7 @@
         <v>621</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G143" s="9">
         <v>14.7</v>
@@ -8407,7 +8405,9 @@
       <c r="E144" t="s">
         <v>729</v>
       </c>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>607</v>
+      </c>
       <c r="G144" s="9">
         <v>15.8</v>
       </c>
@@ -15766,9 +15766,7 @@
       <c r="E552" t="s">
         <v>1083</v>
       </c>
-      <c r="F552" s="1" t="s">
-        <v>608</v>
-      </c>
+      <c r="F552" s="1"/>
       <c r="G552" s="9">
         <v>76.95</v>
       </c>
@@ -15858,7 +15856,9 @@
       <c r="E557" t="s">
         <v>1088</v>
       </c>
-      <c r="F557" s="1"/>
+      <c r="F557" s="1" t="s">
+        <v>608</v>
+      </c>
       <c r="G557" s="9">
         <v>56.99</v>
       </c>
@@ -16158,9 +16158,7 @@
       <c r="E573" t="s">
         <v>1101</v>
       </c>
-      <c r="F573" s="1" t="s">
-        <v>609</v>
-      </c>
+      <c r="F573" s="1"/>
       <c r="G573" s="9">
         <v>44.6</v>
       </c>
@@ -16250,7 +16248,9 @@
       <c r="E578" t="s">
         <v>1105</v>
       </c>
-      <c r="F578" s="1"/>
+      <c r="F578" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="G578" s="9">
         <v>59.99</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\mn-transparency\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78AEC51-4AB6-4B99-B9AC-3F0502816BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B904156-768B-4441-B8BC-F8CFE43655DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E7B1B27D-A1D5-4C75-B74B-4000DA5A6081}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="1752">
   <si>
     <t>ABACAXI CRISTALIZADO RODELAS</t>
   </si>
@@ -5278,6 +5278,9 @@
   </si>
   <si>
     <t>TRIGO P KIBE PATUSCO</t>
+  </si>
+  <si>
+    <t>/imagens/mnmix.jpg</t>
   </si>
 </sst>
 </file>
@@ -5369,6 +5372,9 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5387,9 +5393,6 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5450,8 +5453,8 @@
     <tableColumn id="8" xr3:uid="{31BC2997-6C6F-42ED-BDF9-51B13E85D16E}" name="Codigo" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{97531CDD-9157-4945-BECB-626FC73E467C}" name="Descrição" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{2E06E125-A37C-44C1-A067-9105303F0412}" name="Detalhes" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{6B341554-3D61-464E-B0ED-CE6E6C07D258}" name="Imagem" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="0" dataCellStyle="Vírgula"/>
+    <tableColumn id="7" xr3:uid="{6B341554-3D61-464E-B0ED-CE6E6C07D258}" name="Imagem" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1CCD281E-AC84-4CEE-9B30-BCA50A3B6A7D}" name="Preco" dataDxfId="1" dataCellStyle="Vírgula"/>
     <tableColumn id="4" xr3:uid="{42457639-E172-4F1A-9782-68AB0812D06F}" name="Categoria"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5758,7 +5761,7 @@
   <dimension ref="A1:H609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5766,9 +5769,10 @@
     <col min="1" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="9" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5811,7 +5815,9 @@
       <c r="E2" t="s">
         <v>612</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G2" s="9">
         <v>60.5</v>
       </c>
@@ -5830,7 +5836,9 @@
       <c r="E3" t="s">
         <v>613</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G3" s="9">
         <v>152.9</v>
       </c>
@@ -5848,7 +5856,9 @@
       <c r="E4" t="s">
         <v>614</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G4" s="9">
         <v>207.9</v>
       </c>
@@ -5866,7 +5876,9 @@
       <c r="E5" t="s">
         <v>615</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G5" s="9">
         <v>59.9</v>
       </c>
@@ -5881,7 +5893,9 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G6" s="9">
         <v>78.989999999999995</v>
       </c>
@@ -5899,7 +5913,9 @@
       <c r="E7" t="s">
         <v>616</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G7" s="9">
         <v>22.19</v>
       </c>
@@ -5917,7 +5933,9 @@
       <c r="E8" t="s">
         <v>617</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G8" s="9">
         <v>19.8</v>
       </c>
@@ -5935,7 +5953,9 @@
       <c r="E9" t="s">
         <v>618</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G9" s="9">
         <v>19.59</v>
       </c>
@@ -5953,7 +5973,9 @@
       <c r="E10" t="s">
         <v>619</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G10" s="9">
         <v>157.79</v>
       </c>
@@ -5971,7 +5993,9 @@
       <c r="E11" t="s">
         <v>620</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G11" s="9">
         <v>75.599999999999994</v>
       </c>
@@ -5992,7 +6016,9 @@
       <c r="E12" t="s">
         <v>621</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G12" s="9">
         <v>143.6</v>
       </c>
@@ -6010,7 +6036,9 @@
       <c r="E13" t="s">
         <v>622</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G13" s="9">
         <v>118.5</v>
       </c>
@@ -6028,7 +6056,9 @@
       <c r="E14" t="s">
         <v>622</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G14" s="9">
         <v>143.6</v>
       </c>
@@ -6046,7 +6076,9 @@
       <c r="E15" t="s">
         <v>623</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G15" s="9">
         <v>162.9</v>
       </c>
@@ -6064,7 +6096,9 @@
       <c r="E16" t="s">
         <v>624</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G16" s="9">
         <v>135.69999999999999</v>
       </c>
@@ -6082,7 +6116,9 @@
       <c r="E17" t="s">
         <v>625</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G17" s="9">
         <v>47.9</v>
       </c>
@@ -6100,7 +6136,9 @@
       <c r="E18" t="s">
         <v>626</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G18" s="9">
         <v>29.39</v>
       </c>
@@ -6118,7 +6156,9 @@
       <c r="E19" t="s">
         <v>627</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G19" s="9">
         <v>22.4</v>
       </c>
@@ -6136,7 +6176,9 @@
       <c r="E20" t="s">
         <v>628</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G20" s="9">
         <v>70.5</v>
       </c>
@@ -6154,7 +6196,9 @@
       <c r="E21" t="s">
         <v>621</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G21" s="9">
         <v>143.9</v>
       </c>
@@ -6175,7 +6219,9 @@
       <c r="E22" t="s">
         <v>629</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G22" s="9">
         <v>62.89</v>
       </c>
@@ -6196,7 +6242,9 @@
       <c r="E23" t="s">
         <v>630</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G23" s="9">
         <v>56.48</v>
       </c>
@@ -6214,7 +6262,9 @@
       <c r="E24" t="s">
         <v>631</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G24" s="9">
         <v>25.9</v>
       </c>
@@ -6232,7 +6282,9 @@
       <c r="E25" t="s">
         <v>632</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G25" s="9">
         <v>116.9</v>
       </c>
@@ -6250,7 +6302,9 @@
       <c r="E26" t="s">
         <v>633</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G26" s="9">
         <v>82.99</v>
       </c>
@@ -6268,7 +6322,9 @@
       <c r="E27" t="s">
         <v>634</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G27" s="9">
         <v>69.290000000000006</v>
       </c>
@@ -6286,7 +6342,9 @@
       <c r="E28" t="s">
         <v>635</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G28" s="9">
         <v>129.9</v>
       </c>
@@ -6304,7 +6362,9 @@
       <c r="E29" t="s">
         <v>636</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G29" s="9">
         <v>16.39</v>
       </c>
@@ -6322,7 +6382,9 @@
       <c r="E30" t="s">
         <v>637</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G30" s="9">
         <v>81.290000000000006</v>
       </c>
@@ -6340,7 +6402,9 @@
       <c r="E31" t="s">
         <v>638</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G31" s="9">
         <v>66.58</v>
       </c>
@@ -6358,7 +6422,9 @@
       <c r="E32" t="s">
         <v>621</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G32" s="9">
         <v>139.13</v>
       </c>
@@ -6376,7 +6442,9 @@
       <c r="E33" t="s">
         <v>639</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G33" s="9">
         <v>59.99</v>
       </c>
@@ -6394,7 +6462,9 @@
       <c r="E34" t="s">
         <v>640</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G34" s="9">
         <v>131.59</v>
       </c>
@@ -6412,7 +6482,9 @@
       <c r="E35" t="s">
         <v>641</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G35" s="9">
         <v>115.99</v>
       </c>
@@ -6430,7 +6502,9 @@
       <c r="E36" t="s">
         <v>642</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G36" s="9">
         <v>133.99</v>
       </c>
@@ -6448,7 +6522,9 @@
       <c r="E37" t="s">
         <v>643</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G37" s="9">
         <v>81.39</v>
       </c>
@@ -6466,7 +6542,9 @@
       <c r="E38" t="s">
         <v>644</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G38" s="9">
         <v>75.989999999999995</v>
       </c>
@@ -6484,7 +6562,9 @@
       <c r="E39" t="s">
         <v>645</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G39" s="9">
         <v>31.99</v>
       </c>
@@ -6502,7 +6582,9 @@
       <c r="E40" t="s">
         <v>646</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G40" s="9">
         <v>40.99</v>
       </c>
@@ -6520,7 +6602,9 @@
       <c r="E41" t="s">
         <v>647</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G41" s="9">
         <v>40.99</v>
       </c>
@@ -6538,7 +6622,9 @@
       <c r="E42" t="s">
         <v>646</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G42" s="9">
         <v>0</v>
       </c>
@@ -6556,7 +6642,9 @@
       <c r="E43" t="s">
         <v>648</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G43" s="9">
         <v>27.69</v>
       </c>
@@ -6574,7 +6662,9 @@
       <c r="E44" t="s">
         <v>621</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G44" s="9">
         <v>29.9</v>
       </c>
@@ -6592,7 +6682,9 @@
       <c r="E45" t="s">
         <v>649</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G45" s="9">
         <v>29.9</v>
       </c>
@@ -6610,7 +6702,9 @@
       <c r="E46" t="s">
         <v>650</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G46" s="9">
         <v>33.99</v>
       </c>
@@ -6628,7 +6722,9 @@
       <c r="E47" t="s">
         <v>651</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G47" s="9">
         <v>37.99</v>
       </c>
@@ -6646,7 +6742,9 @@
       <c r="E48" t="s">
         <v>652</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G48" s="9">
         <v>37.99</v>
       </c>
@@ -6664,7 +6762,9 @@
       <c r="E49" t="s">
         <v>653</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G49" s="9">
         <v>37.99</v>
       </c>
@@ -6682,7 +6782,9 @@
       <c r="E50" t="s">
         <v>654</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G50" s="9">
         <v>37.99</v>
       </c>
@@ -6700,7 +6802,9 @@
       <c r="E51" t="s">
         <v>655</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G51" s="9">
         <v>37.99</v>
       </c>
@@ -6718,7 +6822,9 @@
       <c r="E52" t="s">
         <v>656</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G52" s="9">
         <v>27.69</v>
       </c>
@@ -6736,7 +6842,9 @@
       <c r="E53" t="s">
         <v>657</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G53" s="9">
         <v>27.69</v>
       </c>
@@ -6754,7 +6862,9 @@
       <c r="E54" t="s">
         <v>658</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G54" s="9">
         <v>11.49</v>
       </c>
@@ -6772,7 +6882,9 @@
       <c r="E55" t="s">
         <v>659</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G55" s="9">
         <v>181.05</v>
       </c>
@@ -6790,7 +6902,9 @@
       <c r="E56" t="s">
         <v>660</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G56" s="9">
         <v>35.99</v>
       </c>
@@ -6808,7 +6922,9 @@
       <c r="E57" t="s">
         <v>661</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G57" s="9">
         <v>87.99</v>
       </c>
@@ -6826,7 +6942,9 @@
       <c r="E58" t="s">
         <v>662</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G58" s="9">
         <v>14.02</v>
       </c>
@@ -6844,7 +6962,9 @@
       <c r="E59" t="s">
         <v>663</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G59" s="9">
         <v>10.8</v>
       </c>
@@ -6862,7 +6982,9 @@
       <c r="E60" t="s">
         <v>664</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G60" s="9">
         <v>15.92</v>
       </c>
@@ -6880,7 +7002,9 @@
       <c r="E61" t="s">
         <v>665</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G61" s="9">
         <v>13.2</v>
       </c>
@@ -6898,7 +7022,9 @@
       <c r="E62" t="s">
         <v>666</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G62" s="9">
         <v>12.99</v>
       </c>
@@ -6916,7 +7042,9 @@
       <c r="E63" t="s">
         <v>667</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G63" s="9">
         <v>10.8</v>
       </c>
@@ -6934,7 +7062,9 @@
       <c r="E64" t="s">
         <v>668</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G64" s="9">
         <v>15.92</v>
       </c>
@@ -6952,7 +7082,9 @@
       <c r="E65" t="s">
         <v>669</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G65" s="9">
         <v>59.89</v>
       </c>
@@ -6970,7 +7102,9 @@
       <c r="E66" t="s">
         <v>670</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G66" s="9">
         <v>38.700000000000003</v>
       </c>
@@ -6988,7 +7122,9 @@
       <c r="E67" t="s">
         <v>671</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G67" s="9">
         <v>70.930000000000007</v>
       </c>
@@ -7006,7 +7142,9 @@
       <c r="E68" t="s">
         <v>672</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G68" s="9">
         <v>42.99</v>
       </c>
@@ -7024,7 +7162,9 @@
       <c r="E69" t="s">
         <v>673</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G69" s="9">
         <v>31.4</v>
       </c>
@@ -7042,7 +7182,9 @@
       <c r="E70" t="s">
         <v>674</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G70" s="9">
         <v>33.229999999999997</v>
       </c>
@@ -7060,7 +7202,9 @@
       <c r="E71" t="s">
         <v>675</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G71" s="9">
         <v>17.3</v>
       </c>
@@ -7078,7 +7222,9 @@
       <c r="E72" t="s">
         <v>621</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G72" s="9">
         <v>39.9</v>
       </c>
@@ -7096,7 +7242,9 @@
       <c r="E73" t="s">
         <v>676</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G73" s="9">
         <v>70.25</v>
       </c>
@@ -7114,7 +7262,9 @@
       <c r="E74" t="s">
         <v>677</v>
       </c>
-      <c r="F74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G74" s="9">
         <v>79.5</v>
       </c>
@@ -7132,7 +7282,9 @@
       <c r="E75" t="s">
         <v>678</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G75" s="9">
         <v>28.08</v>
       </c>
@@ -7150,7 +7302,9 @@
       <c r="E76" t="s">
         <v>679</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G76" s="9">
         <v>15.99</v>
       </c>
@@ -7168,7 +7322,9 @@
       <c r="E77" t="s">
         <v>680</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G77" s="9">
         <v>22.9</v>
       </c>
@@ -7186,7 +7342,9 @@
       <c r="E78" t="s">
         <v>681</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G78" s="9">
         <v>182.9</v>
       </c>
@@ -7204,7 +7362,9 @@
       <c r="E79" t="s">
         <v>682</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G79" s="9">
         <v>31.92</v>
       </c>
@@ -7222,7 +7382,9 @@
       <c r="E80" t="s">
         <v>683</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G80" s="9">
         <v>43.99</v>
       </c>
@@ -7240,7 +7402,9 @@
       <c r="E81" t="s">
         <v>684</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G81" s="9">
         <v>26.35</v>
       </c>
@@ -7258,7 +7422,9 @@
       <c r="E82" t="s">
         <v>621</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G82" s="9">
         <v>36.99</v>
       </c>
@@ -7276,7 +7442,9 @@
       <c r="E83" t="s">
         <v>621</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G83" s="9">
         <v>66.94</v>
       </c>
@@ -7294,7 +7462,9 @@
       <c r="E84" t="s">
         <v>621</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G84" s="9">
         <v>66.94</v>
       </c>
@@ -7312,7 +7482,9 @@
       <c r="E85" t="s">
         <v>685</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G85" s="9">
         <v>109.9</v>
       </c>
@@ -7330,7 +7502,9 @@
       <c r="E86" t="s">
         <v>686</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G86" s="9">
         <v>77.7</v>
       </c>
@@ -7348,7 +7522,9 @@
       <c r="E87" t="s">
         <v>687</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G87" s="9">
         <v>99.990000000000009</v>
       </c>
@@ -7366,7 +7542,9 @@
       <c r="E88" t="s">
         <v>688</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G88" s="9">
         <v>99.990000000000009</v>
       </c>
@@ -7384,7 +7562,9 @@
       <c r="E89" t="s">
         <v>689</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G89" s="9">
         <v>99.9</v>
       </c>
@@ -7402,7 +7582,9 @@
       <c r="E90" t="s">
         <v>690</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G90" s="9">
         <v>79.900000000000006</v>
       </c>
@@ -7420,7 +7602,9 @@
       <c r="E91" t="s">
         <v>691</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G91" s="9">
         <v>62.89</v>
       </c>
@@ -7438,7 +7622,9 @@
       <c r="E92" t="s">
         <v>692</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G92" s="9">
         <v>41.85</v>
       </c>
@@ -7456,7 +7642,9 @@
       <c r="E93" t="s">
         <v>693</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G93" s="9">
         <v>31.5</v>
       </c>
@@ -7474,7 +7662,9 @@
       <c r="E94" t="s">
         <v>694</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G94" s="9">
         <v>2221.25</v>
       </c>
@@ -7492,7 +7682,9 @@
       <c r="E95" t="s">
         <v>695</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G95" s="9">
         <v>175.77</v>
       </c>
@@ -7510,7 +7702,9 @@
       <c r="E96" t="s">
         <v>696</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G96" s="9">
         <v>14.4</v>
       </c>
@@ -7528,7 +7722,9 @@
       <c r="E97" t="s">
         <v>697</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G97" s="9">
         <v>15.99</v>
       </c>
@@ -7546,7 +7742,9 @@
       <c r="E98" t="s">
         <v>621</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G98" s="9">
         <v>34.99</v>
       </c>
@@ -7564,7 +7762,9 @@
       <c r="E99" t="s">
         <v>698</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G99" s="9">
         <v>32.130000000000003</v>
       </c>
@@ -7582,7 +7782,9 @@
       <c r="E100" t="s">
         <v>621</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G100" s="9">
         <v>54.6</v>
       </c>
@@ -7600,7 +7802,9 @@
       <c r="E101" t="s">
         <v>699</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G101" s="9">
         <v>34.99</v>
       </c>
@@ -7618,7 +7822,9 @@
       <c r="E102" t="s">
         <v>700</v>
       </c>
-      <c r="F102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G102" s="9">
         <v>35.700000000000003</v>
       </c>
@@ -7636,7 +7842,9 @@
       <c r="E103" t="s">
         <v>621</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G103" s="9">
         <v>44.9</v>
       </c>
@@ -7654,7 +7862,9 @@
       <c r="E104" t="s">
         <v>621</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G104" s="9">
         <v>36.75</v>
       </c>
@@ -7672,7 +7882,9 @@
       <c r="E105" t="s">
         <v>701</v>
       </c>
-      <c r="F105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G105" s="9">
         <v>33.75</v>
       </c>
@@ -7690,7 +7902,9 @@
       <c r="E106" t="s">
         <v>621</v>
       </c>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G106" s="9">
         <v>32.130000000000003</v>
       </c>
@@ -7708,7 +7922,9 @@
       <c r="E107" t="s">
         <v>702</v>
       </c>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G107" s="9">
         <v>90.53</v>
       </c>
@@ -7726,7 +7942,9 @@
       <c r="E108" t="s">
         <v>703</v>
       </c>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G108" s="9">
         <v>89.9</v>
       </c>
@@ -7744,7 +7962,9 @@
       <c r="E109" t="s">
         <v>702</v>
       </c>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G109" s="9">
         <v>79.900000000000006</v>
       </c>
@@ -7762,7 +7982,9 @@
       <c r="E110" t="s">
         <v>621</v>
       </c>
-      <c r="F110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G110" s="9">
         <v>89.9</v>
       </c>
@@ -7780,7 +8002,9 @@
       <c r="E111" t="s">
         <v>621</v>
       </c>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G111" s="9">
         <v>42.5</v>
       </c>
@@ -7798,7 +8022,9 @@
       <c r="E112" t="s">
         <v>621</v>
       </c>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G112" s="9">
         <v>34.99</v>
       </c>
@@ -7816,7 +8042,9 @@
       <c r="E113" t="s">
         <v>704</v>
       </c>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G113" s="9">
         <v>33.75</v>
       </c>
@@ -7834,7 +8062,9 @@
       <c r="E114" t="s">
         <v>705</v>
       </c>
-      <c r="F114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G114" s="9">
         <v>39.99</v>
       </c>
@@ -7852,7 +8082,9 @@
       <c r="E115" t="s">
         <v>706</v>
       </c>
-      <c r="F115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G115" s="9">
         <v>42.5</v>
       </c>
@@ -7870,7 +8102,9 @@
       <c r="E116" t="s">
         <v>707</v>
       </c>
-      <c r="F116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G116" s="9">
         <v>39.99</v>
       </c>
@@ -7888,7 +8122,9 @@
       <c r="E117" t="s">
         <v>621</v>
       </c>
-      <c r="F117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G117" s="9">
         <v>34.99</v>
       </c>
@@ -7906,7 +8142,9 @@
       <c r="E118" t="s">
         <v>708</v>
       </c>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G118" s="9">
         <v>42.95</v>
       </c>
@@ -7924,7 +8162,9 @@
       <c r="E119" t="s">
         <v>709</v>
       </c>
-      <c r="F119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G119" s="9">
         <v>34.99</v>
       </c>
@@ -7942,7 +8182,9 @@
       <c r="E120" t="s">
         <v>710</v>
       </c>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G120" s="9">
         <v>61.99</v>
       </c>
@@ -7960,7 +8202,9 @@
       <c r="E121" t="s">
         <v>711</v>
       </c>
-      <c r="F121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G121" s="9">
         <v>63.89</v>
       </c>
@@ -7978,7 +8222,9 @@
       <c r="E122" t="s">
         <v>621</v>
       </c>
-      <c r="F122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G122" s="9">
         <v>38.5</v>
       </c>
@@ -7996,7 +8242,9 @@
       <c r="E123" t="s">
         <v>712</v>
       </c>
-      <c r="F123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G123" s="9">
         <v>39.99</v>
       </c>
@@ -8014,7 +8262,9 @@
       <c r="E124" t="s">
         <v>713</v>
       </c>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G124" s="9">
         <v>34.99</v>
       </c>
@@ -8032,7 +8282,9 @@
       <c r="E125" t="s">
         <v>714</v>
       </c>
-      <c r="F125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G125" s="9">
         <v>39.99</v>
       </c>
@@ -8050,7 +8302,9 @@
       <c r="E126" t="s">
         <v>715</v>
       </c>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G126" s="9">
         <v>35.700000000000003</v>
       </c>
@@ -8068,7 +8322,9 @@
       <c r="E127" t="s">
         <v>716</v>
       </c>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G127" s="9">
         <v>235.9</v>
       </c>
@@ -8086,7 +8342,9 @@
       <c r="E128" t="s">
         <v>717</v>
       </c>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G128" s="9">
         <v>83.8</v>
       </c>
@@ -8104,7 +8362,9 @@
       <c r="E129" t="s">
         <v>718</v>
       </c>
-      <c r="F129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G129" s="9">
         <v>95.4</v>
       </c>
@@ -8122,7 +8382,9 @@
       <c r="E130" t="s">
         <v>719</v>
       </c>
-      <c r="F130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G130" s="9">
         <v>57.12</v>
       </c>
@@ -8140,7 +8402,9 @@
       <c r="E131" t="s">
         <v>720</v>
       </c>
-      <c r="F131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G131" s="9">
         <v>183</v>
       </c>
@@ -8158,7 +8422,9 @@
       <c r="E132" t="s">
         <v>721</v>
       </c>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G132" s="9">
         <v>33.99</v>
       </c>
@@ -8176,7 +8442,9 @@
       <c r="E133" t="s">
         <v>722</v>
       </c>
-      <c r="F133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G133" s="9">
         <v>94.9</v>
       </c>
@@ -8194,7 +8462,9 @@
       <c r="E134" t="s">
         <v>621</v>
       </c>
-      <c r="F134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G134" s="9">
         <v>155.09</v>
       </c>
@@ -8235,7 +8505,9 @@
       <c r="E136" t="s">
         <v>724</v>
       </c>
-      <c r="F136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G136" s="9">
         <v>19.7</v>
       </c>
@@ -8256,7 +8528,9 @@
       <c r="E137" t="s">
         <v>725</v>
       </c>
-      <c r="F137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G137" s="9">
         <v>15.99</v>
       </c>
@@ -8277,7 +8551,9 @@
       <c r="E138" t="s">
         <v>726</v>
       </c>
-      <c r="F138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G138" s="9">
         <v>14.69</v>
       </c>
@@ -8298,7 +8574,9 @@
       <c r="E139" t="s">
         <v>727</v>
       </c>
-      <c r="F139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G139" s="9">
         <v>15.99</v>
       </c>
@@ -8319,7 +8597,9 @@
       <c r="E140" t="s">
         <v>728</v>
       </c>
-      <c r="F140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G140" s="9">
         <v>14.89</v>
       </c>
@@ -8340,7 +8620,9 @@
       <c r="E141" t="s">
         <v>621</v>
       </c>
-      <c r="F141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G141" s="9">
         <v>15.49</v>
       </c>
@@ -8361,7 +8643,9 @@
       <c r="E142" t="s">
         <v>621</v>
       </c>
-      <c r="F142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G142" s="9">
         <v>14.99</v>
       </c>
@@ -8428,7 +8712,9 @@
       <c r="E145" t="s">
         <v>730</v>
       </c>
-      <c r="F145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G145" s="9">
         <v>67.989999999999995</v>
       </c>
@@ -8446,7 +8732,9 @@
       <c r="E146" t="s">
         <v>731</v>
       </c>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G146" s="9">
         <v>275.89999999999998</v>
       </c>
@@ -8464,7 +8752,9 @@
       <c r="E147" t="s">
         <v>732</v>
       </c>
-      <c r="F147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G147" s="9">
         <v>24.9</v>
       </c>
@@ -8482,7 +8772,9 @@
       <c r="E148" t="s">
         <v>733</v>
       </c>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G148" s="9">
         <v>42.99</v>
       </c>
@@ -8500,7 +8792,9 @@
       <c r="E149" t="s">
         <v>734</v>
       </c>
-      <c r="F149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G149" s="9">
         <v>131.59</v>
       </c>
@@ -8518,7 +8812,9 @@
       <c r="E150" t="s">
         <v>735</v>
       </c>
-      <c r="F150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G150" s="9">
         <v>14.9</v>
       </c>
@@ -8536,7 +8832,9 @@
       <c r="E151" t="s">
         <v>736</v>
       </c>
-      <c r="F151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G151" s="9">
         <v>31.49</v>
       </c>
@@ -8554,7 +8852,9 @@
       <c r="E152" t="s">
         <v>621</v>
       </c>
-      <c r="F152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G152" s="9">
         <v>83.9</v>
       </c>
@@ -8572,7 +8872,9 @@
       <c r="E153" t="s">
         <v>737</v>
       </c>
-      <c r="F153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G153" s="9">
         <v>12.99</v>
       </c>
@@ -8590,7 +8892,9 @@
       <c r="E154" t="s">
         <v>738</v>
       </c>
-      <c r="F154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G154" s="9">
         <v>499.9</v>
       </c>
@@ -8608,7 +8912,9 @@
       <c r="E155" t="s">
         <v>739</v>
       </c>
-      <c r="F155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G155" s="9">
         <v>349.9</v>
       </c>
@@ -8626,7 +8932,9 @@
       <c r="E156" t="s">
         <v>740</v>
       </c>
-      <c r="F156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G156" s="9">
         <v>34.89</v>
       </c>
@@ -8644,7 +8952,9 @@
       <c r="E157" t="s">
         <v>741</v>
       </c>
-      <c r="F157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G157" s="9">
         <v>20.8</v>
       </c>
@@ -8662,7 +8972,9 @@
       <c r="E158" t="s">
         <v>742</v>
       </c>
-      <c r="F158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G158" s="9">
         <v>172.19</v>
       </c>
@@ -8680,7 +8992,9 @@
       <c r="E159" t="s">
         <v>743</v>
       </c>
-      <c r="F159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G159" s="9">
         <v>106.53</v>
       </c>
@@ -8698,7 +9012,9 @@
       <c r="E160" t="s">
         <v>744</v>
       </c>
-      <c r="F160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G160" s="9">
         <v>65.77</v>
       </c>
@@ -8716,7 +9032,9 @@
       <c r="E161" t="s">
         <v>621</v>
       </c>
-      <c r="F161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G161" s="9">
         <v>214.5</v>
       </c>
@@ -8734,7 +9052,9 @@
       <c r="E162" t="s">
         <v>745</v>
       </c>
-      <c r="F162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G162" s="9">
         <v>210.99</v>
       </c>
@@ -8752,7 +9072,9 @@
       <c r="E163" t="s">
         <v>621</v>
       </c>
-      <c r="F163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G163" s="9">
         <v>132.88999999999999</v>
       </c>
@@ -8770,7 +9092,9 @@
       <c r="E164" t="s">
         <v>746</v>
       </c>
-      <c r="F164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G164" s="9">
         <v>78.790000000000006</v>
       </c>
@@ -8788,7 +9112,9 @@
       <c r="E165" t="s">
         <v>747</v>
       </c>
-      <c r="F165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G165" s="9">
         <v>78.790000000000006</v>
       </c>
@@ -8806,7 +9132,9 @@
       <c r="E166" t="s">
         <v>748</v>
       </c>
-      <c r="F166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G166" s="9">
         <v>78.790000000000006</v>
       </c>
@@ -8824,7 +9152,9 @@
       <c r="E167" t="s">
         <v>749</v>
       </c>
-      <c r="F167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G167" s="9">
         <v>78.790000000000006</v>
       </c>
@@ -8842,7 +9172,9 @@
       <c r="E168" t="s">
         <v>750</v>
       </c>
-      <c r="F168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G168" s="9">
         <v>122.9</v>
       </c>
@@ -8860,7 +9192,9 @@
       <c r="E169" t="s">
         <v>751</v>
       </c>
-      <c r="F169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G169" s="9">
         <v>139.88999999999999</v>
       </c>
@@ -8878,7 +9212,9 @@
       <c r="E170" t="s">
         <v>621</v>
       </c>
-      <c r="F170" s="1"/>
+      <c r="F170" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G170" s="9">
         <v>65.900000000000006</v>
       </c>
@@ -8896,7 +9232,9 @@
       <c r="E171" t="s">
         <v>752</v>
       </c>
-      <c r="F171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G171" s="9">
         <v>132.88999999999999</v>
       </c>
@@ -8914,7 +9252,9 @@
       <c r="E172" t="s">
         <v>753</v>
       </c>
-      <c r="F172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G172" s="9">
         <v>121.49</v>
       </c>
@@ -8932,7 +9272,9 @@
       <c r="E173" t="s">
         <v>621</v>
       </c>
-      <c r="F173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G173" s="9">
         <v>121.49</v>
       </c>
@@ -8950,7 +9292,9 @@
       <c r="E174" t="s">
         <v>754</v>
       </c>
-      <c r="F174" s="1"/>
+      <c r="F174" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G174" s="9">
         <v>171.99</v>
       </c>
@@ -8968,7 +9312,9 @@
       <c r="E175" t="s">
         <v>755</v>
       </c>
-      <c r="F175" s="1"/>
+      <c r="F175" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G175" s="9">
         <v>130.69</v>
       </c>
@@ -8986,7 +9332,9 @@
       <c r="E176" t="s">
         <v>756</v>
       </c>
-      <c r="F176" s="1"/>
+      <c r="F176" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G176" s="9">
         <v>64.900000000000006</v>
       </c>
@@ -9004,7 +9352,9 @@
       <c r="E177" t="s">
         <v>757</v>
       </c>
-      <c r="F177" s="1"/>
+      <c r="F177" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G177" s="9">
         <v>30.99</v>
       </c>
@@ -9022,7 +9372,9 @@
       <c r="E178" t="s">
         <v>621</v>
       </c>
-      <c r="F178" s="1"/>
+      <c r="F178" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G178" s="9">
         <v>38.99</v>
       </c>
@@ -9040,7 +9392,9 @@
       <c r="E179" t="s">
         <v>758</v>
       </c>
-      <c r="F179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G179" s="9">
         <v>38.49</v>
       </c>
@@ -9058,7 +9412,9 @@
       <c r="E180" t="s">
         <v>759</v>
       </c>
-      <c r="F180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G180" s="9">
         <v>54.79</v>
       </c>
@@ -9076,7 +9432,9 @@
       <c r="E181" t="s">
         <v>760</v>
       </c>
-      <c r="F181" s="1"/>
+      <c r="F181" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G181" s="9">
         <v>60.35</v>
       </c>
@@ -9094,7 +9452,9 @@
       <c r="E182" t="s">
         <v>761</v>
       </c>
-      <c r="F182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G182" s="9">
         <v>50.93</v>
       </c>
@@ -9112,7 +9472,9 @@
       <c r="E183" t="s">
         <v>762</v>
       </c>
-      <c r="F183" s="1"/>
+      <c r="F183" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G183" s="9">
         <v>44.99</v>
       </c>
@@ -9130,7 +9492,9 @@
       <c r="E184" t="s">
         <v>763</v>
       </c>
-      <c r="F184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G184" s="9">
         <v>61.5</v>
       </c>
@@ -9148,7 +9512,9 @@
       <c r="E185" t="s">
         <v>764</v>
       </c>
-      <c r="F185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G185" s="9">
         <v>90.49</v>
       </c>
@@ -9166,7 +9532,9 @@
       <c r="E186" t="s">
         <v>765</v>
       </c>
-      <c r="F186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G186" s="9">
         <v>60.99</v>
       </c>
@@ -9184,7 +9552,9 @@
       <c r="E187" t="s">
         <v>766</v>
       </c>
-      <c r="F187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G187" s="9">
         <v>101.5</v>
       </c>
@@ -9202,7 +9572,9 @@
       <c r="E188" t="s">
         <v>767</v>
       </c>
-      <c r="F188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G188" s="9">
         <v>14.6</v>
       </c>
@@ -9220,7 +9592,9 @@
       <c r="E189" t="s">
         <v>621</v>
       </c>
-      <c r="F189" s="1"/>
+      <c r="F189" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G189" s="9">
         <v>32.4</v>
       </c>
@@ -9238,7 +9612,9 @@
       <c r="E190" t="s">
         <v>768</v>
       </c>
-      <c r="F190" s="1"/>
+      <c r="F190" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G190" s="9">
         <v>72.400000000000006</v>
       </c>
@@ -9253,7 +9629,9 @@
       <c r="D191" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G191" s="9">
         <v>199.9</v>
       </c>
@@ -9271,7 +9649,9 @@
       <c r="E192" t="s">
         <v>769</v>
       </c>
-      <c r="F192" s="1"/>
+      <c r="F192" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G192" s="9">
         <v>91.4</v>
       </c>
@@ -9289,7 +9669,9 @@
       <c r="E193" t="s">
         <v>770</v>
       </c>
-      <c r="F193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G193" s="9">
         <v>31.9</v>
       </c>
@@ -9307,7 +9689,9 @@
       <c r="E194" t="s">
         <v>771</v>
       </c>
-      <c r="F194" s="1"/>
+      <c r="F194" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G194" s="9">
         <v>182.7</v>
       </c>
@@ -9325,7 +9709,9 @@
       <c r="E195" t="s">
         <v>772</v>
       </c>
-      <c r="F195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G195" s="9">
         <v>199.9</v>
       </c>
@@ -9343,7 +9729,9 @@
       <c r="E196" t="s">
         <v>773</v>
       </c>
-      <c r="F196" s="1"/>
+      <c r="F196" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G196" s="9">
         <v>37.99</v>
       </c>
@@ -9361,7 +9749,9 @@
       <c r="E197" t="s">
         <v>774</v>
       </c>
-      <c r="F197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G197" s="9">
         <v>27.4</v>
       </c>
@@ -9379,7 +9769,9 @@
       <c r="E198" t="s">
         <v>775</v>
       </c>
-      <c r="F198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G198" s="9">
         <v>156.49</v>
       </c>
@@ -9397,7 +9789,9 @@
       <c r="E199" t="s">
         <v>776</v>
       </c>
-      <c r="F199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G199" s="9">
         <v>133.13</v>
       </c>
@@ -9415,7 +9809,9 @@
       <c r="E200" t="s">
         <v>777</v>
       </c>
-      <c r="F200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G200" s="9">
         <v>29.99</v>
       </c>
@@ -9433,7 +9829,9 @@
       <c r="E201" t="s">
         <v>778</v>
       </c>
-      <c r="F201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G201" s="9">
         <v>68.900000000000006</v>
       </c>
@@ -9451,7 +9849,9 @@
       <c r="E202" t="s">
         <v>779</v>
       </c>
-      <c r="F202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G202" s="9">
         <v>45.89</v>
       </c>
@@ -9469,7 +9869,9 @@
       <c r="E203" t="s">
         <v>780</v>
       </c>
-      <c r="F203" s="1"/>
+      <c r="F203" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G203" s="9">
         <v>68.849999999999994</v>
       </c>
@@ -9487,7 +9889,9 @@
       <c r="E204" t="s">
         <v>781</v>
       </c>
-      <c r="F204" s="1"/>
+      <c r="F204" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G204" s="9">
         <v>34.19</v>
       </c>
@@ -9505,7 +9909,9 @@
       <c r="E205" t="s">
         <v>782</v>
       </c>
-      <c r="F205" s="1"/>
+      <c r="F205" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G205" s="9">
         <v>66.900000000000006</v>
       </c>
@@ -9523,7 +9929,9 @@
       <c r="E206" t="s">
         <v>783</v>
       </c>
-      <c r="F206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G206" s="9">
         <v>44.75</v>
       </c>
@@ -9541,7 +9949,9 @@
       <c r="E207" t="s">
         <v>784</v>
       </c>
-      <c r="F207" s="1"/>
+      <c r="F207" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G207" s="9">
         <v>59.99</v>
       </c>
@@ -9559,7 +9969,9 @@
       <c r="E208" t="s">
         <v>621</v>
       </c>
-      <c r="F208" s="1"/>
+      <c r="F208" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G208" s="9">
         <v>44.7</v>
       </c>
@@ -9577,7 +9989,9 @@
       <c r="E209" t="s">
         <v>785</v>
       </c>
-      <c r="F209" s="1"/>
+      <c r="F209" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G209" s="9">
         <v>15.9</v>
       </c>
@@ -9595,7 +10009,9 @@
       <c r="E210" t="s">
         <v>786</v>
       </c>
-      <c r="F210" s="1"/>
+      <c r="F210" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G210" s="9">
         <v>130.30000000000001</v>
       </c>
@@ -9613,7 +10029,9 @@
       <c r="E211" t="s">
         <v>787</v>
       </c>
-      <c r="F211" s="1"/>
+      <c r="F211" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G211" s="9">
         <v>115.1</v>
       </c>
@@ -9631,7 +10049,9 @@
       <c r="E212" t="s">
         <v>788</v>
       </c>
-      <c r="F212" s="1"/>
+      <c r="F212" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G212" s="9">
         <v>136.99</v>
       </c>
@@ -9649,7 +10069,9 @@
       <c r="E213" t="s">
         <v>621</v>
       </c>
-      <c r="F213" s="1"/>
+      <c r="F213" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G213" s="9">
         <v>70.5</v>
       </c>
@@ -9667,7 +10089,9 @@
       <c r="E214" t="s">
         <v>789</v>
       </c>
-      <c r="F214" s="1"/>
+      <c r="F214" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G214" s="9">
         <v>69.989999999999995</v>
       </c>
@@ -9685,7 +10109,9 @@
       <c r="E215" t="s">
         <v>790</v>
       </c>
-      <c r="F215" s="1"/>
+      <c r="F215" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G215" s="9">
         <v>140.4</v>
       </c>
@@ -9703,7 +10129,9 @@
       <c r="E216" t="s">
         <v>791</v>
       </c>
-      <c r="F216" s="1"/>
+      <c r="F216" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G216" s="9">
         <v>71.900000000000006</v>
       </c>
@@ -9721,7 +10149,9 @@
       <c r="E217" t="s">
         <v>621</v>
       </c>
-      <c r="F217" s="1"/>
+      <c r="F217" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G217" s="9">
         <v>399.9</v>
       </c>
@@ -9739,7 +10169,9 @@
       <c r="E218" t="s">
         <v>621</v>
       </c>
-      <c r="F218" s="1"/>
+      <c r="F218" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G218" s="9">
         <v>61.9</v>
       </c>
@@ -9757,7 +10189,9 @@
       <c r="E219" t="s">
         <v>792</v>
       </c>
-      <c r="F219" s="1"/>
+      <c r="F219" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G219" s="9">
         <v>73.989999999999995</v>
       </c>
@@ -9775,7 +10209,9 @@
       <c r="E220" t="s">
         <v>793</v>
       </c>
-      <c r="F220" s="1"/>
+      <c r="F220" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G220" s="9">
         <v>60.89</v>
       </c>
@@ -9793,7 +10229,9 @@
       <c r="E221" t="s">
         <v>793</v>
       </c>
-      <c r="F221" s="1"/>
+      <c r="F221" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G221" s="9">
         <v>71.3</v>
       </c>
@@ -9811,7 +10249,9 @@
       <c r="E222" t="s">
         <v>794</v>
       </c>
-      <c r="F222" s="1"/>
+      <c r="F222" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G222" s="9">
         <v>70.5</v>
       </c>
@@ -9829,7 +10269,9 @@
       <c r="E223" t="s">
         <v>795</v>
       </c>
-      <c r="F223" s="1"/>
+      <c r="F223" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G223" s="9">
         <v>95.990000000000009</v>
       </c>
@@ -9847,7 +10289,9 @@
       <c r="E224" t="s">
         <v>796</v>
       </c>
-      <c r="F224" s="1"/>
+      <c r="F224" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G224" s="9">
         <v>25.99</v>
       </c>
@@ -9865,7 +10309,9 @@
       <c r="E225" t="s">
         <v>797</v>
       </c>
-      <c r="F225" s="1"/>
+      <c r="F225" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G225" s="9">
         <v>34.89</v>
       </c>
@@ -9883,7 +10329,9 @@
       <c r="E226" t="s">
         <v>798</v>
       </c>
-      <c r="F226" s="1"/>
+      <c r="F226" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G226" s="9">
         <v>42.99</v>
       </c>
@@ -9901,7 +10349,9 @@
       <c r="E227" t="s">
         <v>621</v>
       </c>
-      <c r="F227" s="1"/>
+      <c r="F227" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G227" s="9">
         <v>138.9</v>
       </c>
@@ -9919,7 +10369,9 @@
       <c r="E228" t="s">
         <v>799</v>
       </c>
-      <c r="F228" s="1"/>
+      <c r="F228" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G228" s="9">
         <v>139.80000000000001</v>
       </c>
@@ -9937,7 +10389,9 @@
       <c r="E229" t="s">
         <v>800</v>
       </c>
-      <c r="F229" s="1"/>
+      <c r="F229" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G229" s="9">
         <v>199.9</v>
       </c>
@@ -9955,7 +10409,9 @@
       <c r="E230" t="s">
         <v>801</v>
       </c>
-      <c r="F230" s="1"/>
+      <c r="F230" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G230" s="9">
         <v>12.99</v>
       </c>
@@ -9976,7 +10432,9 @@
       <c r="E231" t="s">
         <v>802</v>
       </c>
-      <c r="F231" s="1"/>
+      <c r="F231" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G231" s="9">
         <v>27.9</v>
       </c>
@@ -9994,7 +10452,9 @@
       <c r="E232" t="s">
         <v>803</v>
       </c>
-      <c r="F232" s="1"/>
+      <c r="F232" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G232" s="9">
         <v>68.349999999999994</v>
       </c>
@@ -10012,7 +10472,9 @@
       <c r="E233" t="s">
         <v>804</v>
       </c>
-      <c r="F233" s="1"/>
+      <c r="F233" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G233" s="9">
         <v>37.6</v>
       </c>
@@ -10030,7 +10492,9 @@
       <c r="E234" t="s">
         <v>805</v>
       </c>
-      <c r="F234" s="1"/>
+      <c r="F234" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G234" s="9">
         <v>56.29</v>
       </c>
@@ -10048,7 +10512,9 @@
       <c r="E235" t="s">
         <v>806</v>
       </c>
-      <c r="F235" s="1"/>
+      <c r="F235" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G235" s="9">
         <v>50.39</v>
       </c>
@@ -10066,7 +10532,9 @@
       <c r="E236" t="s">
         <v>807</v>
       </c>
-      <c r="F236" s="1"/>
+      <c r="F236" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G236" s="9">
         <v>119.9</v>
       </c>
@@ -10084,7 +10552,9 @@
       <c r="E237" t="s">
         <v>808</v>
       </c>
-      <c r="F237" s="1"/>
+      <c r="F237" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G237" s="9">
         <v>75.69</v>
       </c>
@@ -10102,7 +10572,9 @@
       <c r="E238" t="s">
         <v>809</v>
       </c>
-      <c r="F238" s="1"/>
+      <c r="F238" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G238" s="9">
         <v>99.9</v>
       </c>
@@ -10120,7 +10592,9 @@
       <c r="E239" t="s">
         <v>810</v>
       </c>
-      <c r="F239" s="1"/>
+      <c r="F239" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G239" s="9">
         <v>27.39</v>
       </c>
@@ -10138,7 +10612,9 @@
       <c r="E240" t="s">
         <v>811</v>
       </c>
-      <c r="F240" s="1"/>
+      <c r="F240" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G240" s="9">
         <v>30.99</v>
       </c>
@@ -10156,7 +10632,9 @@
       <c r="E241" t="s">
         <v>812</v>
       </c>
-      <c r="F241" s="1"/>
+      <c r="F241" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G241" s="9">
         <v>46.7</v>
       </c>
@@ -10174,7 +10652,9 @@
       <c r="E242" t="s">
         <v>813</v>
       </c>
-      <c r="F242" s="1"/>
+      <c r="F242" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G242" s="9">
         <v>22.9</v>
       </c>
@@ -10195,7 +10675,9 @@
       <c r="E243" t="s">
         <v>814</v>
       </c>
-      <c r="F243" s="1"/>
+      <c r="F243" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G243" s="9">
         <v>105.49</v>
       </c>
@@ -10213,7 +10695,9 @@
       <c r="E244" t="s">
         <v>621</v>
       </c>
-      <c r="F244" s="1"/>
+      <c r="F244" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G244" s="9">
         <v>58.99</v>
       </c>
@@ -10231,7 +10715,9 @@
       <c r="E245" t="s">
         <v>815</v>
       </c>
-      <c r="F245" s="1"/>
+      <c r="F245" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G245" s="9">
         <v>80.989999999999995</v>
       </c>
@@ -10249,7 +10735,9 @@
       <c r="E246" t="s">
         <v>621</v>
       </c>
-      <c r="F246" s="1"/>
+      <c r="F246" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G246" s="9">
         <v>199.99</v>
       </c>
@@ -10267,7 +10755,9 @@
       <c r="E247" t="s">
         <v>621</v>
       </c>
-      <c r="F247" s="1"/>
+      <c r="F247" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G247" s="9">
         <v>99.9</v>
       </c>
@@ -10285,7 +10775,9 @@
       <c r="E248" t="s">
         <v>816</v>
       </c>
-      <c r="F248" s="1"/>
+      <c r="F248" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G248" s="9">
         <v>135.99</v>
       </c>
@@ -10303,7 +10795,9 @@
       <c r="E249" t="s">
         <v>817</v>
       </c>
-      <c r="F249" s="1"/>
+      <c r="F249" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G249" s="9">
         <v>99.9</v>
       </c>
@@ -10321,7 +10815,9 @@
       <c r="E250" t="s">
         <v>818</v>
       </c>
-      <c r="F250" s="1"/>
+      <c r="F250" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G250" s="9">
         <v>52.69</v>
       </c>
@@ -10339,7 +10835,9 @@
       <c r="E251" t="s">
         <v>819</v>
       </c>
-      <c r="F251" s="1"/>
+      <c r="F251" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G251" s="9">
         <v>113.99</v>
       </c>
@@ -10357,7 +10855,9 @@
       <c r="E252" t="s">
         <v>820</v>
       </c>
-      <c r="F252" s="1"/>
+      <c r="F252" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G252" s="9">
         <v>125.92</v>
       </c>
@@ -10375,7 +10875,9 @@
       <c r="E253" t="s">
         <v>621</v>
       </c>
-      <c r="F253" s="1"/>
+      <c r="F253" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G253" s="9">
         <v>92.69</v>
       </c>
@@ -10393,7 +10895,9 @@
       <c r="E254" t="s">
         <v>821</v>
       </c>
-      <c r="F254" s="1"/>
+      <c r="F254" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G254" s="9">
         <v>214.5</v>
       </c>
@@ -10411,7 +10915,9 @@
       <c r="E255" t="s">
         <v>822</v>
       </c>
-      <c r="F255" s="1"/>
+      <c r="F255" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G255" s="9">
         <v>144.47999999999999</v>
       </c>
@@ -10429,7 +10935,9 @@
       <c r="E256" t="s">
         <v>823</v>
       </c>
-      <c r="F256" s="1"/>
+      <c r="F256" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G256" s="9">
         <v>111.99</v>
       </c>
@@ -10447,7 +10955,9 @@
       <c r="E257" t="s">
         <v>824</v>
       </c>
-      <c r="F257" s="1"/>
+      <c r="F257" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G257" s="9">
         <v>238.2</v>
       </c>
@@ -10465,7 +10975,9 @@
       <c r="E258" t="s">
         <v>825</v>
       </c>
-      <c r="F258" s="1"/>
+      <c r="F258" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G258" s="9">
         <v>113.99</v>
       </c>
@@ -10483,7 +10995,9 @@
       <c r="E259" t="s">
         <v>826</v>
       </c>
-      <c r="F259" s="1"/>
+      <c r="F259" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G259" s="9">
         <v>133.99</v>
       </c>
@@ -10501,7 +11015,9 @@
       <c r="E260" t="s">
         <v>827</v>
       </c>
-      <c r="F260" s="1"/>
+      <c r="F260" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G260" s="9">
         <v>140.4</v>
       </c>
@@ -10519,7 +11035,9 @@
       <c r="E261" t="s">
         <v>828</v>
       </c>
-      <c r="F261" s="1"/>
+      <c r="F261" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G261" s="9">
         <v>88.9</v>
       </c>
@@ -10537,7 +11055,9 @@
       <c r="E262" t="s">
         <v>829</v>
       </c>
-      <c r="F262" s="1"/>
+      <c r="F262" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G262" s="9">
         <v>195.97</v>
       </c>
@@ -10555,7 +11075,9 @@
       <c r="E263" t="s">
         <v>830</v>
       </c>
-      <c r="F263" s="1"/>
+      <c r="F263" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G263" s="9">
         <v>151.47</v>
       </c>
@@ -10573,7 +11095,9 @@
       <c r="E264" t="s">
         <v>831</v>
       </c>
-      <c r="F264" s="1"/>
+      <c r="F264" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G264" s="9">
         <v>45.99</v>
       </c>
@@ -10594,7 +11118,9 @@
       <c r="E265" t="s">
         <v>832</v>
       </c>
-      <c r="F265" s="1"/>
+      <c r="F265" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G265" s="9">
         <v>40.99</v>
       </c>
@@ -10612,7 +11138,9 @@
       <c r="E266" t="s">
         <v>833</v>
       </c>
-      <c r="F266" s="1"/>
+      <c r="F266" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G266" s="9">
         <v>31.63</v>
       </c>
@@ -10630,7 +11158,9 @@
       <c r="E267" t="s">
         <v>834</v>
       </c>
-      <c r="F267" s="1"/>
+      <c r="F267" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G267" s="9">
         <v>59.99</v>
       </c>
@@ -10648,7 +11178,9 @@
       <c r="E268" t="s">
         <v>835</v>
       </c>
-      <c r="F268" s="1"/>
+      <c r="F268" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G268" s="9">
         <v>21.4</v>
       </c>
@@ -10666,7 +11198,9 @@
       <c r="E269" t="s">
         <v>836</v>
       </c>
-      <c r="F269" s="1"/>
+      <c r="F269" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G269" s="9">
         <v>144.9</v>
       </c>
@@ -10684,7 +11218,9 @@
       <c r="E270" t="s">
         <v>837</v>
       </c>
-      <c r="F270" s="1"/>
+      <c r="F270" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G270" s="9">
         <v>54.7</v>
       </c>
@@ -10702,7 +11238,9 @@
       <c r="E271" t="s">
         <v>838</v>
       </c>
-      <c r="F271" s="1"/>
+      <c r="F271" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G271" s="9">
         <v>12.5</v>
       </c>
@@ -10720,7 +11258,9 @@
       <c r="E272" t="s">
         <v>839</v>
       </c>
-      <c r="F272" s="1"/>
+      <c r="F272" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G272" s="9">
         <v>17.79</v>
       </c>
@@ -10738,7 +11278,9 @@
       <c r="E273" t="s">
         <v>840</v>
       </c>
-      <c r="F273" s="1"/>
+      <c r="F273" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G273" s="9">
         <v>101.5</v>
       </c>
@@ -10756,7 +11298,9 @@
       <c r="E274" t="s">
         <v>841</v>
       </c>
-      <c r="F274" s="1"/>
+      <c r="F274" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G274" s="9">
         <v>40.9</v>
       </c>
@@ -10774,7 +11318,9 @@
       <c r="E275" t="s">
         <v>842</v>
       </c>
-      <c r="F275" s="1"/>
+      <c r="F275" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G275" s="9">
         <v>52.89</v>
       </c>
@@ -10792,7 +11338,9 @@
       <c r="E276" t="s">
         <v>621</v>
       </c>
-      <c r="F276" s="1"/>
+      <c r="F276" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G276" s="9">
         <v>22.67</v>
       </c>
@@ -10810,7 +11358,9 @@
       <c r="E277" t="s">
         <v>843</v>
       </c>
-      <c r="F277" s="1"/>
+      <c r="F277" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G277" s="9">
         <v>23.67</v>
       </c>
@@ -10828,7 +11378,9 @@
       <c r="E278" t="s">
         <v>844</v>
       </c>
-      <c r="F278" s="1"/>
+      <c r="F278" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G278" s="9">
         <v>23.67</v>
       </c>
@@ -10846,7 +11398,9 @@
       <c r="E279" t="s">
         <v>845</v>
       </c>
-      <c r="F279" s="1"/>
+      <c r="F279" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G279" s="9">
         <v>19.600000000000001</v>
       </c>
@@ -10864,7 +11418,9 @@
       <c r="E280" t="s">
         <v>846</v>
       </c>
-      <c r="F280" s="1"/>
+      <c r="F280" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G280" s="9">
         <v>27</v>
       </c>
@@ -10882,7 +11438,9 @@
       <c r="E281" t="s">
         <v>847</v>
       </c>
-      <c r="F281" s="1"/>
+      <c r="F281" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G281" s="9">
         <v>29.99</v>
       </c>
@@ -10900,7 +11458,9 @@
       <c r="E282" t="s">
         <v>848</v>
       </c>
-      <c r="F282" s="1"/>
+      <c r="F282" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G282" s="9">
         <v>18.190000000000001</v>
       </c>
@@ -10918,7 +11478,9 @@
       <c r="E283" t="s">
         <v>849</v>
       </c>
-      <c r="F283" s="1"/>
+      <c r="F283" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G283" s="9">
         <v>28.9</v>
       </c>
@@ -10936,7 +11498,9 @@
       <c r="E284" t="s">
         <v>850</v>
       </c>
-      <c r="F284" s="1"/>
+      <c r="F284" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G284" s="9">
         <v>22.9</v>
       </c>
@@ -10954,7 +11518,9 @@
       <c r="E285" t="s">
         <v>851</v>
       </c>
-      <c r="F285" s="1"/>
+      <c r="F285" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G285" s="9">
         <v>50.64</v>
       </c>
@@ -10972,7 +11538,9 @@
       <c r="E286" t="s">
         <v>852</v>
       </c>
-      <c r="F286" s="1"/>
+      <c r="F286" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G286" s="9">
         <v>99.9</v>
       </c>
@@ -10990,7 +11558,9 @@
       <c r="E287" t="s">
         <v>853</v>
       </c>
-      <c r="F287" s="1"/>
+      <c r="F287" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G287" s="9">
         <v>137.99</v>
       </c>
@@ -11008,7 +11578,9 @@
       <c r="E288" t="s">
         <v>854</v>
       </c>
-      <c r="F288" s="1"/>
+      <c r="F288" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G288" s="9">
         <v>27.69</v>
       </c>
@@ -11026,7 +11598,9 @@
       <c r="E289" t="s">
         <v>855</v>
       </c>
-      <c r="F289" s="1"/>
+      <c r="F289" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G289" s="9">
         <v>19.899999999999999</v>
       </c>
@@ -11044,7 +11618,9 @@
       <c r="E290" t="s">
         <v>621</v>
       </c>
-      <c r="F290" s="1"/>
+      <c r="F290" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G290" s="9">
         <v>20.49</v>
       </c>
@@ -11062,7 +11638,9 @@
       <c r="E291" t="s">
         <v>856</v>
       </c>
-      <c r="F291" s="1"/>
+      <c r="F291" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G291" s="9">
         <v>14.2</v>
       </c>
@@ -11080,7 +11658,9 @@
       <c r="E292" t="s">
         <v>857</v>
       </c>
-      <c r="F292" s="1"/>
+      <c r="F292" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G292" s="9">
         <v>14.99</v>
       </c>
@@ -11098,7 +11678,9 @@
       <c r="E293" t="s">
         <v>858</v>
       </c>
-      <c r="F293" s="1"/>
+      <c r="F293" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G293" s="9">
         <v>23.9</v>
       </c>
@@ -11116,7 +11698,9 @@
       <c r="E294" t="s">
         <v>859</v>
       </c>
-      <c r="F294" s="1"/>
+      <c r="F294" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G294" s="9">
         <v>36.99</v>
       </c>
@@ -11134,7 +11718,9 @@
       <c r="E295" t="s">
         <v>860</v>
       </c>
-      <c r="F295" s="1"/>
+      <c r="F295" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G295" s="9">
         <v>33.99</v>
       </c>
@@ -11152,7 +11738,9 @@
       <c r="E296" t="s">
         <v>861</v>
       </c>
-      <c r="F296" s="1"/>
+      <c r="F296" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G296" s="9">
         <v>83.99</v>
       </c>
@@ -11170,7 +11758,9 @@
       <c r="E297" t="s">
         <v>862</v>
       </c>
-      <c r="F297" s="1"/>
+      <c r="F297" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G297" s="9">
         <v>74.39</v>
       </c>
@@ -11188,7 +11778,9 @@
       <c r="E298" t="s">
         <v>863</v>
       </c>
-      <c r="F298" s="1"/>
+      <c r="F298" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G298" s="9">
         <v>32.799999999999997</v>
       </c>
@@ -11206,7 +11798,9 @@
       <c r="E299" t="s">
         <v>863</v>
       </c>
-      <c r="F299" s="1"/>
+      <c r="F299" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G299" s="9">
         <v>39.9</v>
       </c>
@@ -11224,7 +11818,9 @@
       <c r="E300" t="s">
         <v>864</v>
       </c>
-      <c r="F300" s="1"/>
+      <c r="F300" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G300" s="9">
         <v>61.99</v>
       </c>
@@ -11242,7 +11838,9 @@
       <c r="E301" t="s">
         <v>865</v>
       </c>
-      <c r="F301" s="1"/>
+      <c r="F301" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G301" s="9">
         <v>18.600000000000001</v>
       </c>
@@ -11260,7 +11858,9 @@
       <c r="E302" t="s">
         <v>866</v>
       </c>
-      <c r="F302" s="1"/>
+      <c r="F302" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G302" s="9">
         <v>28.8</v>
       </c>
@@ -11278,7 +11878,9 @@
       <c r="E303" t="s">
         <v>867</v>
       </c>
-      <c r="F303" s="1"/>
+      <c r="F303" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G303" s="9">
         <v>23.69</v>
       </c>
@@ -11296,7 +11898,9 @@
       <c r="E304" t="s">
         <v>868</v>
       </c>
-      <c r="F304" s="1"/>
+      <c r="F304" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G304" s="9">
         <v>11.7</v>
       </c>
@@ -11314,7 +11918,9 @@
       <c r="E305" t="s">
         <v>869</v>
       </c>
-      <c r="F305" s="1"/>
+      <c r="F305" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G305" s="9">
         <v>28.25</v>
       </c>
@@ -11332,7 +11938,9 @@
       <c r="E306" t="s">
         <v>870</v>
       </c>
-      <c r="F306" s="1"/>
+      <c r="F306" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G306" s="9">
         <v>22.3</v>
       </c>
@@ -11350,7 +11958,9 @@
       <c r="E307" t="s">
         <v>621</v>
       </c>
-      <c r="F307" s="1"/>
+      <c r="F307" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G307" s="9">
         <v>75</v>
       </c>
@@ -11368,7 +11978,9 @@
       <c r="E308" t="s">
         <v>871</v>
       </c>
-      <c r="F308" s="1"/>
+      <c r="F308" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G308" s="9">
         <v>25.49</v>
       </c>
@@ -11386,7 +11998,9 @@
       <c r="E309" t="s">
         <v>872</v>
       </c>
-      <c r="F309" s="1"/>
+      <c r="F309" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G309" s="9">
         <v>24.9</v>
       </c>
@@ -11404,7 +12018,9 @@
       <c r="E310" t="s">
         <v>873</v>
       </c>
-      <c r="F310" s="1"/>
+      <c r="F310" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G310" s="9">
         <v>44.99</v>
       </c>
@@ -11422,7 +12038,9 @@
       <c r="E311" t="s">
         <v>874</v>
       </c>
-      <c r="F311" s="1"/>
+      <c r="F311" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G311" s="9">
         <v>33.99</v>
       </c>
@@ -11440,7 +12058,9 @@
       <c r="E312" t="s">
         <v>875</v>
       </c>
-      <c r="F312" s="1"/>
+      <c r="F312" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G312" s="9">
         <v>15.39</v>
       </c>
@@ -11458,7 +12078,9 @@
       <c r="E313" t="s">
         <v>876</v>
       </c>
-      <c r="F313" s="1"/>
+      <c r="F313" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G313" s="9">
         <v>15</v>
       </c>
@@ -11476,7 +12098,9 @@
       <c r="E314" t="s">
         <v>877</v>
       </c>
-      <c r="F314" s="1"/>
+      <c r="F314" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G314" s="9">
         <v>18.690000000000001</v>
       </c>
@@ -11494,7 +12118,9 @@
       <c r="E315" t="s">
         <v>878</v>
       </c>
-      <c r="F315" s="1"/>
+      <c r="F315" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G315" s="9">
         <v>15.5</v>
       </c>
@@ -11512,7 +12138,9 @@
       <c r="E316" t="s">
         <v>879</v>
       </c>
-      <c r="F316" s="1"/>
+      <c r="F316" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G316" s="9">
         <v>50.4</v>
       </c>
@@ -11530,7 +12158,9 @@
       <c r="E317" t="s">
         <v>880</v>
       </c>
-      <c r="F317" s="1"/>
+      <c r="F317" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G317" s="9">
         <v>55.19</v>
       </c>
@@ -11548,7 +12178,9 @@
       <c r="E318" t="s">
         <v>881</v>
       </c>
-      <c r="F318" s="1"/>
+      <c r="F318" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G318" s="9">
         <v>20.39</v>
       </c>
@@ -11566,7 +12198,9 @@
       <c r="E319" t="s">
         <v>882</v>
       </c>
-      <c r="F319" s="1"/>
+      <c r="F319" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G319" s="9">
         <v>41.85</v>
       </c>
@@ -11584,7 +12218,9 @@
       <c r="E320" t="s">
         <v>883</v>
       </c>
-      <c r="F320" s="1"/>
+      <c r="F320" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G320" s="9">
         <v>93.15</v>
       </c>
@@ -11602,7 +12238,9 @@
       <c r="E321" t="s">
         <v>621</v>
       </c>
-      <c r="F321" s="1"/>
+      <c r="F321" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G321" s="9">
         <v>27.69</v>
       </c>
@@ -11620,7 +12258,9 @@
       <c r="E322" t="s">
         <v>884</v>
       </c>
-      <c r="F322" s="1"/>
+      <c r="F322" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G322" s="9">
         <v>47.88</v>
       </c>
@@ -11638,7 +12278,9 @@
       <c r="E323" t="s">
         <v>885</v>
       </c>
-      <c r="F323" s="1"/>
+      <c r="F323" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G323" s="9">
         <v>42.5</v>
       </c>
@@ -11656,7 +12298,9 @@
       <c r="E324" t="s">
         <v>886</v>
       </c>
-      <c r="F324" s="1"/>
+      <c r="F324" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G324" s="9">
         <v>22.9</v>
       </c>
@@ -11674,7 +12318,9 @@
       <c r="E325" t="s">
         <v>887</v>
       </c>
-      <c r="F325" s="1"/>
+      <c r="F325" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G325" s="9">
         <v>17.75</v>
       </c>
@@ -11692,7 +12338,9 @@
       <c r="E326" t="s">
         <v>888</v>
       </c>
-      <c r="F326" s="1"/>
+      <c r="F326" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G326" s="9">
         <v>25.8</v>
       </c>
@@ -11710,7 +12358,9 @@
       <c r="E327" t="s">
         <v>889</v>
       </c>
-      <c r="F327" s="1"/>
+      <c r="F327" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G327" s="9">
         <v>25.65</v>
       </c>
@@ -11728,7 +12378,9 @@
       <c r="E328" t="s">
         <v>890</v>
       </c>
-      <c r="F328" s="1"/>
+      <c r="F328" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G328" s="9">
         <v>13.31</v>
       </c>
@@ -11746,7 +12398,9 @@
       <c r="E329" t="s">
         <v>891</v>
       </c>
-      <c r="F329" s="1"/>
+      <c r="F329" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G329" s="9">
         <v>12.14</v>
       </c>
@@ -11764,7 +12418,9 @@
       <c r="E330" t="s">
         <v>892</v>
       </c>
-      <c r="F330" s="1"/>
+      <c r="F330" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G330" s="9">
         <v>12.18</v>
       </c>
@@ -11782,7 +12438,9 @@
       <c r="E331" t="s">
         <v>893</v>
       </c>
-      <c r="F331" s="1"/>
+      <c r="F331" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G331" s="9">
         <v>22.89</v>
       </c>
@@ -11800,7 +12458,9 @@
       <c r="E332" t="s">
         <v>894</v>
       </c>
-      <c r="F332" s="1"/>
+      <c r="F332" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G332" s="9">
         <v>13.99</v>
       </c>
@@ -11818,7 +12478,9 @@
       <c r="E333" t="s">
         <v>895</v>
       </c>
-      <c r="F333" s="1"/>
+      <c r="F333" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G333" s="9">
         <v>44.99</v>
       </c>
@@ -11836,7 +12498,9 @@
       <c r="E334" t="s">
         <v>896</v>
       </c>
-      <c r="F334" s="1"/>
+      <c r="F334" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G334" s="9">
         <v>50.79</v>
       </c>
@@ -11854,7 +12518,9 @@
       <c r="E335" t="s">
         <v>897</v>
       </c>
-      <c r="F335" s="1"/>
+      <c r="F335" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G335" s="9">
         <v>106.9</v>
       </c>
@@ -11872,7 +12538,9 @@
       <c r="E336" t="s">
         <v>898</v>
       </c>
-      <c r="F336" s="1"/>
+      <c r="F336" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G336" s="9">
         <v>8.4</v>
       </c>
@@ -11890,7 +12558,9 @@
       <c r="E337" t="s">
         <v>899</v>
       </c>
-      <c r="F337" s="1"/>
+      <c r="F337" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G337" s="9">
         <v>81.69</v>
       </c>
@@ -11908,7 +12578,9 @@
       <c r="E338" t="s">
         <v>900</v>
       </c>
-      <c r="F338" s="1"/>
+      <c r="F338" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G338" s="9">
         <v>65.69</v>
       </c>
@@ -11926,7 +12598,9 @@
       <c r="E339" t="s">
         <v>901</v>
       </c>
-      <c r="F339" s="1"/>
+      <c r="F339" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G339" s="9">
         <v>30.99</v>
       </c>
@@ -11944,7 +12618,9 @@
       <c r="E340" t="s">
         <v>902</v>
       </c>
-      <c r="F340" s="1"/>
+      <c r="F340" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G340" s="9">
         <v>97.5</v>
       </c>
@@ -11962,7 +12638,9 @@
       <c r="E341" t="s">
         <v>903</v>
       </c>
-      <c r="F341" s="1"/>
+      <c r="F341" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G341" s="9">
         <v>32.99</v>
       </c>
@@ -11980,7 +12658,9 @@
       <c r="E342" t="s">
         <v>904</v>
       </c>
-      <c r="F342" s="1"/>
+      <c r="F342" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G342" s="9">
         <v>138.9</v>
       </c>
@@ -11998,7 +12678,9 @@
       <c r="E343" t="s">
         <v>905</v>
       </c>
-      <c r="F343" s="1"/>
+      <c r="F343" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G343" s="9">
         <v>213.8</v>
       </c>
@@ -12016,7 +12698,9 @@
       <c r="E344" t="s">
         <v>906</v>
       </c>
-      <c r="F344" s="1"/>
+      <c r="F344" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G344" s="9">
         <v>134.9</v>
       </c>
@@ -12034,7 +12718,9 @@
       <c r="E345" t="s">
         <v>907</v>
       </c>
-      <c r="F345" s="1"/>
+      <c r="F345" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G345" s="9">
         <v>29.69</v>
       </c>
@@ -12052,7 +12738,9 @@
       <c r="E346" t="s">
         <v>908</v>
       </c>
-      <c r="F346" s="1"/>
+      <c r="F346" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G346" s="9">
         <v>135.9</v>
       </c>
@@ -12070,7 +12758,9 @@
       <c r="E347" t="s">
         <v>909</v>
       </c>
-      <c r="F347" s="1"/>
+      <c r="F347" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G347" s="9">
         <v>50.99</v>
       </c>
@@ -12088,7 +12778,9 @@
       <c r="E348" t="s">
         <v>910</v>
       </c>
-      <c r="F348" s="1"/>
+      <c r="F348" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G348" s="9">
         <v>61.29</v>
       </c>
@@ -12106,7 +12798,9 @@
       <c r="E349" t="s">
         <v>911</v>
       </c>
-      <c r="F349" s="1"/>
+      <c r="F349" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G349" s="9">
         <v>32.99</v>
       </c>
@@ -12124,7 +12818,9 @@
       <c r="E350" t="s">
         <v>912</v>
       </c>
-      <c r="F350" s="1"/>
+      <c r="F350" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G350" s="9">
         <v>149.80000000000001</v>
       </c>
@@ -12142,7 +12838,9 @@
       <c r="E351" t="s">
         <v>913</v>
       </c>
-      <c r="F351" s="1"/>
+      <c r="F351" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G351" s="9">
         <v>134.80000000000001</v>
       </c>
@@ -12160,7 +12858,9 @@
       <c r="E352" t="s">
         <v>914</v>
       </c>
-      <c r="F352" s="1"/>
+      <c r="F352" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G352" s="9">
         <v>57.9</v>
       </c>
@@ -12178,7 +12878,9 @@
       <c r="E353" t="s">
         <v>915</v>
       </c>
-      <c r="F353" s="1"/>
+      <c r="F353" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G353" s="9">
         <v>30.9</v>
       </c>
@@ -12196,7 +12898,9 @@
       <c r="E354" t="s">
         <v>916</v>
       </c>
-      <c r="F354" s="1"/>
+      <c r="F354" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G354" s="9">
         <v>256.5</v>
       </c>
@@ -12214,7 +12918,9 @@
       <c r="E355" t="s">
         <v>917</v>
       </c>
-      <c r="F355" s="1"/>
+      <c r="F355" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G355" s="9">
         <v>61.5</v>
       </c>
@@ -12232,7 +12938,9 @@
       <c r="E356" t="s">
         <v>621</v>
       </c>
-      <c r="F356" s="1"/>
+      <c r="F356" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G356" s="9">
         <v>114.25</v>
       </c>
@@ -12250,7 +12958,9 @@
       <c r="E357" t="s">
         <v>918</v>
       </c>
-      <c r="F357" s="1"/>
+      <c r="F357" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G357" s="9">
         <v>69.900000000000006</v>
       </c>
@@ -12268,7 +12978,9 @@
       <c r="E358" t="s">
         <v>919</v>
       </c>
-      <c r="F358" s="1"/>
+      <c r="F358" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G358" s="9">
         <v>49.89</v>
       </c>
@@ -12286,7 +12998,9 @@
       <c r="E359" t="s">
         <v>920</v>
       </c>
-      <c r="F359" s="1"/>
+      <c r="F359" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G359" s="9">
         <v>157.9</v>
       </c>
@@ -12304,7 +13018,9 @@
       <c r="E360" t="s">
         <v>921</v>
       </c>
-      <c r="F360" s="1"/>
+      <c r="F360" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G360" s="9">
         <v>210.99</v>
       </c>
@@ -12322,7 +13038,9 @@
       <c r="E361" t="s">
         <v>621</v>
       </c>
-      <c r="F361" s="1"/>
+      <c r="F361" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G361" s="9">
         <v>134.25</v>
       </c>
@@ -12340,7 +13058,9 @@
       <c r="E362" t="s">
         <v>922</v>
       </c>
-      <c r="F362" s="1"/>
+      <c r="F362" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G362" s="9">
         <v>35.9</v>
       </c>
@@ -12358,7 +13078,9 @@
       <c r="E363" t="s">
         <v>923</v>
       </c>
-      <c r="F363" s="1"/>
+      <c r="F363" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G363" s="9">
         <v>32.11</v>
       </c>
@@ -12376,7 +13098,9 @@
       <c r="E364" t="s">
         <v>924</v>
       </c>
-      <c r="F364" s="1"/>
+      <c r="F364" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G364" s="9">
         <v>46.9</v>
       </c>
@@ -12394,7 +13118,9 @@
       <c r="E365" t="s">
         <v>925</v>
       </c>
-      <c r="F365" s="1"/>
+      <c r="F365" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G365" s="9">
         <v>57.59</v>
       </c>
@@ -12412,7 +13138,9 @@
       <c r="E366" t="s">
         <v>926</v>
       </c>
-      <c r="F366" s="1"/>
+      <c r="F366" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G366" s="9">
         <v>39.9</v>
       </c>
@@ -12430,7 +13158,9 @@
       <c r="E367" t="s">
         <v>927</v>
       </c>
-      <c r="F367" s="1"/>
+      <c r="F367" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G367" s="9">
         <v>50.4</v>
       </c>
@@ -12448,7 +13178,9 @@
       <c r="E368" t="s">
         <v>928</v>
       </c>
-      <c r="F368" s="1"/>
+      <c r="F368" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G368" s="9">
         <v>34.9</v>
       </c>
@@ -12466,7 +13198,9 @@
       <c r="E369" t="s">
         <v>929</v>
       </c>
-      <c r="F369" s="1"/>
+      <c r="F369" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G369" s="9">
         <v>22.8</v>
       </c>
@@ -12484,7 +13218,9 @@
       <c r="E370" t="s">
         <v>930</v>
       </c>
-      <c r="F370" s="1"/>
+      <c r="F370" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G370" s="9">
         <v>59.9</v>
       </c>
@@ -12502,7 +13238,9 @@
       <c r="E371" t="s">
         <v>931</v>
       </c>
-      <c r="F371" s="1"/>
+      <c r="F371" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G371" s="9">
         <v>35.9</v>
       </c>
@@ -12520,7 +13258,9 @@
       <c r="E372" t="s">
         <v>932</v>
       </c>
-      <c r="F372" s="1"/>
+      <c r="F372" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G372" s="9">
         <v>22.56</v>
       </c>
@@ -12538,7 +13278,9 @@
       <c r="E373" t="s">
         <v>621</v>
       </c>
-      <c r="F373" s="1"/>
+      <c r="F373" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G373" s="9">
         <v>44.82</v>
       </c>
@@ -12556,7 +13298,9 @@
       <c r="E374" t="s">
         <v>933</v>
       </c>
-      <c r="F374" s="1"/>
+      <c r="F374" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G374" s="9">
         <v>103.2</v>
       </c>
@@ -12574,7 +13318,9 @@
       <c r="E375" t="s">
         <v>934</v>
       </c>
-      <c r="F375" s="1"/>
+      <c r="F375" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G375" s="9">
         <v>76.989999999999995</v>
       </c>
@@ -12592,7 +13338,9 @@
       <c r="E376" t="s">
         <v>935</v>
       </c>
-      <c r="F376" s="1"/>
+      <c r="F376" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G376" s="9">
         <v>49.25</v>
       </c>
@@ -12610,7 +13358,9 @@
       <c r="E377" t="s">
         <v>936</v>
       </c>
-      <c r="F377" s="1"/>
+      <c r="F377" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G377" s="9">
         <v>52.5</v>
       </c>
@@ -12628,7 +13378,9 @@
       <c r="E378" t="s">
         <v>937</v>
       </c>
-      <c r="F378" s="1"/>
+      <c r="F378" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G378" s="9">
         <v>23.34</v>
       </c>
@@ -12646,7 +13398,9 @@
       <c r="E379" t="s">
         <v>938</v>
       </c>
-      <c r="F379" s="1"/>
+      <c r="F379" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G379" s="9">
         <v>18.600000000000001</v>
       </c>
@@ -12664,7 +13418,9 @@
       <c r="E380" t="s">
         <v>938</v>
       </c>
-      <c r="F380" s="1"/>
+      <c r="F380" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G380" s="9">
         <v>14.15</v>
       </c>
@@ -12682,7 +13438,9 @@
       <c r="E381" t="s">
         <v>939</v>
       </c>
-      <c r="F381" s="1"/>
+      <c r="F381" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G381" s="9">
         <v>115.99</v>
       </c>
@@ -12700,7 +13458,9 @@
       <c r="E382" t="s">
         <v>940</v>
       </c>
-      <c r="F382" s="1"/>
+      <c r="F382" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G382" s="9">
         <v>88.600000000000009</v>
       </c>
@@ -12718,7 +13478,9 @@
       <c r="E383" t="s">
         <v>941</v>
       </c>
-      <c r="F383" s="1"/>
+      <c r="F383" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G383" s="9">
         <v>210.99</v>
       </c>
@@ -12736,7 +13498,9 @@
       <c r="E384" t="s">
         <v>942</v>
       </c>
-      <c r="F384" s="1"/>
+      <c r="F384" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G384" s="9">
         <v>4.1900000000000004</v>
       </c>
@@ -12754,7 +13518,9 @@
       <c r="E385" t="s">
         <v>943</v>
       </c>
-      <c r="F385" s="1"/>
+      <c r="F385" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G385" s="9">
         <v>69.900000000000006</v>
       </c>
@@ -12772,7 +13538,9 @@
       <c r="E386" t="s">
         <v>944</v>
       </c>
-      <c r="F386" s="1"/>
+      <c r="F386" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G386" s="9">
         <v>117.9</v>
       </c>
@@ -12790,7 +13558,9 @@
       <c r="E387" t="s">
         <v>945</v>
       </c>
-      <c r="F387" s="1"/>
+      <c r="F387" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G387" s="9">
         <v>107.9</v>
       </c>
@@ -12808,7 +13578,9 @@
       <c r="E388" t="s">
         <v>621</v>
       </c>
-      <c r="F388" s="1"/>
+      <c r="F388" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G388" s="9">
         <v>113.99</v>
       </c>
@@ -12826,7 +13598,9 @@
       <c r="E389" t="s">
         <v>946</v>
       </c>
-      <c r="F389" s="1"/>
+      <c r="F389" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G389" s="9">
         <v>38.49</v>
       </c>
@@ -12847,7 +13621,9 @@
       <c r="E390" t="s">
         <v>947</v>
       </c>
-      <c r="F390" s="1"/>
+      <c r="F390" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G390" s="9">
         <v>43.9</v>
       </c>
@@ -12865,7 +13641,9 @@
       <c r="E391" t="s">
         <v>948</v>
       </c>
-      <c r="F391" s="1"/>
+      <c r="F391" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G391" s="9">
         <v>13.13</v>
       </c>
@@ -12883,7 +13661,9 @@
       <c r="E392" t="s">
         <v>949</v>
       </c>
-      <c r="F392" s="1"/>
+      <c r="F392" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G392" s="9">
         <v>64.19</v>
       </c>
@@ -12901,7 +13681,9 @@
       <c r="E393" t="s">
         <v>950</v>
       </c>
-      <c r="F393" s="1"/>
+      <c r="F393" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G393" s="9">
         <v>199.4</v>
       </c>
@@ -12919,7 +13701,9 @@
       <c r="E394" t="s">
         <v>951</v>
       </c>
-      <c r="F394" s="1"/>
+      <c r="F394" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G394" s="9">
         <v>54.99</v>
       </c>
@@ -12937,7 +13721,9 @@
       <c r="E395" t="s">
         <v>952</v>
       </c>
-      <c r="F395" s="1"/>
+      <c r="F395" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G395" s="9">
         <v>85.9</v>
       </c>
@@ -12955,7 +13741,9 @@
       <c r="E396" t="s">
         <v>953</v>
       </c>
-      <c r="F396" s="1"/>
+      <c r="F396" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G396" s="9">
         <v>107.9</v>
       </c>
@@ -12973,7 +13761,9 @@
       <c r="E397" t="s">
         <v>954</v>
       </c>
-      <c r="F397" s="1"/>
+      <c r="F397" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G397" s="9">
         <v>75.69</v>
       </c>
@@ -12991,7 +13781,9 @@
       <c r="E398" t="s">
         <v>955</v>
       </c>
-      <c r="F398" s="1"/>
+      <c r="F398" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G398" s="9">
         <v>36.299999999999997</v>
       </c>
@@ -13009,7 +13801,9 @@
       <c r="E399" t="s">
         <v>956</v>
       </c>
-      <c r="F399" s="1"/>
+      <c r="F399" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G399" s="9">
         <v>6.29</v>
       </c>
@@ -13027,7 +13821,9 @@
       <c r="E400" t="s">
         <v>957</v>
       </c>
-      <c r="F400" s="1"/>
+      <c r="F400" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G400" s="9">
         <v>284</v>
       </c>
@@ -13045,7 +13841,9 @@
       <c r="E401" t="s">
         <v>958</v>
       </c>
-      <c r="F401" s="1"/>
+      <c r="F401" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G401" s="9">
         <v>599</v>
       </c>
@@ -13063,7 +13861,9 @@
       <c r="E402" t="s">
         <v>959</v>
       </c>
-      <c r="F402" s="1"/>
+      <c r="F402" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G402" s="9">
         <v>63.5</v>
       </c>
@@ -13081,7 +13881,9 @@
       <c r="E403" t="s">
         <v>621</v>
       </c>
-      <c r="F403" s="1"/>
+      <c r="F403" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G403" s="9">
         <v>279.92</v>
       </c>
@@ -13099,7 +13901,9 @@
       <c r="E404" t="s">
         <v>960</v>
       </c>
-      <c r="F404" s="1"/>
+      <c r="F404" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G404" s="9">
         <v>199.9</v>
       </c>
@@ -13117,7 +13921,9 @@
       <c r="E405" t="s">
         <v>961</v>
       </c>
-      <c r="F405" s="1"/>
+      <c r="F405" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G405" s="9">
         <v>106.2</v>
       </c>
@@ -13135,7 +13941,9 @@
       <c r="E406" t="s">
         <v>962</v>
       </c>
-      <c r="F406" s="1"/>
+      <c r="F406" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G406" s="9">
         <v>47.25</v>
       </c>
@@ -13153,7 +13961,9 @@
       <c r="E407" t="s">
         <v>963</v>
       </c>
-      <c r="F407" s="1"/>
+      <c r="F407" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G407" s="9">
         <v>131.6</v>
       </c>
@@ -13171,7 +13981,9 @@
       <c r="E408" t="s">
         <v>964</v>
       </c>
-      <c r="F408" s="1"/>
+      <c r="F408" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G408" s="9">
         <v>10.9</v>
       </c>
@@ -13189,7 +14001,9 @@
       <c r="E409" t="s">
         <v>965</v>
       </c>
-      <c r="F409" s="1"/>
+      <c r="F409" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G409" s="9">
         <v>3.99</v>
       </c>
@@ -13207,7 +14021,9 @@
       <c r="E410" t="s">
         <v>966</v>
       </c>
-      <c r="F410" s="1"/>
+      <c r="F410" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G410" s="9">
         <v>95</v>
       </c>
@@ -13225,7 +14041,9 @@
       <c r="E411" t="s">
         <v>967</v>
       </c>
-      <c r="F411" s="1"/>
+      <c r="F411" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G411" s="9">
         <v>5.9</v>
       </c>
@@ -13243,7 +14061,9 @@
       <c r="E412" t="s">
         <v>621</v>
       </c>
-      <c r="F412" s="1"/>
+      <c r="F412" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G412" s="9">
         <v>121.8</v>
       </c>
@@ -13261,7 +14081,9 @@
       <c r="E413" t="s">
         <v>968</v>
       </c>
-      <c r="F413" s="1"/>
+      <c r="F413" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G413" s="9">
         <v>20.399999999999999</v>
       </c>
@@ -13279,7 +14101,9 @@
       <c r="E414" t="s">
         <v>969</v>
       </c>
-      <c r="F414" s="1"/>
+      <c r="F414" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G414" s="9">
         <v>28.99</v>
       </c>
@@ -13297,7 +14121,9 @@
       <c r="E415" t="s">
         <v>970</v>
       </c>
-      <c r="F415" s="1"/>
+      <c r="F415" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G415" s="9">
         <v>167.36</v>
       </c>
@@ -13315,7 +14141,9 @@
       <c r="E416" t="s">
         <v>971</v>
       </c>
-      <c r="F416" s="1"/>
+      <c r="F416" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G416" s="9">
         <v>71.900000000000006</v>
       </c>
@@ -13333,7 +14161,9 @@
       <c r="E417" t="s">
         <v>972</v>
       </c>
-      <c r="F417" s="1"/>
+      <c r="F417" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G417" s="9">
         <v>34.65</v>
       </c>
@@ -13351,7 +14181,9 @@
       <c r="E418" t="s">
         <v>621</v>
       </c>
-      <c r="F418" s="1"/>
+      <c r="F418" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G418" s="9">
         <v>40.700000000000003</v>
       </c>
@@ -13369,7 +14201,9 @@
       <c r="E419" t="s">
         <v>973</v>
       </c>
-      <c r="F419" s="1"/>
+      <c r="F419" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G419" s="9">
         <v>228</v>
       </c>
@@ -13387,7 +14221,9 @@
       <c r="E420" t="s">
         <v>974</v>
       </c>
-      <c r="F420" s="1"/>
+      <c r="F420" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G420" s="9">
         <v>55.29</v>
       </c>
@@ -13405,7 +14241,9 @@
       <c r="E421" t="s">
         <v>975</v>
       </c>
-      <c r="F421" s="1"/>
+      <c r="F421" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G421" s="9">
         <v>10.99</v>
       </c>
@@ -13423,7 +14261,9 @@
       <c r="E422" t="s">
         <v>976</v>
       </c>
-      <c r="F422" s="1"/>
+      <c r="F422" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G422" s="9">
         <v>43.6</v>
       </c>
@@ -13441,7 +14281,9 @@
       <c r="E423" t="s">
         <v>977</v>
       </c>
-      <c r="F423" s="1"/>
+      <c r="F423" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G423" s="9">
         <v>86.99</v>
       </c>
@@ -13459,7 +14301,9 @@
       <c r="E424" t="s">
         <v>978</v>
       </c>
-      <c r="F424" s="1"/>
+      <c r="F424" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G424" s="9">
         <v>83.69</v>
       </c>
@@ -13477,7 +14321,9 @@
       <c r="E425" t="s">
         <v>621</v>
       </c>
-      <c r="F425" s="1"/>
+      <c r="F425" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G425" s="9">
         <v>129.99</v>
       </c>
@@ -13495,7 +14341,9 @@
       <c r="E426" t="s">
         <v>621</v>
       </c>
-      <c r="F426" s="1"/>
+      <c r="F426" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G426" s="9">
         <v>139.80000000000001</v>
       </c>
@@ -13513,7 +14361,9 @@
       <c r="E427" t="s">
         <v>979</v>
       </c>
-      <c r="F427" s="1"/>
+      <c r="F427" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G427" s="9">
         <v>101.5</v>
       </c>
@@ -13531,7 +14381,9 @@
       <c r="E428" t="s">
         <v>980</v>
       </c>
-      <c r="F428" s="1"/>
+      <c r="F428" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G428" s="9">
         <v>102.49</v>
       </c>
@@ -13549,7 +14401,9 @@
       <c r="E429" t="s">
         <v>621</v>
       </c>
-      <c r="F429" s="1"/>
+      <c r="F429" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G429" s="9">
         <v>177.99</v>
       </c>
@@ -13567,7 +14421,9 @@
       <c r="E430" t="s">
         <v>981</v>
       </c>
-      <c r="F430" s="1"/>
+      <c r="F430" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G430" s="9">
         <v>132</v>
       </c>
@@ -13585,7 +14441,9 @@
       <c r="E431" t="s">
         <v>982</v>
       </c>
-      <c r="F431" s="1"/>
+      <c r="F431" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G431" s="9">
         <v>73.900000000000006</v>
       </c>
@@ -13603,7 +14461,9 @@
       <c r="E432" t="s">
         <v>983</v>
       </c>
-      <c r="F432" s="1"/>
+      <c r="F432" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G432" s="9">
         <v>95.9</v>
       </c>
@@ -13621,7 +14481,9 @@
       <c r="E433" t="s">
         <v>984</v>
       </c>
-      <c r="F433" s="1"/>
+      <c r="F433" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G433" s="9">
         <v>59.99</v>
       </c>
@@ -13639,7 +14501,9 @@
       <c r="E434" t="s">
         <v>985</v>
       </c>
-      <c r="F434" s="1"/>
+      <c r="F434" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G434" s="9">
         <v>65.89</v>
       </c>
@@ -13657,7 +14521,9 @@
       <c r="E435" t="s">
         <v>986</v>
       </c>
-      <c r="F435" s="1"/>
+      <c r="F435" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G435" s="9">
         <v>82.79</v>
       </c>
@@ -13675,7 +14541,9 @@
       <c r="E436" t="s">
         <v>621</v>
       </c>
-      <c r="F436" s="1"/>
+      <c r="F436" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G436" s="9">
         <v>0</v>
       </c>
@@ -13693,7 +14561,9 @@
       <c r="E437" t="s">
         <v>987</v>
       </c>
-      <c r="F437" s="1"/>
+      <c r="F437" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G437" s="9">
         <v>52.49</v>
       </c>
@@ -13711,7 +14581,9 @@
       <c r="E438" t="s">
         <v>621</v>
       </c>
-      <c r="F438" s="1"/>
+      <c r="F438" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G438" s="9">
         <v>23.67</v>
       </c>
@@ -13729,7 +14601,9 @@
       <c r="E439" t="s">
         <v>988</v>
       </c>
-      <c r="F439" s="1"/>
+      <c r="F439" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G439" s="9">
         <v>133.4</v>
       </c>
@@ -13747,7 +14621,9 @@
       <c r="E440" t="s">
         <v>989</v>
       </c>
-      <c r="F440" s="1"/>
+      <c r="F440" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G440" s="9">
         <v>99.9</v>
       </c>
@@ -13765,7 +14641,9 @@
       <c r="E441" t="s">
         <v>990</v>
       </c>
-      <c r="F441" s="1"/>
+      <c r="F441" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G441" s="9">
         <v>88.9</v>
       </c>
@@ -13783,7 +14661,9 @@
       <c r="E442" t="s">
         <v>991</v>
       </c>
-      <c r="F442" s="1"/>
+      <c r="F442" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G442" s="9">
         <v>197.79</v>
       </c>
@@ -13801,7 +14681,9 @@
       <c r="E443" t="s">
         <v>992</v>
       </c>
-      <c r="F443" s="1"/>
+      <c r="F443" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G443" s="9">
         <v>49.99</v>
       </c>
@@ -13819,7 +14701,9 @@
       <c r="E444" t="s">
         <v>993</v>
       </c>
-      <c r="F444" s="1"/>
+      <c r="F444" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G444" s="9">
         <v>127.29</v>
       </c>
@@ -13837,7 +14721,9 @@
       <c r="E445" t="s">
         <v>994</v>
       </c>
-      <c r="F445" s="1"/>
+      <c r="F445" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G445" s="9">
         <v>137.80000000000001</v>
       </c>
@@ -13855,7 +14741,9 @@
       <c r="E446" t="s">
         <v>995</v>
       </c>
-      <c r="F446" s="1"/>
+      <c r="F446" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G446" s="9">
         <v>108.39</v>
       </c>
@@ -13873,7 +14761,9 @@
       <c r="E447" t="s">
         <v>996</v>
       </c>
-      <c r="F447" s="1"/>
+      <c r="F447" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G447" s="9">
         <v>109.45</v>
       </c>
@@ -13891,7 +14781,9 @@
       <c r="E448" t="s">
         <v>621</v>
       </c>
-      <c r="F448" s="1"/>
+      <c r="F448" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G448" s="9">
         <v>68.989999999999995</v>
       </c>
@@ -13909,7 +14801,9 @@
       <c r="E449" t="s">
         <v>997</v>
       </c>
-      <c r="F449" s="1"/>
+      <c r="F449" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G449" s="9">
         <v>91.99</v>
       </c>
@@ -13927,7 +14821,9 @@
       <c r="E450" t="s">
         <v>621</v>
       </c>
-      <c r="F450" s="1"/>
+      <c r="F450" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G450" s="9">
         <v>75</v>
       </c>
@@ -13945,7 +14841,9 @@
       <c r="E451" t="s">
         <v>998</v>
       </c>
-      <c r="F451" s="1"/>
+      <c r="F451" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G451" s="9">
         <v>58.98</v>
       </c>
@@ -13963,7 +14861,9 @@
       <c r="E452" t="s">
         <v>999</v>
       </c>
-      <c r="F452" s="1"/>
+      <c r="F452" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G452" s="9">
         <v>44.9</v>
       </c>
@@ -13981,7 +14881,9 @@
       <c r="E453" t="s">
         <v>1000</v>
       </c>
-      <c r="F453" s="1"/>
+      <c r="F453" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G453" s="9">
         <v>34.99</v>
       </c>
@@ -13999,7 +14901,9 @@
       <c r="E454" t="s">
         <v>1001</v>
       </c>
-      <c r="F454" s="1"/>
+      <c r="F454" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G454" s="9">
         <v>28.9</v>
       </c>
@@ -14020,7 +14924,9 @@
       <c r="E455" t="s">
         <v>1002</v>
       </c>
-      <c r="F455" s="1"/>
+      <c r="F455" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G455" s="9">
         <v>29.99</v>
       </c>
@@ -14038,7 +14944,9 @@
       <c r="E456" t="s">
         <v>1003</v>
       </c>
-      <c r="F456" s="1"/>
+      <c r="F456" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G456" s="9">
         <v>83.29</v>
       </c>
@@ -14056,7 +14964,9 @@
       <c r="E457" t="s">
         <v>1004</v>
       </c>
-      <c r="F457" s="1"/>
+      <c r="F457" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G457" s="9">
         <v>33.49</v>
       </c>
@@ -14074,7 +14984,9 @@
       <c r="E458" t="s">
         <v>1005</v>
       </c>
-      <c r="F458" s="1"/>
+      <c r="F458" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G458" s="9">
         <v>87.39</v>
       </c>
@@ -14092,7 +15004,9 @@
       <c r="E459" t="s">
         <v>1006</v>
       </c>
-      <c r="F459" s="1"/>
+      <c r="F459" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G459" s="9">
         <v>49.95</v>
       </c>
@@ -14110,7 +15024,9 @@
       <c r="E460" t="s">
         <v>1007</v>
       </c>
-      <c r="F460" s="1"/>
+      <c r="F460" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G460" s="9">
         <v>43.98</v>
       </c>
@@ -14128,7 +15044,9 @@
       <c r="E461" t="s">
         <v>621</v>
       </c>
-      <c r="F461" s="1"/>
+      <c r="F461" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G461" s="9">
         <v>58.99</v>
       </c>
@@ -14146,7 +15064,9 @@
       <c r="E462" t="s">
         <v>1008</v>
       </c>
-      <c r="F462" s="1"/>
+      <c r="F462" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G462" s="9">
         <v>139</v>
       </c>
@@ -14164,7 +15084,9 @@
       <c r="E463" t="s">
         <v>1009</v>
       </c>
-      <c r="F463" s="1"/>
+      <c r="F463" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G463" s="9">
         <v>23.67</v>
       </c>
@@ -14182,7 +15104,9 @@
       <c r="E464" t="s">
         <v>1010</v>
       </c>
-      <c r="F464" s="1"/>
+      <c r="F464" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G464" s="9">
         <v>11.99</v>
       </c>
@@ -14200,7 +15124,9 @@
       <c r="E465" t="s">
         <v>621</v>
       </c>
-      <c r="F465" s="1"/>
+      <c r="F465" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G465" s="9">
         <v>124.9</v>
       </c>
@@ -14218,7 +15144,9 @@
       <c r="E466" t="s">
         <v>1011</v>
       </c>
-      <c r="F466" s="1"/>
+      <c r="F466" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G466" s="9">
         <v>67.83</v>
       </c>
@@ -14236,7 +15164,9 @@
       <c r="E467" t="s">
         <v>1012</v>
       </c>
-      <c r="F467" s="1"/>
+      <c r="F467" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G467" s="9">
         <v>179.9</v>
       </c>
@@ -14254,7 +15184,9 @@
       <c r="E468" t="s">
         <v>1013</v>
       </c>
-      <c r="F468" s="1"/>
+      <c r="F468" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G468" s="9">
         <v>225.9</v>
       </c>
@@ -14272,7 +15204,9 @@
       <c r="E469" t="s">
         <v>1014</v>
       </c>
-      <c r="F469" s="1"/>
+      <c r="F469" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G469" s="9">
         <v>41.9</v>
       </c>
@@ -14290,7 +15224,9 @@
       <c r="E470" t="s">
         <v>1015</v>
       </c>
-      <c r="F470" s="1"/>
+      <c r="F470" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G470" s="9">
         <v>72.69</v>
       </c>
@@ -14308,7 +15244,9 @@
       <c r="E471" t="s">
         <v>1016</v>
       </c>
-      <c r="F471" s="1"/>
+      <c r="F471" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G471" s="9">
         <v>69.790000000000006</v>
       </c>
@@ -14326,7 +15264,9 @@
       <c r="E472" t="s">
         <v>1017</v>
       </c>
-      <c r="F472" s="1"/>
+      <c r="F472" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G472" s="9">
         <v>72.599999999999994</v>
       </c>
@@ -14344,7 +15284,9 @@
       <c r="E473" t="s">
         <v>621</v>
       </c>
-      <c r="F473" s="1"/>
+      <c r="F473" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G473" s="9">
         <v>87.99</v>
       </c>
@@ -14362,7 +15304,9 @@
       <c r="E474" t="s">
         <v>1018</v>
       </c>
-      <c r="F474" s="1"/>
+      <c r="F474" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G474" s="9">
         <v>144.88999999999999</v>
       </c>
@@ -14380,7 +15324,9 @@
       <c r="E475" t="s">
         <v>1019</v>
       </c>
-      <c r="F475" s="1"/>
+      <c r="F475" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G475" s="9">
         <v>25.99</v>
       </c>
@@ -14398,7 +15344,9 @@
       <c r="E476" t="s">
         <v>1020</v>
       </c>
-      <c r="F476" s="1"/>
+      <c r="F476" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G476" s="9">
         <v>131.19</v>
       </c>
@@ -14416,7 +15364,9 @@
       <c r="E477" t="s">
         <v>1021</v>
       </c>
-      <c r="F477" s="1"/>
+      <c r="F477" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G477" s="9">
         <v>20.3</v>
       </c>
@@ -14434,7 +15384,9 @@
       <c r="E478" t="s">
         <v>1022</v>
       </c>
-      <c r="F478" s="1"/>
+      <c r="F478" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G478" s="9">
         <v>227.9</v>
       </c>
@@ -14452,7 +15404,9 @@
       <c r="E479" t="s">
         <v>621</v>
       </c>
-      <c r="F479" s="1"/>
+      <c r="F479" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G479" s="9">
         <v>186.49</v>
       </c>
@@ -14470,7 +15424,9 @@
       <c r="E480" t="s">
         <v>1023</v>
       </c>
-      <c r="F480" s="1"/>
+      <c r="F480" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G480" s="9">
         <v>374.7</v>
       </c>
@@ -14488,7 +15444,9 @@
       <c r="E481" t="s">
         <v>1024</v>
       </c>
-      <c r="F481" s="1"/>
+      <c r="F481" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G481" s="9">
         <v>19.989999999999998</v>
       </c>
@@ -14506,7 +15464,9 @@
       <c r="E482" t="s">
         <v>1025</v>
       </c>
-      <c r="F482" s="1"/>
+      <c r="F482" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G482" s="9">
         <v>15.99</v>
       </c>
@@ -14524,7 +15484,9 @@
       <c r="E483" t="s">
         <v>1026</v>
       </c>
-      <c r="F483" s="1"/>
+      <c r="F483" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G483" s="9">
         <v>103.85</v>
       </c>
@@ -14542,7 +15504,9 @@
       <c r="E484" t="s">
         <v>1027</v>
       </c>
-      <c r="F484" s="1"/>
+      <c r="F484" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G484" s="9">
         <v>75.86</v>
       </c>
@@ -14560,7 +15524,9 @@
       <c r="E485" t="s">
         <v>1028</v>
       </c>
-      <c r="F485" s="1"/>
+      <c r="F485" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G485" s="9">
         <v>53.9</v>
       </c>
@@ -14578,7 +15544,9 @@
       <c r="E486" t="s">
         <v>1029</v>
       </c>
-      <c r="F486" s="1"/>
+      <c r="F486" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G486" s="9">
         <v>30.99</v>
       </c>
@@ -14596,7 +15564,9 @@
       <c r="E487" t="s">
         <v>621</v>
       </c>
-      <c r="F487" s="1"/>
+      <c r="F487" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G487" s="9">
         <v>97.8</v>
       </c>
@@ -14614,7 +15584,9 @@
       <c r="E488" t="s">
         <v>621</v>
       </c>
-      <c r="F488" s="1"/>
+      <c r="F488" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G488" s="9">
         <v>27.9</v>
       </c>
@@ -14632,7 +15604,9 @@
       <c r="E489" t="s">
         <v>1030</v>
       </c>
-      <c r="F489" s="1"/>
+      <c r="F489" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G489" s="9">
         <v>37.5</v>
       </c>
@@ -14650,7 +15624,9 @@
       <c r="E490" t="s">
         <v>1031</v>
       </c>
-      <c r="F490" s="1"/>
+      <c r="F490" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G490" s="9">
         <v>27.49</v>
       </c>
@@ -14668,7 +15644,9 @@
       <c r="E491" t="s">
         <v>1032</v>
       </c>
-      <c r="F491" s="1"/>
+      <c r="F491" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G491" s="9">
         <v>30.99</v>
       </c>
@@ -14686,7 +15664,9 @@
       <c r="E492" t="s">
         <v>1033</v>
       </c>
-      <c r="F492" s="1"/>
+      <c r="F492" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G492" s="9">
         <v>93.3</v>
       </c>
@@ -14704,7 +15684,9 @@
       <c r="E493" t="s">
         <v>1034</v>
       </c>
-      <c r="F493" s="1"/>
+      <c r="F493" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G493" s="9">
         <v>99.9</v>
       </c>
@@ -14722,7 +15704,9 @@
       <c r="E494" t="s">
         <v>1035</v>
       </c>
-      <c r="F494" s="1"/>
+      <c r="F494" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G494" s="9">
         <v>59.99</v>
       </c>
@@ -14740,7 +15724,9 @@
       <c r="E495" t="s">
         <v>1036</v>
       </c>
-      <c r="F495" s="1"/>
+      <c r="F495" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G495" s="9">
         <v>66.900000000000006</v>
       </c>
@@ -14758,7 +15744,9 @@
       <c r="E496" t="s">
         <v>1037</v>
       </c>
-      <c r="F496" s="1"/>
+      <c r="F496" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G496" s="9">
         <v>75</v>
       </c>
@@ -14776,7 +15764,9 @@
       <c r="E497" t="s">
         <v>621</v>
       </c>
-      <c r="F497" s="1"/>
+      <c r="F497" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G497" s="9">
         <v>199.9</v>
       </c>
@@ -14794,7 +15784,9 @@
       <c r="E498" t="s">
         <v>621</v>
       </c>
-      <c r="F498" s="1"/>
+      <c r="F498" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G498" s="9">
         <v>50.4</v>
       </c>
@@ -14812,7 +15804,9 @@
       <c r="E499" t="s">
         <v>1038</v>
       </c>
-      <c r="F499" s="1"/>
+      <c r="F499" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G499" s="9">
         <v>30.35</v>
       </c>
@@ -14830,7 +15824,9 @@
       <c r="E500" t="s">
         <v>1039</v>
       </c>
-      <c r="F500" s="1"/>
+      <c r="F500" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G500" s="9">
         <v>33.5</v>
       </c>
@@ -14848,7 +15844,9 @@
       <c r="E501" t="s">
         <v>1040</v>
       </c>
-      <c r="F501" s="1"/>
+      <c r="F501" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G501" s="9">
         <v>67.2</v>
       </c>
@@ -14866,7 +15864,9 @@
       <c r="E502" t="s">
         <v>1041</v>
       </c>
-      <c r="F502" s="1"/>
+      <c r="F502" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G502" s="9">
         <v>81.040000000000006</v>
       </c>
@@ -14884,7 +15884,9 @@
       <c r="E503" t="s">
         <v>621</v>
       </c>
-      <c r="F503" s="1"/>
+      <c r="F503" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G503" s="9">
         <v>26.42</v>
       </c>
@@ -14902,7 +15904,9 @@
       <c r="E504" t="s">
         <v>1042</v>
       </c>
-      <c r="F504" s="1"/>
+      <c r="F504" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G504" s="9">
         <v>57.12</v>
       </c>
@@ -14920,7 +15924,9 @@
       <c r="E505" t="s">
         <v>621</v>
       </c>
-      <c r="F505" s="1"/>
+      <c r="F505" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G505" s="9">
         <v>23</v>
       </c>
@@ -14938,7 +15944,9 @@
       <c r="E506" t="s">
         <v>621</v>
       </c>
-      <c r="F506" s="1"/>
+      <c r="F506" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G506" s="9">
         <v>87.9</v>
       </c>
@@ -14956,7 +15964,9 @@
       <c r="E507" t="s">
         <v>1042</v>
       </c>
-      <c r="F507" s="1"/>
+      <c r="F507" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G507" s="9">
         <v>58.7</v>
       </c>
@@ -14974,7 +15984,9 @@
       <c r="E508" t="s">
         <v>1043</v>
       </c>
-      <c r="F508" s="1"/>
+      <c r="F508" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G508" s="9">
         <v>199.9</v>
       </c>
@@ -14992,7 +16004,9 @@
       <c r="E509" t="s">
         <v>1044</v>
       </c>
-      <c r="F509" s="1"/>
+      <c r="F509" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G509" s="9">
         <v>58.16</v>
       </c>
@@ -15010,7 +16024,9 @@
       <c r="E510" t="s">
         <v>1045</v>
       </c>
-      <c r="F510" s="1"/>
+      <c r="F510" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G510" s="9">
         <v>41.4</v>
       </c>
@@ -15028,7 +16044,9 @@
       <c r="E511" t="s">
         <v>1046</v>
       </c>
-      <c r="F511" s="1"/>
+      <c r="F511" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G511" s="9">
         <v>50.99</v>
       </c>
@@ -15046,7 +16064,9 @@
       <c r="E512" t="s">
         <v>1047</v>
       </c>
-      <c r="F512" s="1"/>
+      <c r="F512" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G512" s="9">
         <v>47.25</v>
       </c>
@@ -15064,7 +16084,9 @@
       <c r="E513" t="s">
         <v>1048</v>
       </c>
-      <c r="F513" s="1"/>
+      <c r="F513" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G513" s="9">
         <v>46.8</v>
       </c>
@@ -15082,7 +16104,9 @@
       <c r="E514" t="s">
         <v>1049</v>
       </c>
-      <c r="F514" s="1"/>
+      <c r="F514" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G514" s="9">
         <v>32.36</v>
       </c>
@@ -15100,7 +16124,9 @@
       <c r="E515" t="s">
         <v>1050</v>
       </c>
-      <c r="F515" s="1"/>
+      <c r="F515" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G515" s="9">
         <v>32.36</v>
       </c>
@@ -15118,7 +16144,9 @@
       <c r="E516" t="s">
         <v>1051</v>
       </c>
-      <c r="F516" s="1"/>
+      <c r="F516" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G516" s="9">
         <v>13.55</v>
       </c>
@@ -15136,7 +16164,9 @@
       <c r="E517" t="s">
         <v>1052</v>
       </c>
-      <c r="F517" s="1"/>
+      <c r="F517" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G517" s="9">
         <v>337.9</v>
       </c>
@@ -15154,7 +16184,9 @@
       <c r="E518" t="s">
         <v>1053</v>
       </c>
-      <c r="F518" s="1"/>
+      <c r="F518" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G518" s="9">
         <v>28.79</v>
       </c>
@@ -15172,7 +16204,9 @@
       <c r="E519" t="s">
         <v>1054</v>
       </c>
-      <c r="F519" s="1"/>
+      <c r="F519" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G519" s="9">
         <v>5.29</v>
       </c>
@@ -15190,7 +16224,9 @@
       <c r="E520" t="s">
         <v>1055</v>
       </c>
-      <c r="F520" s="1"/>
+      <c r="F520" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G520" s="9">
         <v>10.39</v>
       </c>
@@ -15208,7 +16244,9 @@
       <c r="E521" t="s">
         <v>1056</v>
       </c>
-      <c r="F521" s="1"/>
+      <c r="F521" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G521" s="9">
         <v>7.83</v>
       </c>
@@ -15226,7 +16264,9 @@
       <c r="E522" t="s">
         <v>1057</v>
       </c>
-      <c r="F522" s="1"/>
+      <c r="F522" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G522" s="9">
         <v>8.99</v>
       </c>
@@ -15244,7 +16284,9 @@
       <c r="E523" t="s">
         <v>1058</v>
       </c>
-      <c r="F523" s="1"/>
+      <c r="F523" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G523" s="9">
         <v>6</v>
       </c>
@@ -15262,7 +16304,9 @@
       <c r="E524" t="s">
         <v>1059</v>
       </c>
-      <c r="F524" s="1"/>
+      <c r="F524" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G524" s="9">
         <v>15.99</v>
       </c>
@@ -15280,7 +16324,9 @@
       <c r="E525" t="s">
         <v>1060</v>
       </c>
-      <c r="F525" s="1"/>
+      <c r="F525" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G525" s="9">
         <v>5.5</v>
       </c>
@@ -15298,7 +16344,9 @@
       <c r="E526" t="s">
         <v>621</v>
       </c>
-      <c r="F526" s="1"/>
+      <c r="F526" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G526" s="9">
         <v>13.6</v>
       </c>
@@ -15316,7 +16364,9 @@
       <c r="E527" t="s">
         <v>1061</v>
       </c>
-      <c r="F527" s="1"/>
+      <c r="F527" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G527" s="9">
         <v>37.61</v>
       </c>
@@ -15334,7 +16384,9 @@
       <c r="E528" t="s">
         <v>1062</v>
       </c>
-      <c r="F528" s="1"/>
+      <c r="F528" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G528" s="9">
         <v>11.49</v>
       </c>
@@ -15352,7 +16404,9 @@
       <c r="E529" t="s">
         <v>1063</v>
       </c>
-      <c r="F529" s="1"/>
+      <c r="F529" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G529" s="9">
         <v>9.99</v>
       </c>
@@ -15370,7 +16424,9 @@
       <c r="E530" t="s">
         <v>1064</v>
       </c>
-      <c r="F530" s="1"/>
+      <c r="F530" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G530" s="9">
         <v>55.49</v>
       </c>
@@ -15388,7 +16444,9 @@
       <c r="E531" t="s">
         <v>1065</v>
       </c>
-      <c r="F531" s="1"/>
+      <c r="F531" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G531" s="9">
         <v>31.9</v>
       </c>
@@ -15406,7 +16464,9 @@
       <c r="E532" t="s">
         <v>1066</v>
       </c>
-      <c r="F532" s="1"/>
+      <c r="F532" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G532" s="9">
         <v>55.7</v>
       </c>
@@ -15424,7 +16484,9 @@
       <c r="E533" t="s">
         <v>1067</v>
       </c>
-      <c r="F533" s="1"/>
+      <c r="F533" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G533" s="9">
         <v>74.89</v>
       </c>
@@ -15442,7 +16504,9 @@
       <c r="E534" t="s">
         <v>1068</v>
       </c>
-      <c r="F534" s="1"/>
+      <c r="F534" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G534" s="9">
         <v>79.900000000000006</v>
       </c>
@@ -15460,7 +16524,9 @@
       <c r="E535" t="s">
         <v>1069</v>
       </c>
-      <c r="F535" s="1"/>
+      <c r="F535" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G535" s="9">
         <v>36.49</v>
       </c>
@@ -15478,7 +16544,9 @@
       <c r="E536" t="s">
         <v>1070</v>
       </c>
-      <c r="F536" s="1"/>
+      <c r="F536" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G536" s="9">
         <v>74.67</v>
       </c>
@@ -15496,7 +16564,9 @@
       <c r="E537" t="s">
         <v>1071</v>
       </c>
-      <c r="F537" s="1"/>
+      <c r="F537" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G537" s="9">
         <v>24.36</v>
       </c>
@@ -15514,7 +16584,9 @@
       <c r="E538" t="s">
         <v>1072</v>
       </c>
-      <c r="F538" s="1"/>
+      <c r="F538" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G538" s="9">
         <v>17.98</v>
       </c>
@@ -15532,7 +16604,9 @@
       <c r="E539" t="s">
         <v>1073</v>
       </c>
-      <c r="F539" s="1"/>
+      <c r="F539" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G539" s="9">
         <v>49.39</v>
       </c>
@@ -15550,7 +16624,9 @@
       <c r="E540" t="s">
         <v>1074</v>
       </c>
-      <c r="F540" s="1"/>
+      <c r="F540" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G540" s="9">
         <v>19.45</v>
       </c>
@@ -15568,7 +16644,9 @@
       <c r="E541" t="s">
         <v>1075</v>
       </c>
-      <c r="F541" s="1"/>
+      <c r="F541" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G541" s="9">
         <v>188.9</v>
       </c>
@@ -15586,7 +16664,9 @@
       <c r="E542" t="s">
         <v>1076</v>
       </c>
-      <c r="F542" s="1"/>
+      <c r="F542" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G542" s="9">
         <v>20.79</v>
       </c>
@@ -15604,7 +16684,9 @@
       <c r="E543" t="s">
         <v>621</v>
       </c>
-      <c r="F543" s="1"/>
+      <c r="F543" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G543" s="9">
         <v>24.01</v>
       </c>
@@ -15622,7 +16704,9 @@
       <c r="E544" t="s">
         <v>621</v>
       </c>
-      <c r="F544" s="1"/>
+      <c r="F544" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G544" s="9">
         <v>46.62</v>
       </c>
@@ -15640,7 +16724,9 @@
       <c r="E545" t="s">
         <v>1077</v>
       </c>
-      <c r="F545" s="1"/>
+      <c r="F545" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G545" s="9">
         <v>5.78</v>
       </c>
@@ -15658,7 +16744,9 @@
       <c r="E546" t="s">
         <v>1078</v>
       </c>
-      <c r="F546" s="1"/>
+      <c r="F546" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G546" s="9">
         <v>13.23</v>
       </c>
@@ -15676,7 +16764,9 @@
       <c r="E547" t="s">
         <v>1079</v>
       </c>
-      <c r="F547" s="1"/>
+      <c r="F547" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G547" s="9">
         <v>112.5</v>
       </c>
@@ -15694,7 +16784,9 @@
       <c r="E548" t="s">
         <v>621</v>
       </c>
-      <c r="F548" s="1"/>
+      <c r="F548" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G548" s="9">
         <v>41.13</v>
       </c>
@@ -15712,7 +16804,9 @@
       <c r="E549" t="s">
         <v>1080</v>
       </c>
-      <c r="F549" s="1"/>
+      <c r="F549" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G549" s="9">
         <v>5.99</v>
       </c>
@@ -15730,7 +16824,9 @@
       <c r="E550" t="s">
         <v>1081</v>
       </c>
-      <c r="F550" s="1"/>
+      <c r="F550" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G550" s="9">
         <v>55.99</v>
       </c>
@@ -15748,7 +16844,9 @@
       <c r="E551" t="s">
         <v>1082</v>
       </c>
-      <c r="F551" s="1"/>
+      <c r="F551" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G551" s="9">
         <v>44.99</v>
       </c>
@@ -15766,7 +16864,9 @@
       <c r="E552" t="s">
         <v>1083</v>
       </c>
-      <c r="F552" s="1"/>
+      <c r="F552" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G552" s="9">
         <v>76.95</v>
       </c>
@@ -15784,7 +16884,9 @@
       <c r="E553" t="s">
         <v>1084</v>
       </c>
-      <c r="F553" s="1"/>
+      <c r="F553" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G553" s="9">
         <v>21.59</v>
       </c>
@@ -15802,7 +16904,9 @@
       <c r="E554" t="s">
         <v>1085</v>
       </c>
-      <c r="F554" s="1"/>
+      <c r="F554" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G554" s="9">
         <v>37.43</v>
       </c>
@@ -15820,7 +16924,9 @@
       <c r="E555" t="s">
         <v>1086</v>
       </c>
-      <c r="F555" s="1"/>
+      <c r="F555" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G555" s="9">
         <v>41.79</v>
       </c>
@@ -15838,7 +16944,9 @@
       <c r="E556" t="s">
         <v>1087</v>
       </c>
-      <c r="F556" s="1"/>
+      <c r="F556" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G556" s="9">
         <v>19.59</v>
       </c>
@@ -15879,7 +16987,9 @@
       <c r="E558" t="s">
         <v>1089</v>
       </c>
-      <c r="F558" s="1"/>
+      <c r="F558" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G558" s="9">
         <v>61.8</v>
       </c>
@@ -15897,7 +17007,9 @@
       <c r="E559" t="s">
         <v>1090</v>
       </c>
-      <c r="F559" s="1"/>
+      <c r="F559" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G559" s="9">
         <v>51.99</v>
       </c>
@@ -15915,7 +17027,9 @@
       <c r="E560" t="s">
         <v>1091</v>
       </c>
-      <c r="F560" s="1"/>
+      <c r="F560" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G560" s="9">
         <v>43.8</v>
       </c>
@@ -15933,7 +17047,9 @@
       <c r="E561" t="s">
         <v>1092</v>
       </c>
-      <c r="F561" s="1"/>
+      <c r="F561" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G561" s="9">
         <v>48.19</v>
       </c>
@@ -15951,7 +17067,9 @@
       <c r="E562" t="s">
         <v>621</v>
       </c>
-      <c r="F562" s="1"/>
+      <c r="F562" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G562" s="9">
         <v>51.9</v>
       </c>
@@ -15972,7 +17090,9 @@
       <c r="E563" t="s">
         <v>621</v>
       </c>
-      <c r="F563" s="1"/>
+      <c r="F563" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G563" s="9">
         <v>44.19</v>
       </c>
@@ -15990,7 +17110,9 @@
       <c r="E564" t="s">
         <v>1093</v>
       </c>
-      <c r="F564" s="1"/>
+      <c r="F564" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G564" s="9">
         <v>46.99</v>
       </c>
@@ -16011,7 +17133,9 @@
       <c r="E565" t="s">
         <v>1094</v>
       </c>
-      <c r="F565" s="1"/>
+      <c r="F565" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G565" s="9">
         <v>41.99</v>
       </c>
@@ -16029,7 +17153,9 @@
       <c r="E566" t="s">
         <v>1095</v>
       </c>
-      <c r="F566" s="1"/>
+      <c r="F566" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G566" s="9">
         <v>43.99</v>
       </c>
@@ -16047,7 +17173,9 @@
       <c r="E567" t="s">
         <v>1096</v>
       </c>
-      <c r="F567" s="1"/>
+      <c r="F567" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G567" s="9">
         <v>39.9</v>
       </c>
@@ -16065,7 +17193,9 @@
       <c r="E568" t="s">
         <v>1097</v>
       </c>
-      <c r="F568" s="1"/>
+      <c r="F568" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G568" s="9">
         <v>39.99</v>
       </c>
@@ -16083,7 +17213,9 @@
       <c r="E569" t="s">
         <v>621</v>
       </c>
-      <c r="F569" s="1"/>
+      <c r="F569" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G569" s="9">
         <v>58.7</v>
       </c>
@@ -16101,7 +17233,9 @@
       <c r="E570" t="s">
         <v>1098</v>
       </c>
-      <c r="F570" s="1"/>
+      <c r="F570" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G570" s="9">
         <v>45.4</v>
       </c>
@@ -16119,7 +17253,9 @@
       <c r="E571" t="s">
         <v>1099</v>
       </c>
-      <c r="F571" s="1"/>
+      <c r="F571" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G571" s="9">
         <v>24.99</v>
       </c>
@@ -16137,7 +17273,9 @@
       <c r="E572" t="s">
         <v>1100</v>
       </c>
-      <c r="F572" s="1"/>
+      <c r="F572" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G572" s="9">
         <v>26.99</v>
       </c>
@@ -16158,7 +17296,9 @@
       <c r="E573" t="s">
         <v>1101</v>
       </c>
-      <c r="F573" s="1"/>
+      <c r="F573" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G573" s="9">
         <v>44.6</v>
       </c>
@@ -16176,7 +17316,9 @@
       <c r="E574" t="s">
         <v>1102</v>
       </c>
-      <c r="F574" s="1"/>
+      <c r="F574" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G574" s="9">
         <v>52.9</v>
       </c>
@@ -16194,7 +17336,9 @@
       <c r="E575" t="s">
         <v>1103</v>
       </c>
-      <c r="F575" s="1"/>
+      <c r="F575" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G575" s="9">
         <v>25.25</v>
       </c>
@@ -16212,7 +17356,9 @@
       <c r="E576" t="s">
         <v>621</v>
       </c>
-      <c r="F576" s="1"/>
+      <c r="F576" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G576" s="9">
         <v>35.9</v>
       </c>
@@ -16230,7 +17376,9 @@
       <c r="E577" t="s">
         <v>1104</v>
       </c>
-      <c r="F577" s="1"/>
+      <c r="F577" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G577" s="9">
         <v>73.150000000000006</v>
       </c>
@@ -16271,7 +17419,9 @@
       <c r="E579" t="s">
         <v>1106</v>
       </c>
-      <c r="F579" s="1"/>
+      <c r="F579" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G579" s="9">
         <v>29.8</v>
       </c>
@@ -16289,7 +17439,9 @@
       <c r="E580" t="s">
         <v>1107</v>
       </c>
-      <c r="F580" s="1"/>
+      <c r="F580" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G580" s="9">
         <v>198.9</v>
       </c>
@@ -16307,7 +17459,9 @@
       <c r="E581" t="s">
         <v>1108</v>
       </c>
-      <c r="F581" s="1"/>
+      <c r="F581" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G581" s="9">
         <v>73.150000000000006</v>
       </c>
@@ -16325,7 +17479,9 @@
       <c r="E582" t="s">
         <v>1109</v>
       </c>
-      <c r="F582" s="1"/>
+      <c r="F582" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G582" s="9">
         <v>30.99</v>
       </c>
@@ -16343,7 +17499,9 @@
       <c r="E583" t="s">
         <v>1110</v>
       </c>
-      <c r="F583" s="1"/>
+      <c r="F583" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G583" s="9">
         <v>49.25</v>
       </c>
@@ -16361,7 +17519,9 @@
       <c r="E584" t="s">
         <v>621</v>
       </c>
-      <c r="F584" s="1"/>
+      <c r="F584" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G584" s="9">
         <v>99.7</v>
       </c>
@@ -16379,7 +17539,9 @@
       <c r="E585" t="s">
         <v>1111</v>
       </c>
-      <c r="F585" s="1"/>
+      <c r="F585" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G585" s="9">
         <v>3.99</v>
       </c>
@@ -16397,7 +17559,9 @@
       <c r="E586" t="s">
         <v>1112</v>
       </c>
-      <c r="F586" s="1"/>
+      <c r="F586" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G586" s="9">
         <v>27.99</v>
       </c>
@@ -16415,7 +17579,9 @@
       <c r="E587" t="s">
         <v>1113</v>
       </c>
-      <c r="F587" s="1"/>
+      <c r="F587" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G587" s="9">
         <v>41.9</v>
       </c>
@@ -16433,7 +17599,9 @@
       <c r="E588" t="s">
         <v>1114</v>
       </c>
-      <c r="F588" s="1"/>
+      <c r="F588" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G588" s="9">
         <v>26.29</v>
       </c>
@@ -16451,7 +17619,9 @@
       <c r="E589" t="s">
         <v>1115</v>
       </c>
-      <c r="F589" s="1"/>
+      <c r="F589" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G589" s="9">
         <v>76.989999999999995</v>
       </c>
@@ -16469,7 +17639,9 @@
       <c r="E590" t="s">
         <v>1116</v>
       </c>
-      <c r="F590" s="1"/>
+      <c r="F590" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G590" s="9">
         <v>279.83999999999997</v>
       </c>
@@ -16487,7 +17659,9 @@
       <c r="E591" t="s">
         <v>1117</v>
       </c>
-      <c r="F591" s="1"/>
+      <c r="F591" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G591" s="9">
         <v>22.99</v>
       </c>
@@ -16505,7 +17679,9 @@
       <c r="E592" t="s">
         <v>1118</v>
       </c>
-      <c r="F592" s="1"/>
+      <c r="F592" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G592" s="9">
         <v>27.5</v>
       </c>
@@ -16523,7 +17699,9 @@
       <c r="E593" t="s">
         <v>1119</v>
       </c>
-      <c r="F593" s="1"/>
+      <c r="F593" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G593" s="9">
         <v>6.79</v>
       </c>
@@ -16541,7 +17719,9 @@
       <c r="E594" t="s">
         <v>1120</v>
       </c>
-      <c r="F594" s="1"/>
+      <c r="F594" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G594" s="9">
         <v>47.5</v>
       </c>
@@ -16559,7 +17739,9 @@
       <c r="E595" t="s">
         <v>1121</v>
       </c>
-      <c r="F595" s="1"/>
+      <c r="F595" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G595" s="9">
         <v>78.989999999999995</v>
       </c>
@@ -16577,7 +17759,9 @@
       <c r="E596" t="s">
         <v>1122</v>
       </c>
-      <c r="F596" s="1"/>
+      <c r="F596" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G596" s="9">
         <v>41.1</v>
       </c>
@@ -16595,7 +17779,9 @@
       <c r="E597" t="s">
         <v>1123</v>
       </c>
-      <c r="F597" s="1"/>
+      <c r="F597" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G597" s="9">
         <v>60.35</v>
       </c>
@@ -16613,7 +17799,9 @@
       <c r="E598" t="s">
         <v>1124</v>
       </c>
-      <c r="F598" s="1"/>
+      <c r="F598" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G598" s="9">
         <v>99.9</v>
       </c>
@@ -16631,7 +17819,9 @@
       <c r="E599" t="s">
         <v>1125</v>
       </c>
-      <c r="F599" s="1"/>
+      <c r="F599" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G599" s="9">
         <v>71.290000000000006</v>
       </c>
@@ -16649,7 +17839,9 @@
       <c r="E600" t="s">
         <v>1126</v>
       </c>
-      <c r="F600" s="1"/>
+      <c r="F600" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G600" s="9">
         <v>52.65</v>
       </c>
@@ -16667,7 +17859,9 @@
       <c r="E601" t="s">
         <v>1127</v>
       </c>
-      <c r="F601" s="1"/>
+      <c r="F601" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G601" s="9">
         <v>421.25</v>
       </c>
@@ -16685,7 +17879,9 @@
       <c r="E602" t="s">
         <v>1128</v>
       </c>
-      <c r="F602" s="1"/>
+      <c r="F602" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G602" s="9">
         <v>73.989999999999995</v>
       </c>
@@ -16706,7 +17902,9 @@
       <c r="E603" t="s">
         <v>621</v>
       </c>
-      <c r="F603" s="1"/>
+      <c r="F603" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G603" s="9">
         <v>80.290000000000006</v>
       </c>
@@ -16724,7 +17922,9 @@
       <c r="E604" t="s">
         <v>1129</v>
       </c>
-      <c r="F604" s="1"/>
+      <c r="F604" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G604" s="9">
         <v>27.69</v>
       </c>
@@ -16742,7 +17942,9 @@
       <c r="E605" t="s">
         <v>1130</v>
       </c>
-      <c r="F605" s="1"/>
+      <c r="F605" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G605" s="9">
         <v>58.99</v>
       </c>
@@ -16760,7 +17962,9 @@
       <c r="E606" t="s">
         <v>1131</v>
       </c>
-      <c r="F606" s="1"/>
+      <c r="F606" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G606" s="9">
         <v>71.290000000000006</v>
       </c>
@@ -16778,7 +17982,9 @@
       <c r="E607" t="s">
         <v>1132</v>
       </c>
-      <c r="F607" s="1"/>
+      <c r="F607" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G607" s="9">
         <v>45.8</v>
       </c>
@@ -16796,7 +18002,9 @@
       <c r="E608" t="s">
         <v>621</v>
       </c>
-      <c r="F608" s="1"/>
+      <c r="F608" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G608" s="9">
         <v>85.99</v>
       </c>
@@ -16817,7 +18025,9 @@
       <c r="E609" t="s">
         <v>1133</v>
       </c>
-      <c r="F609" s="1"/>
+      <c r="F609" s="1" t="s">
+        <v>1751</v>
+      </c>
       <c r="G609" s="9">
         <v>219.9</v>
       </c>
